--- a/Xmind/Upgrade_Research/Infantry.xlsx
+++ b/Xmind/Upgrade_Research/Infantry.xlsx
@@ -9,7 +9,6 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="160">
   <si>
     <t>Level</t>
   </si>
@@ -92,9 +91,6 @@
   </si>
   <si>
     <t>6d 13:47:54</t>
-  </si>
-  <si>
-    <t>11d 20:02</t>
   </si>
   <si>
     <t>41d 10:07:45</t>
@@ -487,6 +483,30 @@
   </si>
   <si>
     <t>62d 2:12:08</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>1d 12:39:00</t>
+  </si>
+  <si>
+    <t>5d 02:40:30</t>
+  </si>
+  <si>
+    <t>11d 20:02:00</t>
+  </si>
+  <si>
+    <t>Time(Int)</t>
   </si>
 </sst>
 </file>
@@ -571,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -631,12 +651,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -729,6 +760,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,19 +787,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1047,11 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM97"/>
   <sheetViews>
-    <sheetView topLeftCell="U76" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="1">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,65 +1114,65 @@
     <col min="39" max="39" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="K1" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+    </row>
+    <row r="2" spans="1:19" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-      <c r="K1" s="53" t="s">
+      <c r="C2" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-    </row>
-    <row r="2" spans="1:18" s="54" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="52" t="s">
+      <c r="F2" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="52" t="s">
+      <c r="G2" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="47" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="L2" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="M2" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="N2" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
@@ -1179,9 +1213,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="29">
         <v>4</v>
@@ -1220,9 +1254,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="29">
         <v>6</v>
@@ -1261,9 +1295,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="29">
         <v>8</v>
@@ -1302,7 +1336,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -1313,7 +1347,7 @@
       <c r="H7" s="44"/>
       <c r="I7" s="45"/>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +1358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1346,14 +1380,17 @@
       <c r="G9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1375,12 +1412,15 @@
       <c r="G10" s="15">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="57">
+        <v>90</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -1402,10 +1442,13 @@
       <c r="G11" s="15">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H11" s="57">
+        <v>180</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>3</v>
       </c>
@@ -1427,10 +1470,13 @@
       <c r="G12" s="15">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H12" s="57">
+        <v>5760</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -1452,10 +1498,13 @@
       <c r="G13" s="15">
         <v>0.13333333333333333</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H13" s="57">
+        <v>11520</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>5</v>
       </c>
@@ -1477,20 +1526,23 @@
       <c r="G14" s="15">
         <v>0.24</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="57">
+        <v>20736</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="26"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
-      <c r="N14" s="27"/>
+      <c r="N14" s="26"/>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="27"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>6</v>
       </c>
@@ -1512,20 +1564,23 @@
       <c r="G15" s="15">
         <v>0.49920138888888888</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="K15" s="26"/>
+      <c r="H15" s="57">
+        <v>43131</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="12"/>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="27"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>7</v>
       </c>
@@ -1547,16 +1602,19 @@
       <c r="G16" s="15">
         <v>0.57408564814814811</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="K16" s="26"/>
+      <c r="H16" s="57">
+        <v>49601</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="12"/>
       <c r="L16" s="26"/>
       <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -1580,16 +1638,19 @@
       <c r="G17" s="15">
         <v>0.66019675925925925</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="K17" s="26"/>
+      <c r="H17" s="57">
+        <v>57041</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="12"/>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
+      <c r="N17" s="26"/>
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1613,18 +1674,21 @@
       <c r="G18" s="15">
         <v>0.75922453703703707</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="K18" s="26"/>
+      <c r="H18" s="57">
+        <v>65597</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="12"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
-      <c r="N18" s="27"/>
+      <c r="N18" s="26"/>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -1648,20 +1712,23 @@
       <c r="G19" s="15">
         <v>0.873113425925926</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="12" t="s">
+      <c r="H19" s="57">
+        <v>75437</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="26"/>
       <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1685,18 +1752,21 @@
       <c r="G20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="26"/>
+      <c r="H20" s="57">
+        <v>86752</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
+      <c r="O20" s="26"/>
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -1720,18 +1790,21 @@
       <c r="G21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="26"/>
+      <c r="H21" s="57">
+        <v>99766</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
+      <c r="O21" s="26"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -1753,20 +1826,23 @@
         <v>27250</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="H22" s="57">
+        <v>110400</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
+      <c r="O22" s="26"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -1788,20 +1864,23 @@
         <v>40870</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="26"/>
+        <v>156</v>
+      </c>
+      <c r="H23" s="57">
+        <v>131940</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
+      <c r="O23" s="26"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
@@ -1823,20 +1902,23 @@
         <v>61310</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="H24" s="57">
+        <v>182280</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
+      <c r="O24" s="26"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -1858,20 +1940,23 @@
         <v>91960</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="H25" s="57">
+        <v>362430</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="26"/>
       <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
+      <c r="O25" s="26"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -1893,20 +1978,23 @@
         <v>137940</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="26"/>
+        <v>157</v>
+      </c>
+      <c r="H26" s="57">
+        <v>441630</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="L26" s="27"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
-      <c r="O26" s="27"/>
+      <c r="O26" s="26"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
@@ -1930,18 +2018,21 @@
       <c r="G27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="26"/>
+      <c r="H27" s="57">
+        <v>568074</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
+      <c r="O27" s="26"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
@@ -1963,20 +2054,23 @@
         <v>310360</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="26"/>
+        <v>158</v>
+      </c>
+      <c r="H28" s="57">
+        <v>1022520</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="L28" s="27"/>
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
+      <c r="O28" s="26"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
@@ -1998,22 +2092,25 @@
         <v>465520</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="57">
+        <v>3578865</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="26"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
-      <c r="O29" s="27"/>
+      <c r="O29" s="26"/>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="L30" s="1"/>
@@ -2032,10 +2129,10 @@
         <v>16</v>
       </c>
       <c r="K32" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="L32" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="M32" s="34"/>
       <c r="N32" s="32"/>
@@ -2045,10 +2142,10 @@
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
       <c r="U32" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="V32" s="36" t="s">
         <v>70</v>
-      </c>
-      <c r="V32" s="36" t="s">
-        <v>71</v>
       </c>
       <c r="W32" s="36"/>
       <c r="X32" s="36"/>
@@ -2058,10 +2155,10 @@
       <c r="AB32" s="36"/>
       <c r="AC32" s="36"/>
       <c r="AE32" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF32" s="37" t="s">
         <v>78</v>
-      </c>
-      <c r="AF32" s="37" t="s">
-        <v>79</v>
       </c>
       <c r="AG32" s="37"/>
       <c r="AH32" s="37"/>
@@ -2101,193 +2198,193 @@
       <c r="AM33" s="38"/>
     </row>
     <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="46" t="s">
+      <c r="B34" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" s="47" t="s">
+      <c r="H34" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="46" t="s">
+      <c r="K34" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L34" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="M34" s="46" t="s">
+      <c r="L34" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="M34" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="N34" s="46" t="s">
+      <c r="N34" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="O34" s="46" t="s">
+      <c r="O34" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P34" s="46" t="s">
+      <c r="P34" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q34" s="46" t="s">
+      <c r="Q34" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R34" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="S34" s="47" t="s">
+      <c r="R34" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="S34" s="51" t="s">
         <v>7</v>
       </c>
       <c r="T34" s="24"/>
-      <c r="U34" s="46" t="s">
+      <c r="U34" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="V34" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="W34" s="46" t="s">
+      <c r="V34" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="W34" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="X34" s="46" t="s">
+      <c r="X34" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Y34" s="46" t="s">
+      <c r="Y34" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Z34" s="46" t="s">
+      <c r="Z34" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AA34" s="46" t="s">
+      <c r="AA34" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AB34" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC34" s="47" t="s">
+      <c r="AB34" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC34" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AE34" s="46" t="s">
+      <c r="AE34" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AF34" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG34" s="46" t="s">
+      <c r="AF34" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG34" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AH34" s="46" t="s">
+      <c r="AH34" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AI34" s="46" t="s">
+      <c r="AI34" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AJ34" s="46" t="s">
+      <c r="AJ34" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AK34" s="46" t="s">
+      <c r="AK34" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AL34" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM34" s="47" t="s">
+      <c r="AL34" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM34" s="51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="47"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="51"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="51"/>
       <c r="T35" s="24"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="47"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="46"/>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="46"/>
-      <c r="AL35" s="46"/>
-      <c r="AM35" s="47"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="51"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="50"/>
+      <c r="AL35" s="50"/>
+      <c r="AM35" s="51"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="47"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="47"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="51"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="51"/>
       <c r="T36" s="24"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="47"/>
-      <c r="AE36" s="46"/>
-      <c r="AF36" s="46"/>
-      <c r="AG36" s="46"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="46"/>
-      <c r="AJ36" s="46"/>
-      <c r="AK36" s="46"/>
-      <c r="AL36" s="46"/>
-      <c r="AM36" s="47"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="51"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="50"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="50"/>
+      <c r="AK36" s="50"/>
+      <c r="AL36" s="50"/>
+      <c r="AM36" s="51"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -2727,7 +2824,7 @@
         <v>0.30619212962962966</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K41" s="20">
         <v>5</v>
@@ -2754,7 +2851,7 @@
         <v>0.15309606481481483</v>
       </c>
       <c r="S41" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="20">
@@ -2782,7 +2879,7 @@
         <v>0.15309606481481483</v>
       </c>
       <c r="AC41" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE41" s="20">
         <v>5</v>
@@ -2809,7 +2906,7 @@
         <v>0.15309606481481483</v>
       </c>
       <c r="AM41" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
@@ -2838,7 +2935,7 @@
         <v>0.40491898148148148</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K42" s="20">
         <v>6</v>
@@ -2865,7 +2962,7 @@
         <v>0.20245949074074074</v>
       </c>
       <c r="S42" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="20">
@@ -2893,7 +2990,7 @@
         <v>0.20245949074074074</v>
       </c>
       <c r="AC42" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE42" s="20">
         <v>6</v>
@@ -2920,7 +3017,7 @@
         <v>0.20245949074074074</v>
       </c>
       <c r="AM42" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
@@ -2949,7 +3046,7 @@
         <v>0.5355092592592593</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K43" s="20">
         <v>7</v>
@@ -2976,7 +3073,7 @@
         <v>0.26775462962962965</v>
       </c>
       <c r="S43" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="20">
@@ -3004,7 +3101,7 @@
         <v>0.26775462962962965</v>
       </c>
       <c r="AC43" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE43" s="20">
         <v>7</v>
@@ -3031,7 +3128,7 @@
         <v>0.26775462962962965</v>
       </c>
       <c r="AM43" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
@@ -3057,10 +3154,10 @@
         <v>3590</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K44" s="20">
         <v>8</v>
@@ -3084,10 +3181,10 @@
         <v>1795</v>
       </c>
       <c r="R44" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S44" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="20">
@@ -3112,10 +3209,10 @@
         <v>4785</v>
       </c>
       <c r="AB44" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC44" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE44" s="20">
         <v>8</v>
@@ -3139,10 +3236,10 @@
         <v>1795</v>
       </c>
       <c r="AL44" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AM44" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
@@ -3168,10 +3265,10 @@
         <v>5380</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K45" s="20">
         <v>9</v>
@@ -3195,10 +3292,10 @@
         <v>2690</v>
       </c>
       <c r="R45" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S45" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="20">
@@ -3223,10 +3320,10 @@
         <v>7175</v>
       </c>
       <c r="AB45" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC45" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE45" s="20">
         <v>9</v>
@@ -3250,10 +3347,10 @@
         <v>2690</v>
       </c>
       <c r="AL45" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM45" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
@@ -3279,10 +3376,10 @@
         <v>8070</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K46" s="20">
         <v>10</v>
@@ -3306,10 +3403,10 @@
         <v>4035</v>
       </c>
       <c r="R46" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T46" s="1"/>
       <c r="U46" s="20">
@@ -3334,10 +3431,10 @@
         <v>10765</v>
       </c>
       <c r="AB46" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC46" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE46" s="20">
         <v>10</v>
@@ -3361,10 +3458,10 @@
         <v>4035</v>
       </c>
       <c r="AL46" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AM46" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
@@ -3414,16 +3511,16 @@
         <v>19</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>16</v>
       </c>
       <c r="K49" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="L49" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="L49" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="M49" s="34"/>
       <c r="N49" s="32"/>
@@ -3433,10 +3530,10 @@
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="U49" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="V49" s="36" t="s">
         <v>70</v>
-      </c>
-      <c r="V49" s="36" t="s">
-        <v>71</v>
       </c>
       <c r="W49" s="36"/>
       <c r="X49" s="36"/>
@@ -3446,10 +3543,10 @@
       <c r="AB49" s="36"/>
       <c r="AC49" s="36"/>
       <c r="AE49" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF49" s="37" t="s">
         <v>78</v>
-      </c>
-      <c r="AF49" s="37" t="s">
-        <v>79</v>
       </c>
       <c r="AG49" s="37"/>
       <c r="AH49" s="37"/>
@@ -3489,193 +3586,193 @@
       <c r="AM50" s="38"/>
     </row>
     <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="46" t="s">
+      <c r="B51" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" s="47" t="s">
+      <c r="H51" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K51" s="46" t="s">
+      <c r="K51" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L51" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="M51" s="46" t="s">
+      <c r="L51" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="M51" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="N51" s="46" t="s">
+      <c r="N51" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="O51" s="46" t="s">
+      <c r="O51" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P51" s="46" t="s">
+      <c r="P51" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q51" s="46" t="s">
+      <c r="Q51" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R51" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="S51" s="47" t="s">
+      <c r="R51" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="S51" s="51" t="s">
         <v>7</v>
       </c>
       <c r="T51" s="24"/>
-      <c r="U51" s="46" t="s">
+      <c r="U51" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="V51" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="W51" s="46" t="s">
+      <c r="V51" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="W51" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="X51" s="46" t="s">
+      <c r="X51" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Y51" s="46" t="s">
+      <c r="Y51" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Z51" s="46" t="s">
+      <c r="Z51" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AA51" s="46" t="s">
+      <c r="AA51" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AB51" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC51" s="47" t="s">
+      <c r="AB51" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC51" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AE51" s="46" t="s">
+      <c r="AE51" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AF51" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG51" s="46" t="s">
+      <c r="AF51" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG51" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AH51" s="46" t="s">
+      <c r="AH51" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AI51" s="46" t="s">
+      <c r="AI51" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AJ51" s="46" t="s">
+      <c r="AJ51" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AK51" s="46" t="s">
+      <c r="AK51" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AL51" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM51" s="47" t="s">
+      <c r="AL51" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM51" s="51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="47"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="47"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="51"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="50"/>
+      <c r="R52" s="50"/>
+      <c r="S52" s="51"/>
       <c r="T52" s="24"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46"/>
-      <c r="Y52" s="46"/>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="46"/>
-      <c r="AC52" s="47"/>
-      <c r="AE52" s="46"/>
-      <c r="AF52" s="46"/>
-      <c r="AG52" s="46"/>
-      <c r="AH52" s="46"/>
-      <c r="AI52" s="46"/>
-      <c r="AJ52" s="46"/>
-      <c r="AK52" s="46"/>
-      <c r="AL52" s="46"/>
-      <c r="AM52" s="47"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="50"/>
+      <c r="W52" s="50"/>
+      <c r="X52" s="50"/>
+      <c r="Y52" s="50"/>
+      <c r="Z52" s="50"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="51"/>
+      <c r="AE52" s="50"/>
+      <c r="AF52" s="50"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="50"/>
+      <c r="AJ52" s="50"/>
+      <c r="AK52" s="50"/>
+      <c r="AL52" s="50"/>
+      <c r="AM52" s="51"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="47"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="47"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="51"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="51"/>
       <c r="T53" s="24"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="46"/>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="46"/>
-      <c r="AA53" s="46"/>
-      <c r="AB53" s="46"/>
-      <c r="AC53" s="47"/>
-      <c r="AE53" s="46"/>
-      <c r="AF53" s="46"/>
-      <c r="AG53" s="46"/>
-      <c r="AH53" s="46"/>
-      <c r="AI53" s="46"/>
-      <c r="AJ53" s="46"/>
-      <c r="AK53" s="46"/>
-      <c r="AL53" s="46"/>
-      <c r="AM53" s="47"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="50"/>
+      <c r="W53" s="50"/>
+      <c r="X53" s="50"/>
+      <c r="Y53" s="50"/>
+      <c r="Z53" s="50"/>
+      <c r="AA53" s="50"/>
+      <c r="AB53" s="50"/>
+      <c r="AC53" s="51"/>
+      <c r="AE53" s="50"/>
+      <c r="AF53" s="50"/>
+      <c r="AG53" s="50"/>
+      <c r="AH53" s="50"/>
+      <c r="AI53" s="50"/>
+      <c r="AJ53" s="50"/>
+      <c r="AK53" s="50"/>
+      <c r="AL53" s="50"/>
+      <c r="AM53" s="51"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
@@ -4218,7 +4315,7 @@
         <v>0.60737847222222219</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K59" s="20">
         <v>6</v>
@@ -4245,7 +4342,7 @@
         <v>0.30368923611111109</v>
       </c>
       <c r="S59" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="20">
@@ -4273,7 +4370,7 @@
         <v>0.30368923611111109</v>
       </c>
       <c r="AC59" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AE59" s="20">
         <v>6</v>
@@ -4300,7 +4397,7 @@
         <v>0.30368923611111109</v>
       </c>
       <c r="AM59" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
@@ -4329,7 +4426,7 @@
         <v>0.803263888888889</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K60" s="20">
         <v>7</v>
@@ -4356,7 +4453,7 @@
         <v>0.4016319444444445</v>
       </c>
       <c r="S60" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="20">
@@ -4384,7 +4481,7 @@
         <v>0.4016319444444445</v>
       </c>
       <c r="AC60" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE60" s="20">
         <v>7</v>
@@ -4411,7 +4508,7 @@
         <v>0.4016319444444445</v>
       </c>
       <c r="AM60" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
@@ -4437,10 +4534,10 @@
         <v>7180</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K61" s="20">
         <v>8</v>
@@ -4464,10 +4561,10 @@
         <v>9570</v>
       </c>
       <c r="R61" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S61" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="20">
@@ -4492,10 +4589,10 @@
         <v>4780</v>
       </c>
       <c r="AB61" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC61" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE61" s="20">
         <v>8</v>
@@ -4519,10 +4616,10 @@
         <v>3590</v>
       </c>
       <c r="AL61" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM61" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
@@ -4548,10 +4645,10 @@
         <v>10760</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K62" s="20">
         <v>9</v>
@@ -4575,10 +4672,10 @@
         <v>14350</v>
       </c>
       <c r="R62" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S62" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T62" s="1"/>
       <c r="U62" s="20">
@@ -4603,10 +4700,10 @@
         <v>7180</v>
       </c>
       <c r="AB62" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC62" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE62" s="20">
         <v>9</v>
@@ -4630,10 +4727,10 @@
         <v>5380</v>
       </c>
       <c r="AL62" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM62" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
@@ -4659,10 +4756,10 @@
         <v>16140</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K63" s="20">
         <v>10</v>
@@ -4686,10 +4783,10 @@
         <v>21530</v>
       </c>
       <c r="R63" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S63" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" s="20">
@@ -4714,10 +4811,10 @@
         <v>10760</v>
       </c>
       <c r="AB63" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC63" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE63" s="20">
         <v>10</v>
@@ -4741,27 +4838,27 @@
         <v>8070</v>
       </c>
       <c r="AL63" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AM63" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>16</v>
       </c>
       <c r="K66" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="L66" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="L66" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="M66" s="34"/>
       <c r="N66" s="32"/>
@@ -4771,10 +4868,10 @@
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
       <c r="U66" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="V66" s="36" t="s">
         <v>70</v>
-      </c>
-      <c r="V66" s="36" t="s">
-        <v>71</v>
       </c>
       <c r="W66" s="36"/>
       <c r="X66" s="36"/>
@@ -4784,10 +4881,10 @@
       <c r="AB66" s="36"/>
       <c r="AC66" s="36"/>
       <c r="AE66" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF66" s="37" t="s">
         <v>78</v>
-      </c>
-      <c r="AF66" s="37" t="s">
-        <v>79</v>
       </c>
       <c r="AG66" s="37"/>
       <c r="AH66" s="37"/>
@@ -4827,193 +4924,193 @@
       <c r="AM67" s="38"/>
     </row>
     <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="46" t="s">
+      <c r="B68" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="D68" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="46" t="s">
+      <c r="E68" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="46" t="s">
+      <c r="F68" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="46" t="s">
+      <c r="G68" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="I68" s="47" t="s">
+      <c r="H68" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I68" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="46" t="s">
+      <c r="K68" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L68" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="M68" s="46" t="s">
+      <c r="L68" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="M68" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="N68" s="46" t="s">
+      <c r="N68" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="O68" s="46" t="s">
+      <c r="O68" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P68" s="46" t="s">
+      <c r="P68" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q68" s="46" t="s">
+      <c r="Q68" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R68" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="S68" s="47" t="s">
+      <c r="R68" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="S68" s="51" t="s">
         <v>7</v>
       </c>
       <c r="T68" s="24"/>
-      <c r="U68" s="46" t="s">
+      <c r="U68" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="V68" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="W68" s="46" t="s">
+      <c r="V68" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="W68" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="X68" s="46" t="s">
+      <c r="X68" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Y68" s="46" t="s">
+      <c r="Y68" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Z68" s="46" t="s">
+      <c r="Z68" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AA68" s="46" t="s">
+      <c r="AA68" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AB68" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC68" s="47" t="s">
+      <c r="AB68" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC68" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AE68" s="46" t="s">
+      <c r="AE68" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AF68" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG68" s="46" t="s">
+      <c r="AF68" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG68" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AH68" s="46" t="s">
+      <c r="AH68" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AI68" s="46" t="s">
+      <c r="AI68" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AJ68" s="46" t="s">
+      <c r="AJ68" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AK68" s="46" t="s">
+      <c r="AK68" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AL68" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM68" s="47" t="s">
+      <c r="AL68" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM68" s="51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="47"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="47"/>
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="51"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
+      <c r="Q69" s="50"/>
+      <c r="R69" s="50"/>
+      <c r="S69" s="51"/>
       <c r="T69" s="24"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="46"/>
-      <c r="W69" s="46"/>
-      <c r="X69" s="46"/>
-      <c r="Y69" s="46"/>
-      <c r="Z69" s="46"/>
-      <c r="AA69" s="46"/>
-      <c r="AB69" s="46"/>
-      <c r="AC69" s="47"/>
-      <c r="AE69" s="46"/>
-      <c r="AF69" s="46"/>
-      <c r="AG69" s="46"/>
-      <c r="AH69" s="46"/>
-      <c r="AI69" s="46"/>
-      <c r="AJ69" s="46"/>
-      <c r="AK69" s="46"/>
-      <c r="AL69" s="46"/>
-      <c r="AM69" s="47"/>
+      <c r="U69" s="50"/>
+      <c r="V69" s="50"/>
+      <c r="W69" s="50"/>
+      <c r="X69" s="50"/>
+      <c r="Y69" s="50"/>
+      <c r="Z69" s="50"/>
+      <c r="AA69" s="50"/>
+      <c r="AB69" s="50"/>
+      <c r="AC69" s="51"/>
+      <c r="AE69" s="50"/>
+      <c r="AF69" s="50"/>
+      <c r="AG69" s="50"/>
+      <c r="AH69" s="50"/>
+      <c r="AI69" s="50"/>
+      <c r="AJ69" s="50"/>
+      <c r="AK69" s="50"/>
+      <c r="AL69" s="50"/>
+      <c r="AM69" s="51"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="47"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="47"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="51"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="50"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="50"/>
+      <c r="S70" s="51"/>
       <c r="T70" s="24"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="46"/>
-      <c r="W70" s="46"/>
-      <c r="X70" s="46"/>
-      <c r="Y70" s="46"/>
-      <c r="Z70" s="46"/>
-      <c r="AA70" s="46"/>
-      <c r="AB70" s="46"/>
-      <c r="AC70" s="47"/>
-      <c r="AE70" s="46"/>
-      <c r="AF70" s="46"/>
-      <c r="AG70" s="46"/>
-      <c r="AH70" s="46"/>
-      <c r="AI70" s="46"/>
-      <c r="AJ70" s="46"/>
-      <c r="AK70" s="46"/>
-      <c r="AL70" s="46"/>
-      <c r="AM70" s="47"/>
+      <c r="U70" s="50"/>
+      <c r="V70" s="50"/>
+      <c r="W70" s="50"/>
+      <c r="X70" s="50"/>
+      <c r="Y70" s="50"/>
+      <c r="Z70" s="50"/>
+      <c r="AA70" s="50"/>
+      <c r="AB70" s="50"/>
+      <c r="AC70" s="51"/>
+      <c r="AE70" s="50"/>
+      <c r="AF70" s="50"/>
+      <c r="AG70" s="50"/>
+      <c r="AH70" s="50"/>
+      <c r="AI70" s="50"/>
+      <c r="AJ70" s="50"/>
+      <c r="AK70" s="50"/>
+      <c r="AL70" s="50"/>
+      <c r="AM70" s="51"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
@@ -5556,7 +5653,7 @@
         <v>0.91106770833333328</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K76" s="20">
         <v>6</v>
@@ -5583,7 +5680,7 @@
         <v>0.45553385416666664</v>
       </c>
       <c r="S76" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T76" s="1"/>
       <c r="U76" s="20">
@@ -5611,7 +5708,7 @@
         <v>0.45553385416666664</v>
       </c>
       <c r="AC76" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AE76" s="20">
         <v>6</v>
@@ -5638,7 +5735,7 @@
         <v>0.45553385416666664</v>
       </c>
       <c r="AM76" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.25">
@@ -5664,10 +5761,10 @@
         <v>25520</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K77" s="20">
         <v>7</v>
@@ -5694,7 +5791,7 @@
         <v>0.72920138888888886</v>
       </c>
       <c r="S77" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T77" s="1"/>
       <c r="U77" s="20">
@@ -5722,7 +5819,7 @@
         <v>0.72920138888888886</v>
       </c>
       <c r="AC77" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE77" s="20">
         <v>7</v>
@@ -5749,7 +5846,7 @@
         <v>0.72920138888888886</v>
       </c>
       <c r="AM77" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.25">
@@ -5775,10 +5872,10 @@
         <v>38280</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K78" s="20">
         <v>8</v>
@@ -5802,10 +5899,10 @@
         <v>12750</v>
       </c>
       <c r="R78" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S78" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T78" s="1"/>
       <c r="U78" s="20">
@@ -5830,10 +5927,10 @@
         <v>12750</v>
       </c>
       <c r="AB78" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC78" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE78" s="20">
         <v>8</v>
@@ -5857,10 +5954,10 @@
         <v>12750</v>
       </c>
       <c r="AL78" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AM78" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.25">
@@ -5886,10 +5983,10 @@
         <v>57400</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K79" s="20">
         <v>9</v>
@@ -5913,10 +6010,10 @@
         <v>19150</v>
       </c>
       <c r="R79" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S79" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T79" s="1"/>
       <c r="U79" s="20">
@@ -5941,10 +6038,10 @@
         <v>19150</v>
       </c>
       <c r="AB79" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC79" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE79" s="20">
         <v>9</v>
@@ -5968,10 +6065,10 @@
         <v>19150</v>
       </c>
       <c r="AL79" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AM79" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.25">
@@ -5997,10 +6094,10 @@
         <v>86120</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K80" s="20">
         <v>10</v>
@@ -6024,10 +6121,10 @@
         <v>28690</v>
       </c>
       <c r="R80" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S80" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T80" s="1"/>
       <c r="U80" s="20">
@@ -6052,10 +6149,10 @@
         <v>28690</v>
       </c>
       <c r="AB80" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC80" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE80" s="20">
         <v>10</v>
@@ -6079,10 +6176,10 @@
         <v>28690</v>
       </c>
       <c r="AL80" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AM80" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -6090,16 +6187,16 @@
         <v>17</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C83" s="25" t="s">
         <v>16</v>
       </c>
       <c r="K83" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="L83" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="L83" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="M83" s="34"/>
       <c r="N83" s="32"/>
@@ -6109,10 +6206,10 @@
       <c r="R83" s="32"/>
       <c r="S83" s="32"/>
       <c r="U83" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="V83" s="36" t="s">
         <v>70</v>
-      </c>
-      <c r="V83" s="36" t="s">
-        <v>71</v>
       </c>
       <c r="W83" s="36"/>
       <c r="X83" s="36"/>
@@ -6122,10 +6219,10 @@
       <c r="AB83" s="36"/>
       <c r="AC83" s="36"/>
       <c r="AE83" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF83" s="37" t="s">
         <v>78</v>
-      </c>
-      <c r="AF83" s="37" t="s">
-        <v>79</v>
       </c>
       <c r="AG83" s="37"/>
       <c r="AH83" s="37"/>
@@ -6165,193 +6262,193 @@
       <c r="AM84" s="38"/>
     </row>
     <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="46" t="s">
+      <c r="A85" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="46" t="s">
+      <c r="B85" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="46" t="s">
+      <c r="D85" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="46" t="s">
+      <c r="E85" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="46" t="s">
+      <c r="F85" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="46" t="s">
+      <c r="G85" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H85" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="I85" s="47" t="s">
+      <c r="H85" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I85" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K85" s="46" t="s">
+      <c r="K85" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L85" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="M85" s="46" t="s">
+      <c r="L85" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="M85" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="N85" s="46" t="s">
+      <c r="N85" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="O85" s="46" t="s">
+      <c r="O85" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P85" s="46" t="s">
+      <c r="P85" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q85" s="46" t="s">
+      <c r="Q85" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="R85" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="S85" s="47" t="s">
+      <c r="R85" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="S85" s="51" t="s">
         <v>7</v>
       </c>
       <c r="T85" s="24"/>
-      <c r="U85" s="46" t="s">
+      <c r="U85" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="V85" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="W85" s="46" t="s">
+      <c r="V85" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="W85" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="X85" s="46" t="s">
+      <c r="X85" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Y85" s="46" t="s">
+      <c r="Y85" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Z85" s="46" t="s">
+      <c r="Z85" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AA85" s="46" t="s">
+      <c r="AA85" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AB85" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC85" s="47" t="s">
+      <c r="AB85" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC85" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AE85" s="46" t="s">
+      <c r="AE85" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AF85" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG85" s="46" t="s">
+      <c r="AF85" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG85" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AH85" s="46" t="s">
+      <c r="AH85" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AI85" s="46" t="s">
+      <c r="AI85" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AJ85" s="46" t="s">
+      <c r="AJ85" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AK85" s="46" t="s">
+      <c r="AK85" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AL85" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM85" s="47" t="s">
+      <c r="AL85" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM85" s="51" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="46"/>
-      <c r="I86" s="47"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="46"/>
-      <c r="M86" s="46"/>
-      <c r="N86" s="46"/>
-      <c r="O86" s="46"/>
-      <c r="P86" s="46"/>
-      <c r="Q86" s="46"/>
-      <c r="R86" s="46"/>
-      <c r="S86" s="47"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="51"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="50"/>
+      <c r="Q86" s="50"/>
+      <c r="R86" s="50"/>
+      <c r="S86" s="51"/>
       <c r="T86" s="24"/>
-      <c r="U86" s="46"/>
-      <c r="V86" s="46"/>
-      <c r="W86" s="46"/>
-      <c r="X86" s="46"/>
-      <c r="Y86" s="46"/>
-      <c r="Z86" s="46"/>
-      <c r="AA86" s="46"/>
-      <c r="AB86" s="46"/>
-      <c r="AC86" s="47"/>
-      <c r="AE86" s="46"/>
-      <c r="AF86" s="46"/>
-      <c r="AG86" s="46"/>
-      <c r="AH86" s="46"/>
-      <c r="AI86" s="46"/>
-      <c r="AJ86" s="46"/>
-      <c r="AK86" s="46"/>
-      <c r="AL86" s="46"/>
-      <c r="AM86" s="47"/>
+      <c r="U86" s="50"/>
+      <c r="V86" s="50"/>
+      <c r="W86" s="50"/>
+      <c r="X86" s="50"/>
+      <c r="Y86" s="50"/>
+      <c r="Z86" s="50"/>
+      <c r="AA86" s="50"/>
+      <c r="AB86" s="50"/>
+      <c r="AC86" s="51"/>
+      <c r="AE86" s="50"/>
+      <c r="AF86" s="50"/>
+      <c r="AG86" s="50"/>
+      <c r="AH86" s="50"/>
+      <c r="AI86" s="50"/>
+      <c r="AJ86" s="50"/>
+      <c r="AK86" s="50"/>
+      <c r="AL86" s="50"/>
+      <c r="AM86" s="51"/>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A87" s="46"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="46"/>
-      <c r="I87" s="47"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="46"/>
-      <c r="M87" s="46"/>
-      <c r="N87" s="46"/>
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
-      <c r="Q87" s="46"/>
-      <c r="R87" s="46"/>
-      <c r="S87" s="47"/>
+      <c r="A87" s="50"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="51"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="50"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="50"/>
+      <c r="P87" s="50"/>
+      <c r="Q87" s="50"/>
+      <c r="R87" s="50"/>
+      <c r="S87" s="51"/>
       <c r="T87" s="24"/>
-      <c r="U87" s="46"/>
-      <c r="V87" s="46"/>
-      <c r="W87" s="46"/>
-      <c r="X87" s="46"/>
-      <c r="Y87" s="46"/>
-      <c r="Z87" s="46"/>
-      <c r="AA87" s="46"/>
-      <c r="AB87" s="46"/>
-      <c r="AC87" s="47"/>
-      <c r="AE87" s="46"/>
-      <c r="AF87" s="46"/>
-      <c r="AG87" s="46"/>
-      <c r="AH87" s="46"/>
-      <c r="AI87" s="46"/>
-      <c r="AJ87" s="46"/>
-      <c r="AK87" s="46"/>
-      <c r="AL87" s="46"/>
-      <c r="AM87" s="47"/>
+      <c r="U87" s="50"/>
+      <c r="V87" s="50"/>
+      <c r="W87" s="50"/>
+      <c r="X87" s="50"/>
+      <c r="Y87" s="50"/>
+      <c r="Z87" s="50"/>
+      <c r="AA87" s="50"/>
+      <c r="AB87" s="50"/>
+      <c r="AC87" s="51"/>
+      <c r="AE87" s="50"/>
+      <c r="AF87" s="50"/>
+      <c r="AG87" s="50"/>
+      <c r="AH87" s="50"/>
+      <c r="AI87" s="50"/>
+      <c r="AJ87" s="50"/>
+      <c r="AK87" s="50"/>
+      <c r="AL87" s="50"/>
+      <c r="AM87" s="51"/>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
@@ -6710,7 +6807,7 @@
         <v>181760</v>
       </c>
       <c r="R91" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S91" s="16"/>
       <c r="T91" s="1"/>
@@ -6736,7 +6833,7 @@
         <v>181760</v>
       </c>
       <c r="AB91" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC91" s="16"/>
       <c r="AE91" s="20">
@@ -6761,7 +6858,7 @@
         <v>181760</v>
       </c>
       <c r="AL91" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM91" s="16"/>
     </row>
@@ -6788,7 +6885,7 @@
         <v>181760</v>
       </c>
       <c r="H92" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I92" s="16"/>
       <c r="K92" s="20">
@@ -6813,7 +6910,7 @@
         <v>271360</v>
       </c>
       <c r="R92" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S92" s="16"/>
       <c r="T92" s="1"/>
@@ -6839,7 +6936,7 @@
         <v>271360</v>
       </c>
       <c r="AB92" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC92" s="16"/>
       <c r="AE92" s="20">
@@ -6864,7 +6961,7 @@
         <v>271360</v>
       </c>
       <c r="AL92" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AM92" s="16"/>
     </row>
@@ -6891,7 +6988,7 @@
         <v>272000</v>
       </c>
       <c r="H93" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I93" s="16"/>
       <c r="K93" s="20">
@@ -6916,7 +7013,7 @@
         <v>407040</v>
       </c>
       <c r="R93" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S93" s="16"/>
       <c r="T93" s="1"/>
@@ -6942,7 +7039,7 @@
         <v>407040</v>
       </c>
       <c r="AB93" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC93" s="16"/>
       <c r="AE93" s="20">
@@ -6967,7 +7064,7 @@
         <v>407040</v>
       </c>
       <c r="AL93" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM93" s="16"/>
     </row>
@@ -6994,7 +7091,7 @@
         <v>408320</v>
       </c>
       <c r="H94" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I94" s="16"/>
       <c r="K94" s="20">
@@ -7019,7 +7116,7 @@
         <v>611840</v>
       </c>
       <c r="R94" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S94" s="16"/>
       <c r="T94" s="1"/>
@@ -7045,7 +7142,7 @@
         <v>611840</v>
       </c>
       <c r="AB94" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC94" s="16"/>
       <c r="AE94" s="20">
@@ -7070,7 +7167,7 @@
         <v>611840</v>
       </c>
       <c r="AL94" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AM94" s="16"/>
     </row>
@@ -7097,7 +7194,7 @@
         <v>612480</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I95" s="16"/>
       <c r="K95" s="20">
@@ -7122,7 +7219,7 @@
         <v>919040</v>
       </c>
       <c r="R95" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S95" s="16"/>
       <c r="T95" s="1"/>
@@ -7148,7 +7245,7 @@
         <v>919040</v>
       </c>
       <c r="AB95" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC95" s="16"/>
       <c r="AE95" s="20">
@@ -7173,7 +7270,7 @@
         <v>919040</v>
       </c>
       <c r="AL95" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AM95" s="16"/>
     </row>
@@ -7200,7 +7297,7 @@
         <v>918400</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I96" s="16"/>
       <c r="K96" s="20">
@@ -7225,7 +7322,7 @@
         <v>1377280</v>
       </c>
       <c r="R96" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S96" s="16"/>
       <c r="T96" s="1"/>
@@ -7251,7 +7348,7 @@
         <v>1377280</v>
       </c>
       <c r="AB96" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC96" s="16"/>
       <c r="AE96" s="20">
@@ -7276,7 +7373,7 @@
         <v>1377280</v>
       </c>
       <c r="AL96" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AM96" s="16"/>
     </row>
@@ -7303,7 +7400,7 @@
         <v>1377920</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I97" s="16"/>
       <c r="K97" s="20">
@@ -7328,7 +7425,7 @@
         <v>2065920</v>
       </c>
       <c r="R97" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S97" s="16"/>
       <c r="T97" s="1"/>
@@ -7354,7 +7451,7 @@
         <v>2065920</v>
       </c>
       <c r="AB97" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC97" s="16"/>
       <c r="AE97" s="20">
@@ -7379,71 +7476,75 @@
         <v>2065920</v>
       </c>
       <c r="AL97" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AM97" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="AE85:AE87"/>
-    <mergeCell ref="AF85:AF87"/>
-    <mergeCell ref="AG85:AG87"/>
-    <mergeCell ref="AH85:AH87"/>
-    <mergeCell ref="AI85:AI87"/>
-    <mergeCell ref="AJ85:AJ87"/>
-    <mergeCell ref="AK85:AK87"/>
-    <mergeCell ref="AL85:AL87"/>
-    <mergeCell ref="AM85:AM87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="V85:V87"/>
-    <mergeCell ref="W85:W87"/>
-    <mergeCell ref="X85:X87"/>
-    <mergeCell ref="Y85:Y87"/>
-    <mergeCell ref="Z85:Z87"/>
-    <mergeCell ref="AA85:AA87"/>
-    <mergeCell ref="AB85:AB87"/>
-    <mergeCell ref="AC85:AC87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="M85:M87"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="P85:P87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="V34:V36"/>
-    <mergeCell ref="W34:W36"/>
-    <mergeCell ref="X34:X36"/>
-    <mergeCell ref="Y34:Y36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="O34:O36"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="S34:S36"/>
-    <mergeCell ref="U34:U36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="Q68:Q70"/>
+    <mergeCell ref="R68:R70"/>
+    <mergeCell ref="S68:S70"/>
+    <mergeCell ref="U68:U70"/>
+    <mergeCell ref="AI68:AI70"/>
+    <mergeCell ref="AJ68:AJ70"/>
+    <mergeCell ref="AK68:AK70"/>
+    <mergeCell ref="AL68:AL70"/>
+    <mergeCell ref="AM68:AM70"/>
+    <mergeCell ref="AB68:AB70"/>
+    <mergeCell ref="AC68:AC70"/>
+    <mergeCell ref="AE68:AE70"/>
+    <mergeCell ref="AF68:AF70"/>
+    <mergeCell ref="AG68:AG70"/>
+    <mergeCell ref="AH68:AH70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:N70"/>
+    <mergeCell ref="AK51:AK53"/>
+    <mergeCell ref="AL51:AL53"/>
+    <mergeCell ref="AM51:AM53"/>
+    <mergeCell ref="AG51:AG53"/>
+    <mergeCell ref="AH51:AH53"/>
+    <mergeCell ref="AI51:AI53"/>
+    <mergeCell ref="AJ51:AJ53"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="O51:O53"/>
+    <mergeCell ref="P51:P53"/>
+    <mergeCell ref="V68:V70"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="Y68:Y70"/>
+    <mergeCell ref="Z68:Z70"/>
+    <mergeCell ref="AA68:AA70"/>
+    <mergeCell ref="O68:O70"/>
+    <mergeCell ref="P68:P70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="AE51:AE53"/>
+    <mergeCell ref="AF51:AF53"/>
+    <mergeCell ref="X51:X53"/>
+    <mergeCell ref="Y51:Y53"/>
+    <mergeCell ref="Z51:Z53"/>
+    <mergeCell ref="AA51:AA53"/>
+    <mergeCell ref="AB51:AB53"/>
+    <mergeCell ref="AC51:AC53"/>
+    <mergeCell ref="Q51:Q53"/>
+    <mergeCell ref="R51:R53"/>
+    <mergeCell ref="S51:S53"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="V51:V53"/>
+    <mergeCell ref="W51:W53"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="M51:M53"/>
     <mergeCell ref="AM34:AM36"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B51:B53"/>
@@ -7468,69 +7569,65 @@
     <mergeCell ref="AF34:AF36"/>
     <mergeCell ref="P34:P36"/>
     <mergeCell ref="R34:R36"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="AE51:AE53"/>
-    <mergeCell ref="AF51:AF53"/>
-    <mergeCell ref="X51:X53"/>
-    <mergeCell ref="Y51:Y53"/>
-    <mergeCell ref="Z51:Z53"/>
-    <mergeCell ref="AA51:AA53"/>
-    <mergeCell ref="AB51:AB53"/>
-    <mergeCell ref="AC51:AC53"/>
-    <mergeCell ref="Q51:Q53"/>
-    <mergeCell ref="R51:R53"/>
-    <mergeCell ref="S51:S53"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="V51:V53"/>
-    <mergeCell ref="W51:W53"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="N68:N70"/>
-    <mergeCell ref="AK51:AK53"/>
-    <mergeCell ref="AL51:AL53"/>
-    <mergeCell ref="AM51:AM53"/>
-    <mergeCell ref="AG51:AG53"/>
-    <mergeCell ref="AH51:AH53"/>
-    <mergeCell ref="AI51:AI53"/>
-    <mergeCell ref="AJ51:AJ53"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="O51:O53"/>
-    <mergeCell ref="P51:P53"/>
-    <mergeCell ref="V68:V70"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="Y68:Y70"/>
-    <mergeCell ref="Z68:Z70"/>
-    <mergeCell ref="AA68:AA70"/>
-    <mergeCell ref="O68:O70"/>
-    <mergeCell ref="P68:P70"/>
-    <mergeCell ref="Q68:Q70"/>
-    <mergeCell ref="R68:R70"/>
-    <mergeCell ref="S68:S70"/>
-    <mergeCell ref="U68:U70"/>
-    <mergeCell ref="AI68:AI70"/>
-    <mergeCell ref="AJ68:AJ70"/>
-    <mergeCell ref="AK68:AK70"/>
-    <mergeCell ref="AL68:AL70"/>
-    <mergeCell ref="AM68:AM70"/>
-    <mergeCell ref="AB68:AB70"/>
-    <mergeCell ref="AC68:AC70"/>
-    <mergeCell ref="AE68:AE70"/>
-    <mergeCell ref="AF68:AF70"/>
-    <mergeCell ref="AG68:AG70"/>
-    <mergeCell ref="AH68:AH70"/>
+    <mergeCell ref="V34:V36"/>
+    <mergeCell ref="W34:W36"/>
+    <mergeCell ref="X34:X36"/>
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="S34:S36"/>
+    <mergeCell ref="U34:U36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="P85:P87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="V85:V87"/>
+    <mergeCell ref="W85:W87"/>
+    <mergeCell ref="X85:X87"/>
+    <mergeCell ref="Y85:Y87"/>
+    <mergeCell ref="Z85:Z87"/>
+    <mergeCell ref="AA85:AA87"/>
+    <mergeCell ref="AB85:AB87"/>
+    <mergeCell ref="AC85:AC87"/>
+    <mergeCell ref="AE85:AE87"/>
+    <mergeCell ref="AF85:AF87"/>
+    <mergeCell ref="AG85:AG87"/>
+    <mergeCell ref="AH85:AH87"/>
+    <mergeCell ref="AI85:AI87"/>
+    <mergeCell ref="AJ85:AJ87"/>
+    <mergeCell ref="AK85:AK87"/>
+    <mergeCell ref="AL85:AL87"/>
+    <mergeCell ref="AM85:AM87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7541,1831 +7638,646 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:D77"/>
-    </sheetView>
-    <sheetView topLeftCell="A10" workbookViewId="1">
-      <selection activeCell="N6" sqref="N3:N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <f>C2*24*60*60+D2*60*60+E2*60+F2</f>
+        <v>90</v>
+      </c>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="0">C3*24*60*60+D3*60*60+E3*60+F3</f>
+        <v>180</v>
+      </c>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5760</v>
+      </c>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>12</v>
       </c>
-      <c r="B1" s="20">
+      <c r="F5" s="22"/>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>11520</v>
+      </c>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
+      <c r="F6" s="22">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>20736</v>
+      </c>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>0.49920138888888888</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>58</v>
+      </c>
+      <c r="F7" s="22">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>43131</v>
+      </c>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>0.57408564814814811</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>46</v>
+      </c>
+      <c r="F8" s="22">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>49601</v>
+      </c>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>0.66019675925925925</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9" s="22">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>57041</v>
+      </c>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>0.75922453703703707</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="D10">
         <v>18</v>
       </c>
-      <c r="C1">
-        <v>50</v>
-      </c>
-      <c r="F1" s="20">
-        <v>210</v>
-      </c>
-      <c r="H1">
-        <f>MROUND(F1,10)</f>
-        <v>210</v>
-      </c>
-      <c r="J1" s="20">
-        <v>560</v>
-      </c>
-      <c r="M1">
-        <f>3500+900</f>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10" s="22">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>65597</v>
+      </c>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>0.873113425925926</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>57</v>
+      </c>
+      <c r="F11" s="56">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>75437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="56">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>86752</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13" s="56">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>99766</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>110400</v>
+      </c>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>39</v>
+      </c>
+      <c r="F15" s="56">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>131940</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>38</v>
+      </c>
+      <c r="F16" s="56">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>182280</v>
+      </c>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="20">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>140</v>
-      </c>
-      <c r="F2" s="20">
-        <v>315</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H10" si="0">MROUND(F2,10)</f>
-        <v>320</v>
-      </c>
-      <c r="J2" s="20">
-        <v>840</v>
-      </c>
-      <c r="M2">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>36</v>
-      </c>
-      <c r="B3" s="20">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17" s="56">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>362430</v>
+      </c>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18" s="56">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>441630</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>47</v>
+      </c>
+      <c r="F19" s="56">
         <v>54</v>
       </c>
-      <c r="C3">
-        <v>380</v>
-      </c>
-      <c r="F3" s="20">
-        <v>472</v>
-      </c>
-      <c r="H3">
+      <c r="G19">
         <f t="shared" si="0"/>
-        <v>470</v>
-      </c>
-      <c r="J3" s="22">
-        <v>1260</v>
-      </c>
-      <c r="M3">
-        <f>M1-M2</f>
-        <v>3782</v>
-      </c>
-      <c r="N3">
-        <f>14000*3</f>
-        <v>42000</v>
-      </c>
-      <c r="O3">
-        <v>3000</v>
-      </c>
-      <c r="P3">
-        <f>14000*4</f>
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>50</v>
-      </c>
-      <c r="B4" s="20">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>745</v>
-      </c>
-      <c r="F4" s="20">
-        <v>708</v>
-      </c>
-      <c r="H4">
+        <v>568074</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="56">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="0"/>
-        <v>710</v>
-      </c>
-      <c r="J4" s="22">
-        <v>1890</v>
-      </c>
-      <c r="M4">
-        <v>782</v>
-      </c>
-      <c r="N4">
-        <f>1500*7</f>
-        <v>10500</v>
-      </c>
-      <c r="O4">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>70</v>
-      </c>
-      <c r="B5" s="20">
-        <v>106</v>
-      </c>
-      <c r="C5">
-        <v>1460</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1063</v>
-      </c>
-      <c r="H5">
+        <v>1022520</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21" s="56">
+        <v>45</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="0"/>
-        <v>1060</v>
-      </c>
-      <c r="J5" s="22">
-        <v>2840</v>
-      </c>
-      <c r="M5">
-        <v>82</v>
-      </c>
-      <c r="N5">
-        <f>160*8</f>
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>99</v>
-      </c>
-      <c r="B6" s="20">
-        <v>148</v>
-      </c>
-      <c r="C6">
-        <v>2850</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1594</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>1590</v>
-      </c>
-      <c r="J6" s="22">
-        <v>4250</v>
-      </c>
-      <c r="N6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>139</v>
-      </c>
-      <c r="B7" s="20">
-        <v>208</v>
-      </c>
-      <c r="C7">
-        <v>5600</v>
-      </c>
-      <c r="F7" s="22">
-        <v>2392</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>2390</v>
-      </c>
-      <c r="J7" s="22">
-        <v>6380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>193</v>
-      </c>
-      <c r="B8" s="20">
-        <v>290</v>
-      </c>
-      <c r="C8">
-        <v>10980</v>
-      </c>
-      <c r="F8" s="22">
-        <v>3588</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>3590</v>
-      </c>
-      <c r="J8" s="22">
-        <v>9570</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>271</v>
-      </c>
-      <c r="B9" s="20">
-        <v>407</v>
-      </c>
-      <c r="C9">
-        <v>30120</v>
-      </c>
-      <c r="F9" s="22">
-        <v>5382</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>5380</v>
-      </c>
-      <c r="J9" s="22">
-        <v>14350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>380</v>
-      </c>
-      <c r="B10" s="20">
-        <v>569</v>
-      </c>
-      <c r="C10">
-        <v>72690</v>
-      </c>
-      <c r="F10" s="22">
-        <v>8073</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>8070</v>
-      </c>
-      <c r="J10" s="22">
-        <v>21530</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>744</v>
-      </c>
-      <c r="C12">
-        <v>87.5</v>
-      </c>
-      <c r="E12">
-        <f>MROUND(C12,5)</f>
-        <v>90</v>
-      </c>
-      <c r="H12" s="23">
-        <v>180</v>
-      </c>
-      <c r="J12">
-        <f>H12*0.75</f>
-        <v>135</v>
-      </c>
-      <c r="K12">
-        <f>MROUND(H12,5)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>1041</v>
-      </c>
-      <c r="C13">
-        <v>245</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13:E21" si="1">MROUND(C13,5)</f>
-        <v>245</v>
-      </c>
-      <c r="H13" s="23">
-        <v>493.33333333333331</v>
-      </c>
-      <c r="J13">
-        <f t="shared" ref="J13:J21" si="2">H13*0.75</f>
-        <v>370</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ref="K13:K21" si="3">MROUND(H13,5)</f>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>1458</v>
-      </c>
-      <c r="C14">
-        <v>665</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>665</v>
-      </c>
-      <c r="H14" s="23">
-        <v>1333.3333333333333</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>2041</v>
-      </c>
-      <c r="C15">
-        <v>1303.75</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>1305</v>
-      </c>
-      <c r="H15" s="23">
-        <v>2613.3333333333335</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>1960</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>2857</v>
-      </c>
-      <c r="C16">
-        <v>2555</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>2555</v>
-      </c>
-      <c r="H16" s="23">
-        <v>5113.333333333333</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>3835</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>4001</v>
-      </c>
-      <c r="C17">
-        <v>4987.5</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>4990</v>
-      </c>
-      <c r="H17" s="23">
-        <v>9980</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>7485</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>9980</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>5600</v>
-      </c>
-      <c r="C18">
-        <v>9800</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>9800</v>
-      </c>
-      <c r="H18" s="23">
-        <v>19600</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>14700</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>19600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>7841</v>
-      </c>
-      <c r="C19">
-        <v>19215</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>19215</v>
-      </c>
-      <c r="H19" s="23">
-        <v>38433.333333333336</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>28825</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>38435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>10977</v>
-      </c>
-      <c r="C20">
-        <v>52710</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>52710</v>
-      </c>
-      <c r="H20" s="23">
-        <v>105420</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>79065</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>105420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>15367</v>
-      </c>
-      <c r="C21">
-        <v>127207.5</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>127210</v>
-      </c>
-      <c r="H21" s="23">
-        <v>254420</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>190815</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
-        <v>254420</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>21515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>30121</v>
-      </c>
-      <c r="B23" s="23">
-        <v>90</v>
-      </c>
-      <c r="C23">
-        <f>B23*3</f>
-        <v>270</v>
-      </c>
-      <c r="D23">
-        <f>C23/2</f>
-        <v>135</v>
-      </c>
-      <c r="E23">
-        <f>MROUND(D23,5)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>42168</v>
-      </c>
-      <c r="B24" s="23">
-        <v>245</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:C32" si="4">B24*3</f>
-        <v>735</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24:D32" si="5">C24/2</f>
-        <v>367.5</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ref="E24:E32" si="6">MROUND(D24,5)</f>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>71687</v>
-      </c>
-      <c r="B25" s="23">
-        <v>665</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="4"/>
-        <v>1995</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="5"/>
-        <v>997.5</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="23">
-        <v>1305</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="4"/>
-        <v>3915</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="5"/>
-        <v>1957.5</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="6"/>
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="23">
-        <v>2555</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="4"/>
-        <v>7665</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="5"/>
-        <v>3832.5</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="6"/>
-        <v>3835</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="23">
-        <v>4990</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="4"/>
-        <v>14970</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="5"/>
-        <v>7485</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="6"/>
-        <v>7485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="23">
-        <v>9800</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="4"/>
-        <v>29400</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="5"/>
-        <v>14700</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="6"/>
-        <v>14700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="23">
-        <v>19215</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="4"/>
-        <v>57645</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="5"/>
-        <v>28822.5</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="6"/>
-        <v>28825</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="23">
-        <v>52710</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="4"/>
-        <v>158130</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="5"/>
-        <v>79065</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="6"/>
-        <v>79065</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="23">
-        <v>127210</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="4"/>
-        <v>381630</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="5"/>
-        <v>190815</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="6"/>
-        <v>190815</v>
-      </c>
+        <v>3578865</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="20">
-        <v>280</v>
-      </c>
-      <c r="C35" s="20">
-        <v>560</v>
-      </c>
-      <c r="D35" s="20">
-        <v>350</v>
-      </c>
-      <c r="E35" s="20">
-        <v>210</v>
-      </c>
-      <c r="H35">
-        <f>B35*3/2</f>
-        <v>420</v>
-      </c>
-      <c r="I35">
-        <f t="shared" ref="I35:K44" si="7">C35*3/2</f>
-        <v>840</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="7"/>
-        <v>525</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="7"/>
-        <v>315</v>
-      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="20">
-        <v>420</v>
-      </c>
-      <c r="C36" s="20">
-        <v>840</v>
-      </c>
-      <c r="D36" s="20">
-        <v>530</v>
-      </c>
-      <c r="E36" s="20">
-        <v>320</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ref="H36:H44" si="8">B36*3/2</f>
-        <v>630</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="7"/>
-        <v>1260</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="7"/>
-        <v>795</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="7"/>
-        <v>480</v>
-      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="20">
-        <v>630</v>
-      </c>
-      <c r="C37" s="22">
-        <v>1260</v>
-      </c>
-      <c r="D37" s="20">
-        <v>790</v>
-      </c>
-      <c r="E37" s="20">
-        <v>470</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="8"/>
-        <v>945</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="7"/>
-        <v>1890</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="7"/>
-        <v>1185</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="7"/>
-        <v>705</v>
-      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="20">
-        <v>950</v>
-      </c>
-      <c r="C38" s="22">
-        <v>1890</v>
-      </c>
-      <c r="D38" s="22">
-        <v>1180</v>
-      </c>
-      <c r="E38" s="20">
-        <v>710</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="8"/>
-        <v>1425</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="7"/>
-        <v>2835</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="7"/>
-        <v>1770</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="7"/>
-        <v>1065</v>
-      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="22">
-        <v>1420</v>
-      </c>
-      <c r="C39" s="22">
-        <v>2840</v>
-      </c>
-      <c r="D39" s="22">
-        <v>1770</v>
-      </c>
-      <c r="E39" s="22">
-        <v>1060</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="8"/>
-        <v>2130</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="7"/>
-        <v>4260</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="7"/>
-        <v>2655</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="7"/>
-        <v>1590</v>
-      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="22">
-        <v>2130</v>
-      </c>
-      <c r="C40" s="22">
-        <v>4250</v>
-      </c>
-      <c r="D40" s="22">
-        <v>2660</v>
-      </c>
-      <c r="E40" s="22">
-        <v>1590</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="8"/>
-        <v>3195</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="7"/>
-        <v>6375</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="7"/>
-        <v>3990</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="7"/>
-        <v>2385</v>
-      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="22">
-        <v>3190</v>
-      </c>
-      <c r="C41" s="22">
-        <v>6380</v>
-      </c>
-      <c r="D41" s="22">
-        <v>3990</v>
-      </c>
-      <c r="E41" s="22">
-        <v>2390</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="8"/>
-        <v>4785</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="7"/>
-        <v>9570</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="7"/>
-        <v>5985</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="7"/>
-        <v>3585</v>
-      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="22">
-        <v>4780</v>
-      </c>
-      <c r="C42" s="22">
-        <v>9570</v>
-      </c>
-      <c r="D42" s="22">
-        <v>5980</v>
-      </c>
-      <c r="E42" s="22">
-        <v>3590</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="8"/>
-        <v>7170</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="7"/>
-        <v>14355</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="7"/>
-        <v>8970</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="7"/>
-        <v>5385</v>
-      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="22">
-        <v>7180</v>
-      </c>
-      <c r="C43" s="22">
-        <v>14350</v>
-      </c>
-      <c r="D43" s="22">
-        <v>8970</v>
-      </c>
-      <c r="E43" s="22">
-        <v>5380</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="8"/>
-        <v>10770</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="7"/>
-        <v>21525</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="7"/>
-        <v>13455</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="7"/>
-        <v>8070</v>
-      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="22">
-        <v>10760</v>
-      </c>
-      <c r="C44" s="22">
-        <v>21530</v>
-      </c>
-      <c r="D44" s="22">
-        <v>13460</v>
-      </c>
-      <c r="E44" s="22">
-        <v>8070</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="8"/>
-        <v>16140</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="7"/>
-        <v>32295</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="7"/>
-        <v>20190</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="7"/>
-        <v>12105</v>
-      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M45" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="N45" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="S45" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45" s="55" t="s">
-        <v>5</v>
-      </c>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
-        <v>1120</v>
-      </c>
-      <c r="B46" s="20">
-        <v>1400</v>
-      </c>
-      <c r="C46" s="20">
-        <v>840</v>
-      </c>
-      <c r="D46" s="20">
-        <v>2240</v>
-      </c>
-      <c r="G46">
-        <f>A46*40/2.5</f>
-        <v>17920</v>
-      </c>
-      <c r="H46">
-        <f t="shared" ref="H46:J46" si="9">B46*40/2.5</f>
-        <v>22400</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="9"/>
-        <v>13440</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="9"/>
-        <v>35840</v>
-      </c>
-      <c r="M46">
-        <f>MROUND(G46,10)</f>
-        <v>17920</v>
-      </c>
-      <c r="N46">
-        <f t="shared" ref="N46:P46" si="10">MROUND(H46,10)</f>
-        <v>22400</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="10"/>
-        <v>13440</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="10"/>
-        <v>35840</v>
-      </c>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
-        <v>1680</v>
-      </c>
-      <c r="B47" s="20">
-        <v>2120</v>
-      </c>
-      <c r="C47" s="20">
-        <v>1280</v>
-      </c>
-      <c r="D47" s="20">
-        <v>3360</v>
-      </c>
-      <c r="G47">
-        <f t="shared" ref="G47:G55" si="11">A47*40/2.5</f>
-        <v>26880</v>
-      </c>
-      <c r="H47">
-        <f t="shared" ref="H47:H55" si="12">B47*40/2.5</f>
-        <v>33920</v>
-      </c>
-      <c r="I47">
-        <f t="shared" ref="I47:I55" si="13">C47*40/2.5</f>
-        <v>20480</v>
-      </c>
-      <c r="J47">
-        <f t="shared" ref="J47:J55" si="14">D47*40/2.5</f>
-        <v>53760</v>
-      </c>
-      <c r="M47">
-        <f t="shared" ref="M47:M55" si="15">MROUND(G47,10)</f>
-        <v>26880</v>
-      </c>
-      <c r="N47">
-        <f t="shared" ref="N47:N55" si="16">MROUND(H47,10)</f>
-        <v>33920</v>
-      </c>
-      <c r="O47">
-        <f t="shared" ref="O47:O55" si="17">MROUND(I47,10)</f>
-        <v>20480</v>
-      </c>
-      <c r="P47">
-        <f t="shared" ref="P47:P55" si="18">MROUND(J47,10)</f>
-        <v>53760</v>
-      </c>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
-        <v>2520</v>
-      </c>
-      <c r="B48" s="20">
-        <v>3160</v>
-      </c>
-      <c r="C48" s="20">
-        <v>1880</v>
-      </c>
-      <c r="D48" s="20">
-        <v>5040</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="11"/>
-        <v>40320</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="12"/>
-        <v>50560</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="13"/>
-        <v>30080</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="14"/>
-        <v>80640</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="15"/>
-        <v>40320</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="16"/>
-        <v>50560</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="17"/>
-        <v>30080</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="18"/>
-        <v>80640</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
-        <v>3800</v>
-      </c>
-      <c r="B49" s="20">
-        <v>4720</v>
-      </c>
-      <c r="C49" s="20">
-        <v>2840</v>
-      </c>
-      <c r="D49" s="20">
-        <v>7560</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="11"/>
-        <v>60800</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="12"/>
-        <v>75520</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="13"/>
-        <v>45440</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="14"/>
-        <v>120960</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="15"/>
-        <v>60800</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="16"/>
-        <v>75520</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="17"/>
-        <v>45440</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="18"/>
-        <v>120960</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
-        <v>5680</v>
-      </c>
-      <c r="B50" s="20">
-        <v>7080</v>
-      </c>
-      <c r="C50" s="20">
-        <v>4240</v>
-      </c>
-      <c r="D50" s="20">
-        <v>11360</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="11"/>
-        <v>90880</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="12"/>
-        <v>113280</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="13"/>
-        <v>67840</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="14"/>
-        <v>181760</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="15"/>
-        <v>90880</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="16"/>
-        <v>113280</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="17"/>
-        <v>67840</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="18"/>
-        <v>181760</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
-        <v>8520</v>
-      </c>
-      <c r="B51" s="20">
-        <v>10640</v>
-      </c>
-      <c r="C51" s="20">
-        <v>6360</v>
-      </c>
-      <c r="D51" s="20">
-        <v>17000</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="11"/>
-        <v>136320</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="12"/>
-        <v>170240</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="13"/>
-        <v>101760</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="14"/>
-        <v>272000</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="15"/>
-        <v>136320</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="16"/>
-        <v>170240</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="17"/>
-        <v>101760</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="18"/>
-        <v>272000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
-        <v>12760</v>
-      </c>
-      <c r="B52" s="20">
-        <v>15960</v>
-      </c>
-      <c r="C52" s="20">
-        <v>9560</v>
-      </c>
-      <c r="D52" s="20">
-        <v>25520</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="11"/>
-        <v>204160</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="12"/>
-        <v>255360</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="13"/>
-        <v>152960</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="14"/>
-        <v>408320</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="15"/>
-        <v>204160</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="16"/>
-        <v>255360</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="17"/>
-        <v>152960</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="18"/>
-        <v>408320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
-        <v>19120</v>
-      </c>
-      <c r="B53" s="20">
-        <v>23920</v>
-      </c>
-      <c r="C53" s="20">
-        <v>14360</v>
-      </c>
-      <c r="D53" s="20">
-        <v>38280</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="11"/>
-        <v>305920</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="12"/>
-        <v>382720</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="13"/>
-        <v>229760</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="14"/>
-        <v>612480</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="15"/>
-        <v>305920</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="16"/>
-        <v>382720</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="17"/>
-        <v>229760</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="18"/>
-        <v>612480</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
-        <v>28720</v>
-      </c>
-      <c r="B54" s="20">
-        <v>35880</v>
-      </c>
-      <c r="C54" s="20">
-        <v>21520</v>
-      </c>
-      <c r="D54" s="20">
-        <v>57400</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="11"/>
-        <v>459520</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="12"/>
-        <v>574080</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="13"/>
-        <v>344320</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="14"/>
-        <v>918400</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="15"/>
-        <v>459520</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="16"/>
-        <v>574080</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="17"/>
-        <v>344320</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="18"/>
-        <v>918400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
-        <v>43040</v>
-      </c>
-      <c r="B55" s="20">
-        <v>53840</v>
-      </c>
-      <c r="C55" s="20">
-        <v>32280</v>
-      </c>
-      <c r="D55" s="20">
-        <v>86120</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="11"/>
-        <v>688640</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="12"/>
-        <v>861440</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="13"/>
-        <v>516480</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="14"/>
-        <v>1377920</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="15"/>
-        <v>688640</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="16"/>
-        <v>861440</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="17"/>
-        <v>516480</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="18"/>
-        <v>1377920</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>71680</v>
-      </c>
-      <c r="B57">
-        <v>89600</v>
-      </c>
-      <c r="C57">
-        <v>53760</v>
-      </c>
-      <c r="D57">
-        <v>143360</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>107520</v>
-      </c>
-      <c r="B58">
-        <v>135680</v>
-      </c>
-      <c r="C58">
-        <v>81920</v>
-      </c>
-      <c r="D58">
-        <v>215040</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>161280</v>
-      </c>
-      <c r="B59">
-        <v>202240</v>
-      </c>
-      <c r="C59">
-        <v>120320</v>
-      </c>
-      <c r="D59">
-        <v>322560</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>243200</v>
-      </c>
-      <c r="B60">
-        <v>302080</v>
-      </c>
-      <c r="C60">
-        <v>181760</v>
-      </c>
-      <c r="D60">
-        <v>483840</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>363520</v>
-      </c>
-      <c r="B61">
-        <v>453120</v>
-      </c>
-      <c r="C61">
-        <v>271360</v>
-      </c>
-      <c r="D61">
-        <v>727040</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>545280</v>
-      </c>
-      <c r="B62">
-        <v>680960</v>
-      </c>
-      <c r="C62">
-        <v>407040</v>
-      </c>
-      <c r="D62">
-        <v>1088000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>816640</v>
-      </c>
-      <c r="B63">
-        <v>1021440</v>
-      </c>
-      <c r="C63">
-        <v>611840</v>
-      </c>
-      <c r="D63">
-        <v>1633280</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1223680</v>
-      </c>
-      <c r="B64">
-        <v>1530880</v>
-      </c>
-      <c r="C64">
-        <v>919040</v>
-      </c>
-      <c r="D64">
-        <v>2449920</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1838080</v>
-      </c>
-      <c r="B65">
-        <v>2296320</v>
-      </c>
-      <c r="C65">
-        <v>1377280</v>
-      </c>
-      <c r="D65">
-        <v>3673600</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2754560</v>
-      </c>
-      <c r="B66">
-        <v>3445760</v>
-      </c>
-      <c r="C66">
-        <v>2065920</v>
-      </c>
-      <c r="D66">
-        <v>5511680</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>71680</v>
-      </c>
-      <c r="B68">
-        <v>53760</v>
-      </c>
-      <c r="C68">
-        <v>143360</v>
-      </c>
-      <c r="D68">
-        <v>53760</v>
-      </c>
-      <c r="G68" s="20">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I68">
-        <f>G68*2</f>
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>107520</v>
-      </c>
-      <c r="B69">
-        <v>81920</v>
-      </c>
-      <c r="C69">
-        <v>215040</v>
-      </c>
-      <c r="D69">
-        <v>81920</v>
-      </c>
-      <c r="G69" s="20">
-        <v>4.2</v>
-      </c>
-      <c r="I69">
-        <f t="shared" ref="I69:I77" si="19">G69*2</f>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>161280</v>
-      </c>
-      <c r="B70">
-        <v>120320</v>
-      </c>
-      <c r="C70">
-        <v>322560</v>
-      </c>
-      <c r="D70">
-        <v>120320</v>
-      </c>
-      <c r="G70" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="19"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>243200</v>
-      </c>
-      <c r="B71">
-        <v>181760</v>
-      </c>
-      <c r="C71">
-        <v>483840</v>
-      </c>
-      <c r="D71">
-        <v>181760</v>
-      </c>
-      <c r="G71" s="20">
-        <v>4.8</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="19"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>363520</v>
-      </c>
-      <c r="B72">
-        <v>271360</v>
-      </c>
-      <c r="C72">
-        <v>727040</v>
-      </c>
-      <c r="D72">
-        <v>271360</v>
-      </c>
-      <c r="G72" s="20">
-        <v>5</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="19"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>545280</v>
-      </c>
-      <c r="B73">
-        <v>407040</v>
-      </c>
-      <c r="C73">
-        <v>1088000</v>
-      </c>
-      <c r="D73">
-        <v>407040</v>
-      </c>
-      <c r="G73" s="20">
-        <v>5.5</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="19"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>816640</v>
-      </c>
-      <c r="B74">
-        <v>611840</v>
-      </c>
-      <c r="C74">
-        <v>1633280</v>
-      </c>
-      <c r="D74">
-        <v>611840</v>
-      </c>
-      <c r="G74" s="20">
-        <v>6</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="19"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1223680</v>
-      </c>
-      <c r="B75">
-        <v>919040</v>
-      </c>
-      <c r="C75">
-        <v>2449920</v>
-      </c>
-      <c r="D75">
-        <v>919040</v>
-      </c>
-      <c r="G75" s="20">
-        <v>6.3</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="19"/>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1838080</v>
-      </c>
-      <c r="B76">
-        <v>1377280</v>
-      </c>
-      <c r="C76">
-        <v>3673600</v>
-      </c>
-      <c r="D76">
-        <v>1377280</v>
-      </c>
-      <c r="G76" s="20">
-        <v>6.8</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="19"/>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>2754560</v>
-      </c>
-      <c r="B77">
-        <v>2065920</v>
-      </c>
-      <c r="C77">
-        <v>5511680</v>
-      </c>
-      <c r="D77">
-        <v>2065920</v>
-      </c>
-      <c r="G77" s="20">
-        <v>7</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Xmind/Upgrade_Research/Infantry.xlsx
+++ b/Xmind/Upgrade_Research/Infantry.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Infantry_BộBinh" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RSS_Research" sheetId="3" r:id="rId2"/>
+    <sheet name="Convert Time" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="192">
   <si>
     <t>Level</t>
   </si>
@@ -507,16 +511,117 @@
   </si>
   <si>
     <t>Time(Int)</t>
+  </si>
+  <si>
+    <t>Duration_Upgrade</t>
+  </si>
+  <si>
+    <t>Time_Int</t>
+  </si>
+  <si>
+    <t>Harvest per Min</t>
+  </si>
+  <si>
+    <t>excel Time</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Excel Time</t>
+  </si>
+  <si>
+    <t>FormatTime</t>
+  </si>
+  <si>
+    <t>1d 08:47:00</t>
+  </si>
+  <si>
+    <t>4d 02:19:00</t>
+  </si>
+  <si>
+    <t>12d 06:55:00</t>
+  </si>
+  <si>
+    <t>36d 20:45:00</t>
+  </si>
+  <si>
+    <t>92d 03:52:00</t>
+  </si>
+  <si>
+    <t>00:25:00</t>
+  </si>
+  <si>
+    <t>01:38:00</t>
+  </si>
+  <si>
+    <t>03:23:00</t>
+  </si>
+  <si>
+    <t>04:44:00</t>
+  </si>
+  <si>
+    <t>10:56:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08:47:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:55:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03:52:00</t>
+  </si>
+  <si>
+    <t>Gathering Speed %</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>Công thức thu hoạch mỏ</t>
+  </si>
+  <si>
+    <t>Nếu Lượng thu hoạch &gt;=sản lượng mỏ =&gt; Harvest per Min =&gt; thu hoạch tiếp theo</t>
+  </si>
+  <si>
+    <t>Nếu Lượng thu hoạch &lt; sản lượng mỏ =&gt; Lượng thu hoạch/ Harvest per Min =&gt; thu hoạch tiếp theo</t>
+  </si>
+  <si>
+    <t>Trước khi thu hoạch =&gt; có thời gian chuẩn bị phụ thuộc khoảng cách mỏ và thành</t>
+  </si>
+  <si>
+    <t>Lượng thu hoạch: Số lượng lính x sức chứa của lính</t>
+  </si>
+  <si>
+    <t>Thời gian thu hoạch = Lượng thu hoạch/Harvest per Min</t>
+  </si>
+  <si>
+    <t>RSS/Min</t>
+  </si>
+  <si>
+    <t>Nếu Lượng thu hoạch &gt;=sản lượng mỏ =&gt; Thời gian thu hoạch theo bảng dưới</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="d&quot;d&quot;:h&quot;h&quot;:mm&quot;m&quot;:ss&quot;s&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="m&quot;m&quot;:d&quot;d&quot;:h&quot;h&quot;:mm&quot;m&quot;:ss&quot;s&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,8 +645,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,8 +708,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -662,12 +786,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -772,6 +906,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -790,14 +952,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1084,8 +1241,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,23 +1275,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="K1" s="55" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+      <c r="K1" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -1412,7 +1572,7 @@
       <c r="G10" s="15">
         <v>1.0416666666666667E-3</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="51">
         <v>90</v>
       </c>
       <c r="I10" s="6"/>
@@ -1442,7 +1602,7 @@
       <c r="G11" s="15">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="51">
         <v>180</v>
       </c>
       <c r="I11" s="6"/>
@@ -1470,7 +1630,7 @@
       <c r="G12" s="15">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="51">
         <v>5760</v>
       </c>
       <c r="I12" s="6"/>
@@ -1498,7 +1658,7 @@
       <c r="G13" s="15">
         <v>0.13333333333333333</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="51">
         <v>11520</v>
       </c>
       <c r="I13" s="6"/>
@@ -1526,7 +1686,7 @@
       <c r="G14" s="15">
         <v>0.24</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="51">
         <v>20736</v>
       </c>
       <c r="I14" s="6"/>
@@ -1564,7 +1724,7 @@
       <c r="G15" s="15">
         <v>0.49920138888888888</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="51">
         <v>43131</v>
       </c>
       <c r="I15" s="6" t="s">
@@ -1602,7 +1762,7 @@
       <c r="G16" s="15">
         <v>0.57408564814814811</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="51">
         <v>49601</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -1638,7 +1798,7 @@
       <c r="G17" s="15">
         <v>0.66019675925925925</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="51">
         <v>57041</v>
       </c>
       <c r="I17" s="6" t="s">
@@ -1674,7 +1834,7 @@
       <c r="G18" s="15">
         <v>0.75922453703703707</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="51">
         <v>65597</v>
       </c>
       <c r="I18" s="6" t="s">
@@ -1712,7 +1872,7 @@
       <c r="G19" s="15">
         <v>0.873113425925926</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="51">
         <v>75437</v>
       </c>
       <c r="I19" s="6" t="s">
@@ -1752,7 +1912,7 @@
       <c r="G20" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="51">
         <v>86752</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -1790,7 +1950,7 @@
       <c r="G21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="51">
         <v>99766</v>
       </c>
       <c r="I21" s="6" t="s">
@@ -1828,7 +1988,7 @@
       <c r="G22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="51">
         <v>110400</v>
       </c>
       <c r="I22" s="6" t="s">
@@ -1866,7 +2026,7 @@
       <c r="G23" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="51">
         <v>131940</v>
       </c>
       <c r="I23" s="6" t="s">
@@ -1904,7 +2064,7 @@
       <c r="G24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="51">
         <v>182280</v>
       </c>
       <c r="I24" s="6" t="s">
@@ -1942,7 +2102,7 @@
       <c r="G25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="51">
         <v>362430</v>
       </c>
       <c r="I25" s="6" t="s">
@@ -1980,7 +2140,7 @@
       <c r="G26" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="51">
         <v>441630</v>
       </c>
       <c r="I26" s="6" t="s">
@@ -2018,7 +2178,7 @@
       <c r="G27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="51">
         <v>568074</v>
       </c>
       <c r="I27" s="6" t="s">
@@ -2056,7 +2216,7 @@
       <c r="G28" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="51">
         <v>1022520</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -2094,7 +2254,7 @@
       <c r="G29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="51">
         <v>3578865</v>
       </c>
       <c r="I29" s="6" t="s">
@@ -2198,193 +2358,193 @@
       <c r="AM33" s="38"/>
     </row>
     <row r="34" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="H34" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="I34" s="51" t="s">
+      <c r="I34" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L34" s="50" t="s">
+      <c r="L34" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="M34" s="50" t="s">
+      <c r="M34" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="N34" s="50" t="s">
+      <c r="N34" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="O34" s="50" t="s">
+      <c r="O34" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="P34" s="50" t="s">
+      <c r="P34" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q34" s="50" t="s">
+      <c r="Q34" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="R34" s="50" t="s">
+      <c r="R34" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="S34" s="51" t="s">
+      <c r="S34" s="75" t="s">
         <v>7</v>
       </c>
       <c r="T34" s="24"/>
-      <c r="U34" s="50" t="s">
+      <c r="U34" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="V34" s="50" t="s">
+      <c r="V34" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="W34" s="50" t="s">
+      <c r="W34" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X34" s="50" t="s">
+      <c r="X34" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="Y34" s="50" t="s">
+      <c r="Y34" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="Z34" s="50" t="s">
+      <c r="Z34" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AA34" s="50" t="s">
+      <c r="AA34" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AB34" s="50" t="s">
+      <c r="AB34" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AC34" s="51" t="s">
+      <c r="AC34" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AE34" s="50" t="s">
+      <c r="AE34" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AF34" s="50" t="s">
+      <c r="AF34" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AG34" s="50" t="s">
+      <c r="AG34" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AH34" s="50" t="s">
+      <c r="AH34" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AI34" s="50" t="s">
+      <c r="AI34" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AJ34" s="50" t="s">
+      <c r="AJ34" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AK34" s="50" t="s">
+      <c r="AK34" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AL34" s="50" t="s">
+      <c r="AL34" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AM34" s="51" t="s">
+      <c r="AM34" s="75" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="51"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="51"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="75"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="75"/>
       <c r="T35" s="24"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="51"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
-      <c r="AH35" s="50"/>
-      <c r="AI35" s="50"/>
-      <c r="AJ35" s="50"/>
-      <c r="AK35" s="50"/>
-      <c r="AL35" s="50"/>
-      <c r="AM35" s="51"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="75"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="74"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="74"/>
+      <c r="AI35" s="74"/>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="74"/>
+      <c r="AL35" s="74"/>
+      <c r="AM35" s="75"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="51"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="75"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="75"/>
       <c r="T36" s="24"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50"/>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="50"/>
-      <c r="AB36" s="50"/>
-      <c r="AC36" s="51"/>
-      <c r="AE36" s="50"/>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="50"/>
-      <c r="AH36" s="50"/>
-      <c r="AI36" s="50"/>
-      <c r="AJ36" s="50"/>
-      <c r="AK36" s="50"/>
-      <c r="AL36" s="50"/>
-      <c r="AM36" s="51"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="74"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="75"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="74"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="74"/>
+      <c r="AI36" s="74"/>
+      <c r="AJ36" s="74"/>
+      <c r="AK36" s="74"/>
+      <c r="AL36" s="74"/>
+      <c r="AM36" s="75"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -3586,193 +3746,193 @@
       <c r="AM50" s="38"/>
     </row>
     <row r="51" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="50" t="s">
+      <c r="E51" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F51" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G51" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="50" t="s">
+      <c r="H51" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="I51" s="51" t="s">
+      <c r="I51" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="K51" s="50" t="s">
+      <c r="K51" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L51" s="50" t="s">
+      <c r="L51" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="M51" s="50" t="s">
+      <c r="M51" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="N51" s="50" t="s">
+      <c r="N51" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="O51" s="50" t="s">
+      <c r="O51" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="P51" s="50" t="s">
+      <c r="P51" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q51" s="50" t="s">
+      <c r="Q51" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="R51" s="50" t="s">
+      <c r="R51" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="S51" s="51" t="s">
+      <c r="S51" s="75" t="s">
         <v>7</v>
       </c>
       <c r="T51" s="24"/>
-      <c r="U51" s="50" t="s">
+      <c r="U51" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="V51" s="50" t="s">
+      <c r="V51" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="W51" s="50" t="s">
+      <c r="W51" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X51" s="50" t="s">
+      <c r="X51" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="Y51" s="50" t="s">
+      <c r="Y51" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="Z51" s="50" t="s">
+      <c r="Z51" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AA51" s="50" t="s">
+      <c r="AA51" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AB51" s="50" t="s">
+      <c r="AB51" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AC51" s="51" t="s">
+      <c r="AC51" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AE51" s="50" t="s">
+      <c r="AE51" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AF51" s="50" t="s">
+      <c r="AF51" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AG51" s="50" t="s">
+      <c r="AG51" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AH51" s="50" t="s">
+      <c r="AH51" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AI51" s="50" t="s">
+      <c r="AI51" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AJ51" s="50" t="s">
+      <c r="AJ51" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AK51" s="50" t="s">
+      <c r="AK51" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AL51" s="50" t="s">
+      <c r="AL51" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AM51" s="51" t="s">
+      <c r="AM51" s="75" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="51"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="51"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="75"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74"/>
+      <c r="S52" s="75"/>
       <c r="T52" s="24"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
-      <c r="W52" s="50"/>
-      <c r="X52" s="50"/>
-      <c r="Y52" s="50"/>
-      <c r="Z52" s="50"/>
-      <c r="AA52" s="50"/>
-      <c r="AB52" s="50"/>
-      <c r="AC52" s="51"/>
-      <c r="AE52" s="50"/>
-      <c r="AF52" s="50"/>
-      <c r="AG52" s="50"/>
-      <c r="AH52" s="50"/>
-      <c r="AI52" s="50"/>
-      <c r="AJ52" s="50"/>
-      <c r="AK52" s="50"/>
-      <c r="AL52" s="50"/>
-      <c r="AM52" s="51"/>
+      <c r="U52" s="74"/>
+      <c r="V52" s="74"/>
+      <c r="W52" s="74"/>
+      <c r="X52" s="74"/>
+      <c r="Y52" s="74"/>
+      <c r="Z52" s="74"/>
+      <c r="AA52" s="74"/>
+      <c r="AB52" s="74"/>
+      <c r="AC52" s="75"/>
+      <c r="AE52" s="74"/>
+      <c r="AF52" s="74"/>
+      <c r="AG52" s="74"/>
+      <c r="AH52" s="74"/>
+      <c r="AI52" s="74"/>
+      <c r="AJ52" s="74"/>
+      <c r="AK52" s="74"/>
+      <c r="AL52" s="74"/>
+      <c r="AM52" s="75"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="51"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="50"/>
-      <c r="S53" s="51"/>
+      <c r="A53" s="74"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="75"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74"/>
+      <c r="S53" s="75"/>
       <c r="T53" s="24"/>
-      <c r="U53" s="50"/>
-      <c r="V53" s="50"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="50"/>
-      <c r="Z53" s="50"/>
-      <c r="AA53" s="50"/>
-      <c r="AB53" s="50"/>
-      <c r="AC53" s="51"/>
-      <c r="AE53" s="50"/>
-      <c r="AF53" s="50"/>
-      <c r="AG53" s="50"/>
-      <c r="AH53" s="50"/>
-      <c r="AI53" s="50"/>
-      <c r="AJ53" s="50"/>
-      <c r="AK53" s="50"/>
-      <c r="AL53" s="50"/>
-      <c r="AM53" s="51"/>
+      <c r="U53" s="74"/>
+      <c r="V53" s="74"/>
+      <c r="W53" s="74"/>
+      <c r="X53" s="74"/>
+      <c r="Y53" s="74"/>
+      <c r="Z53" s="74"/>
+      <c r="AA53" s="74"/>
+      <c r="AB53" s="74"/>
+      <c r="AC53" s="75"/>
+      <c r="AE53" s="74"/>
+      <c r="AF53" s="74"/>
+      <c r="AG53" s="74"/>
+      <c r="AH53" s="74"/>
+      <c r="AI53" s="74"/>
+      <c r="AJ53" s="74"/>
+      <c r="AK53" s="74"/>
+      <c r="AL53" s="74"/>
+      <c r="AM53" s="75"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
@@ -4924,193 +5084,193 @@
       <c r="AM67" s="38"/>
     </row>
     <row r="68" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="50" t="s">
+      <c r="D68" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="F68" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="50" t="s">
+      <c r="G68" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="50" t="s">
+      <c r="H68" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="I68" s="51" t="s">
+      <c r="I68" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="50" t="s">
+      <c r="K68" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L68" s="50" t="s">
+      <c r="L68" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="M68" s="50" t="s">
+      <c r="M68" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="N68" s="50" t="s">
+      <c r="N68" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="O68" s="50" t="s">
+      <c r="O68" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="P68" s="50" t="s">
+      <c r="P68" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q68" s="50" t="s">
+      <c r="Q68" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="R68" s="50" t="s">
+      <c r="R68" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="S68" s="51" t="s">
+      <c r="S68" s="75" t="s">
         <v>7</v>
       </c>
       <c r="T68" s="24"/>
-      <c r="U68" s="50" t="s">
+      <c r="U68" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="V68" s="50" t="s">
+      <c r="V68" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="W68" s="50" t="s">
+      <c r="W68" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X68" s="50" t="s">
+      <c r="X68" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="Y68" s="50" t="s">
+      <c r="Y68" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="Z68" s="50" t="s">
+      <c r="Z68" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AA68" s="50" t="s">
+      <c r="AA68" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AB68" s="50" t="s">
+      <c r="AB68" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AC68" s="51" t="s">
+      <c r="AC68" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AE68" s="50" t="s">
+      <c r="AE68" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AF68" s="50" t="s">
+      <c r="AF68" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AG68" s="50" t="s">
+      <c r="AG68" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AH68" s="50" t="s">
+      <c r="AH68" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AI68" s="50" t="s">
+      <c r="AI68" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AJ68" s="50" t="s">
+      <c r="AJ68" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AK68" s="50" t="s">
+      <c r="AK68" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AL68" s="50" t="s">
+      <c r="AL68" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AM68" s="51" t="s">
+      <c r="AM68" s="75" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="51"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="50"/>
-      <c r="R69" s="50"/>
-      <c r="S69" s="51"/>
+      <c r="A69" s="74"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="75"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="74"/>
+      <c r="M69" s="74"/>
+      <c r="N69" s="74"/>
+      <c r="O69" s="74"/>
+      <c r="P69" s="74"/>
+      <c r="Q69" s="74"/>
+      <c r="R69" s="74"/>
+      <c r="S69" s="75"/>
       <c r="T69" s="24"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="50"/>
-      <c r="W69" s="50"/>
-      <c r="X69" s="50"/>
-      <c r="Y69" s="50"/>
-      <c r="Z69" s="50"/>
-      <c r="AA69" s="50"/>
-      <c r="AB69" s="50"/>
-      <c r="AC69" s="51"/>
-      <c r="AE69" s="50"/>
-      <c r="AF69" s="50"/>
-      <c r="AG69" s="50"/>
-      <c r="AH69" s="50"/>
-      <c r="AI69" s="50"/>
-      <c r="AJ69" s="50"/>
-      <c r="AK69" s="50"/>
-      <c r="AL69" s="50"/>
-      <c r="AM69" s="51"/>
+      <c r="U69" s="74"/>
+      <c r="V69" s="74"/>
+      <c r="W69" s="74"/>
+      <c r="X69" s="74"/>
+      <c r="Y69" s="74"/>
+      <c r="Z69" s="74"/>
+      <c r="AA69" s="74"/>
+      <c r="AB69" s="74"/>
+      <c r="AC69" s="75"/>
+      <c r="AE69" s="74"/>
+      <c r="AF69" s="74"/>
+      <c r="AG69" s="74"/>
+      <c r="AH69" s="74"/>
+      <c r="AI69" s="74"/>
+      <c r="AJ69" s="74"/>
+      <c r="AK69" s="74"/>
+      <c r="AL69" s="74"/>
+      <c r="AM69" s="75"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="51"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="50"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
-      <c r="Q70" s="50"/>
-      <c r="R70" s="50"/>
-      <c r="S70" s="51"/>
+      <c r="A70" s="74"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="75"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="74"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="74"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="74"/>
+      <c r="S70" s="75"/>
       <c r="T70" s="24"/>
-      <c r="U70" s="50"/>
-      <c r="V70" s="50"/>
-      <c r="W70" s="50"/>
-      <c r="X70" s="50"/>
-      <c r="Y70" s="50"/>
-      <c r="Z70" s="50"/>
-      <c r="AA70" s="50"/>
-      <c r="AB70" s="50"/>
-      <c r="AC70" s="51"/>
-      <c r="AE70" s="50"/>
-      <c r="AF70" s="50"/>
-      <c r="AG70" s="50"/>
-      <c r="AH70" s="50"/>
-      <c r="AI70" s="50"/>
-      <c r="AJ70" s="50"/>
-      <c r="AK70" s="50"/>
-      <c r="AL70" s="50"/>
-      <c r="AM70" s="51"/>
+      <c r="U70" s="74"/>
+      <c r="V70" s="74"/>
+      <c r="W70" s="74"/>
+      <c r="X70" s="74"/>
+      <c r="Y70" s="74"/>
+      <c r="Z70" s="74"/>
+      <c r="AA70" s="74"/>
+      <c r="AB70" s="74"/>
+      <c r="AC70" s="75"/>
+      <c r="AE70" s="74"/>
+      <c r="AF70" s="74"/>
+      <c r="AG70" s="74"/>
+      <c r="AH70" s="74"/>
+      <c r="AI70" s="74"/>
+      <c r="AJ70" s="74"/>
+      <c r="AK70" s="74"/>
+      <c r="AL70" s="74"/>
+      <c r="AM70" s="75"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
@@ -6262,193 +6422,193 @@
       <c r="AM84" s="38"/>
     </row>
     <row r="85" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B85" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C85" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="50" t="s">
+      <c r="D85" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="50" t="s">
+      <c r="E85" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="50" t="s">
+      <c r="F85" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="50" t="s">
+      <c r="G85" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H85" s="50" t="s">
+      <c r="H85" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="I85" s="51" t="s">
+      <c r="I85" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="K85" s="50" t="s">
+      <c r="K85" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L85" s="50" t="s">
+      <c r="L85" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="M85" s="50" t="s">
+      <c r="M85" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="N85" s="50" t="s">
+      <c r="N85" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="O85" s="50" t="s">
+      <c r="O85" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="P85" s="50" t="s">
+      <c r="P85" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q85" s="50" t="s">
+      <c r="Q85" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="R85" s="50" t="s">
+      <c r="R85" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="S85" s="51" t="s">
+      <c r="S85" s="75" t="s">
         <v>7</v>
       </c>
       <c r="T85" s="24"/>
-      <c r="U85" s="50" t="s">
+      <c r="U85" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="V85" s="50" t="s">
+      <c r="V85" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="W85" s="50" t="s">
+      <c r="W85" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="X85" s="50" t="s">
+      <c r="X85" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="Y85" s="50" t="s">
+      <c r="Y85" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="Z85" s="50" t="s">
+      <c r="Z85" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AA85" s="50" t="s">
+      <c r="AA85" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AB85" s="50" t="s">
+      <c r="AB85" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AC85" s="51" t="s">
+      <c r="AC85" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="AE85" s="50" t="s">
+      <c r="AE85" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AF85" s="50" t="s">
+      <c r="AF85" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="AG85" s="50" t="s">
+      <c r="AG85" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AH85" s="50" t="s">
+      <c r="AH85" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AI85" s="50" t="s">
+      <c r="AI85" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AJ85" s="50" t="s">
+      <c r="AJ85" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="AK85" s="50" t="s">
+      <c r="AK85" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AL85" s="50" t="s">
+      <c r="AL85" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="AM85" s="51" t="s">
+      <c r="AM85" s="75" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="51"/>
-      <c r="K86" s="50"/>
-      <c r="L86" s="50"/>
-      <c r="M86" s="50"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="50"/>
-      <c r="P86" s="50"/>
-      <c r="Q86" s="50"/>
-      <c r="R86" s="50"/>
-      <c r="S86" s="51"/>
+      <c r="A86" s="74"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
+      <c r="F86" s="74"/>
+      <c r="G86" s="74"/>
+      <c r="H86" s="74"/>
+      <c r="I86" s="75"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="74"/>
+      <c r="Q86" s="74"/>
+      <c r="R86" s="74"/>
+      <c r="S86" s="75"/>
       <c r="T86" s="24"/>
-      <c r="U86" s="50"/>
-      <c r="V86" s="50"/>
-      <c r="W86" s="50"/>
-      <c r="X86" s="50"/>
-      <c r="Y86" s="50"/>
-      <c r="Z86" s="50"/>
-      <c r="AA86" s="50"/>
-      <c r="AB86" s="50"/>
-      <c r="AC86" s="51"/>
-      <c r="AE86" s="50"/>
-      <c r="AF86" s="50"/>
-      <c r="AG86" s="50"/>
-      <c r="AH86" s="50"/>
-      <c r="AI86" s="50"/>
-      <c r="AJ86" s="50"/>
-      <c r="AK86" s="50"/>
-      <c r="AL86" s="50"/>
-      <c r="AM86" s="51"/>
+      <c r="U86" s="74"/>
+      <c r="V86" s="74"/>
+      <c r="W86" s="74"/>
+      <c r="X86" s="74"/>
+      <c r="Y86" s="74"/>
+      <c r="Z86" s="74"/>
+      <c r="AA86" s="74"/>
+      <c r="AB86" s="74"/>
+      <c r="AC86" s="75"/>
+      <c r="AE86" s="74"/>
+      <c r="AF86" s="74"/>
+      <c r="AG86" s="74"/>
+      <c r="AH86" s="74"/>
+      <c r="AI86" s="74"/>
+      <c r="AJ86" s="74"/>
+      <c r="AK86" s="74"/>
+      <c r="AL86" s="74"/>
+      <c r="AM86" s="75"/>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A87" s="50"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="51"/>
-      <c r="K87" s="50"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="50"/>
-      <c r="O87" s="50"/>
-      <c r="P87" s="50"/>
-      <c r="Q87" s="50"/>
-      <c r="R87" s="50"/>
-      <c r="S87" s="51"/>
+      <c r="A87" s="74"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="75"/>
+      <c r="K87" s="74"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="74"/>
+      <c r="N87" s="74"/>
+      <c r="O87" s="74"/>
+      <c r="P87" s="74"/>
+      <c r="Q87" s="74"/>
+      <c r="R87" s="74"/>
+      <c r="S87" s="75"/>
       <c r="T87" s="24"/>
-      <c r="U87" s="50"/>
-      <c r="V87" s="50"/>
-      <c r="W87" s="50"/>
-      <c r="X87" s="50"/>
-      <c r="Y87" s="50"/>
-      <c r="Z87" s="50"/>
-      <c r="AA87" s="50"/>
-      <c r="AB87" s="50"/>
-      <c r="AC87" s="51"/>
-      <c r="AE87" s="50"/>
-      <c r="AF87" s="50"/>
-      <c r="AG87" s="50"/>
-      <c r="AH87" s="50"/>
-      <c r="AI87" s="50"/>
-      <c r="AJ87" s="50"/>
-      <c r="AK87" s="50"/>
-      <c r="AL87" s="50"/>
-      <c r="AM87" s="51"/>
+      <c r="U87" s="74"/>
+      <c r="V87" s="74"/>
+      <c r="W87" s="74"/>
+      <c r="X87" s="74"/>
+      <c r="Y87" s="74"/>
+      <c r="Z87" s="74"/>
+      <c r="AA87" s="74"/>
+      <c r="AB87" s="74"/>
+      <c r="AC87" s="75"/>
+      <c r="AE87" s="74"/>
+      <c r="AF87" s="74"/>
+      <c r="AG87" s="74"/>
+      <c r="AH87" s="74"/>
+      <c r="AI87" s="74"/>
+      <c r="AJ87" s="74"/>
+      <c r="AK87" s="74"/>
+      <c r="AL87" s="74"/>
+      <c r="AM87" s="75"/>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
@@ -7636,18 +7796,4767 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="1">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="53"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="63">
+        <v>0</v>
+      </c>
+      <c r="B2" s="64">
+        <v>0</v>
+      </c>
+      <c r="C2" s="64">
+        <v>0</v>
+      </c>
+      <c r="D2" s="64">
+        <v>0</v>
+      </c>
+      <c r="E2" s="64">
+        <v>0</v>
+      </c>
+      <c r="F2" s="63">
+        <v>0</v>
+      </c>
+      <c r="G2" s="63">
+        <v>0</v>
+      </c>
+      <c r="H2" s="63">
+        <v>125</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="O2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="63">
+        <v>1</v>
+      </c>
+      <c r="B3" s="65">
+        <v>520</v>
+      </c>
+      <c r="C3" s="65">
+        <v>860</v>
+      </c>
+      <c r="D3" s="65">
+        <v>860</v>
+      </c>
+      <c r="E3" s="65">
+        <v>630</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="G3" s="65">
+        <f>F3*1440*60</f>
+        <v>1500</v>
+      </c>
+      <c r="H3" s="66">
+        <f>H2+J3</f>
+        <v>130</v>
+      </c>
+      <c r="I3" s="66">
+        <f>(H3-H2)/H2*100</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="53">
+        <v>5</v>
+      </c>
+      <c r="K3" s="53">
+        <f>H3/$H$2*100-100</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="54">
+        <f>TIMEVALUE(M3)</f>
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="N3" s="60">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="Q3">
+        <f>HOUR(N3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="27">
+        <f>MINUTE(N3)</f>
+        <v>25</v>
+      </c>
+      <c r="S3" s="27">
+        <f>SECOND(N3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="63">
+        <v>2</v>
+      </c>
+      <c r="B4" s="65">
+        <v>1710</v>
+      </c>
+      <c r="C4" s="65">
+        <v>2860</v>
+      </c>
+      <c r="D4" s="65">
+        <v>2860</v>
+      </c>
+      <c r="E4" s="65">
+        <v>2090</v>
+      </c>
+      <c r="F4" s="21">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="G4" s="65">
+        <f>F4*1440*60</f>
+        <v>5879.9999999999991</v>
+      </c>
+      <c r="H4" s="66">
+        <f t="shared" ref="H4:H12" si="0">H3+J4</f>
+        <v>140</v>
+      </c>
+      <c r="I4" s="66">
+        <f t="shared" ref="I4:I12" si="1">(H4-H3)/H3*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J4" s="53">
+        <v>10</v>
+      </c>
+      <c r="K4" s="53">
+        <f t="shared" ref="K4:K12" si="2">H4/$H$2*100-100</f>
+        <v>12.000000000000014</v>
+      </c>
+      <c r="L4" s="54">
+        <f>TIMEVALUE(M4)</f>
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="N4" s="60">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="Q4">
+        <f>HOUR(N4)</f>
+        <v>1</v>
+      </c>
+      <c r="R4" s="27">
+        <f>MINUTE(N4)</f>
+        <v>38</v>
+      </c>
+      <c r="S4" s="27">
+        <f>SECOND(N4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="63">
+        <v>3</v>
+      </c>
+      <c r="B5" s="65">
+        <v>5140</v>
+      </c>
+      <c r="C5" s="65">
+        <v>8560</v>
+      </c>
+      <c r="D5" s="65">
+        <v>8560</v>
+      </c>
+      <c r="E5" s="65">
+        <v>6280</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="G5" s="65">
+        <f>F5*1440*60</f>
+        <v>12180</v>
+      </c>
+      <c r="H5" s="66">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I5" s="66">
+        <f t="shared" si="1"/>
+        <v>10.714285714285714</v>
+      </c>
+      <c r="J5" s="53">
+        <v>15</v>
+      </c>
+      <c r="K5" s="53">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="L5" s="54">
+        <f>TIMEVALUE(M5)</f>
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="N5" s="60">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="Q5">
+        <f>HOUR(N5)</f>
+        <v>3</v>
+      </c>
+      <c r="R5" s="27">
+        <f>MINUTE(N5)</f>
+        <v>23</v>
+      </c>
+      <c r="S5" s="27">
+        <f>SECOND(N5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="63">
+        <v>4</v>
+      </c>
+      <c r="B6" s="65">
+        <v>17130</v>
+      </c>
+      <c r="C6" s="65">
+        <v>28540</v>
+      </c>
+      <c r="D6" s="65">
+        <v>28540</v>
+      </c>
+      <c r="E6" s="65">
+        <v>20940</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="G6" s="65">
+        <f>F6*1440*60</f>
+        <v>17040</v>
+      </c>
+      <c r="H6" s="66">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="I6" s="66">
+        <f t="shared" si="1"/>
+        <v>12.903225806451612</v>
+      </c>
+      <c r="J6" s="53">
+        <v>20</v>
+      </c>
+      <c r="K6" s="53">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="L6" s="54">
+        <f>TIMEVALUE(M6)</f>
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" s="60">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="Q6">
+        <f>HOUR(N6)</f>
+        <v>4</v>
+      </c>
+      <c r="R6" s="27">
+        <f>MINUTE(N6)</f>
+        <v>44</v>
+      </c>
+      <c r="S6" s="27">
+        <f>SECOND(N6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="63">
+        <v>5</v>
+      </c>
+      <c r="B7" s="65">
+        <v>42820</v>
+      </c>
+      <c r="C7" s="65">
+        <v>71360</v>
+      </c>
+      <c r="D7" s="65">
+        <v>71360</v>
+      </c>
+      <c r="E7" s="65">
+        <v>52330</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="G7" s="65">
+        <f>F7*1440*60</f>
+        <v>39360</v>
+      </c>
+      <c r="H7" s="66">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="I7" s="66">
+        <f t="shared" si="1"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="J7" s="53">
+        <v>30</v>
+      </c>
+      <c r="K7" s="53">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="L7" s="54">
+        <f>TIMEVALUE(M7)</f>
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="N7" s="60">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="Q7">
+        <f>HOUR(N7)</f>
+        <v>10</v>
+      </c>
+      <c r="R7" s="27">
+        <f>MINUTE(N7)</f>
+        <v>56</v>
+      </c>
+      <c r="S7" s="27">
+        <f>SECOND(N7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="63">
+        <v>6</v>
+      </c>
+      <c r="B8" s="65">
+        <v>85630</v>
+      </c>
+      <c r="C8" s="65">
+        <v>142720</v>
+      </c>
+      <c r="D8" s="65">
+        <v>194660</v>
+      </c>
+      <c r="E8" s="65">
+        <v>104660</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="65">
+        <f>S8+R8*60+Q8*60*60+P8*24*60*60</f>
+        <v>118020</v>
+      </c>
+      <c r="H8" s="66">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="I8" s="66">
+        <f t="shared" si="1"/>
+        <v>19.512195121951219</v>
+      </c>
+      <c r="J8" s="53">
+        <v>40</v>
+      </c>
+      <c r="K8" s="53">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="M8" t="s">
+        <v>167</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="60">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f>HOUR(O8)</f>
+        <v>8</v>
+      </c>
+      <c r="R8" s="27">
+        <f>MINUTE(O8)</f>
+        <v>47</v>
+      </c>
+      <c r="S8" s="27">
+        <f>SECOND(O8)</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>P8*24*(60*60)</f>
+        <v>86400</v>
+      </c>
+      <c r="V8">
+        <f>Q8*60*60</f>
+        <v>28800</v>
+      </c>
+      <c r="W8">
+        <f>R8*60</f>
+        <v>2820</v>
+      </c>
+      <c r="X8">
+        <f>S8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="63">
+        <v>7</v>
+      </c>
+      <c r="B9" s="65">
+        <v>428140</v>
+      </c>
+      <c r="C9" s="65">
+        <v>713570</v>
+      </c>
+      <c r="D9" s="65">
+        <v>713570</v>
+      </c>
+      <c r="E9" s="65">
+        <v>523290</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="65">
+        <f>S9+R9*60+Q9*60*60+P9*24*60*60</f>
+        <v>353940</v>
+      </c>
+      <c r="H9" s="66">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="I9" s="66">
+        <f t="shared" si="1"/>
+        <v>20.408163265306122</v>
+      </c>
+      <c r="J9" s="53">
+        <v>50</v>
+      </c>
+      <c r="K9" s="53">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" s="60">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <f>HOUR(O9)</f>
+        <v>2</v>
+      </c>
+      <c r="R9" s="27">
+        <f>MINUTE(O9)</f>
+        <v>19</v>
+      </c>
+      <c r="S9" s="27">
+        <f>SECOND(O9)</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>P9*24*(60*60)</f>
+        <v>345600</v>
+      </c>
+      <c r="V9">
+        <f>Q9*60*60</f>
+        <v>7200</v>
+      </c>
+      <c r="W9">
+        <f>R9*60</f>
+        <v>1140</v>
+      </c>
+      <c r="X9">
+        <f>S9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="63">
+        <v>8</v>
+      </c>
+      <c r="B10" s="65">
+        <v>856030</v>
+      </c>
+      <c r="C10" s="65">
+        <v>1427140</v>
+      </c>
+      <c r="D10" s="65">
+        <v>1427140</v>
+      </c>
+      <c r="E10" s="65">
+        <v>1046570</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="65">
+        <f>S10+R10*60+Q10*60*60+P10*24*60*60</f>
+        <v>1061700</v>
+      </c>
+      <c r="H10" s="66">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="I10" s="66">
+        <f t="shared" si="1"/>
+        <v>20.33898305084746</v>
+      </c>
+      <c r="J10" s="53">
+        <v>60</v>
+      </c>
+      <c r="K10" s="53">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10" s="60">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="P10">
+        <v>12</v>
+      </c>
+      <c r="Q10">
+        <f>HOUR(O10)</f>
+        <v>6</v>
+      </c>
+      <c r="R10" s="27">
+        <f>MINUTE(O10)</f>
+        <v>55</v>
+      </c>
+      <c r="S10" s="27">
+        <f>SECOND(O10)</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>P10*24*(60*60)</f>
+        <v>1036800</v>
+      </c>
+      <c r="V10">
+        <f>Q10*60*60</f>
+        <v>21600</v>
+      </c>
+      <c r="W10">
+        <f>R10*60</f>
+        <v>3300</v>
+      </c>
+      <c r="X10">
+        <f>S10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="63">
+        <v>9</v>
+      </c>
+      <c r="B11" s="65">
+        <v>1712570</v>
+      </c>
+      <c r="C11" s="65">
+        <v>2854280</v>
+      </c>
+      <c r="D11" s="65">
+        <v>2854280</v>
+      </c>
+      <c r="E11" s="65">
+        <v>3093140</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="65">
+        <f>S11+R11*60+Q11*60*60+P11*24*60*60</f>
+        <v>3185100</v>
+      </c>
+      <c r="H11" s="66">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="I11" s="66">
+        <f t="shared" si="1"/>
+        <v>19.718309859154928</v>
+      </c>
+      <c r="J11" s="53">
+        <v>70</v>
+      </c>
+      <c r="K11" s="53">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="L11" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11">
+        <v>36</v>
+      </c>
+      <c r="O11" s="60">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="P11">
+        <v>36</v>
+      </c>
+      <c r="Q11">
+        <f>HOUR(O11)</f>
+        <v>20</v>
+      </c>
+      <c r="R11" s="27">
+        <f>MINUTE(O11)</f>
+        <v>45</v>
+      </c>
+      <c r="S11" s="27">
+        <f>SECOND(O11)</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>P11*24*(60*60)</f>
+        <v>3110400</v>
+      </c>
+      <c r="V11">
+        <f>Q11*60*60</f>
+        <v>72000</v>
+      </c>
+      <c r="W11">
+        <f>R11*60</f>
+        <v>2700</v>
+      </c>
+      <c r="X11">
+        <f>S11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="63">
+        <v>10</v>
+      </c>
+      <c r="B12" s="65">
+        <v>3425140</v>
+      </c>
+      <c r="C12" s="65">
+        <v>5708570</v>
+      </c>
+      <c r="D12" s="65">
+        <v>5708570</v>
+      </c>
+      <c r="E12" s="65">
+        <v>15464810</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="65">
+        <f>S12+R12*60+Q12*60*60+P12*24*60*60</f>
+        <v>7962720</v>
+      </c>
+      <c r="H12" s="66">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="I12" s="66">
+        <f t="shared" si="1"/>
+        <v>18.823529411764707</v>
+      </c>
+      <c r="J12" s="53">
+        <v>80</v>
+      </c>
+      <c r="K12" s="53">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12">
+        <v>92</v>
+      </c>
+      <c r="O12" s="60">
+        <v>0.16111111111111112</v>
+      </c>
+      <c r="P12">
+        <v>92</v>
+      </c>
+      <c r="Q12">
+        <f>HOUR(O12)</f>
+        <v>3</v>
+      </c>
+      <c r="R12" s="27">
+        <f>MINUTE(O12)</f>
+        <v>52</v>
+      </c>
+      <c r="S12" s="27">
+        <f>SECOND(O12)</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>P12*24*(60*60)</f>
+        <v>7948800</v>
+      </c>
+      <c r="V12">
+        <f>Q12*60*60</f>
+        <v>10800</v>
+      </c>
+      <c r="W12">
+        <f>R12*60</f>
+        <v>3120</v>
+      </c>
+      <c r="X12">
+        <f>S12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="60"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="60"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="60"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="60"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="60"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="J19" s="53"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+    </row>
+    <row r="21" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="67">
+        <f>H2</f>
+        <v>125</v>
+      </c>
+      <c r="C21" s="68">
+        <f>H3</f>
+        <v>130</v>
+      </c>
+      <c r="D21" s="68">
+        <f>H4</f>
+        <v>140</v>
+      </c>
+      <c r="E21" s="68">
+        <f>H5</f>
+        <v>155</v>
+      </c>
+      <c r="F21" s="68">
+        <f>H6</f>
+        <v>175</v>
+      </c>
+      <c r="G21" s="68">
+        <f>H7</f>
+        <v>205</v>
+      </c>
+      <c r="H21" s="68">
+        <f>H8</f>
+        <v>245</v>
+      </c>
+      <c r="I21" s="68">
+        <f>H9</f>
+        <v>295</v>
+      </c>
+      <c r="J21" s="68">
+        <f>H10</f>
+        <v>355</v>
+      </c>
+      <c r="K21" s="68">
+        <f>H11</f>
+        <v>425</v>
+      </c>
+      <c r="L21" s="68">
+        <f>H12</f>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="70">
+        <v>125000</v>
+      </c>
+      <c r="B22" s="69">
+        <f t="shared" ref="B22:B40" si="3">$A22/B$21/(60)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C22" s="69">
+        <f t="shared" ref="C22:L37" si="4">$A22/C$21/(60)</f>
+        <v>16.025641025641026</v>
+      </c>
+      <c r="D22" s="69">
+        <f t="shared" si="4"/>
+        <v>14.880952380952381</v>
+      </c>
+      <c r="E22" s="69">
+        <f t="shared" si="4"/>
+        <v>13.440860215053764</v>
+      </c>
+      <c r="F22" s="69">
+        <f t="shared" si="4"/>
+        <v>11.904761904761905</v>
+      </c>
+      <c r="G22" s="69">
+        <f t="shared" si="4"/>
+        <v>10.16260162601626</v>
+      </c>
+      <c r="H22" s="69">
+        <f t="shared" si="4"/>
+        <v>8.5034013605442187</v>
+      </c>
+      <c r="I22" s="69">
+        <f t="shared" si="4"/>
+        <v>7.0621468926553668</v>
+      </c>
+      <c r="J22" s="69">
+        <f t="shared" si="4"/>
+        <v>5.868544600938967</v>
+      </c>
+      <c r="K22" s="69">
+        <f t="shared" si="4"/>
+        <v>4.9019607843137258</v>
+      </c>
+      <c r="L22" s="69">
+        <f t="shared" si="4"/>
+        <v>4.1254125412541258</v>
+      </c>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="70">
+        <v>180000</v>
+      </c>
+      <c r="B23" s="69">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C23" s="69">
+        <f t="shared" si="4"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="D23" s="69">
+        <f t="shared" si="4"/>
+        <v>21.428571428571431</v>
+      </c>
+      <c r="E23" s="69">
+        <f t="shared" si="4"/>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="F23" s="69">
+        <f t="shared" si="4"/>
+        <v>17.142857142857146</v>
+      </c>
+      <c r="G23" s="69">
+        <f t="shared" si="4"/>
+        <v>14.634146341463413</v>
+      </c>
+      <c r="H23" s="69">
+        <f t="shared" si="4"/>
+        <v>12.244897959183673</v>
+      </c>
+      <c r="I23" s="69">
+        <f t="shared" si="4"/>
+        <v>10.169491525423728</v>
+      </c>
+      <c r="J23" s="69">
+        <f t="shared" si="4"/>
+        <v>8.4507042253521139</v>
+      </c>
+      <c r="K23" s="69">
+        <f t="shared" si="4"/>
+        <v>7.0588235294117645</v>
+      </c>
+      <c r="L23" s="69">
+        <f t="shared" si="4"/>
+        <v>5.9405940594059405</v>
+      </c>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="U23" s="55"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="70">
+        <v>200000</v>
+      </c>
+      <c r="B24" s="69">
+        <f t="shared" si="3"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="C24" s="69">
+        <f t="shared" si="4"/>
+        <v>25.641025641025642</v>
+      </c>
+      <c r="D24" s="69">
+        <f t="shared" si="4"/>
+        <v>23.80952380952381</v>
+      </c>
+      <c r="E24" s="69">
+        <f t="shared" si="4"/>
+        <v>21.50537634408602</v>
+      </c>
+      <c r="F24" s="69">
+        <f t="shared" si="4"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="G24" s="69">
+        <f t="shared" si="4"/>
+        <v>16.260162601626018</v>
+      </c>
+      <c r="H24" s="69">
+        <f t="shared" si="4"/>
+        <v>13.605442176870749</v>
+      </c>
+      <c r="I24" s="69">
+        <f t="shared" si="4"/>
+        <v>11.299435028248586</v>
+      </c>
+      <c r="J24" s="69">
+        <f t="shared" si="4"/>
+        <v>9.3896713615023462</v>
+      </c>
+      <c r="K24" s="69">
+        <f t="shared" si="4"/>
+        <v>7.8431372549019605</v>
+      </c>
+      <c r="L24" s="69">
+        <f t="shared" si="4"/>
+        <v>6.6006600660066006</v>
+      </c>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="U24" s="55"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="70">
+        <v>250000</v>
+      </c>
+      <c r="B25" s="69">
+        <f t="shared" si="3"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="C25" s="69">
+        <f t="shared" si="4"/>
+        <v>32.051282051282051</v>
+      </c>
+      <c r="D25" s="69">
+        <f t="shared" si="4"/>
+        <v>29.761904761904763</v>
+      </c>
+      <c r="E25" s="69">
+        <f t="shared" si="4"/>
+        <v>26.881720430107528</v>
+      </c>
+      <c r="F25" s="69">
+        <f t="shared" si="4"/>
+        <v>23.80952380952381</v>
+      </c>
+      <c r="G25" s="69">
+        <f t="shared" si="4"/>
+        <v>20.325203252032519</v>
+      </c>
+      <c r="H25" s="69">
+        <f t="shared" si="4"/>
+        <v>17.006802721088437</v>
+      </c>
+      <c r="I25" s="69">
+        <f t="shared" si="4"/>
+        <v>14.124293785310734</v>
+      </c>
+      <c r="J25" s="69">
+        <f t="shared" si="4"/>
+        <v>11.737089201877934</v>
+      </c>
+      <c r="K25" s="69">
+        <f t="shared" si="4"/>
+        <v>9.8039215686274517</v>
+      </c>
+      <c r="L25" s="69">
+        <f t="shared" si="4"/>
+        <v>8.2508250825082516</v>
+      </c>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="U25" s="55"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="70">
+        <v>300000</v>
+      </c>
+      <c r="B26" s="69">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="C26" s="69">
+        <f t="shared" si="4"/>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="D26" s="69">
+        <f t="shared" si="4"/>
+        <v>35.714285714285708</v>
+      </c>
+      <c r="E26" s="69">
+        <f t="shared" si="4"/>
+        <v>32.258064516129032</v>
+      </c>
+      <c r="F26" s="69">
+        <f t="shared" si="4"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="G26" s="69">
+        <f t="shared" si="4"/>
+        <v>24.390243902439025</v>
+      </c>
+      <c r="H26" s="69">
+        <f t="shared" si="4"/>
+        <v>20.408163265306122</v>
+      </c>
+      <c r="I26" s="69">
+        <f t="shared" si="4"/>
+        <v>16.949152542372882</v>
+      </c>
+      <c r="J26" s="69">
+        <f t="shared" si="4"/>
+        <v>14.084507042253522</v>
+      </c>
+      <c r="K26" s="69">
+        <f t="shared" si="4"/>
+        <v>11.76470588235294</v>
+      </c>
+      <c r="L26" s="69">
+        <f t="shared" si="4"/>
+        <v>9.9009900990099009</v>
+      </c>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="U26" s="55"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="70">
+        <v>350000</v>
+      </c>
+      <c r="B27" s="69">
+        <f t="shared" si="3"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="C27" s="69">
+        <f t="shared" si="4"/>
+        <v>44.871794871794876</v>
+      </c>
+      <c r="D27" s="69">
+        <f t="shared" si="4"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="E27" s="69">
+        <f t="shared" si="4"/>
+        <v>37.634408602150536</v>
+      </c>
+      <c r="F27" s="69">
+        <f t="shared" si="4"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="G27" s="69">
+        <f t="shared" si="4"/>
+        <v>28.455284552845526</v>
+      </c>
+      <c r="H27" s="69">
+        <f t="shared" si="4"/>
+        <v>23.80952380952381</v>
+      </c>
+      <c r="I27" s="69">
+        <f t="shared" si="4"/>
+        <v>19.774011299435028</v>
+      </c>
+      <c r="J27" s="69">
+        <f t="shared" si="4"/>
+        <v>16.431924882629108</v>
+      </c>
+      <c r="K27" s="69">
+        <f t="shared" si="4"/>
+        <v>13.725490196078431</v>
+      </c>
+      <c r="L27" s="69">
+        <f t="shared" si="4"/>
+        <v>11.551155115511552</v>
+      </c>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="U27" s="55"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="70">
+        <v>425000</v>
+      </c>
+      <c r="B28" s="69">
+        <f t="shared" si="3"/>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="C28" s="69">
+        <f t="shared" si="4"/>
+        <v>54.487179487179482</v>
+      </c>
+      <c r="D28" s="69">
+        <f t="shared" si="4"/>
+        <v>50.595238095238095</v>
+      </c>
+      <c r="E28" s="69">
+        <f t="shared" si="4"/>
+        <v>45.6989247311828</v>
+      </c>
+      <c r="F28" s="69">
+        <f t="shared" si="4"/>
+        <v>40.476190476190474</v>
+      </c>
+      <c r="G28" s="69">
+        <f t="shared" si="4"/>
+        <v>34.552845528455279</v>
+      </c>
+      <c r="H28" s="69">
+        <f t="shared" si="4"/>
+        <v>28.911564625850342</v>
+      </c>
+      <c r="I28" s="69">
+        <f t="shared" si="4"/>
+        <v>24.011299435028249</v>
+      </c>
+      <c r="J28" s="69">
+        <f t="shared" si="4"/>
+        <v>19.953051643192488</v>
+      </c>
+      <c r="K28" s="69">
+        <f t="shared" si="4"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L28" s="69">
+        <f t="shared" si="4"/>
+        <v>14.026402640264026</v>
+      </c>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="U28" s="55"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="70">
+        <v>500000</v>
+      </c>
+      <c r="B29" s="69">
+        <f t="shared" si="3"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="C29" s="69">
+        <f t="shared" si="4"/>
+        <v>64.102564102564102</v>
+      </c>
+      <c r="D29" s="69">
+        <f t="shared" si="4"/>
+        <v>59.523809523809526</v>
+      </c>
+      <c r="E29" s="69">
+        <f t="shared" si="4"/>
+        <v>53.763440860215056</v>
+      </c>
+      <c r="F29" s="69">
+        <f t="shared" si="4"/>
+        <v>47.61904761904762</v>
+      </c>
+      <c r="G29" s="69">
+        <f t="shared" si="4"/>
+        <v>40.650406504065039</v>
+      </c>
+      <c r="H29" s="69">
+        <f t="shared" si="4"/>
+        <v>34.013605442176875</v>
+      </c>
+      <c r="I29" s="69">
+        <f t="shared" si="4"/>
+        <v>28.248587570621467</v>
+      </c>
+      <c r="J29" s="69">
+        <f t="shared" si="4"/>
+        <v>23.474178403755868</v>
+      </c>
+      <c r="K29" s="69">
+        <f t="shared" si="4"/>
+        <v>19.607843137254903</v>
+      </c>
+      <c r="L29" s="69">
+        <f t="shared" si="4"/>
+        <v>16.501650165016503</v>
+      </c>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="U29" s="55"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="70">
+        <v>700000</v>
+      </c>
+      <c r="B30" s="69">
+        <f t="shared" si="3"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="C30" s="69">
+        <f t="shared" si="4"/>
+        <v>89.743589743589752</v>
+      </c>
+      <c r="D30" s="69">
+        <f t="shared" si="4"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="E30" s="69">
+        <f t="shared" si="4"/>
+        <v>75.268817204301072</v>
+      </c>
+      <c r="F30" s="69">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G30" s="69">
+        <f t="shared" si="4"/>
+        <v>56.910569105691053</v>
+      </c>
+      <c r="H30" s="69">
+        <f t="shared" si="4"/>
+        <v>47.61904761904762</v>
+      </c>
+      <c r="I30" s="69">
+        <f t="shared" si="4"/>
+        <v>39.548022598870055</v>
+      </c>
+      <c r="J30" s="69">
+        <f t="shared" si="4"/>
+        <v>32.863849765258216</v>
+      </c>
+      <c r="K30" s="69">
+        <f t="shared" si="4"/>
+        <v>27.450980392156861</v>
+      </c>
+      <c r="L30" s="69">
+        <f t="shared" si="4"/>
+        <v>23.102310231023104</v>
+      </c>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="U30" s="55"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="70">
+        <v>750000</v>
+      </c>
+      <c r="B31" s="69">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C31" s="69">
+        <f t="shared" si="4"/>
+        <v>96.15384615384616</v>
+      </c>
+      <c r="D31" s="69">
+        <f t="shared" si="4"/>
+        <v>89.285714285714278</v>
+      </c>
+      <c r="E31" s="69">
+        <f t="shared" si="4"/>
+        <v>80.645161290322591</v>
+      </c>
+      <c r="F31" s="69">
+        <f t="shared" si="4"/>
+        <v>71.428571428571416</v>
+      </c>
+      <c r="G31" s="69">
+        <f t="shared" si="4"/>
+        <v>60.975609756097562</v>
+      </c>
+      <c r="H31" s="69">
+        <f t="shared" si="4"/>
+        <v>51.020408163265309</v>
+      </c>
+      <c r="I31" s="69">
+        <f t="shared" si="4"/>
+        <v>42.372881355932208</v>
+      </c>
+      <c r="J31" s="69">
+        <f t="shared" si="4"/>
+        <v>35.2112676056338</v>
+      </c>
+      <c r="K31" s="69">
+        <f t="shared" si="4"/>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="L31" s="69">
+        <f t="shared" si="4"/>
+        <v>24.75247524752475</v>
+      </c>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="U31" s="55"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="70">
+        <v>900000</v>
+      </c>
+      <c r="B32" s="69">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="C32" s="69">
+        <f t="shared" si="4"/>
+        <v>115.38461538461539</v>
+      </c>
+      <c r="D32" s="69">
+        <f t="shared" si="4"/>
+        <v>107.14285714285714</v>
+      </c>
+      <c r="E32" s="69">
+        <f t="shared" si="4"/>
+        <v>96.774193548387089</v>
+      </c>
+      <c r="F32" s="69">
+        <f t="shared" si="4"/>
+        <v>85.714285714285722</v>
+      </c>
+      <c r="G32" s="69">
+        <f t="shared" si="4"/>
+        <v>73.170731707317074</v>
+      </c>
+      <c r="H32" s="69">
+        <f t="shared" si="4"/>
+        <v>61.224489795918366</v>
+      </c>
+      <c r="I32" s="69">
+        <f t="shared" si="4"/>
+        <v>50.847457627118644</v>
+      </c>
+      <c r="J32" s="69">
+        <f t="shared" si="4"/>
+        <v>42.253521126760567</v>
+      </c>
+      <c r="K32" s="69">
+        <f t="shared" si="4"/>
+        <v>35.294117647058819</v>
+      </c>
+      <c r="L32" s="69">
+        <f t="shared" si="4"/>
+        <v>29.702970297029704</v>
+      </c>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="U32" s="55"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="70">
+        <v>950000</v>
+      </c>
+      <c r="B33" s="69">
+        <f t="shared" si="3"/>
+        <v>126.66666666666667</v>
+      </c>
+      <c r="C33" s="69">
+        <f t="shared" si="4"/>
+        <v>121.7948717948718</v>
+      </c>
+      <c r="D33" s="69">
+        <f t="shared" si="4"/>
+        <v>113.09523809523809</v>
+      </c>
+      <c r="E33" s="69">
+        <f t="shared" si="4"/>
+        <v>102.15053763440861</v>
+      </c>
+      <c r="F33" s="69">
+        <f t="shared" si="4"/>
+        <v>90.476190476190467</v>
+      </c>
+      <c r="G33" s="69">
+        <f t="shared" si="4"/>
+        <v>77.235772357723576</v>
+      </c>
+      <c r="H33" s="69">
+        <f t="shared" si="4"/>
+        <v>64.625850340136054</v>
+      </c>
+      <c r="I33" s="69">
+        <f t="shared" si="4"/>
+        <v>53.672316384180796</v>
+      </c>
+      <c r="J33" s="69">
+        <f t="shared" si="4"/>
+        <v>44.600938967136152</v>
+      </c>
+      <c r="K33" s="69">
+        <f t="shared" si="4"/>
+        <v>37.254901960784316</v>
+      </c>
+      <c r="L33" s="69">
+        <f t="shared" si="4"/>
+        <v>31.353135313531354</v>
+      </c>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="U33" s="55"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="70">
+        <v>1200000</v>
+      </c>
+      <c r="B34" s="69">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="C34" s="69">
+        <f t="shared" si="4"/>
+        <v>153.84615384615384</v>
+      </c>
+      <c r="D34" s="69">
+        <f t="shared" si="4"/>
+        <v>142.85714285714283</v>
+      </c>
+      <c r="E34" s="69">
+        <f t="shared" si="4"/>
+        <v>129.03225806451613</v>
+      </c>
+      <c r="F34" s="69">
+        <f t="shared" si="4"/>
+        <v>114.28571428571428</v>
+      </c>
+      <c r="G34" s="69">
+        <f t="shared" si="4"/>
+        <v>97.560975609756099</v>
+      </c>
+      <c r="H34" s="69">
+        <f t="shared" si="4"/>
+        <v>81.632653061224488</v>
+      </c>
+      <c r="I34" s="69">
+        <f t="shared" si="4"/>
+        <v>67.79661016949153</v>
+      </c>
+      <c r="J34" s="69">
+        <f t="shared" si="4"/>
+        <v>56.338028169014088</v>
+      </c>
+      <c r="K34" s="69">
+        <f t="shared" si="4"/>
+        <v>47.058823529411761</v>
+      </c>
+      <c r="L34" s="69">
+        <f t="shared" si="4"/>
+        <v>39.603960396039604</v>
+      </c>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="U34" s="55"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="70">
+        <v>1250000</v>
+      </c>
+      <c r="B35" s="69">
+        <f t="shared" si="3"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="C35" s="69">
+        <f t="shared" si="4"/>
+        <v>160.25641025641025</v>
+      </c>
+      <c r="D35" s="69">
+        <f t="shared" si="4"/>
+        <v>148.80952380952382</v>
+      </c>
+      <c r="E35" s="69">
+        <f t="shared" si="4"/>
+        <v>134.40860215053763</v>
+      </c>
+      <c r="F35" s="69">
+        <f t="shared" si="4"/>
+        <v>119.04761904761905</v>
+      </c>
+      <c r="G35" s="69">
+        <f t="shared" si="4"/>
+        <v>101.62601626016261</v>
+      </c>
+      <c r="H35" s="69">
+        <f t="shared" si="4"/>
+        <v>85.034013605442183</v>
+      </c>
+      <c r="I35" s="69">
+        <f t="shared" si="4"/>
+        <v>70.621468926553675</v>
+      </c>
+      <c r="J35" s="69">
+        <f t="shared" si="4"/>
+        <v>58.685446009389672</v>
+      </c>
+      <c r="K35" s="69">
+        <f t="shared" si="4"/>
+        <v>49.019607843137251</v>
+      </c>
+      <c r="L35" s="69">
+        <f t="shared" si="4"/>
+        <v>41.254125412541256</v>
+      </c>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="U35" s="55"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="70">
+        <v>1600000</v>
+      </c>
+      <c r="B36" s="69">
+        <f t="shared" si="3"/>
+        <v>213.33333333333334</v>
+      </c>
+      <c r="C36" s="69">
+        <f t="shared" si="4"/>
+        <v>205.12820512820514</v>
+      </c>
+      <c r="D36" s="69">
+        <f t="shared" si="4"/>
+        <v>190.47619047619048</v>
+      </c>
+      <c r="E36" s="69">
+        <f t="shared" si="4"/>
+        <v>172.04301075268816</v>
+      </c>
+      <c r="F36" s="69">
+        <f t="shared" si="4"/>
+        <v>152.38095238095238</v>
+      </c>
+      <c r="G36" s="69">
+        <f t="shared" si="4"/>
+        <v>130.08130081300814</v>
+      </c>
+      <c r="H36" s="69">
+        <f t="shared" si="4"/>
+        <v>108.84353741496599</v>
+      </c>
+      <c r="I36" s="69">
+        <f t="shared" si="4"/>
+        <v>90.395480225988692</v>
+      </c>
+      <c r="J36" s="69">
+        <f t="shared" si="4"/>
+        <v>75.117370892018769</v>
+      </c>
+      <c r="K36" s="69">
+        <f t="shared" si="4"/>
+        <v>62.745098039215684</v>
+      </c>
+      <c r="L36" s="69">
+        <f t="shared" si="4"/>
+        <v>52.805280528052805</v>
+      </c>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="U36" s="55"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="70">
+        <v>2475000</v>
+      </c>
+      <c r="B37" s="69">
+        <f t="shared" si="3"/>
+        <v>330</v>
+      </c>
+      <c r="C37" s="69">
+        <f t="shared" si="4"/>
+        <v>317.30769230769232</v>
+      </c>
+      <c r="D37" s="69">
+        <f t="shared" si="4"/>
+        <v>294.64285714285711</v>
+      </c>
+      <c r="E37" s="69">
+        <f t="shared" si="4"/>
+        <v>266.12903225806451</v>
+      </c>
+      <c r="F37" s="69">
+        <f t="shared" si="4"/>
+        <v>235.71428571428572</v>
+      </c>
+      <c r="G37" s="69">
+        <f t="shared" si="4"/>
+        <v>201.21951219512195</v>
+      </c>
+      <c r="H37" s="69">
+        <f t="shared" si="4"/>
+        <v>168.36734693877551</v>
+      </c>
+      <c r="I37" s="69">
+        <f t="shared" si="4"/>
+        <v>139.83050847457628</v>
+      </c>
+      <c r="J37" s="69">
+        <f t="shared" si="4"/>
+        <v>116.19718309859155</v>
+      </c>
+      <c r="K37" s="69">
+        <f t="shared" si="4"/>
+        <v>97.058823529411768</v>
+      </c>
+      <c r="L37" s="69">
+        <f t="shared" si="4"/>
+        <v>81.683168316831683</v>
+      </c>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="U37" s="55"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="70">
+        <v>3000000</v>
+      </c>
+      <c r="B38" s="69">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="C38" s="69">
+        <f t="shared" ref="C38:L40" si="5">$A38/C$21/(60)</f>
+        <v>384.61538461538464</v>
+      </c>
+      <c r="D38" s="69">
+        <f t="shared" si="5"/>
+        <v>357.14285714285711</v>
+      </c>
+      <c r="E38" s="69">
+        <f t="shared" si="5"/>
+        <v>322.58064516129036</v>
+      </c>
+      <c r="F38" s="69">
+        <f t="shared" si="5"/>
+        <v>285.71428571428567</v>
+      </c>
+      <c r="G38" s="69">
+        <f t="shared" si="5"/>
+        <v>243.90243902439025</v>
+      </c>
+      <c r="H38" s="69">
+        <f t="shared" si="5"/>
+        <v>204.08163265306123</v>
+      </c>
+      <c r="I38" s="69">
+        <f t="shared" si="5"/>
+        <v>169.49152542372883</v>
+      </c>
+      <c r="J38" s="69">
+        <f t="shared" si="5"/>
+        <v>140.8450704225352</v>
+      </c>
+      <c r="K38" s="69">
+        <f t="shared" si="5"/>
+        <v>117.64705882352942</v>
+      </c>
+      <c r="L38" s="69">
+        <f t="shared" si="5"/>
+        <v>99.009900990098998</v>
+      </c>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="U38" s="55"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="70">
+        <v>3500000</v>
+      </c>
+      <c r="B39" s="69">
+        <f t="shared" si="3"/>
+        <v>466.66666666666669</v>
+      </c>
+      <c r="C39" s="69">
+        <f t="shared" si="5"/>
+        <v>448.71794871794867</v>
+      </c>
+      <c r="D39" s="69">
+        <f t="shared" si="5"/>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="E39" s="69">
+        <f t="shared" si="5"/>
+        <v>376.34408602150535</v>
+      </c>
+      <c r="F39" s="69">
+        <f t="shared" si="5"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="G39" s="69">
+        <f t="shared" si="5"/>
+        <v>284.55284552845529</v>
+      </c>
+      <c r="H39" s="69">
+        <f t="shared" si="5"/>
+        <v>238.0952380952381</v>
+      </c>
+      <c r="I39" s="69">
+        <f t="shared" si="5"/>
+        <v>197.74011299435026</v>
+      </c>
+      <c r="J39" s="69">
+        <f t="shared" si="5"/>
+        <v>164.31924882629107</v>
+      </c>
+      <c r="K39" s="69">
+        <f t="shared" si="5"/>
+        <v>137.25490196078434</v>
+      </c>
+      <c r="L39" s="69">
+        <f t="shared" si="5"/>
+        <v>115.51155115511551</v>
+      </c>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="U39" s="55"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="70">
+        <v>4150000</v>
+      </c>
+      <c r="B40" s="69">
+        <f t="shared" si="3"/>
+        <v>553.33333333333337</v>
+      </c>
+      <c r="C40" s="69">
+        <f t="shared" si="5"/>
+        <v>532.05128205128199</v>
+      </c>
+      <c r="D40" s="69">
+        <f t="shared" si="5"/>
+        <v>494.04761904761904</v>
+      </c>
+      <c r="E40" s="69">
+        <f t="shared" si="5"/>
+        <v>446.23655913978496</v>
+      </c>
+      <c r="F40" s="69">
+        <f t="shared" si="5"/>
+        <v>395.23809523809524</v>
+      </c>
+      <c r="G40" s="69">
+        <f t="shared" si="5"/>
+        <v>337.39837398373982</v>
+      </c>
+      <c r="H40" s="69">
+        <f t="shared" si="5"/>
+        <v>282.31292517006807</v>
+      </c>
+      <c r="I40" s="69">
+        <f t="shared" si="5"/>
+        <v>234.46327683615817</v>
+      </c>
+      <c r="J40" s="69">
+        <f t="shared" si="5"/>
+        <v>194.8356807511737</v>
+      </c>
+      <c r="K40" s="69">
+        <f t="shared" si="5"/>
+        <v>162.74509803921566</v>
+      </c>
+      <c r="L40" s="69">
+        <f t="shared" si="5"/>
+        <v>136.96369636963698</v>
+      </c>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="U40" s="55"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="U41" s="55"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="54">
+        <f>B22/1440</f>
+        <v>1.1574074074074075E-2</v>
+      </c>
+      <c r="C42" s="54">
+        <f t="shared" ref="C42:K42" si="6">C22/1440</f>
+        <v>1.1128917378917379E-2</v>
+      </c>
+      <c r="D42" s="54">
+        <f t="shared" si="6"/>
+        <v>1.0333994708994709E-2</v>
+      </c>
+      <c r="E42" s="54">
+        <f t="shared" si="6"/>
+        <v>9.3339307048984476E-3</v>
+      </c>
+      <c r="F42" s="54">
+        <f t="shared" si="6"/>
+        <v>8.2671957671957667E-3</v>
+      </c>
+      <c r="G42" s="54">
+        <f t="shared" si="6"/>
+        <v>7.0573622402890692E-3</v>
+      </c>
+      <c r="H42" s="54">
+        <f t="shared" si="6"/>
+        <v>5.9051398337112626E-3</v>
+      </c>
+      <c r="I42" s="54">
+        <f t="shared" si="6"/>
+        <v>4.9042686754551161E-3</v>
+      </c>
+      <c r="J42" s="54">
+        <f t="shared" si="6"/>
+        <v>4.0753781950965051E-3</v>
+      </c>
+      <c r="K42" s="54">
+        <f t="shared" si="6"/>
+        <v>3.4041394335511985E-3</v>
+      </c>
+      <c r="L42" s="54">
+        <f>L22/1440</f>
+        <v>2.864869820315365E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="54">
+        <f t="shared" ref="B43:L43" si="7">B23/1440</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C43" s="54">
+        <f t="shared" si="7"/>
+        <v>1.6025641025641024E-2</v>
+      </c>
+      <c r="D43" s="54">
+        <f t="shared" si="7"/>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="E43" s="54">
+        <f t="shared" si="7"/>
+        <v>1.3440860215053764E-2</v>
+      </c>
+      <c r="F43" s="54">
+        <f t="shared" si="7"/>
+        <v>1.1904761904761908E-2</v>
+      </c>
+      <c r="G43" s="54">
+        <f t="shared" si="7"/>
+        <v>1.016260162601626E-2</v>
+      </c>
+      <c r="H43" s="54">
+        <f t="shared" si="7"/>
+        <v>8.5034013605442167E-3</v>
+      </c>
+      <c r="I43" s="54">
+        <f t="shared" si="7"/>
+        <v>7.0621468926553672E-3</v>
+      </c>
+      <c r="J43" s="54">
+        <f t="shared" si="7"/>
+        <v>5.8685446009389677E-3</v>
+      </c>
+      <c r="K43" s="54">
+        <f t="shared" si="7"/>
+        <v>4.9019607843137254E-3</v>
+      </c>
+      <c r="L43" s="54">
+        <f t="shared" si="7"/>
+        <v>4.125412541254125E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="54">
+        <f t="shared" ref="B44:L44" si="8">B24/1440</f>
+        <v>1.8518518518518521E-2</v>
+      </c>
+      <c r="C44" s="54">
+        <f t="shared" si="8"/>
+        <v>1.7806267806267807E-2</v>
+      </c>
+      <c r="D44" s="54">
+        <f t="shared" si="8"/>
+        <v>1.6534391534391533E-2</v>
+      </c>
+      <c r="E44" s="54">
+        <f t="shared" si="8"/>
+        <v>1.4934289127837515E-2</v>
+      </c>
+      <c r="F44" s="54">
+        <f t="shared" si="8"/>
+        <v>1.3227513227513227E-2</v>
+      </c>
+      <c r="G44" s="54">
+        <f t="shared" si="8"/>
+        <v>1.1291779584462511E-2</v>
+      </c>
+      <c r="H44" s="54">
+        <f t="shared" si="8"/>
+        <v>9.4482237339380201E-3</v>
+      </c>
+      <c r="I44" s="54">
+        <f t="shared" si="8"/>
+        <v>7.8468298807281844E-3</v>
+      </c>
+      <c r="J44" s="54">
+        <f t="shared" si="8"/>
+        <v>6.5206051121544069E-3</v>
+      </c>
+      <c r="K44" s="54">
+        <f t="shared" si="8"/>
+        <v>5.4466230936819167E-3</v>
+      </c>
+      <c r="L44" s="54">
+        <f t="shared" si="8"/>
+        <v>4.5837917125045834E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="54">
+        <f t="shared" ref="B45:L45" si="9">B25/1440</f>
+        <v>2.314814814814815E-2</v>
+      </c>
+      <c r="C45" s="54">
+        <f t="shared" si="9"/>
+        <v>2.2257834757834757E-2</v>
+      </c>
+      <c r="D45" s="54">
+        <f t="shared" si="9"/>
+        <v>2.0667989417989419E-2</v>
+      </c>
+      <c r="E45" s="54">
+        <f t="shared" si="9"/>
+        <v>1.8667861409796895E-2</v>
+      </c>
+      <c r="F45" s="54">
+        <f t="shared" si="9"/>
+        <v>1.6534391534391533E-2</v>
+      </c>
+      <c r="G45" s="54">
+        <f t="shared" si="9"/>
+        <v>1.4114724480578138E-2</v>
+      </c>
+      <c r="H45" s="54">
+        <f t="shared" si="9"/>
+        <v>1.1810279667422525E-2</v>
+      </c>
+      <c r="I45" s="54">
+        <f t="shared" si="9"/>
+        <v>9.8085373509102323E-3</v>
+      </c>
+      <c r="J45" s="54">
+        <f t="shared" si="9"/>
+        <v>8.1507563901930102E-3</v>
+      </c>
+      <c r="K45" s="54">
+        <f t="shared" si="9"/>
+        <v>6.8082788671023969E-3</v>
+      </c>
+      <c r="L45" s="54">
+        <f t="shared" si="9"/>
+        <v>5.7297396406307301E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="54">
+        <f t="shared" ref="B46:L46" si="10">B26/1440</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C46" s="54">
+        <f t="shared" si="10"/>
+        <v>2.6709401709401708E-2</v>
+      </c>
+      <c r="D46" s="54">
+        <f t="shared" si="10"/>
+        <v>2.4801587301587297E-2</v>
+      </c>
+      <c r="E46" s="54">
+        <f t="shared" si="10"/>
+        <v>2.2401433691756272E-2</v>
+      </c>
+      <c r="F46" s="54">
+        <f t="shared" si="10"/>
+        <v>1.984126984126984E-2</v>
+      </c>
+      <c r="G46" s="54">
+        <f t="shared" si="10"/>
+        <v>1.6937669376693769E-2</v>
+      </c>
+      <c r="H46" s="54">
+        <f t="shared" si="10"/>
+        <v>1.4172335600907028E-2</v>
+      </c>
+      <c r="I46" s="54">
+        <f t="shared" si="10"/>
+        <v>1.177024482109228E-2</v>
+      </c>
+      <c r="J46" s="54">
+        <f t="shared" si="10"/>
+        <v>9.7809076682316125E-3</v>
+      </c>
+      <c r="K46" s="54">
+        <f t="shared" si="10"/>
+        <v>8.1699346405228745E-3</v>
+      </c>
+      <c r="L46" s="54">
+        <f t="shared" si="10"/>
+        <v>6.8756875687568759E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="54">
+        <f t="shared" ref="B47:L47" si="11">B27/1440</f>
+        <v>3.2407407407407406E-2</v>
+      </c>
+      <c r="C47" s="54">
+        <f t="shared" si="11"/>
+        <v>3.1160968660968662E-2</v>
+      </c>
+      <c r="D47" s="54">
+        <f t="shared" si="11"/>
+        <v>2.8935185185185182E-2</v>
+      </c>
+      <c r="E47" s="54">
+        <f t="shared" si="11"/>
+        <v>2.6135005973715649E-2</v>
+      </c>
+      <c r="F47" s="54">
+        <f t="shared" si="11"/>
+        <v>2.314814814814815E-2</v>
+      </c>
+      <c r="G47" s="54">
+        <f t="shared" si="11"/>
+        <v>1.9760614272809392E-2</v>
+      </c>
+      <c r="H47" s="54">
+        <f t="shared" si="11"/>
+        <v>1.6534391534391533E-2</v>
+      </c>
+      <c r="I47" s="54">
+        <f t="shared" si="11"/>
+        <v>1.3731952291274324E-2</v>
+      </c>
+      <c r="J47" s="54">
+        <f t="shared" si="11"/>
+        <v>1.1411058946270213E-2</v>
+      </c>
+      <c r="K47" s="54">
+        <f t="shared" si="11"/>
+        <v>9.5315904139433548E-3</v>
+      </c>
+      <c r="L47" s="54">
+        <f t="shared" si="11"/>
+        <v>8.0216354968830218E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="54">
+        <f t="shared" ref="B48:L48" si="12">B28/1440</f>
+        <v>3.9351851851851853E-2</v>
+      </c>
+      <c r="C48" s="54">
+        <f t="shared" si="12"/>
+        <v>3.7838319088319083E-2</v>
+      </c>
+      <c r="D48" s="54">
+        <f t="shared" si="12"/>
+        <v>3.5135582010582013E-2</v>
+      </c>
+      <c r="E48" s="54">
+        <f t="shared" si="12"/>
+        <v>3.1735364396654725E-2</v>
+      </c>
+      <c r="F48" s="54">
+        <f t="shared" si="12"/>
+        <v>2.8108465608465607E-2</v>
+      </c>
+      <c r="G48" s="54">
+        <f t="shared" si="12"/>
+        <v>2.3995031616982833E-2</v>
+      </c>
+      <c r="H48" s="54">
+        <f t="shared" si="12"/>
+        <v>2.0077475434618294E-2</v>
+      </c>
+      <c r="I48" s="54">
+        <f t="shared" si="12"/>
+        <v>1.6674513496547395E-2</v>
+      </c>
+      <c r="J48" s="54">
+        <f t="shared" si="12"/>
+        <v>1.3856285863328117E-2</v>
+      </c>
+      <c r="K48" s="54">
+        <f t="shared" si="12"/>
+        <v>1.1574074074074075E-2</v>
+      </c>
+      <c r="L48" s="54">
+        <f t="shared" si="12"/>
+        <v>9.7405573890722401E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="54">
+        <f t="shared" ref="B49:L49" si="13">B29/1440</f>
+        <v>4.6296296296296301E-2</v>
+      </c>
+      <c r="C49" s="54">
+        <f t="shared" si="13"/>
+        <v>4.4515669515669515E-2</v>
+      </c>
+      <c r="D49" s="54">
+        <f t="shared" si="13"/>
+        <v>4.1335978835978837E-2</v>
+      </c>
+      <c r="E49" s="54">
+        <f t="shared" si="13"/>
+        <v>3.733572281959379E-2</v>
+      </c>
+      <c r="F49" s="54">
+        <f t="shared" si="13"/>
+        <v>3.3068783068783067E-2</v>
+      </c>
+      <c r="G49" s="54">
+        <f t="shared" si="13"/>
+        <v>2.8229448961156277E-2</v>
+      </c>
+      <c r="H49" s="54">
+        <f t="shared" si="13"/>
+        <v>2.362055933484505E-2</v>
+      </c>
+      <c r="I49" s="54">
+        <f t="shared" si="13"/>
+        <v>1.9617074701820465E-2</v>
+      </c>
+      <c r="J49" s="54">
+        <f t="shared" si="13"/>
+        <v>1.630151278038602E-2</v>
+      </c>
+      <c r="K49" s="54">
+        <f t="shared" si="13"/>
+        <v>1.3616557734204794E-2</v>
+      </c>
+      <c r="L49" s="54">
+        <f t="shared" si="13"/>
+        <v>1.145947928126146E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="54">
+        <f t="shared" ref="B50:L50" si="14">B30/1440</f>
+        <v>6.4814814814814811E-2</v>
+      </c>
+      <c r="C50" s="54">
+        <f t="shared" si="14"/>
+        <v>6.2321937321937325E-2</v>
+      </c>
+      <c r="D50" s="54">
+        <f t="shared" si="14"/>
+        <v>5.7870370370370364E-2</v>
+      </c>
+      <c r="E50" s="54">
+        <f t="shared" si="14"/>
+        <v>5.2270011947431298E-2</v>
+      </c>
+      <c r="F50" s="54">
+        <f t="shared" si="14"/>
+        <v>4.6296296296296301E-2</v>
+      </c>
+      <c r="G50" s="54">
+        <f t="shared" si="14"/>
+        <v>3.9521228545618785E-2</v>
+      </c>
+      <c r="H50" s="54">
+        <f t="shared" si="14"/>
+        <v>3.3068783068783067E-2</v>
+      </c>
+      <c r="I50" s="54">
+        <f t="shared" si="14"/>
+        <v>2.7463904582548649E-2</v>
+      </c>
+      <c r="J50" s="54">
+        <f t="shared" si="14"/>
+        <v>2.2822117892540426E-2</v>
+      </c>
+      <c r="K50" s="54">
+        <f t="shared" si="14"/>
+        <v>1.906318082788671E-2</v>
+      </c>
+      <c r="L50" s="54">
+        <f t="shared" si="14"/>
+        <v>1.6043270993766044E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="54">
+        <f t="shared" ref="B51:L51" si="15">B31/1440</f>
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="C51" s="54">
+        <f t="shared" si="15"/>
+        <v>6.6773504273504272E-2</v>
+      </c>
+      <c r="D51" s="54">
+        <f t="shared" si="15"/>
+        <v>6.2003968253968249E-2</v>
+      </c>
+      <c r="E51" s="54">
+        <f t="shared" si="15"/>
+        <v>5.6003584229390689E-2</v>
+      </c>
+      <c r="F51" s="54">
+        <f t="shared" si="15"/>
+        <v>4.9603174603174593E-2</v>
+      </c>
+      <c r="G51" s="54">
+        <f t="shared" si="15"/>
+        <v>4.2344173441734419E-2</v>
+      </c>
+      <c r="H51" s="54">
+        <f t="shared" si="15"/>
+        <v>3.5430839002267574E-2</v>
+      </c>
+      <c r="I51" s="54">
+        <f t="shared" si="15"/>
+        <v>2.9425612052730699E-2</v>
+      </c>
+      <c r="J51" s="54">
+        <f t="shared" si="15"/>
+        <v>2.4452269170579029E-2</v>
+      </c>
+      <c r="K51" s="54">
+        <f t="shared" si="15"/>
+        <v>2.042483660130719E-2</v>
+      </c>
+      <c r="L51" s="54">
+        <f t="shared" si="15"/>
+        <v>1.7189218921892187E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="54">
+        <f t="shared" ref="B52:L52" si="16">B32/1440</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C52" s="54">
+        <f t="shared" si="16"/>
+        <v>8.0128205128205135E-2</v>
+      </c>
+      <c r="D52" s="54">
+        <f t="shared" si="16"/>
+        <v>7.4404761904761904E-2</v>
+      </c>
+      <c r="E52" s="54">
+        <f t="shared" si="16"/>
+        <v>6.7204301075268813E-2</v>
+      </c>
+      <c r="F52" s="54">
+        <f t="shared" si="16"/>
+        <v>5.9523809523809527E-2</v>
+      </c>
+      <c r="G52" s="54">
+        <f t="shared" si="16"/>
+        <v>5.08130081300813E-2</v>
+      </c>
+      <c r="H52" s="54">
+        <f t="shared" si="16"/>
+        <v>4.2517006802721087E-2</v>
+      </c>
+      <c r="I52" s="54">
+        <f t="shared" si="16"/>
+        <v>3.5310734463276837E-2</v>
+      </c>
+      <c r="J52" s="54">
+        <f t="shared" si="16"/>
+        <v>2.9342723004694839E-2</v>
+      </c>
+      <c r="K52" s="54">
+        <f t="shared" si="16"/>
+        <v>2.4509803921568624E-2</v>
+      </c>
+      <c r="L52" s="54">
+        <f t="shared" si="16"/>
+        <v>2.0627062706270627E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="54">
+        <f t="shared" ref="B53:L53" si="17">B33/1440</f>
+        <v>8.7962962962962965E-2</v>
+      </c>
+      <c r="C53" s="54">
+        <f t="shared" si="17"/>
+        <v>8.4579772079772075E-2</v>
+      </c>
+      <c r="D53" s="54">
+        <f t="shared" si="17"/>
+        <v>7.8538359788359782E-2</v>
+      </c>
+      <c r="E53" s="54">
+        <f t="shared" si="17"/>
+        <v>7.0937873357228204E-2</v>
+      </c>
+      <c r="F53" s="54">
+        <f t="shared" si="17"/>
+        <v>6.283068783068782E-2</v>
+      </c>
+      <c r="G53" s="54">
+        <f t="shared" si="17"/>
+        <v>5.3635953026196927E-2</v>
+      </c>
+      <c r="H53" s="54">
+        <f t="shared" si="17"/>
+        <v>4.4879062736205594E-2</v>
+      </c>
+      <c r="I53" s="54">
+        <f t="shared" si="17"/>
+        <v>3.7272441933458883E-2</v>
+      </c>
+      <c r="J53" s="54">
+        <f t="shared" si="17"/>
+        <v>3.0972874282733438E-2</v>
+      </c>
+      <c r="K53" s="54">
+        <f t="shared" si="17"/>
+        <v>2.5871459694989107E-2</v>
+      </c>
+      <c r="L53" s="54">
+        <f t="shared" si="17"/>
+        <v>2.1773010634396774E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="54">
+        <f t="shared" ref="B54:L54" si="18">B34/1440</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C54" s="54">
+        <f t="shared" si="18"/>
+        <v>0.10683760683760683</v>
+      </c>
+      <c r="D54" s="54">
+        <f t="shared" si="18"/>
+        <v>9.9206349206349187E-2</v>
+      </c>
+      <c r="E54" s="54">
+        <f t="shared" si="18"/>
+        <v>8.9605734767025089E-2</v>
+      </c>
+      <c r="F54" s="54">
+        <f t="shared" si="18"/>
+        <v>7.9365079365079361E-2</v>
+      </c>
+      <c r="G54" s="54">
+        <f t="shared" si="18"/>
+        <v>6.7750677506775075E-2</v>
+      </c>
+      <c r="H54" s="54">
+        <f t="shared" si="18"/>
+        <v>5.6689342403628114E-2</v>
+      </c>
+      <c r="I54" s="54">
+        <f t="shared" si="18"/>
+        <v>4.708097928436912E-2</v>
+      </c>
+      <c r="J54" s="54">
+        <f t="shared" si="18"/>
+        <v>3.912363067292645E-2</v>
+      </c>
+      <c r="K54" s="54">
+        <f t="shared" si="18"/>
+        <v>3.2679738562091498E-2</v>
+      </c>
+      <c r="L54" s="54">
+        <f t="shared" si="18"/>
+        <v>2.7502750275027504E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="54">
+        <f t="shared" ref="B55:L55" si="19">B35/1440</f>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="C55" s="54">
+        <f t="shared" si="19"/>
+        <v>0.11128917378917379</v>
+      </c>
+      <c r="D55" s="54">
+        <f t="shared" si="19"/>
+        <v>0.10333994708994711</v>
+      </c>
+      <c r="E55" s="54">
+        <f t="shared" si="19"/>
+        <v>9.3339307048984466E-2</v>
+      </c>
+      <c r="F55" s="54">
+        <f t="shared" si="19"/>
+        <v>8.2671957671957674E-2</v>
+      </c>
+      <c r="G55" s="54">
+        <f t="shared" si="19"/>
+        <v>7.0573622402890709E-2</v>
+      </c>
+      <c r="H55" s="54">
+        <f t="shared" si="19"/>
+        <v>5.9051398337112627E-2</v>
+      </c>
+      <c r="I55" s="54">
+        <f t="shared" si="19"/>
+        <v>4.904268675455116E-2</v>
+      </c>
+      <c r="J55" s="54">
+        <f t="shared" si="19"/>
+        <v>4.0753781950965053E-2</v>
+      </c>
+      <c r="K55" s="54">
+        <f t="shared" si="19"/>
+        <v>3.4041394335511982E-2</v>
+      </c>
+      <c r="L55" s="54">
+        <f t="shared" si="19"/>
+        <v>2.864869820315365E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="54">
+        <f t="shared" ref="B56:L56" si="20">B36/1440</f>
+        <v>0.14814814814814817</v>
+      </c>
+      <c r="C56" s="54">
+        <f t="shared" si="20"/>
+        <v>0.14245014245014245</v>
+      </c>
+      <c r="D56" s="54">
+        <f t="shared" si="20"/>
+        <v>0.13227513227513227</v>
+      </c>
+      <c r="E56" s="54">
+        <f t="shared" si="20"/>
+        <v>0.11947431302270012</v>
+      </c>
+      <c r="F56" s="54">
+        <f t="shared" si="20"/>
+        <v>0.10582010582010581</v>
+      </c>
+      <c r="G56" s="54">
+        <f t="shared" si="20"/>
+        <v>9.0334236675700091E-2</v>
+      </c>
+      <c r="H56" s="54">
+        <f t="shared" si="20"/>
+        <v>7.5585789871504161E-2</v>
+      </c>
+      <c r="I56" s="54">
+        <f t="shared" si="20"/>
+        <v>6.2774639045825475E-2</v>
+      </c>
+      <c r="J56" s="54">
+        <f t="shared" si="20"/>
+        <v>5.2164840897235255E-2</v>
+      </c>
+      <c r="K56" s="54">
+        <f t="shared" si="20"/>
+        <v>4.3572984749455333E-2</v>
+      </c>
+      <c r="L56" s="54">
+        <f t="shared" si="20"/>
+        <v>3.6670333700036667E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="54">
+        <f t="shared" ref="B57:L57" si="21">B37/1440</f>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C57" s="54">
+        <f t="shared" si="21"/>
+        <v>0.22035256410256412</v>
+      </c>
+      <c r="D57" s="54">
+        <f t="shared" si="21"/>
+        <v>0.20461309523809521</v>
+      </c>
+      <c r="E57" s="54">
+        <f t="shared" si="21"/>
+        <v>0.18481182795698925</v>
+      </c>
+      <c r="F57" s="54">
+        <f t="shared" si="21"/>
+        <v>0.16369047619047619</v>
+      </c>
+      <c r="G57" s="54">
+        <f t="shared" si="21"/>
+        <v>0.13973577235772358</v>
+      </c>
+      <c r="H57" s="54">
+        <f t="shared" si="21"/>
+        <v>0.116921768707483</v>
+      </c>
+      <c r="I57" s="54">
+        <f t="shared" si="21"/>
+        <v>9.71045197740113E-2</v>
+      </c>
+      <c r="J57" s="54">
+        <f t="shared" si="21"/>
+        <v>8.0692488262910797E-2</v>
+      </c>
+      <c r="K57" s="54">
+        <f t="shared" si="21"/>
+        <v>6.7401960784313722E-2</v>
+      </c>
+      <c r="L57" s="54">
+        <f t="shared" si="21"/>
+        <v>5.6724422442244224E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="54">
+        <f t="shared" ref="B58:L58" si="22">B38/1440</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C58" s="54">
+        <f t="shared" si="22"/>
+        <v>0.26709401709401709</v>
+      </c>
+      <c r="D58" s="54">
+        <f t="shared" si="22"/>
+        <v>0.248015873015873</v>
+      </c>
+      <c r="E58" s="54">
+        <f t="shared" si="22"/>
+        <v>0.22401433691756276</v>
+      </c>
+      <c r="F58" s="54">
+        <f t="shared" si="22"/>
+        <v>0.19841269841269837</v>
+      </c>
+      <c r="G58" s="54">
+        <f t="shared" si="22"/>
+        <v>0.16937669376693767</v>
+      </c>
+      <c r="H58" s="54">
+        <f t="shared" si="22"/>
+        <v>0.14172335600907029</v>
+      </c>
+      <c r="I58" s="54">
+        <f t="shared" si="22"/>
+        <v>0.11770244821092279</v>
+      </c>
+      <c r="J58" s="54">
+        <f t="shared" si="22"/>
+        <v>9.7809076682316115E-2</v>
+      </c>
+      <c r="K58" s="54">
+        <f t="shared" si="22"/>
+        <v>8.1699346405228759E-2</v>
+      </c>
+      <c r="L58" s="54">
+        <f t="shared" si="22"/>
+        <v>6.8756875687568747E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="54">
+        <f t="shared" ref="B59:L59" si="23">B39/1440</f>
+        <v>0.32407407407407407</v>
+      </c>
+      <c r="C59" s="54">
+        <f t="shared" si="23"/>
+        <v>0.31160968660968658</v>
+      </c>
+      <c r="D59" s="54">
+        <f t="shared" si="23"/>
+        <v>0.28935185185185186</v>
+      </c>
+      <c r="E59" s="54">
+        <f t="shared" si="23"/>
+        <v>0.26135005973715647</v>
+      </c>
+      <c r="F59" s="54">
+        <f t="shared" si="23"/>
+        <v>0.23148148148148145</v>
+      </c>
+      <c r="G59" s="54">
+        <f t="shared" si="23"/>
+        <v>0.19760614272809396</v>
+      </c>
+      <c r="H59" s="54">
+        <f t="shared" si="23"/>
+        <v>0.16534391534391535</v>
+      </c>
+      <c r="I59" s="54">
+        <f t="shared" si="23"/>
+        <v>0.13731952291274324</v>
+      </c>
+      <c r="J59" s="54">
+        <f t="shared" si="23"/>
+        <v>0.11411058946270214</v>
+      </c>
+      <c r="K59" s="54">
+        <f t="shared" si="23"/>
+        <v>9.5315904139433569E-2</v>
+      </c>
+      <c r="L59" s="54">
+        <f t="shared" si="23"/>
+        <v>8.0216354968830214E-2</v>
+      </c>
+      <c r="P59">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="54">
+        <f t="shared" ref="B60:L60" si="24">B40/1440</f>
+        <v>0.3842592592592593</v>
+      </c>
+      <c r="C60" s="54">
+        <f t="shared" si="24"/>
+        <v>0.36948005698005693</v>
+      </c>
+      <c r="D60" s="54">
+        <f t="shared" si="24"/>
+        <v>0.3430886243386243</v>
+      </c>
+      <c r="E60" s="54">
+        <f t="shared" si="24"/>
+        <v>0.30988649940262847</v>
+      </c>
+      <c r="F60" s="54">
+        <f t="shared" si="24"/>
+        <v>0.27447089947089948</v>
+      </c>
+      <c r="G60" s="54">
+        <f t="shared" si="24"/>
+        <v>0.2343044263775971</v>
+      </c>
+      <c r="H60" s="54">
+        <f t="shared" si="24"/>
+        <v>0.19605064247921394</v>
+      </c>
+      <c r="I60" s="54">
+        <f t="shared" si="24"/>
+        <v>0.16282172002510983</v>
+      </c>
+      <c r="J60" s="54">
+        <f t="shared" si="24"/>
+        <v>0.13530255607720396</v>
+      </c>
+      <c r="K60" s="54">
+        <f t="shared" si="24"/>
+        <v>0.11301742919389976</v>
+      </c>
+      <c r="L60" s="54">
+        <f t="shared" si="24"/>
+        <v>9.5113678034470128E-2</v>
+      </c>
+      <c r="P60">
+        <f>P59/60</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="P61">
+        <f>P60/60</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="70">
+        <v>125000</v>
+      </c>
+      <c r="B62" s="69" t="str">
+        <f>TEXT(B42,"hh:mm:ss")</f>
+        <v>00:16:40</v>
+      </c>
+      <c r="C62" s="69" t="str">
+        <f t="shared" ref="C62:L62" si="25">TEXT(C42,"hh:mm:ss")</f>
+        <v>00:16:02</v>
+      </c>
+      <c r="D62" s="69" t="str">
+        <f t="shared" si="25"/>
+        <v>00:14:53</v>
+      </c>
+      <c r="E62" s="69" t="str">
+        <f t="shared" si="25"/>
+        <v>00:13:26</v>
+      </c>
+      <c r="F62" s="69" t="str">
+        <f t="shared" si="25"/>
+        <v>00:11:54</v>
+      </c>
+      <c r="G62" s="69" t="str">
+        <f t="shared" si="25"/>
+        <v>00:10:10</v>
+      </c>
+      <c r="H62" s="69" t="str">
+        <f t="shared" si="25"/>
+        <v>00:08:30</v>
+      </c>
+      <c r="I62" s="69" t="str">
+        <f t="shared" si="25"/>
+        <v>00:07:04</v>
+      </c>
+      <c r="J62" s="69" t="str">
+        <f t="shared" si="25"/>
+        <v>00:05:52</v>
+      </c>
+      <c r="K62" s="69" t="str">
+        <f t="shared" si="25"/>
+        <v>00:04:54</v>
+      </c>
+      <c r="L62" s="69" t="str">
+        <f t="shared" si="25"/>
+        <v>00:04:08</v>
+      </c>
+      <c r="P62">
+        <f>P61/60</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="70">
+        <v>180000</v>
+      </c>
+      <c r="B63" s="69" t="str">
+        <f t="shared" ref="B63:L63" si="26">TEXT(B43,"hh:mm:ss")</f>
+        <v>00:24:00</v>
+      </c>
+      <c r="C63" s="69" t="str">
+        <f t="shared" si="26"/>
+        <v>00:23:05</v>
+      </c>
+      <c r="D63" s="69" t="str">
+        <f t="shared" si="26"/>
+        <v>00:21:26</v>
+      </c>
+      <c r="E63" s="69" t="str">
+        <f t="shared" si="26"/>
+        <v>00:19:21</v>
+      </c>
+      <c r="F63" s="69" t="str">
+        <f t="shared" si="26"/>
+        <v>00:17:09</v>
+      </c>
+      <c r="G63" s="69" t="str">
+        <f t="shared" si="26"/>
+        <v>00:14:38</v>
+      </c>
+      <c r="H63" s="69" t="str">
+        <f t="shared" si="26"/>
+        <v>00:12:15</v>
+      </c>
+      <c r="I63" s="69" t="str">
+        <f t="shared" si="26"/>
+        <v>00:10:10</v>
+      </c>
+      <c r="J63" s="69" t="str">
+        <f t="shared" si="26"/>
+        <v>00:08:27</v>
+      </c>
+      <c r="K63" s="69" t="str">
+        <f t="shared" si="26"/>
+        <v>00:07:04</v>
+      </c>
+      <c r="L63" s="69" t="str">
+        <f t="shared" si="26"/>
+        <v>00:05:56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="70">
+        <v>200000</v>
+      </c>
+      <c r="B64" s="69" t="str">
+        <f t="shared" ref="B64:L64" si="27">TEXT(B44,"hh:mm:ss")</f>
+        <v>00:26:40</v>
+      </c>
+      <c r="C64" s="69" t="str">
+        <f t="shared" si="27"/>
+        <v>00:25:38</v>
+      </c>
+      <c r="D64" s="69" t="str">
+        <f t="shared" si="27"/>
+        <v>00:23:49</v>
+      </c>
+      <c r="E64" s="69" t="str">
+        <f t="shared" si="27"/>
+        <v>00:21:30</v>
+      </c>
+      <c r="F64" s="69" t="str">
+        <f t="shared" si="27"/>
+        <v>00:19:03</v>
+      </c>
+      <c r="G64" s="69" t="str">
+        <f t="shared" si="27"/>
+        <v>00:16:16</v>
+      </c>
+      <c r="H64" s="69" t="str">
+        <f t="shared" si="27"/>
+        <v>00:13:36</v>
+      </c>
+      <c r="I64" s="69" t="str">
+        <f t="shared" si="27"/>
+        <v>00:11:18</v>
+      </c>
+      <c r="J64" s="69" t="str">
+        <f t="shared" si="27"/>
+        <v>00:09:23</v>
+      </c>
+      <c r="K64" s="69" t="str">
+        <f t="shared" si="27"/>
+        <v>00:07:51</v>
+      </c>
+      <c r="L64" s="69" t="str">
+        <f t="shared" si="27"/>
+        <v>00:06:36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="70">
+        <v>250000</v>
+      </c>
+      <c r="B65" s="69" t="str">
+        <f t="shared" ref="B65:L65" si="28">TEXT(B45,"hh:mm:ss")</f>
+        <v>00:33:20</v>
+      </c>
+      <c r="C65" s="69" t="str">
+        <f t="shared" si="28"/>
+        <v>00:32:03</v>
+      </c>
+      <c r="D65" s="69" t="str">
+        <f t="shared" si="28"/>
+        <v>00:29:46</v>
+      </c>
+      <c r="E65" s="69" t="str">
+        <f t="shared" si="28"/>
+        <v>00:26:53</v>
+      </c>
+      <c r="F65" s="69" t="str">
+        <f t="shared" si="28"/>
+        <v>00:23:49</v>
+      </c>
+      <c r="G65" s="69" t="str">
+        <f t="shared" si="28"/>
+        <v>00:20:20</v>
+      </c>
+      <c r="H65" s="69" t="str">
+        <f t="shared" si="28"/>
+        <v>00:17:00</v>
+      </c>
+      <c r="I65" s="69" t="str">
+        <f t="shared" si="28"/>
+        <v>00:14:07</v>
+      </c>
+      <c r="J65" s="69" t="str">
+        <f t="shared" si="28"/>
+        <v>00:11:44</v>
+      </c>
+      <c r="K65" s="69" t="str">
+        <f t="shared" si="28"/>
+        <v>00:09:48</v>
+      </c>
+      <c r="L65" s="69" t="str">
+        <f t="shared" si="28"/>
+        <v>00:08:15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="70">
+        <v>300000</v>
+      </c>
+      <c r="B66" s="69" t="str">
+        <f t="shared" ref="B66:L66" si="29">TEXT(B46,"hh:mm:ss")</f>
+        <v>00:40:00</v>
+      </c>
+      <c r="C66" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>00:38:28</v>
+      </c>
+      <c r="D66" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>00:35:43</v>
+      </c>
+      <c r="E66" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>00:32:15</v>
+      </c>
+      <c r="F66" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>00:28:34</v>
+      </c>
+      <c r="G66" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>00:24:23</v>
+      </c>
+      <c r="H66" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>00:20:24</v>
+      </c>
+      <c r="I66" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>00:16:57</v>
+      </c>
+      <c r="J66" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>00:14:05</v>
+      </c>
+      <c r="K66" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>00:11:46</v>
+      </c>
+      <c r="L66" s="69" t="str">
+        <f t="shared" si="29"/>
+        <v>00:09:54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="70">
+        <v>350000</v>
+      </c>
+      <c r="B67" s="69" t="str">
+        <f t="shared" ref="B67:L67" si="30">TEXT(B47,"hh:mm:ss")</f>
+        <v>00:46:40</v>
+      </c>
+      <c r="C67" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>00:44:52</v>
+      </c>
+      <c r="D67" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>00:41:40</v>
+      </c>
+      <c r="E67" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>00:37:38</v>
+      </c>
+      <c r="F67" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>00:33:20</v>
+      </c>
+      <c r="G67" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>00:28:27</v>
+      </c>
+      <c r="H67" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>00:23:49</v>
+      </c>
+      <c r="I67" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>00:19:46</v>
+      </c>
+      <c r="J67" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>00:16:26</v>
+      </c>
+      <c r="K67" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>00:13:44</v>
+      </c>
+      <c r="L67" s="69" t="str">
+        <f t="shared" si="30"/>
+        <v>00:11:33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="70">
+        <v>425000</v>
+      </c>
+      <c r="B68" s="69" t="str">
+        <f t="shared" ref="B68:L68" si="31">TEXT(B48,"hh:mm:ss")</f>
+        <v>00:56:40</v>
+      </c>
+      <c r="C68" s="69" t="str">
+        <f t="shared" si="31"/>
+        <v>00:54:29</v>
+      </c>
+      <c r="D68" s="69" t="str">
+        <f t="shared" si="31"/>
+        <v>00:50:36</v>
+      </c>
+      <c r="E68" s="69" t="str">
+        <f t="shared" si="31"/>
+        <v>00:45:42</v>
+      </c>
+      <c r="F68" s="69" t="str">
+        <f t="shared" si="31"/>
+        <v>00:40:29</v>
+      </c>
+      <c r="G68" s="69" t="str">
+        <f t="shared" si="31"/>
+        <v>00:34:33</v>
+      </c>
+      <c r="H68" s="69" t="str">
+        <f t="shared" si="31"/>
+        <v>00:28:55</v>
+      </c>
+      <c r="I68" s="69" t="str">
+        <f t="shared" si="31"/>
+        <v>00:24:01</v>
+      </c>
+      <c r="J68" s="69" t="str">
+        <f t="shared" si="31"/>
+        <v>00:19:57</v>
+      </c>
+      <c r="K68" s="69" t="str">
+        <f t="shared" si="31"/>
+        <v>00:16:40</v>
+      </c>
+      <c r="L68" s="69" t="str">
+        <f t="shared" si="31"/>
+        <v>00:14:02</v>
+      </c>
+      <c r="O68">
+        <v>70</v>
+      </c>
+      <c r="P68">
+        <f>O68*N68</f>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f>P68/10000</f>
+        <v>0</v>
+      </c>
+      <c r="R68" t="e">
+        <f>25/Q68</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="70">
+        <v>500000</v>
+      </c>
+      <c r="B69" s="69" t="str">
+        <f t="shared" ref="B69:L69" si="32">TEXT(B49,"hh:mm:ss")</f>
+        <v>01:06:40</v>
+      </c>
+      <c r="C69" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>01:04:06</v>
+      </c>
+      <c r="D69" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>00:59:31</v>
+      </c>
+      <c r="E69" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>00:53:46</v>
+      </c>
+      <c r="F69" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>00:47:37</v>
+      </c>
+      <c r="G69" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>00:40:39</v>
+      </c>
+      <c r="H69" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>00:34:01</v>
+      </c>
+      <c r="I69" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>00:28:15</v>
+      </c>
+      <c r="J69" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>00:23:28</v>
+      </c>
+      <c r="K69" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>00:19:36</v>
+      </c>
+      <c r="L69" s="69" t="str">
+        <f t="shared" si="32"/>
+        <v>00:16:30</v>
+      </c>
+      <c r="O69">
+        <v>70</v>
+      </c>
+      <c r="P69">
+        <f>N69*O69</f>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f>P69/10000</f>
+        <v>0</v>
+      </c>
+      <c r="R69" t="e">
+        <f>25/Q69</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="70">
+        <v>700000</v>
+      </c>
+      <c r="B70" s="69" t="str">
+        <f t="shared" ref="B70:L70" si="33">TEXT(B50,"hh:mm:ss")</f>
+        <v>01:33:20</v>
+      </c>
+      <c r="C70" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>01:29:45</v>
+      </c>
+      <c r="D70" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>01:23:20</v>
+      </c>
+      <c r="E70" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>01:15:16</v>
+      </c>
+      <c r="F70" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>01:06:40</v>
+      </c>
+      <c r="G70" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>00:56:55</v>
+      </c>
+      <c r="H70" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>00:47:37</v>
+      </c>
+      <c r="I70" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>00:39:33</v>
+      </c>
+      <c r="J70" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>00:32:52</v>
+      </c>
+      <c r="K70" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>00:27:27</v>
+      </c>
+      <c r="L70" s="69" t="str">
+        <f t="shared" si="33"/>
+        <v>00:23:06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="70">
+        <v>750000</v>
+      </c>
+      <c r="B71" s="69" t="str">
+        <f t="shared" ref="B71:L71" si="34">TEXT(B51,"hh:mm:ss")</f>
+        <v>01:40:00</v>
+      </c>
+      <c r="C71" s="69" t="str">
+        <f t="shared" si="34"/>
+        <v>01:36:09</v>
+      </c>
+      <c r="D71" s="69" t="str">
+        <f t="shared" si="34"/>
+        <v>01:29:17</v>
+      </c>
+      <c r="E71" s="69" t="str">
+        <f t="shared" si="34"/>
+        <v>01:20:39</v>
+      </c>
+      <c r="F71" s="69" t="str">
+        <f t="shared" si="34"/>
+        <v>01:11:26</v>
+      </c>
+      <c r="G71" s="69" t="str">
+        <f t="shared" si="34"/>
+        <v>01:00:59</v>
+      </c>
+      <c r="H71" s="69" t="str">
+        <f t="shared" si="34"/>
+        <v>00:51:01</v>
+      </c>
+      <c r="I71" s="69" t="str">
+        <f t="shared" si="34"/>
+        <v>00:42:22</v>
+      </c>
+      <c r="J71" s="69" t="str">
+        <f t="shared" si="34"/>
+        <v>00:35:13</v>
+      </c>
+      <c r="K71" s="69" t="str">
+        <f t="shared" si="34"/>
+        <v>00:29:25</v>
+      </c>
+      <c r="L71" s="69" t="str">
+        <f t="shared" si="34"/>
+        <v>00:24:45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="70">
+        <v>900000</v>
+      </c>
+      <c r="B72" s="69" t="str">
+        <f t="shared" ref="B72:L72" si="35">TEXT(B52,"hh:mm:ss")</f>
+        <v>02:00:00</v>
+      </c>
+      <c r="C72" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>01:55:23</v>
+      </c>
+      <c r="D72" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>01:47:09</v>
+      </c>
+      <c r="E72" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>01:36:46</v>
+      </c>
+      <c r="F72" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>01:25:43</v>
+      </c>
+      <c r="G72" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>01:13:10</v>
+      </c>
+      <c r="H72" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>01:01:13</v>
+      </c>
+      <c r="I72" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>00:50:51</v>
+      </c>
+      <c r="J72" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>00:42:15</v>
+      </c>
+      <c r="K72" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>00:35:18</v>
+      </c>
+      <c r="L72" s="69" t="str">
+        <f t="shared" si="35"/>
+        <v>00:29:42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="70">
+        <v>950000</v>
+      </c>
+      <c r="B73" s="69" t="str">
+        <f t="shared" ref="B73:L73" si="36">TEXT(B53,"hh:mm:ss")</f>
+        <v>02:06:40</v>
+      </c>
+      <c r="C73" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>02:01:48</v>
+      </c>
+      <c r="D73" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>01:53:06</v>
+      </c>
+      <c r="E73" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>01:42:09</v>
+      </c>
+      <c r="F73" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>01:30:29</v>
+      </c>
+      <c r="G73" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>01:17:14</v>
+      </c>
+      <c r="H73" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>01:04:38</v>
+      </c>
+      <c r="I73" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>00:53:40</v>
+      </c>
+      <c r="J73" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>00:44:36</v>
+      </c>
+      <c r="K73" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>00:37:15</v>
+      </c>
+      <c r="L73" s="69" t="str">
+        <f t="shared" si="36"/>
+        <v>00:31:21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="70">
+        <v>1200000</v>
+      </c>
+      <c r="B74" s="69" t="str">
+        <f t="shared" ref="B74:L74" si="37">TEXT(B54,"hh:mm:ss")</f>
+        <v>02:40:00</v>
+      </c>
+      <c r="C74" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>02:33:51</v>
+      </c>
+      <c r="D74" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>02:22:51</v>
+      </c>
+      <c r="E74" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>02:09:02</v>
+      </c>
+      <c r="F74" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>01:54:17</v>
+      </c>
+      <c r="G74" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>01:37:34</v>
+      </c>
+      <c r="H74" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>01:21:38</v>
+      </c>
+      <c r="I74" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>01:07:48</v>
+      </c>
+      <c r="J74" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>00:56:20</v>
+      </c>
+      <c r="K74" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>00:47:04</v>
+      </c>
+      <c r="L74" s="69" t="str">
+        <f t="shared" si="37"/>
+        <v>00:39:36</v>
+      </c>
+      <c r="N74" s="73">
+        <f>56000/2400</f>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="71">
+        <v>1250000</v>
+      </c>
+      <c r="B75" s="72" t="str">
+        <f t="shared" ref="B75:L75" si="38">TEXT(B55,"hh:mm:ss")</f>
+        <v>02:46:40</v>
+      </c>
+      <c r="C75" s="72" t="str">
+        <f t="shared" si="38"/>
+        <v>02:40:15</v>
+      </c>
+      <c r="D75" s="72" t="str">
+        <f t="shared" si="38"/>
+        <v>02:28:49</v>
+      </c>
+      <c r="E75" s="72" t="str">
+        <f t="shared" si="38"/>
+        <v>02:14:25</v>
+      </c>
+      <c r="F75" s="72" t="str">
+        <f t="shared" si="38"/>
+        <v>01:59:03</v>
+      </c>
+      <c r="G75" s="72" t="str">
+        <f t="shared" si="38"/>
+        <v>01:41:38</v>
+      </c>
+      <c r="H75" s="72" t="str">
+        <f t="shared" si="38"/>
+        <v>01:25:02</v>
+      </c>
+      <c r="I75" s="72" t="str">
+        <f t="shared" si="38"/>
+        <v>01:10:37</v>
+      </c>
+      <c r="J75" s="72" t="str">
+        <f t="shared" si="38"/>
+        <v>00:58:41</v>
+      </c>
+      <c r="K75" s="72" t="str">
+        <f t="shared" si="38"/>
+        <v>00:49:01</v>
+      </c>
+      <c r="L75" s="72" t="str">
+        <f t="shared" si="38"/>
+        <v>00:41:15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="70">
+        <v>1600000</v>
+      </c>
+      <c r="B76" s="69" t="str">
+        <f t="shared" ref="B76:L76" si="39">TEXT(B56,"hh:mm:ss")</f>
+        <v>03:33:20</v>
+      </c>
+      <c r="C76" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>03:25:08</v>
+      </c>
+      <c r="D76" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>03:10:29</v>
+      </c>
+      <c r="E76" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>02:52:03</v>
+      </c>
+      <c r="F76" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>02:32:23</v>
+      </c>
+      <c r="G76" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>02:10:05</v>
+      </c>
+      <c r="H76" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>01:48:51</v>
+      </c>
+      <c r="I76" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>01:30:24</v>
+      </c>
+      <c r="J76" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>01:15:07</v>
+      </c>
+      <c r="K76" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>01:02:45</v>
+      </c>
+      <c r="L76" s="69" t="str">
+        <f t="shared" si="39"/>
+        <v>00:52:48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="70">
+        <v>2475000</v>
+      </c>
+      <c r="B77" s="69" t="str">
+        <f t="shared" ref="B77:L77" si="40">TEXT(B57,"hh:mm:ss")</f>
+        <v>05:30:00</v>
+      </c>
+      <c r="C77" s="69" t="str">
+        <f t="shared" si="40"/>
+        <v>05:17:18</v>
+      </c>
+      <c r="D77" s="69" t="str">
+        <f t="shared" si="40"/>
+        <v>04:54:39</v>
+      </c>
+      <c r="E77" s="69" t="str">
+        <f t="shared" si="40"/>
+        <v>04:26:08</v>
+      </c>
+      <c r="F77" s="69" t="str">
+        <f t="shared" si="40"/>
+        <v>03:55:43</v>
+      </c>
+      <c r="G77" s="69" t="str">
+        <f t="shared" si="40"/>
+        <v>03:21:13</v>
+      </c>
+      <c r="H77" s="69" t="str">
+        <f t="shared" si="40"/>
+        <v>02:48:22</v>
+      </c>
+      <c r="I77" s="69" t="str">
+        <f t="shared" si="40"/>
+        <v>02:19:50</v>
+      </c>
+      <c r="J77" s="69" t="str">
+        <f t="shared" si="40"/>
+        <v>01:56:12</v>
+      </c>
+      <c r="K77" s="69" t="str">
+        <f t="shared" si="40"/>
+        <v>01:37:04</v>
+      </c>
+      <c r="L77" s="69" t="str">
+        <f t="shared" si="40"/>
+        <v>01:21:41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="70">
+        <v>3000000</v>
+      </c>
+      <c r="B78" s="69" t="str">
+        <f t="shared" ref="B78:L78" si="41">TEXT(B58,"hh:mm:ss")</f>
+        <v>06:40:00</v>
+      </c>
+      <c r="C78" s="69" t="str">
+        <f t="shared" si="41"/>
+        <v>06:24:37</v>
+      </c>
+      <c r="D78" s="69" t="str">
+        <f t="shared" si="41"/>
+        <v>05:57:09</v>
+      </c>
+      <c r="E78" s="69" t="str">
+        <f t="shared" si="41"/>
+        <v>05:22:35</v>
+      </c>
+      <c r="F78" s="69" t="str">
+        <f t="shared" si="41"/>
+        <v>04:45:43</v>
+      </c>
+      <c r="G78" s="69" t="str">
+        <f t="shared" si="41"/>
+        <v>04:03:54</v>
+      </c>
+      <c r="H78" s="69" t="str">
+        <f t="shared" si="41"/>
+        <v>03:24:05</v>
+      </c>
+      <c r="I78" s="69" t="str">
+        <f t="shared" si="41"/>
+        <v>02:49:29</v>
+      </c>
+      <c r="J78" s="69" t="str">
+        <f t="shared" si="41"/>
+        <v>02:20:51</v>
+      </c>
+      <c r="K78" s="69" t="str">
+        <f t="shared" si="41"/>
+        <v>01:57:39</v>
+      </c>
+      <c r="L78" s="69" t="str">
+        <f t="shared" si="41"/>
+        <v>01:39:01</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="70">
+        <v>3500000</v>
+      </c>
+      <c r="B79" s="69" t="str">
+        <f t="shared" ref="B79:L79" si="42">TEXT(B59,"hh:mm:ss")</f>
+        <v>07:46:40</v>
+      </c>
+      <c r="C79" s="69" t="str">
+        <f t="shared" si="42"/>
+        <v>07:28:43</v>
+      </c>
+      <c r="D79" s="69" t="str">
+        <f t="shared" si="42"/>
+        <v>06:56:40</v>
+      </c>
+      <c r="E79" s="69" t="str">
+        <f t="shared" si="42"/>
+        <v>06:16:21</v>
+      </c>
+      <c r="F79" s="69" t="str">
+        <f t="shared" si="42"/>
+        <v>05:33:20</v>
+      </c>
+      <c r="G79" s="69" t="str">
+        <f t="shared" si="42"/>
+        <v>04:44:33</v>
+      </c>
+      <c r="H79" s="69" t="str">
+        <f t="shared" si="42"/>
+        <v>03:58:06</v>
+      </c>
+      <c r="I79" s="69" t="str">
+        <f t="shared" si="42"/>
+        <v>03:17:44</v>
+      </c>
+      <c r="J79" s="69" t="str">
+        <f t="shared" si="42"/>
+        <v>02:44:19</v>
+      </c>
+      <c r="K79" s="69" t="str">
+        <f t="shared" si="42"/>
+        <v>02:17:15</v>
+      </c>
+      <c r="L79" s="69" t="str">
+        <f t="shared" si="42"/>
+        <v>01:55:31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="70">
+        <v>4150000</v>
+      </c>
+      <c r="B80" s="69" t="str">
+        <f t="shared" ref="B80:L80" si="43">TEXT(B60,"hh:mm:ss")</f>
+        <v>09:13:20</v>
+      </c>
+      <c r="C80" s="69" t="str">
+        <f t="shared" si="43"/>
+        <v>08:52:03</v>
+      </c>
+      <c r="D80" s="69" t="str">
+        <f t="shared" si="43"/>
+        <v>08:14:03</v>
+      </c>
+      <c r="E80" s="69" t="str">
+        <f t="shared" si="43"/>
+        <v>07:26:14</v>
+      </c>
+      <c r="F80" s="69" t="str">
+        <f t="shared" si="43"/>
+        <v>06:35:14</v>
+      </c>
+      <c r="G80" s="69" t="str">
+        <f t="shared" si="43"/>
+        <v>05:37:24</v>
+      </c>
+      <c r="H80" s="69" t="str">
+        <f t="shared" si="43"/>
+        <v>04:42:19</v>
+      </c>
+      <c r="I80" s="69" t="str">
+        <f t="shared" si="43"/>
+        <v>03:54:28</v>
+      </c>
+      <c r="J80" s="69" t="str">
+        <f t="shared" si="43"/>
+        <v>03:14:50</v>
+      </c>
+      <c r="K80" s="69" t="str">
+        <f t="shared" si="43"/>
+        <v>02:42:45</v>
+      </c>
+      <c r="L80" s="69" t="str">
+        <f t="shared" si="43"/>
+        <v>02:16:58</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="54"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="54"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="54"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="54"/>
+      <c r="K86" s="54"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="54"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="54"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="54"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="54"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
+      <c r="K90" s="54"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="54"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="54"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="54"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="54"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="54"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="54"/>
+      <c r="K94" s="54"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="54"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="54"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="54"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="54"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="54"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="54"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1">
+        <v>118020</v>
+      </c>
+      <c r="P1">
+        <f>O1-(24*60*60)</f>
+        <v>31620</v>
+      </c>
+      <c r="Q1">
+        <f>P1/1440</f>
+        <v>21.958333333333332</v>
+      </c>
+      <c r="R1" s="60">
+        <f>Q1/1440</f>
+        <v>1.5248842592592592E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="B2">
+        <f>A2/1440</f>
+        <v>1.1574074074074075E-2</v>
+      </c>
+      <c r="C2" s="57">
+        <f>A2/1440</f>
+        <v>1.1574074074074075E-2</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f>K2*H2*60</f>
+        <v>1080</v>
+      </c>
+      <c r="M2">
+        <f>SUM(L:L)</f>
+        <v>10246</v>
+      </c>
+      <c r="O2">
+        <v>353940</v>
+      </c>
+      <c r="Q2">
+        <f>O2/1440</f>
+        <v>245.79166666666666</v>
+      </c>
+      <c r="R2" s="60">
+        <v>245.79166666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B21" si="0">A3/1440</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C3" s="57">
+        <f t="shared" ref="C3:C21" si="1">A3/1440</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>55</v>
+      </c>
+      <c r="L3">
+        <f>K3*I3</f>
+        <v>3300</v>
+      </c>
+      <c r="M3">
+        <f>M2/60</f>
+        <v>170.76666666666668</v>
+      </c>
+      <c r="O3">
+        <v>1061700</v>
+      </c>
+      <c r="Q3">
+        <f>O3/1440</f>
+        <v>737.29166666666663</v>
+      </c>
+      <c r="R3" s="60">
+        <v>737.29166666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.8518518518518521E-2</v>
+      </c>
+      <c r="C4" s="57">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518521E-2</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>37</v>
+      </c>
+      <c r="L4">
+        <f>K4*I4</f>
+        <v>1110</v>
+      </c>
+      <c r="M4">
+        <f>M3/24</f>
+        <v>7.115277777777778</v>
+      </c>
+      <c r="O4">
+        <v>3185100</v>
+      </c>
+      <c r="Q4">
+        <f>O4/1440</f>
+        <v>2211.875</v>
+      </c>
+      <c r="R4" s="60">
+        <v>2211.875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.314814814814815E-2</v>
+      </c>
+      <c r="C5" s="57">
+        <f t="shared" si="1"/>
+        <v>2.314814814814815E-2</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5">
+        <f>K5*I5</f>
+        <v>900</v>
+      </c>
+      <c r="O5">
+        <v>7962720</v>
+      </c>
+      <c r="Q5">
+        <f>O5/1440</f>
+        <v>5529.666666666667</v>
+      </c>
+      <c r="R5" s="60">
+        <v>5529.666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C6" s="57">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>311</v>
+      </c>
+      <c r="L6">
+        <f>K6*I6</f>
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>3.2407407407407406E-2</v>
+      </c>
+      <c r="C7" s="57">
+        <f t="shared" si="1"/>
+        <v>3.2407407407407406E-2</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>108</v>
+      </c>
+      <c r="L7">
+        <f>K7*I7</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>3.9351851851851853E-2</v>
+      </c>
+      <c r="C8" s="57">
+        <f t="shared" si="1"/>
+        <v>3.9351851851851853E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4.6296296296296301E-2</v>
+      </c>
+      <c r="C9" s="57">
+        <f t="shared" si="1"/>
+        <v>4.6296296296296301E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>6.4814814814814811E-2</v>
+      </c>
+      <c r="C10" s="57">
+        <f t="shared" si="1"/>
+        <v>6.4814814814814811E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="C11" s="57">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444448E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C12" s="57">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>126.66666666666667</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>8.7962962962962965E-2</v>
+      </c>
+      <c r="C13" s="57">
+        <f t="shared" si="1"/>
+        <v>8.7962962962962965E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>160</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C14" s="57">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>166.66666666666666</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.11574074074074073</v>
+      </c>
+      <c r="C15" s="57">
+        <f t="shared" si="1"/>
+        <v>0.11574074074074073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>213.33333333333334</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.14814814814814817</v>
+      </c>
+      <c r="C16" s="57">
+        <f t="shared" si="1"/>
+        <v>0.14814814814814817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>330</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C17" s="57">
+        <f t="shared" si="1"/>
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>400</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C18" s="57">
+        <f t="shared" si="1"/>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>466.66666666666669</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.32407407407407407</v>
+      </c>
+      <c r="C19" s="57">
+        <f t="shared" si="1"/>
+        <v>0.32407407407407407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>553.33333333333337</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0.3842592592592593</v>
+      </c>
+      <c r="C20" s="57">
+        <f t="shared" si="1"/>
+        <v>0.3842592592592593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>118020</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B27" si="2">A22/1440/60</f>
+        <v>1.3659722222222221</v>
+      </c>
+      <c r="C22" s="57">
+        <f t="shared" ref="C22:C27" si="3">A22/1440/60</f>
+        <v>1.3659722222222221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>353940</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>4.0965277777777773</v>
+      </c>
+      <c r="C23" s="57">
+        <f t="shared" si="3"/>
+        <v>4.0965277777777773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1061700</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>12.288194444444445</v>
+      </c>
+      <c r="C24" s="57">
+        <f t="shared" si="3"/>
+        <v>12.288194444444445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3185100</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>36.864583333333336</v>
+      </c>
+      <c r="C25" s="57">
+        <f t="shared" si="3"/>
+        <v>36.864583333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7962720</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>92.161111111111111</v>
+      </c>
+      <c r="C26" s="57">
+        <f t="shared" si="3"/>
+        <v>92.161111111111111</v>
+      </c>
+      <c r="F26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12757440</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>147.65555555555557</v>
+      </c>
+      <c r="C27" s="62">
+        <f t="shared" si="3"/>
+        <v>147.65555555555557</v>
+      </c>
+      <c r="F27">
+        <f>A27/60</f>
+        <v>212624</v>
+      </c>
+      <c r="G27">
+        <f>F27/60</f>
+        <v>3543.7333333333331</v>
+      </c>
+      <c r="H27">
+        <f>G27/24</f>
+        <v>147.65555555555554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f>INT(F27)</f>
+        <v>212624</v>
+      </c>
+      <c r="G28">
+        <f>INT(G27)</f>
+        <v>3543</v>
+      </c>
+      <c r="H28">
+        <f>INT(H27)</f>
+        <v>147</v>
+      </c>
+      <c r="L28">
+        <v>147</v>
+      </c>
+      <c r="M28">
+        <f>24*60*60</f>
+        <v>86400</v>
+      </c>
+      <c r="N28">
+        <f>M28*L28</f>
+        <v>12700800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f>CONVERT(H28,"day","sec")</f>
+        <v>12700800</v>
+      </c>
+      <c r="L29">
+        <v>15</v>
+      </c>
+      <c r="M29">
+        <f>60*60</f>
+        <v>3600</v>
+      </c>
+      <c r="N29">
+        <f>M29*L29</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f>A27-H29</f>
+        <v>56640</v>
+      </c>
+      <c r="I30">
+        <f>INT(J30)*60*60</f>
+        <v>54000</v>
+      </c>
+      <c r="J30">
+        <f>CONVERT(H30,"sec","hr")</f>
+        <v>15.733333333333333</v>
+      </c>
+      <c r="L30">
+        <v>44</v>
+      </c>
+      <c r="M30">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="N30">
+        <f>L30*M30</f>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f>H30-I30</f>
+        <v>2640</v>
+      </c>
+      <c r="I31">
+        <f>INT(J31)*60</f>
+        <v>2640</v>
+      </c>
+      <c r="J31">
+        <f>CONVERT(H31,"sec","mn")</f>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L19"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="20"/>
       <c r="C1" t="s">
         <v>153</v>
@@ -7662,8 +12571,14 @@
         <v>155</v>
       </c>
       <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="53">
+        <v>125000</v>
+      </c>
+      <c r="N1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1.0416666666666667E-3</v>
       </c>
@@ -7679,8 +12594,14 @@
         <v>90</v>
       </c>
       <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="53">
+        <v>180000</v>
+      </c>
+      <c r="N2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2.0833333333333333E-3</v>
       </c>
@@ -7694,8 +12615,14 @@
         <v>180</v>
       </c>
       <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="53">
+        <v>200000</v>
+      </c>
+      <c r="N3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>6.6666666666666666E-2</v>
       </c>
@@ -7712,8 +12639,14 @@
         <v>5760</v>
       </c>
       <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="53">
+        <v>250000</v>
+      </c>
+      <c r="N4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>0.13333333333333333</v>
       </c>
@@ -7730,8 +12663,14 @@
         <v>11520</v>
       </c>
       <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="53">
+        <v>300000</v>
+      </c>
+      <c r="N5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>0.24</v>
       </c>
@@ -7750,8 +12689,14 @@
         <v>20736</v>
       </c>
       <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="53">
+        <v>350000</v>
+      </c>
+      <c r="N6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>0.49920138888888888</v>
       </c>
@@ -7770,8 +12715,14 @@
         <v>43131</v>
       </c>
       <c r="J7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="53">
+        <v>425000</v>
+      </c>
+      <c r="N7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>0.57408564814814811</v>
       </c>
@@ -7790,8 +12741,14 @@
         <v>49601</v>
       </c>
       <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="53">
+        <v>500000</v>
+      </c>
+      <c r="N8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>0.66019675925925925</v>
       </c>
@@ -7810,8 +12767,14 @@
         <v>57041</v>
       </c>
       <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="53">
+        <v>700000</v>
+      </c>
+      <c r="N9">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>0.75922453703703707</v>
       </c>
@@ -7830,8 +12793,14 @@
         <v>65597</v>
       </c>
       <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="53">
+        <v>750000</v>
+      </c>
+      <c r="N10">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>0.873113425925926</v>
       </c>
@@ -7841,15 +12810,21 @@
       <c r="E11">
         <v>57</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="50">
         <v>17</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
         <v>75437</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="53">
+        <v>900000</v>
+      </c>
+      <c r="N11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
@@ -7862,7 +12837,7 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="50">
         <v>52</v>
       </c>
       <c r="G12">
@@ -7870,8 +12845,11 @@
         <v>86752</v>
       </c>
       <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="53">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
@@ -7884,7 +12862,7 @@
       <c r="E13">
         <v>42</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="50">
         <v>46</v>
       </c>
       <c r="G13">
@@ -7892,8 +12870,11 @@
         <v>99766</v>
       </c>
       <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="53">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>23</v>
       </c>
@@ -7906,7 +12887,7 @@
       <c r="E14">
         <v>40</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="50">
         <v>0</v>
       </c>
       <c r="G14">
@@ -7914,8 +12895,11 @@
         <v>110400</v>
       </c>
       <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="53">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>10</v>
       </c>
@@ -7928,7 +12912,7 @@
       <c r="E15">
         <v>39</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="50">
         <v>0</v>
       </c>
       <c r="G15">
@@ -7936,8 +12920,11 @@
         <v>131940</v>
       </c>
       <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="53">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>25</v>
       </c>
@@ -7950,7 +12937,7 @@
       <c r="E16">
         <v>38</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="50">
         <v>0</v>
       </c>
       <c r="G16">
@@ -7958,8 +12945,11 @@
         <v>182280</v>
       </c>
       <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L16" s="53">
+        <v>2475000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
@@ -7972,7 +12962,7 @@
       <c r="E17">
         <v>40</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="50">
         <v>30</v>
       </c>
       <c r="G17">
@@ -7980,8 +12970,11 @@
         <v>362430</v>
       </c>
       <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L17" s="53">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
@@ -7994,7 +12987,7 @@
       <c r="E18">
         <v>40</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="50">
         <v>30</v>
       </c>
       <c r="G18">
@@ -8002,8 +12995,11 @@
         <v>441630</v>
       </c>
       <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L18" s="53">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>21</v>
       </c>
@@ -8016,7 +13012,7 @@
       <c r="E19">
         <v>47</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="50">
         <v>54</v>
       </c>
       <c r="G19">
@@ -8024,8 +13020,11 @@
         <v>568074</v>
       </c>
       <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L19" s="53">
+        <v>4150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>158</v>
       </c>
@@ -8038,7 +13037,7 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="50">
         <v>0</v>
       </c>
       <c r="G20">
@@ -8047,7 +13046,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>22</v>
       </c>
@@ -8060,7 +13059,7 @@
       <c r="E21">
         <v>7</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="50">
         <v>45</v>
       </c>
       <c r="G21">
@@ -8069,41 +13068,41 @@
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="23"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="23"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="23"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="23"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="23"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -8277,6 +13276,9 @@
       <c r="G77" s="20"/>
     </row>
   </sheetData>
+  <sortState ref="L1:L77">
+    <sortCondition ref="L1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Xmind/Upgrade_Research/Infantry.xlsx
+++ b/Xmind/Upgrade_Research/Infantry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\FileXmind\Xmind\Upgrade_Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Xmind\Upgrade_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="MainBase_Upgrade" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="231">
   <si>
     <t>Level</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Metal Cost</t>
-  </si>
-  <si>
-    <t>Time(Min)</t>
   </si>
   <si>
     <t>Required</t>
@@ -508,9 +505,6 @@
   </si>
   <si>
     <t>11d 20:02:00</t>
-  </si>
-  <si>
-    <t>Time(Int)</t>
   </si>
   <si>
     <t>Duration_Upgrade</t>
@@ -1082,10 +1076,41 @@
     <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,37 +1124,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1423,32 +1417,32 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
-    <sheetView topLeftCell="A4" workbookViewId="1">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="76" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="82"/>
+    <col min="14" max="14" width="9.140625" style="76"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="79"/>
+      <c r="G2" s="73"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -1472,17 +1466,17 @@
       <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="80" t="s">
-        <v>6</v>
+      <c r="G3" s="74" t="s">
+        <v>230</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>159</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1504,8 +1498,8 @@
       <c r="F4" s="6">
         <v>420</v>
       </c>
-      <c r="G4" s="81" t="s">
-        <v>194</v>
+      <c r="G4" s="75" t="s">
+        <v>192</v>
       </c>
       <c r="H4" s="51">
         <v>180</v>
@@ -1533,8 +1527,8 @@
       <c r="F5" s="6">
         <v>640</v>
       </c>
-      <c r="G5" s="81" t="s">
-        <v>195</v>
+      <c r="G5" s="75" t="s">
+        <v>193</v>
       </c>
       <c r="H5" s="51">
         <v>360</v>
@@ -1562,8 +1556,8 @@
       <c r="F6" s="6">
         <v>940</v>
       </c>
-      <c r="G6" s="81" t="s">
-        <v>196</v>
+      <c r="G6" s="75" t="s">
+        <v>194</v>
       </c>
       <c r="H6" s="51">
         <v>11520</v>
@@ -1591,8 +1585,8 @@
       <c r="F7" s="6">
         <v>1420</v>
       </c>
-      <c r="G7" s="81" t="s">
-        <v>197</v>
+      <c r="G7" s="75" t="s">
+        <v>195</v>
       </c>
       <c r="H7" s="51">
         <v>23040</v>
@@ -1620,8 +1614,8 @@
       <c r="F8" s="6">
         <v>2120</v>
       </c>
-      <c r="G8" s="81" t="s">
-        <v>198</v>
+      <c r="G8" s="75" t="s">
+        <v>196</v>
       </c>
       <c r="H8" s="51">
         <v>41472</v>
@@ -1649,8 +1643,8 @@
       <c r="F9" s="6">
         <v>3180</v>
       </c>
-      <c r="G9" s="81" t="s">
-        <v>199</v>
+      <c r="G9" s="75" t="s">
+        <v>197</v>
       </c>
       <c r="H9" s="51">
         <v>86262</v>
@@ -1678,8 +1672,8 @@
       <c r="F10" s="6">
         <v>4780</v>
       </c>
-      <c r="G10" s="81" t="s">
-        <v>200</v>
+      <c r="G10" s="75" t="s">
+        <v>198</v>
       </c>
       <c r="H10" s="51">
         <v>99202</v>
@@ -1707,8 +1701,8 @@
       <c r="F11" s="6">
         <v>7180</v>
       </c>
-      <c r="G11" s="81" t="s">
-        <v>201</v>
+      <c r="G11" s="75" t="s">
+        <v>199</v>
       </c>
       <c r="H11" s="51">
         <v>114082</v>
@@ -1736,8 +1730,8 @@
       <c r="F12" s="6">
         <v>10760</v>
       </c>
-      <c r="G12" s="81" t="s">
-        <v>202</v>
+      <c r="G12" s="75" t="s">
+        <v>200</v>
       </c>
       <c r="H12" s="51">
         <v>217594</v>
@@ -1765,8 +1759,8 @@
       <c r="F13" s="6">
         <v>16140</v>
       </c>
-      <c r="G13" s="81" t="s">
-        <v>203</v>
+      <c r="G13" s="75" t="s">
+        <v>201</v>
       </c>
       <c r="H13" s="51">
         <v>323674</v>
@@ -1794,8 +1788,8 @@
       <c r="F14" s="6">
         <v>24220</v>
       </c>
-      <c r="G14" s="81" t="s">
-        <v>204</v>
+      <c r="G14" s="75" t="s">
+        <v>202</v>
       </c>
       <c r="H14" s="51">
         <v>432704</v>
@@ -1823,8 +1817,8 @@
       <c r="F15" s="6">
         <v>36320</v>
       </c>
-      <c r="G15" s="81" t="s">
-        <v>205</v>
+      <c r="G15" s="75" t="s">
+        <v>203</v>
       </c>
       <c r="H15" s="51">
         <v>631532</v>
@@ -1852,8 +1846,8 @@
       <c r="F16" s="6">
         <v>54500</v>
       </c>
-      <c r="G16" s="81" t="s">
-        <v>206</v>
+      <c r="G16" s="75" t="s">
+        <v>204</v>
       </c>
       <c r="H16" s="51">
         <v>912000</v>
@@ -1881,8 +1875,8 @@
       <c r="F17" s="6">
         <v>81740</v>
       </c>
-      <c r="G17" s="81" t="s">
-        <v>207</v>
+      <c r="G17" s="75" t="s">
+        <v>205</v>
       </c>
       <c r="H17" s="51">
         <v>1041480</v>
@@ -1910,8 +1904,8 @@
       <c r="F18" s="6">
         <v>122620</v>
       </c>
-      <c r="G18" s="81" t="s">
-        <v>208</v>
+      <c r="G18" s="75" t="s">
+        <v>206</v>
       </c>
       <c r="H18" s="51">
         <v>1314960</v>
@@ -1939,8 +1933,8 @@
       <c r="F19" s="6">
         <v>183920</v>
       </c>
-      <c r="G19" s="81" t="s">
-        <v>209</v>
+      <c r="G19" s="75" t="s">
+        <v>207</v>
       </c>
       <c r="H19" s="51">
         <v>1502460</v>
@@ -1968,8 +1962,8 @@
       <c r="F20" s="6">
         <v>275880</v>
       </c>
-      <c r="G20" s="81" t="s">
-        <v>210</v>
+      <c r="G20" s="75" t="s">
+        <v>208</v>
       </c>
       <c r="H20" s="51">
         <v>1747260</v>
@@ -1997,8 +1991,8 @@
       <c r="F21" s="6">
         <v>413800</v>
       </c>
-      <c r="G21" s="81" t="s">
-        <v>211</v>
+      <c r="G21" s="75" t="s">
+        <v>209</v>
       </c>
       <c r="H21" s="51">
         <v>2086548</v>
@@ -2026,8 +2020,8 @@
       <c r="F22" s="6">
         <v>620720</v>
       </c>
-      <c r="G22" s="81" t="s">
-        <v>212</v>
+      <c r="G22" s="75" t="s">
+        <v>210</v>
       </c>
       <c r="H22" s="51">
         <v>4550640</v>
@@ -2055,8 +2049,8 @@
       <c r="F23" s="6">
         <v>931040</v>
       </c>
-      <c r="G23" s="81" t="s">
-        <v>213</v>
+      <c r="G23" s="75" t="s">
+        <v>211</v>
       </c>
       <c r="H23" s="51">
         <v>13551330</v>
@@ -2078,7 +2072,7 @@
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H37" sqref="H37:H46"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="1">
+    <sheetView topLeftCell="A58" workbookViewId="1">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -2110,66 +2104,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
-      <c r="K1" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
+      <c r="A1" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90"/>
+      <c r="K1" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="47" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>57</v>
       </c>
       <c r="H2" s="47" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="L2" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="M2" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="N2" s="47" t="s">
         <v>134</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="29">
         <v>2</v>
@@ -2210,7 +2204,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="29">
         <v>4</v>
@@ -2251,7 +2245,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="29">
         <v>6</v>
@@ -2292,7 +2286,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="29">
         <v>8</v>
@@ -2344,13 +2338,13 @@
     </row>
     <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2373,16 +2367,16 @@
         <v>5</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2412,7 +2406,7 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2526,7 +2520,7 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
@@ -2563,7 +2557,7 @@
         <v>43131</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15" s="12"/>
       <c r="L15" s="26"/>
@@ -2601,7 +2595,7 @@
         <v>49601</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="12"/>
       <c r="L16" s="26"/>
@@ -2637,7 +2631,7 @@
         <v>57041</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J17" s="12"/>
       <c r="L17" s="26"/>
@@ -2673,7 +2667,7 @@
         <v>65597</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="12"/>
       <c r="L18" s="26"/>
@@ -2711,10 +2705,10 @@
         <v>75437</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="26"/>
       <c r="M19" s="26"/>
@@ -2745,13 +2739,13 @@
         <v>12110</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20" s="51">
         <v>86752</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="12"/>
       <c r="L20" s="27"/>
@@ -2783,13 +2777,13 @@
         <v>18160</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21" s="51">
         <v>99766</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21" s="12"/>
       <c r="L21" s="27"/>
@@ -2821,13 +2815,13 @@
         <v>27250</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" s="51">
         <v>110400</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22" s="12"/>
       <c r="L22" s="27"/>
@@ -2859,13 +2853,13 @@
         <v>40870</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H23" s="51">
         <v>131940</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23" s="12"/>
       <c r="L23" s="27"/>
@@ -2897,13 +2891,13 @@
         <v>61310</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" s="51">
         <v>182280</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J24" s="12"/>
       <c r="L24" s="27"/>
@@ -2935,13 +2929,13 @@
         <v>91960</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="51">
         <v>362430</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" s="12"/>
       <c r="L25" s="27"/>
@@ -2973,13 +2967,13 @@
         <v>137940</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H26" s="51">
         <v>441630</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" s="12"/>
       <c r="L26" s="27"/>
@@ -3011,13 +3005,13 @@
         <v>206900</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="51">
         <v>568074</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27" s="12"/>
       <c r="L27" s="27"/>
@@ -3049,13 +3043,13 @@
         <v>310360</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H28" s="51">
         <v>1022520</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J28" s="12"/>
       <c r="L28" s="27"/>
@@ -3087,16 +3081,16 @@
         <v>465520</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H29" s="51">
         <v>3578865</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="26"/>
@@ -3115,19 +3109,19 @@
     </row>
     <row r="32" spans="1:42" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>16</v>
-      </c>
       <c r="L32" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="32" t="s">
         <v>61</v>
-      </c>
-      <c r="M32" s="32" t="s">
-        <v>62</v>
       </c>
       <c r="N32" s="34"/>
       <c r="O32" s="32"/>
@@ -3138,10 +3132,10 @@
       <c r="T32" s="32"/>
       <c r="U32" s="32"/>
       <c r="W32" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="X32" s="36" t="s">
         <v>69</v>
-      </c>
-      <c r="X32" s="36" t="s">
-        <v>70</v>
       </c>
       <c r="Y32" s="36"/>
       <c r="Z32" s="36"/>
@@ -3152,10 +3146,10 @@
       <c r="AE32" s="36"/>
       <c r="AF32" s="36"/>
       <c r="AH32" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI32" s="37" t="s">
         <v>77</v>
-      </c>
-      <c r="AI32" s="37" t="s">
-        <v>78</v>
       </c>
       <c r="AJ32" s="37"/>
       <c r="AK32" s="37"/>
@@ -3197,219 +3191,219 @@
       <c r="AP33" s="38"/>
     </row>
     <row r="34" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="73" t="s">
+      <c r="B34" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="73" t="s">
+      <c r="F34" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="73" t="s">
+      <c r="G34" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="73" t="s">
+      <c r="H34" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="J34" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="N34" s="73" t="s">
+      <c r="M34" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="N34" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="O34" s="73" t="s">
+      <c r="O34" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P34" s="73" t="s">
+      <c r="P34" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q34" s="73" t="s">
+      <c r="Q34" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="R34" s="73" t="s">
+      <c r="R34" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="T34" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="U34" s="74" t="s">
-        <v>7</v>
+      <c r="S34" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="T34" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="U34" s="86" t="s">
+        <v>6</v>
       </c>
       <c r="V34" s="24"/>
-      <c r="W34" s="73" t="s">
+      <c r="W34" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="X34" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y34" s="73" t="s">
+      <c r="X34" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y34" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="Z34" s="73" t="s">
+      <c r="Z34" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AA34" s="73" t="s">
+      <c r="AA34" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AB34" s="73" t="s">
+      <c r="AB34" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AC34" s="73" t="s">
+      <c r="AC34" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AD34" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE34" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF34" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH34" s="73" t="s">
+      <c r="AD34" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE34" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF34" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH34" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AI34" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ34" s="73" t="s">
+      <c r="AI34" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ34" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AK34" s="73" t="s">
+      <c r="AK34" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AL34" s="73" t="s">
+      <c r="AL34" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AM34" s="73" t="s">
+      <c r="AM34" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AN34" s="73" t="s">
+      <c r="AN34" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AO34" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP34" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ34" s="74" t="s">
-        <v>7</v>
+      <c r="AO34" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP34" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ34" s="86" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="74"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="74"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="86"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="86"/>
       <c r="V35" s="24"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="73"/>
-      <c r="AC35" s="73"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="84"/>
-      <c r="AF35" s="74"/>
-      <c r="AH35" s="73"/>
-      <c r="AI35" s="73"/>
-      <c r="AJ35" s="73"/>
-      <c r="AK35" s="73"/>
-      <c r="AL35" s="73"/>
-      <c r="AM35" s="73"/>
-      <c r="AN35" s="73"/>
-      <c r="AO35" s="73"/>
-      <c r="AP35" s="84"/>
-      <c r="AQ35" s="74"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="85"/>
+      <c r="AD35" s="85"/>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="86"/>
+      <c r="AH35" s="85"/>
+      <c r="AI35" s="85"/>
+      <c r="AJ35" s="85"/>
+      <c r="AK35" s="85"/>
+      <c r="AL35" s="85"/>
+      <c r="AM35" s="85"/>
+      <c r="AN35" s="85"/>
+      <c r="AO35" s="85"/>
+      <c r="AP35" s="83"/>
+      <c r="AQ35" s="86"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="74"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="74"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="86"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="86"/>
       <c r="V36" s="24"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
-      <c r="Z36" s="73"/>
-      <c r="AA36" s="73"/>
-      <c r="AB36" s="73"/>
-      <c r="AC36" s="73"/>
-      <c r="AD36" s="73"/>
-      <c r="AE36" s="85"/>
-      <c r="AF36" s="74"/>
-      <c r="AH36" s="73"/>
-      <c r="AI36" s="73"/>
-      <c r="AJ36" s="73"/>
-      <c r="AK36" s="73"/>
-      <c r="AL36" s="73"/>
-      <c r="AM36" s="73"/>
-      <c r="AN36" s="73"/>
-      <c r="AO36" s="73"/>
-      <c r="AP36" s="85"/>
-      <c r="AQ36" s="74"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="85"/>
+      <c r="AD36" s="85"/>
+      <c r="AE36" s="84"/>
+      <c r="AF36" s="86"/>
+      <c r="AH36" s="85"/>
+      <c r="AI36" s="85"/>
+      <c r="AJ36" s="85"/>
+      <c r="AK36" s="85"/>
+      <c r="AL36" s="85"/>
+      <c r="AM36" s="85"/>
+      <c r="AN36" s="85"/>
+      <c r="AO36" s="85"/>
+      <c r="AP36" s="84"/>
+      <c r="AQ36" s="86"/>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>1</v>
       </c>
-      <c r="B37" s="91">
+      <c r="B37" s="81">
         <v>90</v>
       </c>
       <c r="C37" s="23">
@@ -3430,7 +3424,7 @@
       <c r="H37" s="40">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="I37" s="87">
+      <c r="I37" s="78">
         <v>360</v>
       </c>
       <c r="J37" s="16"/>
@@ -3458,7 +3452,7 @@
       <c r="S37" s="39">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="T37" s="87">
+      <c r="T37" s="78">
         <v>180</v>
       </c>
       <c r="U37" s="16"/>
@@ -3487,7 +3481,7 @@
       <c r="AD37" s="39">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="AE37" s="87">
+      <c r="AE37" s="78">
         <v>180</v>
       </c>
       <c r="AF37" s="16"/>
@@ -3515,7 +3509,7 @@
       <c r="AO37" s="39">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="AP37" s="87">
+      <c r="AP37" s="78">
         <v>180</v>
       </c>
       <c r="AQ37" s="16"/>
@@ -3524,7 +3518,7 @@
       <c r="A38" s="20">
         <v>2</v>
       </c>
-      <c r="B38" s="91">
+      <c r="B38" s="81">
         <v>85</v>
       </c>
       <c r="C38" s="23">
@@ -3545,7 +3539,7 @@
       <c r="H38" s="40">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="I38" s="87">
+      <c r="I38" s="78">
         <v>1440</v>
       </c>
       <c r="J38" s="16"/>
@@ -3573,7 +3567,7 @@
       <c r="S38" s="39">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="T38" s="87">
+      <c r="T38" s="78">
         <v>720</v>
       </c>
       <c r="U38" s="16"/>
@@ -3602,7 +3596,7 @@
       <c r="AD38" s="39">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="AE38" s="87">
+      <c r="AE38" s="78">
         <v>720</v>
       </c>
       <c r="AF38" s="16"/>
@@ -3630,7 +3624,7 @@
       <c r="AO38" s="39">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="AP38" s="87">
+      <c r="AP38" s="78">
         <v>720</v>
       </c>
       <c r="AQ38" s="16"/>
@@ -3639,7 +3633,7 @@
       <c r="A39" s="20">
         <v>3</v>
       </c>
-      <c r="B39" s="91">
+      <c r="B39" s="81">
         <v>79</v>
       </c>
       <c r="C39" s="23">
@@ -3660,7 +3654,7 @@
       <c r="H39" s="40">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I39" s="87">
+      <c r="I39" s="78">
         <v>5760</v>
       </c>
       <c r="J39" s="16"/>
@@ -3688,7 +3682,7 @@
       <c r="S39" s="39">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="T39" s="87">
+      <c r="T39" s="78">
         <v>2880</v>
       </c>
       <c r="U39" s="16"/>
@@ -3717,7 +3711,7 @@
       <c r="AD39" s="39">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="AE39" s="87">
+      <c r="AE39" s="78">
         <v>2880</v>
       </c>
       <c r="AF39" s="16"/>
@@ -3745,7 +3739,7 @@
       <c r="AO39" s="39">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="AP39" s="87">
+      <c r="AP39" s="78">
         <v>2880</v>
       </c>
       <c r="AQ39" s="16"/>
@@ -3754,7 +3748,7 @@
       <c r="A40" s="20">
         <v>4</v>
       </c>
-      <c r="B40" s="91">
+      <c r="B40" s="81">
         <v>72</v>
       </c>
       <c r="C40" s="23">
@@ -3775,7 +3769,7 @@
       <c r="H40" s="40">
         <v>0.24</v>
       </c>
-      <c r="I40" s="87">
+      <c r="I40" s="78">
         <v>20736</v>
       </c>
       <c r="J40" s="16"/>
@@ -3803,7 +3797,7 @@
       <c r="S40" s="39">
         <v>0.12</v>
       </c>
-      <c r="T40" s="87">
+      <c r="T40" s="78">
         <v>10368</v>
       </c>
       <c r="U40" s="16"/>
@@ -3832,7 +3826,7 @@
       <c r="AD40" s="39">
         <v>0.12</v>
       </c>
-      <c r="AE40" s="87">
+      <c r="AE40" s="78">
         <v>10368</v>
       </c>
       <c r="AF40" s="16"/>
@@ -3860,7 +3854,7 @@
       <c r="AO40" s="39">
         <v>0.12</v>
       </c>
-      <c r="AP40" s="87">
+      <c r="AP40" s="78">
         <v>10368</v>
       </c>
       <c r="AQ40" s="16"/>
@@ -3869,7 +3863,7 @@
       <c r="A41" s="20">
         <v>5</v>
       </c>
-      <c r="B41" s="91">
+      <c r="B41" s="81">
         <v>64</v>
       </c>
       <c r="C41" s="23">
@@ -3890,11 +3884,11 @@
       <c r="H41" s="40">
         <v>0.30619212962962966</v>
       </c>
-      <c r="I41" s="87">
+      <c r="I41" s="78">
         <v>26455</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L41" s="20">
         <v>5</v>
@@ -3920,11 +3914,11 @@
       <c r="S41" s="39">
         <v>0.15309606481481483</v>
       </c>
-      <c r="T41" s="87">
+      <c r="T41" s="78">
         <v>13228</v>
       </c>
       <c r="U41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="20">
@@ -3951,11 +3945,11 @@
       <c r="AD41" s="39">
         <v>0.15309606481481483</v>
       </c>
-      <c r="AE41" s="87">
+      <c r="AE41" s="78">
         <v>13228</v>
       </c>
       <c r="AF41" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AH41" s="20">
         <v>5</v>
@@ -3981,18 +3975,18 @@
       <c r="AO41" s="39">
         <v>0.15309606481481483</v>
       </c>
-      <c r="AP41" s="87">
+      <c r="AP41" s="78">
         <v>13228</v>
       </c>
       <c r="AQ41" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>6</v>
       </c>
-      <c r="B42" s="91">
+      <c r="B42" s="81">
         <v>55</v>
       </c>
       <c r="C42" s="23">
@@ -4013,11 +4007,11 @@
       <c r="H42" s="40">
         <v>0.40491898148148148</v>
       </c>
-      <c r="I42" s="87">
+      <c r="I42" s="78">
         <v>34985</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L42" s="20">
         <v>6</v>
@@ -4043,11 +4037,11 @@
       <c r="S42" s="39">
         <v>0.20245949074074074</v>
       </c>
-      <c r="T42" s="87">
+      <c r="T42" s="78">
         <v>17493</v>
       </c>
       <c r="U42" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="20">
@@ -4074,11 +4068,11 @@
       <c r="AD42" s="39">
         <v>0.20245949074074074</v>
       </c>
-      <c r="AE42" s="87">
+      <c r="AE42" s="78">
         <v>17493</v>
       </c>
       <c r="AF42" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AH42" s="20">
         <v>6</v>
@@ -4104,18 +4098,18 @@
       <c r="AO42" s="39">
         <v>0.20245949074074074</v>
       </c>
-      <c r="AP42" s="87">
+      <c r="AP42" s="78">
         <v>17493</v>
       </c>
       <c r="AQ42" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>7</v>
       </c>
-      <c r="B43" s="91">
+      <c r="B43" s="81">
         <v>45</v>
       </c>
       <c r="C43" s="23">
@@ -4136,11 +4130,11 @@
       <c r="H43" s="40">
         <v>0.5355092592592593</v>
       </c>
-      <c r="I43" s="87">
+      <c r="I43" s="78">
         <v>46268</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L43" s="20">
         <v>7</v>
@@ -4166,11 +4160,11 @@
       <c r="S43" s="39">
         <v>0.26775462962962965</v>
       </c>
-      <c r="T43" s="87">
+      <c r="T43" s="78">
         <v>23134</v>
       </c>
       <c r="U43" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="20">
@@ -4197,11 +4191,11 @@
       <c r="AD43" s="39">
         <v>0.26775462962962965</v>
       </c>
-      <c r="AE43" s="87">
+      <c r="AE43" s="78">
         <v>23134</v>
       </c>
       <c r="AF43" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH43" s="20">
         <v>7</v>
@@ -4227,18 +4221,18 @@
       <c r="AO43" s="39">
         <v>0.26775462962962965</v>
       </c>
-      <c r="AP43" s="87">
+      <c r="AP43" s="78">
         <v>23134</v>
       </c>
       <c r="AQ43" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>8</v>
       </c>
-      <c r="B44" s="91">
+      <c r="B44" s="81">
         <v>34</v>
       </c>
       <c r="C44" s="23">
@@ -4257,13 +4251,13 @@
         <v>3590</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="87">
+        <v>25</v>
+      </c>
+      <c r="I44" s="78">
         <v>168319</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L44" s="20">
         <v>8</v>
@@ -4287,13 +4281,13 @@
         <v>1795</v>
       </c>
       <c r="S44" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="T44" s="87">
+        <v>96</v>
+      </c>
+      <c r="T44" s="78">
         <v>127390</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="20">
@@ -4318,13 +4312,13 @@
         <v>4785</v>
       </c>
       <c r="AD44" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE44" s="87">
+        <v>96</v>
+      </c>
+      <c r="AE44" s="78">
         <v>127390</v>
       </c>
       <c r="AF44" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH44" s="20">
         <v>8</v>
@@ -4348,20 +4342,20 @@
         <v>1795</v>
       </c>
       <c r="AO44" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP44" s="87">
+        <v>96</v>
+      </c>
+      <c r="AP44" s="78">
         <v>127390</v>
       </c>
       <c r="AQ44" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>9</v>
       </c>
-      <c r="B45" s="91">
+      <c r="B45" s="81">
         <v>22</v>
       </c>
       <c r="C45" s="23">
@@ -4380,13 +4374,13 @@
         <v>5380</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="87">
+        <v>26</v>
+      </c>
+      <c r="I45" s="78">
         <v>545351</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L45" s="20">
         <v>9</v>
@@ -4410,13 +4404,13 @@
         <v>2690</v>
       </c>
       <c r="S45" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="T45" s="87">
+        <v>97</v>
+      </c>
+      <c r="T45" s="78">
         <v>271800</v>
       </c>
       <c r="U45" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="20">
@@ -4441,13 +4435,13 @@
         <v>7175</v>
       </c>
       <c r="AD45" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE45" s="87">
+        <v>97</v>
+      </c>
+      <c r="AE45" s="78">
         <v>271800</v>
       </c>
       <c r="AF45" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH45" s="20">
         <v>9</v>
@@ -4471,20 +4465,20 @@
         <v>2690</v>
       </c>
       <c r="AO45" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP45" s="87">
+        <v>97</v>
+      </c>
+      <c r="AP45" s="78">
         <v>271800</v>
       </c>
       <c r="AQ45" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>10</v>
       </c>
-      <c r="B46" s="91">
+      <c r="B46" s="81">
         <v>9</v>
       </c>
       <c r="C46" s="23">
@@ -4503,13 +4497,13 @@
         <v>8070</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="87">
+        <v>27</v>
+      </c>
+      <c r="I46" s="78">
         <v>1908728</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L46" s="20">
         <v>10</v>
@@ -4533,13 +4527,13 @@
         <v>4035</v>
       </c>
       <c r="S46" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="T46" s="87">
+        <v>98</v>
+      </c>
+      <c r="T46" s="78">
         <v>954368</v>
       </c>
       <c r="U46" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="20">
@@ -4564,13 +4558,13 @@
         <v>10765</v>
       </c>
       <c r="AD46" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE46" s="87">
+        <v>98</v>
+      </c>
+      <c r="AE46" s="78">
         <v>954368</v>
       </c>
       <c r="AF46" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH46" s="20">
         <v>10</v>
@@ -4594,13 +4588,13 @@
         <v>4035</v>
       </c>
       <c r="AO46" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP46" s="87">
+        <v>98</v>
+      </c>
+      <c r="AP46" s="78">
         <v>954368</v>
       </c>
       <c r="AQ46" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -4647,19 +4641,19 @@
     </row>
     <row r="49" spans="1:43" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L49" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M49" s="32" t="s">
         <v>61</v>
-      </c>
-      <c r="M49" s="32" t="s">
-        <v>62</v>
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="32"/>
@@ -4670,10 +4664,10 @@
       <c r="T49" s="32"/>
       <c r="U49" s="32"/>
       <c r="W49" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="X49" s="36" t="s">
         <v>69</v>
-      </c>
-      <c r="X49" s="36" t="s">
-        <v>70</v>
       </c>
       <c r="Y49" s="36"/>
       <c r="Z49" s="36"/>
@@ -4684,10 +4678,10 @@
       <c r="AE49" s="36"/>
       <c r="AF49" s="36"/>
       <c r="AH49" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI49" s="37" t="s">
         <v>77</v>
-      </c>
-      <c r="AI49" s="37" t="s">
-        <v>78</v>
       </c>
       <c r="AJ49" s="37"/>
       <c r="AK49" s="37"/>
@@ -4729,219 +4723,219 @@
       <c r="AP50" s="38"/>
     </row>
     <row r="51" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="73" t="s">
+      <c r="B51" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="73" t="s">
+      <c r="D51" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="73" t="s">
+      <c r="E51" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="73" t="s">
+      <c r="F51" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="73" t="s">
+      <c r="G51" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="J51" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="L51" s="73" t="s">
+      <c r="H51" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="J51" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="M51" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="N51" s="73" t="s">
+      <c r="M51" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="N51" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="73" t="s">
+      <c r="O51" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P51" s="73" t="s">
+      <c r="P51" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q51" s="73" t="s">
+      <c r="Q51" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="73" t="s">
+      <c r="R51" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S51" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="T51" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="U51" s="74" t="s">
-        <v>7</v>
+      <c r="S51" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="T51" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="U51" s="86" t="s">
+        <v>6</v>
       </c>
       <c r="V51" s="24"/>
-      <c r="W51" s="73" t="s">
+      <c r="W51" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="X51" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y51" s="73" t="s">
+      <c r="X51" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y51" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="Z51" s="73" t="s">
+      <c r="Z51" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AA51" s="73" t="s">
+      <c r="AA51" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AB51" s="73" t="s">
+      <c r="AB51" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AC51" s="73" t="s">
+      <c r="AC51" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AD51" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE51" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF51" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH51" s="73" t="s">
+      <c r="AD51" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE51" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF51" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH51" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AI51" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ51" s="73" t="s">
+      <c r="AI51" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ51" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AK51" s="73" t="s">
+      <c r="AK51" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AL51" s="73" t="s">
+      <c r="AL51" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AM51" s="73" t="s">
+      <c r="AM51" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AN51" s="73" t="s">
+      <c r="AN51" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AO51" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP51" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ51" s="74" t="s">
-        <v>7</v>
+      <c r="AO51" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP51" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ51" s="86" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="74"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="73"/>
-      <c r="S52" s="73"/>
-      <c r="T52" s="84"/>
-      <c r="U52" s="74"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="86"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="85"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="85"/>
+      <c r="R52" s="85"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="86"/>
       <c r="V52" s="24"/>
-      <c r="W52" s="73"/>
-      <c r="X52" s="73"/>
-      <c r="Y52" s="73"/>
-      <c r="Z52" s="73"/>
-      <c r="AA52" s="73"/>
-      <c r="AB52" s="73"/>
-      <c r="AC52" s="73"/>
-      <c r="AD52" s="73"/>
-      <c r="AE52" s="84"/>
-      <c r="AF52" s="74"/>
-      <c r="AH52" s="73"/>
-      <c r="AI52" s="73"/>
-      <c r="AJ52" s="73"/>
-      <c r="AK52" s="73"/>
-      <c r="AL52" s="73"/>
-      <c r="AM52" s="73"/>
-      <c r="AN52" s="73"/>
-      <c r="AO52" s="73"/>
-      <c r="AP52" s="84"/>
-      <c r="AQ52" s="74"/>
+      <c r="W52" s="85"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="85"/>
+      <c r="AA52" s="85"/>
+      <c r="AB52" s="85"/>
+      <c r="AC52" s="85"/>
+      <c r="AD52" s="85"/>
+      <c r="AE52" s="83"/>
+      <c r="AF52" s="86"/>
+      <c r="AH52" s="85"/>
+      <c r="AI52" s="85"/>
+      <c r="AJ52" s="85"/>
+      <c r="AK52" s="85"/>
+      <c r="AL52" s="85"/>
+      <c r="AM52" s="85"/>
+      <c r="AN52" s="85"/>
+      <c r="AO52" s="85"/>
+      <c r="AP52" s="83"/>
+      <c r="AQ52" s="86"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="74"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="73"/>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="73"/>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="74"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="86"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="86"/>
       <c r="V53" s="24"/>
-      <c r="W53" s="73"/>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="73"/>
-      <c r="Z53" s="73"/>
-      <c r="AA53" s="73"/>
-      <c r="AB53" s="73"/>
-      <c r="AC53" s="73"/>
-      <c r="AD53" s="73"/>
-      <c r="AE53" s="85"/>
-      <c r="AF53" s="74"/>
-      <c r="AH53" s="73"/>
-      <c r="AI53" s="73"/>
-      <c r="AJ53" s="73"/>
-      <c r="AK53" s="73"/>
-      <c r="AL53" s="73"/>
-      <c r="AM53" s="73"/>
-      <c r="AN53" s="73"/>
-      <c r="AO53" s="73"/>
-      <c r="AP53" s="85"/>
-      <c r="AQ53" s="74"/>
+      <c r="W53" s="85"/>
+      <c r="X53" s="85"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="85"/>
+      <c r="AA53" s="85"/>
+      <c r="AB53" s="85"/>
+      <c r="AC53" s="85"/>
+      <c r="AD53" s="85"/>
+      <c r="AE53" s="84"/>
+      <c r="AF53" s="86"/>
+      <c r="AH53" s="85"/>
+      <c r="AI53" s="85"/>
+      <c r="AJ53" s="85"/>
+      <c r="AK53" s="85"/>
+      <c r="AL53" s="85"/>
+      <c r="AM53" s="85"/>
+      <c r="AN53" s="85"/>
+      <c r="AO53" s="85"/>
+      <c r="AP53" s="84"/>
+      <c r="AQ53" s="86"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>1</v>
       </c>
-      <c r="B54" s="91">
+      <c r="B54" s="81">
         <v>120</v>
       </c>
       <c r="C54" s="23">
@@ -4962,7 +4956,7 @@
       <c r="H54" s="21">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="I54" s="87">
+      <c r="I54" s="78">
         <v>270</v>
       </c>
       <c r="J54" s="16"/>
@@ -4990,7 +4984,7 @@
       <c r="S54" s="39">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="T54" s="87">
+      <c r="T54" s="78">
         <v>270</v>
       </c>
       <c r="U54" s="16"/>
@@ -5019,7 +5013,7 @@
       <c r="AD54" s="21">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="AE54" s="87">
+      <c r="AE54" s="78">
         <v>270</v>
       </c>
       <c r="AF54" s="16"/>
@@ -5047,7 +5041,7 @@
       <c r="AO54" s="21">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="AP54" s="87">
+      <c r="AP54" s="78">
         <v>270</v>
       </c>
       <c r="AQ54" s="16"/>
@@ -5056,7 +5050,7 @@
       <c r="A55" s="20">
         <v>2</v>
       </c>
-      <c r="B55" s="91">
+      <c r="B55" s="81">
         <v>114</v>
       </c>
       <c r="C55" s="23">
@@ -5077,7 +5071,7 @@
       <c r="H55" s="21">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I55" s="87">
+      <c r="I55" s="78">
         <v>1080</v>
       </c>
       <c r="J55" s="16"/>
@@ -5105,7 +5099,7 @@
       <c r="S55" s="39">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="T55" s="87">
+      <c r="T55" s="78">
         <v>1080</v>
       </c>
       <c r="U55" s="16"/>
@@ -5134,7 +5128,7 @@
       <c r="AD55" s="21">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AE55" s="87">
+      <c r="AE55" s="78">
         <v>1080</v>
       </c>
       <c r="AF55" s="16"/>
@@ -5162,7 +5156,7 @@
       <c r="AO55" s="21">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="AP55" s="87">
+      <c r="AP55" s="78">
         <v>1080</v>
       </c>
       <c r="AQ55" s="16"/>
@@ -5171,7 +5165,7 @@
       <c r="A56" s="20">
         <v>3</v>
       </c>
-      <c r="B56" s="91">
+      <c r="B56" s="81">
         <v>107</v>
       </c>
       <c r="C56" s="23">
@@ -5192,7 +5186,7 @@
       <c r="H56" s="21">
         <v>0.1</v>
       </c>
-      <c r="I56" s="87">
+      <c r="I56" s="78">
         <v>4320</v>
       </c>
       <c r="J56" s="16"/>
@@ -5220,7 +5214,7 @@
       <c r="S56" s="39">
         <v>0.05</v>
       </c>
-      <c r="T56" s="87">
+      <c r="T56" s="78">
         <v>4320</v>
       </c>
       <c r="U56" s="16"/>
@@ -5249,7 +5243,7 @@
       <c r="AD56" s="21">
         <v>0.05</v>
       </c>
-      <c r="AE56" s="87">
+      <c r="AE56" s="78">
         <v>4320</v>
       </c>
       <c r="AF56" s="16"/>
@@ -5277,7 +5271,7 @@
       <c r="AO56" s="21">
         <v>0.05</v>
       </c>
-      <c r="AP56" s="87">
+      <c r="AP56" s="78">
         <v>4320</v>
       </c>
       <c r="AQ56" s="16"/>
@@ -5286,7 +5280,7 @@
       <c r="A57" s="20">
         <v>4</v>
       </c>
-      <c r="B57" s="91">
+      <c r="B57" s="81">
         <v>99</v>
       </c>
       <c r="C57" s="23">
@@ -5307,7 +5301,7 @@
       <c r="H57" s="21">
         <v>0.36</v>
       </c>
-      <c r="I57" s="87">
+      <c r="I57" s="78">
         <v>15552</v>
       </c>
       <c r="J57" s="16"/>
@@ -5335,7 +5329,7 @@
       <c r="S57" s="39">
         <v>0.18</v>
       </c>
-      <c r="T57" s="87">
+      <c r="T57" s="78">
         <v>15552</v>
       </c>
       <c r="U57" s="16"/>
@@ -5364,7 +5358,7 @@
       <c r="AD57" s="21">
         <v>0.18</v>
       </c>
-      <c r="AE57" s="87">
+      <c r="AE57" s="78">
         <v>15552</v>
       </c>
       <c r="AF57" s="16"/>
@@ -5392,7 +5386,7 @@
       <c r="AO57" s="21">
         <v>0.18</v>
       </c>
-      <c r="AP57" s="87">
+      <c r="AP57" s="78">
         <v>15552</v>
       </c>
       <c r="AQ57" s="16"/>
@@ -5401,7 +5395,7 @@
       <c r="A58" s="20">
         <v>5</v>
       </c>
-      <c r="B58" s="91">
+      <c r="B58" s="81">
         <v>90</v>
       </c>
       <c r="C58" s="23">
@@ -5422,7 +5416,7 @@
       <c r="H58" s="21">
         <v>0.45928819444444446</v>
       </c>
-      <c r="I58" s="87">
+      <c r="I58" s="78">
         <v>19841</v>
       </c>
       <c r="J58" s="16"/>
@@ -5450,7 +5444,7 @@
       <c r="S58" s="39">
         <v>0.22964409722222223</v>
       </c>
-      <c r="T58" s="87">
+      <c r="T58" s="78">
         <v>19841</v>
       </c>
       <c r="U58" s="16"/>
@@ -5479,7 +5473,7 @@
       <c r="AD58" s="21">
         <v>0.22964409722222223</v>
       </c>
-      <c r="AE58" s="87">
+      <c r="AE58" s="78">
         <v>19841</v>
       </c>
       <c r="AF58" s="16"/>
@@ -5507,7 +5501,7 @@
       <c r="AO58" s="21">
         <v>0.22964409722222223</v>
       </c>
-      <c r="AP58" s="87">
+      <c r="AP58" s="78">
         <v>19841</v>
       </c>
       <c r="AQ58" s="16"/>
@@ -5516,7 +5510,7 @@
       <c r="A59" s="20">
         <v>6</v>
       </c>
-      <c r="B59" s="91">
+      <c r="B59" s="81">
         <v>80</v>
       </c>
       <c r="C59" s="23">
@@ -5537,11 +5531,11 @@
       <c r="H59" s="21">
         <v>0.60737847222222219</v>
       </c>
-      <c r="I59" s="87">
+      <c r="I59" s="78">
         <v>26239</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L59" s="20">
         <v>6</v>
@@ -5567,11 +5561,11 @@
       <c r="S59" s="39">
         <v>0.30368923611111109</v>
       </c>
-      <c r="T59" s="87">
+      <c r="T59" s="78">
         <v>26239</v>
       </c>
       <c r="U59" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V59" s="1"/>
       <c r="W59" s="20">
@@ -5598,11 +5592,11 @@
       <c r="AD59" s="21">
         <v>0.30368923611111109</v>
       </c>
-      <c r="AE59" s="87">
+      <c r="AE59" s="78">
         <v>26239</v>
       </c>
       <c r="AF59" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AH59" s="20">
         <v>6</v>
@@ -5628,18 +5622,18 @@
       <c r="AO59" s="21">
         <v>0.30368923611111109</v>
       </c>
-      <c r="AP59" s="87">
+      <c r="AP59" s="78">
         <v>26239</v>
       </c>
       <c r="AQ59" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>7</v>
       </c>
-      <c r="B60" s="91">
+      <c r="B60" s="81">
         <v>69</v>
       </c>
       <c r="C60" s="23">
@@ -5660,11 +5654,11 @@
       <c r="H60" s="21">
         <v>0.803263888888889</v>
       </c>
-      <c r="I60" s="87">
+      <c r="I60" s="78">
         <v>34701</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L60" s="20">
         <v>7</v>
@@ -5690,11 +5684,11 @@
       <c r="S60" s="39">
         <v>0.4016319444444445</v>
       </c>
-      <c r="T60" s="87">
+      <c r="T60" s="78">
         <v>34701</v>
       </c>
       <c r="U60" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V60" s="1"/>
       <c r="W60" s="20">
@@ -5721,11 +5715,11 @@
       <c r="AD60" s="21">
         <v>0.4016319444444445</v>
       </c>
-      <c r="AE60" s="87">
+      <c r="AE60" s="78">
         <v>34701</v>
       </c>
       <c r="AF60" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AH60" s="20">
         <v>7</v>
@@ -5751,18 +5745,18 @@
       <c r="AO60" s="21">
         <v>0.4016319444444445</v>
       </c>
-      <c r="AP60" s="87">
+      <c r="AP60" s="78">
         <v>34701</v>
       </c>
       <c r="AQ60" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="20">
         <v>8</v>
       </c>
-      <c r="B61" s="91">
+      <c r="B61" s="81">
         <v>57</v>
       </c>
       <c r="C61" s="23">
@@ -5781,13 +5775,13 @@
         <v>7180</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="I61" s="87">
+        <v>99</v>
+      </c>
+      <c r="I61" s="78">
         <v>168319</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L61" s="20">
         <v>8</v>
@@ -5811,13 +5805,13 @@
         <v>9570</v>
       </c>
       <c r="S61" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="T61" s="87">
+        <v>25</v>
+      </c>
+      <c r="T61" s="78">
         <v>168319</v>
       </c>
       <c r="U61" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V61" s="1"/>
       <c r="W61" s="20">
@@ -5842,13 +5836,13 @@
         <v>4780</v>
       </c>
       <c r="AD61" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE61" s="87">
+        <v>25</v>
+      </c>
+      <c r="AE61" s="78">
         <v>168319</v>
       </c>
       <c r="AF61" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH61" s="20">
         <v>8</v>
@@ -5872,20 +5866,20 @@
         <v>3590</v>
       </c>
       <c r="AO61" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP61" s="87">
+        <v>25</v>
+      </c>
+      <c r="AP61" s="78">
         <v>168319</v>
       </c>
       <c r="AQ61" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>9</v>
       </c>
-      <c r="B62" s="91">
+      <c r="B62" s="81">
         <v>44</v>
       </c>
       <c r="C62" s="23">
@@ -5904,13 +5898,13 @@
         <v>10760</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I62" s="87">
+        <v>100</v>
+      </c>
+      <c r="I62" s="78">
         <v>545351</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L62" s="20">
         <v>9</v>
@@ -5934,13 +5928,13 @@
         <v>14350</v>
       </c>
       <c r="S62" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="T62" s="87">
+        <v>26</v>
+      </c>
+      <c r="T62" s="78">
         <v>545351</v>
       </c>
       <c r="U62" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V62" s="1"/>
       <c r="W62" s="20">
@@ -5965,13 +5959,13 @@
         <v>7180</v>
       </c>
       <c r="AD62" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE62" s="87">
+        <v>26</v>
+      </c>
+      <c r="AE62" s="78">
         <v>545351</v>
       </c>
       <c r="AF62" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH62" s="20">
         <v>9</v>
@@ -5995,20 +5989,20 @@
         <v>5380</v>
       </c>
       <c r="AO62" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP62" s="87">
+        <v>26</v>
+      </c>
+      <c r="AP62" s="78">
         <v>545351</v>
       </c>
       <c r="AQ62" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>10</v>
       </c>
-      <c r="B63" s="91">
+      <c r="B63" s="81">
         <v>30</v>
       </c>
       <c r="C63" s="23">
@@ -6027,13 +6021,13 @@
         <v>16140</v>
       </c>
       <c r="H63" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I63" s="87">
+        <v>101</v>
+      </c>
+      <c r="I63" s="78">
         <v>1649528</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L63" s="20">
         <v>10</v>
@@ -6057,13 +6051,13 @@
         <v>21530</v>
       </c>
       <c r="S63" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="T63" s="87">
+        <v>102</v>
+      </c>
+      <c r="T63" s="78">
         <v>1649528</v>
       </c>
       <c r="U63" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V63" s="1"/>
       <c r="W63" s="20">
@@ -6088,13 +6082,13 @@
         <v>10760</v>
       </c>
       <c r="AD63" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE63" s="87">
+        <v>102</v>
+      </c>
+      <c r="AE63" s="78">
         <v>1649528</v>
       </c>
       <c r="AF63" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH63" s="20">
         <v>10</v>
@@ -6118,30 +6112,30 @@
         <v>8070</v>
       </c>
       <c r="AO63" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP63" s="87">
+        <v>102</v>
+      </c>
+      <c r="AP63" s="78">
         <v>1649528</v>
       </c>
       <c r="AQ63" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:43" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>96</v>
-      </c>
       <c r="C66" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L66" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M66" s="32" t="s">
         <v>61</v>
-      </c>
-      <c r="M66" s="32" t="s">
-        <v>62</v>
       </c>
       <c r="N66" s="34"/>
       <c r="O66" s="32"/>
@@ -6152,10 +6146,10 @@
       <c r="T66" s="32"/>
       <c r="U66" s="32"/>
       <c r="W66" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="X66" s="36" t="s">
         <v>69</v>
-      </c>
-      <c r="X66" s="36" t="s">
-        <v>70</v>
       </c>
       <c r="Y66" s="36"/>
       <c r="Z66" s="36"/>
@@ -6166,10 +6160,10 @@
       <c r="AE66" s="36"/>
       <c r="AF66" s="36"/>
       <c r="AH66" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI66" s="37" t="s">
         <v>77</v>
-      </c>
-      <c r="AI66" s="37" t="s">
-        <v>78</v>
       </c>
       <c r="AJ66" s="37"/>
       <c r="AK66" s="37"/>
@@ -6211,219 +6205,219 @@
       <c r="AP67" s="38"/>
     </row>
     <row r="68" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="73" t="s">
+      <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="73" t="s">
+      <c r="B68" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="73" t="s">
+      <c r="D68" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="73" t="s">
+      <c r="E68" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="73" t="s">
+      <c r="F68" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="73" t="s">
+      <c r="G68" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="I68" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="J68" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="L68" s="73" t="s">
+      <c r="H68" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="J68" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="M68" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="N68" s="73" t="s">
+      <c r="M68" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="N68" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="73" t="s">
+      <c r="O68" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P68" s="73" t="s">
+      <c r="P68" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q68" s="73" t="s">
+      <c r="Q68" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="R68" s="73" t="s">
+      <c r="R68" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S68" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="T68" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="U68" s="74" t="s">
-        <v>7</v>
+      <c r="S68" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="T68" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="U68" s="86" t="s">
+        <v>6</v>
       </c>
       <c r="V68" s="24"/>
-      <c r="W68" s="73" t="s">
+      <c r="W68" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="X68" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y68" s="73" t="s">
+      <c r="X68" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y68" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="Z68" s="73" t="s">
+      <c r="Z68" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AA68" s="73" t="s">
+      <c r="AA68" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AB68" s="73" t="s">
+      <c r="AB68" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AC68" s="73" t="s">
+      <c r="AC68" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AD68" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE68" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF68" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH68" s="73" t="s">
+      <c r="AD68" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE68" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF68" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH68" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AI68" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ68" s="73" t="s">
+      <c r="AI68" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ68" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AK68" s="73" t="s">
+      <c r="AK68" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AL68" s="73" t="s">
+      <c r="AL68" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AM68" s="73" t="s">
+      <c r="AM68" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AN68" s="73" t="s">
+      <c r="AN68" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AO68" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP68" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ68" s="74" t="s">
-        <v>7</v>
+      <c r="AO68" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP68" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ68" s="86" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A69" s="73"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="84"/>
-      <c r="J69" s="74"/>
-      <c r="L69" s="73"/>
-      <c r="M69" s="73"/>
-      <c r="N69" s="73"/>
-      <c r="O69" s="73"/>
-      <c r="P69" s="73"/>
-      <c r="Q69" s="73"/>
-      <c r="R69" s="73"/>
-      <c r="S69" s="73"/>
-      <c r="T69" s="84"/>
-      <c r="U69" s="74"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="86"/>
+      <c r="L69" s="85"/>
+      <c r="M69" s="85"/>
+      <c r="N69" s="85"/>
+      <c r="O69" s="85"/>
+      <c r="P69" s="85"/>
+      <c r="Q69" s="85"/>
+      <c r="R69" s="85"/>
+      <c r="S69" s="85"/>
+      <c r="T69" s="83"/>
+      <c r="U69" s="86"/>
       <c r="V69" s="24"/>
-      <c r="W69" s="73"/>
-      <c r="X69" s="73"/>
-      <c r="Y69" s="73"/>
-      <c r="Z69" s="73"/>
-      <c r="AA69" s="73"/>
-      <c r="AB69" s="73"/>
-      <c r="AC69" s="73"/>
-      <c r="AD69" s="73"/>
-      <c r="AE69" s="84"/>
-      <c r="AF69" s="74"/>
-      <c r="AH69" s="73"/>
-      <c r="AI69" s="73"/>
-      <c r="AJ69" s="73"/>
-      <c r="AK69" s="73"/>
-      <c r="AL69" s="73"/>
-      <c r="AM69" s="73"/>
-      <c r="AN69" s="73"/>
-      <c r="AO69" s="73"/>
-      <c r="AP69" s="84"/>
-      <c r="AQ69" s="74"/>
+      <c r="W69" s="85"/>
+      <c r="X69" s="85"/>
+      <c r="Y69" s="85"/>
+      <c r="Z69" s="85"/>
+      <c r="AA69" s="85"/>
+      <c r="AB69" s="85"/>
+      <c r="AC69" s="85"/>
+      <c r="AD69" s="85"/>
+      <c r="AE69" s="83"/>
+      <c r="AF69" s="86"/>
+      <c r="AH69" s="85"/>
+      <c r="AI69" s="85"/>
+      <c r="AJ69" s="85"/>
+      <c r="AK69" s="85"/>
+      <c r="AL69" s="85"/>
+      <c r="AM69" s="85"/>
+      <c r="AN69" s="85"/>
+      <c r="AO69" s="85"/>
+      <c r="AP69" s="83"/>
+      <c r="AQ69" s="86"/>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A70" s="73"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="74"/>
-      <c r="L70" s="73"/>
-      <c r="M70" s="73"/>
-      <c r="N70" s="73"/>
-      <c r="O70" s="73"/>
-      <c r="P70" s="73"/>
-      <c r="Q70" s="73"/>
-      <c r="R70" s="73"/>
-      <c r="S70" s="73"/>
-      <c r="T70" s="85"/>
-      <c r="U70" s="74"/>
+      <c r="A70" s="85"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="86"/>
+      <c r="L70" s="85"/>
+      <c r="M70" s="85"/>
+      <c r="N70" s="85"/>
+      <c r="O70" s="85"/>
+      <c r="P70" s="85"/>
+      <c r="Q70" s="85"/>
+      <c r="R70" s="85"/>
+      <c r="S70" s="85"/>
+      <c r="T70" s="84"/>
+      <c r="U70" s="86"/>
       <c r="V70" s="24"/>
-      <c r="W70" s="73"/>
-      <c r="X70" s="73"/>
-      <c r="Y70" s="73"/>
-      <c r="Z70" s="73"/>
-      <c r="AA70" s="73"/>
-      <c r="AB70" s="73"/>
-      <c r="AC70" s="73"/>
-      <c r="AD70" s="73"/>
-      <c r="AE70" s="85"/>
-      <c r="AF70" s="74"/>
-      <c r="AH70" s="73"/>
-      <c r="AI70" s="73"/>
-      <c r="AJ70" s="73"/>
-      <c r="AK70" s="73"/>
-      <c r="AL70" s="73"/>
-      <c r="AM70" s="73"/>
-      <c r="AN70" s="73"/>
-      <c r="AO70" s="73"/>
-      <c r="AP70" s="85"/>
-      <c r="AQ70" s="74"/>
+      <c r="W70" s="85"/>
+      <c r="X70" s="85"/>
+      <c r="Y70" s="85"/>
+      <c r="Z70" s="85"/>
+      <c r="AA70" s="85"/>
+      <c r="AB70" s="85"/>
+      <c r="AC70" s="85"/>
+      <c r="AD70" s="85"/>
+      <c r="AE70" s="84"/>
+      <c r="AF70" s="86"/>
+      <c r="AH70" s="85"/>
+      <c r="AI70" s="85"/>
+      <c r="AJ70" s="85"/>
+      <c r="AK70" s="85"/>
+      <c r="AL70" s="85"/>
+      <c r="AM70" s="85"/>
+      <c r="AN70" s="85"/>
+      <c r="AO70" s="85"/>
+      <c r="AP70" s="84"/>
+      <c r="AQ70" s="86"/>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
         <v>1</v>
       </c>
-      <c r="B71" s="91">
+      <c r="B71" s="81">
         <v>290</v>
       </c>
       <c r="C71" s="23">
@@ -6444,7 +6438,7 @@
       <c r="H71" s="21">
         <v>9.3750000000000014E-3</v>
       </c>
-      <c r="I71" s="87">
+      <c r="I71" s="78">
         <v>810</v>
       </c>
       <c r="J71" s="16"/>
@@ -6472,7 +6466,7 @@
       <c r="S71" s="21">
         <v>4.6875000000000007E-3</v>
       </c>
-      <c r="T71" s="87">
+      <c r="T71" s="78">
         <v>405</v>
       </c>
       <c r="U71" s="16"/>
@@ -6501,7 +6495,7 @@
       <c r="AD71" s="21">
         <v>4.6875000000000007E-3</v>
       </c>
-      <c r="AE71" s="87">
+      <c r="AE71" s="78">
         <v>405</v>
       </c>
       <c r="AF71" s="16"/>
@@ -6529,7 +6523,7 @@
       <c r="AO71" s="21">
         <v>4.6875000000000007E-3</v>
       </c>
-      <c r="AP71" s="87">
+      <c r="AP71" s="78">
         <v>405</v>
       </c>
       <c r="AQ71" s="16"/>
@@ -6538,7 +6532,7 @@
       <c r="A72" s="20">
         <v>2</v>
       </c>
-      <c r="B72" s="91">
+      <c r="B72" s="81">
         <v>279</v>
       </c>
       <c r="C72" s="23">
@@ -6559,7 +6553,7 @@
       <c r="H72" s="21">
         <v>3.7500000000000006E-2</v>
       </c>
-      <c r="I72" s="87">
+      <c r="I72" s="78">
         <v>3240</v>
       </c>
       <c r="J72" s="16"/>
@@ -6587,7 +6581,7 @@
       <c r="S72" s="21">
         <v>1.8750000000000003E-2</v>
       </c>
-      <c r="T72" s="87">
+      <c r="T72" s="78">
         <v>1620</v>
       </c>
       <c r="U72" s="16"/>
@@ -6616,7 +6610,7 @@
       <c r="AD72" s="21">
         <v>1.8750000000000003E-2</v>
       </c>
-      <c r="AE72" s="87">
+      <c r="AE72" s="78">
         <v>1620</v>
       </c>
       <c r="AF72" s="16"/>
@@ -6644,7 +6638,7 @@
       <c r="AO72" s="21">
         <v>1.8750000000000003E-2</v>
       </c>
-      <c r="AP72" s="87">
+      <c r="AP72" s="78">
         <v>1620</v>
       </c>
       <c r="AQ72" s="16"/>
@@ -6653,7 +6647,7 @@
       <c r="A73" s="20">
         <v>3</v>
       </c>
-      <c r="B73" s="91">
+      <c r="B73" s="81">
         <v>267</v>
       </c>
       <c r="C73" s="23">
@@ -6674,7 +6668,7 @@
       <c r="H73" s="21">
         <v>0.15000000000000002</v>
       </c>
-      <c r="I73" s="87">
+      <c r="I73" s="78">
         <v>12960</v>
       </c>
       <c r="J73" s="16"/>
@@ -6702,7 +6696,7 @@
       <c r="S73" s="21">
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="T73" s="87">
+      <c r="T73" s="78">
         <v>6480</v>
       </c>
       <c r="U73" s="16"/>
@@ -6731,7 +6725,7 @@
       <c r="AD73" s="21">
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="AE73" s="87">
+      <c r="AE73" s="78">
         <v>6480</v>
       </c>
       <c r="AF73" s="16"/>
@@ -6759,7 +6753,7 @@
       <c r="AO73" s="21">
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="AP73" s="87">
+      <c r="AP73" s="78">
         <v>6480</v>
       </c>
       <c r="AQ73" s="16"/>
@@ -6768,7 +6762,7 @@
       <c r="A74" s="20">
         <v>4</v>
       </c>
-      <c r="B74" s="91">
+      <c r="B74" s="81">
         <v>254</v>
       </c>
       <c r="C74" s="23">
@@ -6789,7 +6783,7 @@
       <c r="H74" s="21">
         <v>0.54</v>
       </c>
-      <c r="I74" s="87">
+      <c r="I74" s="78">
         <v>46656</v>
       </c>
       <c r="J74" s="16"/>
@@ -6817,7 +6811,7 @@
       <c r="S74" s="21">
         <v>0.27</v>
       </c>
-      <c r="T74" s="87">
+      <c r="T74" s="78">
         <v>23328</v>
       </c>
       <c r="U74" s="16"/>
@@ -6846,7 +6840,7 @@
       <c r="AD74" s="21">
         <v>0.27</v>
       </c>
-      <c r="AE74" s="87">
+      <c r="AE74" s="78">
         <v>23328</v>
       </c>
       <c r="AF74" s="16"/>
@@ -6874,7 +6868,7 @@
       <c r="AO74" s="21">
         <v>0.27</v>
       </c>
-      <c r="AP74" s="87">
+      <c r="AP74" s="78">
         <v>23328</v>
       </c>
       <c r="AQ74" s="16"/>
@@ -6883,7 +6877,7 @@
       <c r="A75" s="20">
         <v>5</v>
       </c>
-      <c r="B75" s="91">
+      <c r="B75" s="81">
         <v>240</v>
       </c>
       <c r="C75" s="23">
@@ -6904,7 +6898,7 @@
       <c r="H75" s="21">
         <v>0.6889322916666667</v>
       </c>
-      <c r="I75" s="87">
+      <c r="I75" s="78">
         <v>59524</v>
       </c>
       <c r="J75" s="16"/>
@@ -6932,7 +6926,7 @@
       <c r="S75" s="21">
         <v>0.34446614583333335</v>
       </c>
-      <c r="T75" s="87">
+      <c r="T75" s="78">
         <v>29762</v>
       </c>
       <c r="U75" s="16"/>
@@ -6961,7 +6955,7 @@
       <c r="AD75" s="21">
         <v>0.34446614583333335</v>
       </c>
-      <c r="AE75" s="87">
+      <c r="AE75" s="78">
         <v>29762</v>
       </c>
       <c r="AF75" s="16"/>
@@ -6989,7 +6983,7 @@
       <c r="AO75" s="21">
         <v>0.34446614583333335</v>
       </c>
-      <c r="AP75" s="87">
+      <c r="AP75" s="78">
         <v>29762</v>
       </c>
       <c r="AQ75" s="16"/>
@@ -6998,7 +6992,7 @@
       <c r="A76" s="20">
         <v>6</v>
       </c>
-      <c r="B76" s="91">
+      <c r="B76" s="81">
         <v>225</v>
       </c>
       <c r="C76" s="23">
@@ -7019,11 +7013,11 @@
       <c r="H76" s="21">
         <v>0.91106770833333328</v>
       </c>
-      <c r="I76" s="87">
+      <c r="I76" s="78">
         <v>78716</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L76" s="20">
         <v>6</v>
@@ -7049,11 +7043,11 @@
       <c r="S76" s="21">
         <v>0.45553385416666664</v>
       </c>
-      <c r="T76" s="87">
+      <c r="T76" s="78">
         <v>39358</v>
       </c>
       <c r="U76" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V76" s="1"/>
       <c r="W76" s="20">
@@ -7080,11 +7074,11 @@
       <c r="AD76" s="21">
         <v>0.45553385416666664</v>
       </c>
-      <c r="AE76" s="87">
+      <c r="AE76" s="78">
         <v>39358</v>
       </c>
       <c r="AF76" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH76" s="20">
         <v>6</v>
@@ -7110,18 +7104,18 @@
       <c r="AO76" s="21">
         <v>0.45553385416666664</v>
       </c>
-      <c r="AP76" s="87">
+      <c r="AP76" s="78">
         <v>39358</v>
       </c>
       <c r="AQ76" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>7</v>
       </c>
-      <c r="B77" s="91">
+      <c r="B77" s="81">
         <v>209</v>
       </c>
       <c r="C77" s="23">
@@ -7140,13 +7134,13 @@
         <v>25520</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I77" s="87">
+        <v>103</v>
+      </c>
+      <c r="I77" s="78">
         <v>104103</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L77" s="20">
         <v>7</v>
@@ -7172,11 +7166,11 @@
       <c r="S77" s="21">
         <v>0.72920138888888886</v>
       </c>
-      <c r="T77" s="87">
+      <c r="T77" s="78">
         <v>63003</v>
       </c>
       <c r="U77" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V77" s="1"/>
       <c r="W77" s="20">
@@ -7203,11 +7197,11 @@
       <c r="AD77" s="21">
         <v>0.72920138888888886</v>
       </c>
-      <c r="AE77" s="87">
+      <c r="AE77" s="78">
         <v>63003</v>
       </c>
       <c r="AF77" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AH77" s="20">
         <v>7</v>
@@ -7233,18 +7227,18 @@
       <c r="AO77" s="21">
         <v>0.72920138888888886</v>
       </c>
-      <c r="AP77" s="87">
+      <c r="AP77" s="78">
         <v>63003</v>
       </c>
       <c r="AQ77" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>8</v>
       </c>
-      <c r="B78" s="91">
+      <c r="B78" s="81">
         <v>192</v>
       </c>
       <c r="C78" s="23">
@@ -7263,13 +7257,13 @@
         <v>38280</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="I78" s="87">
+        <v>104</v>
+      </c>
+      <c r="I78" s="78">
         <v>305119</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L78" s="20">
         <v>8</v>
@@ -7293,13 +7287,13 @@
         <v>12750</v>
       </c>
       <c r="S78" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="T78" s="87">
+        <v>106</v>
+      </c>
+      <c r="T78" s="78">
         <v>110719</v>
       </c>
       <c r="U78" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V78" s="1"/>
       <c r="W78" s="20">
@@ -7324,13 +7318,13 @@
         <v>12750</v>
       </c>
       <c r="AD78" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE78" s="87">
+        <v>106</v>
+      </c>
+      <c r="AE78" s="78">
         <v>110719</v>
       </c>
       <c r="AF78" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH78" s="20">
         <v>8</v>
@@ -7354,20 +7348,20 @@
         <v>12750</v>
       </c>
       <c r="AO78" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP78" s="87">
+        <v>106</v>
+      </c>
+      <c r="AP78" s="78">
         <v>110719</v>
       </c>
       <c r="AQ78" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>9</v>
       </c>
-      <c r="B79" s="91">
+      <c r="B79" s="81">
         <v>174</v>
       </c>
       <c r="C79" s="23">
@@ -7386,13 +7380,13 @@
         <v>57400</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I79" s="87">
+        <v>108</v>
+      </c>
+      <c r="I79" s="78">
         <v>1445360</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L79" s="20">
         <v>9</v>
@@ -7416,13 +7410,13 @@
         <v>19150</v>
       </c>
       <c r="S79" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="T79" s="87">
+        <v>107</v>
+      </c>
+      <c r="T79" s="78">
         <v>724520</v>
       </c>
       <c r="U79" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V79" s="1"/>
       <c r="W79" s="20">
@@ -7447,13 +7441,13 @@
         <v>19150</v>
       </c>
       <c r="AD79" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE79" s="87">
+        <v>107</v>
+      </c>
+      <c r="AE79" s="78">
         <v>724520</v>
       </c>
       <c r="AF79" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH79" s="20">
         <v>9</v>
@@ -7477,20 +7471,20 @@
         <v>19150</v>
       </c>
       <c r="AO79" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP79" s="87">
+        <v>107</v>
+      </c>
+      <c r="AP79" s="78">
         <v>724520</v>
       </c>
       <c r="AQ79" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="20">
         <v>10</v>
       </c>
-      <c r="B80" s="91">
+      <c r="B80" s="81">
         <v>155</v>
       </c>
       <c r="C80" s="23">
@@ -7509,13 +7503,13 @@
         <v>86120</v>
       </c>
       <c r="H80" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I80" s="87">
+        <v>105</v>
+      </c>
+      <c r="I80" s="78">
         <v>3463928</v>
       </c>
       <c r="J80" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L80" s="20">
         <v>10</v>
@@ -7539,13 +7533,13 @@
         <v>28690</v>
       </c>
       <c r="S80" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="T80" s="87">
+        <v>109</v>
+      </c>
+      <c r="T80" s="78">
         <v>1735924</v>
       </c>
       <c r="U80" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V80" s="1"/>
       <c r="W80" s="20">
@@ -7570,13 +7564,13 @@
         <v>28690</v>
       </c>
       <c r="AD80" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE80" s="87">
+        <v>109</v>
+      </c>
+      <c r="AE80" s="78">
         <v>1735924</v>
       </c>
       <c r="AF80" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH80" s="20">
         <v>10</v>
@@ -7600,30 +7594,30 @@
         <v>28690</v>
       </c>
       <c r="AO80" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP80" s="87">
+        <v>109</v>
+      </c>
+      <c r="AP80" s="78">
         <v>1735924</v>
       </c>
       <c r="AQ80" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:43" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L83" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M83" s="32" t="s">
         <v>61</v>
-      </c>
-      <c r="M83" s="32" t="s">
-        <v>62</v>
       </c>
       <c r="N83" s="34"/>
       <c r="O83" s="32"/>
@@ -7635,10 +7629,10 @@
       <c r="U83" s="32"/>
       <c r="V83" s="32"/>
       <c r="W83" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="X83" s="36" t="s">
         <v>69</v>
-      </c>
-      <c r="X83" s="36" t="s">
-        <v>70</v>
       </c>
       <c r="Y83" s="36"/>
       <c r="Z83" s="36"/>
@@ -7649,10 +7643,10 @@
       <c r="AE83" s="36"/>
       <c r="AF83" s="36"/>
       <c r="AH83" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI83" s="37" t="s">
         <v>77</v>
-      </c>
-      <c r="AI83" s="37" t="s">
-        <v>78</v>
       </c>
       <c r="AJ83" s="37"/>
       <c r="AK83" s="37"/>
@@ -7695,219 +7689,219 @@
       <c r="AP84" s="38"/>
     </row>
     <row r="85" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="73" t="s">
+      <c r="B85" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="73" t="s">
+      <c r="D85" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="73" t="s">
+      <c r="E85" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="73" t="s">
+      <c r="F85" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="73" t="s">
+      <c r="G85" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H85" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="I85" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="J85" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="L85" s="73" t="s">
+      <c r="H85" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="I85" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="J85" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="L85" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="M85" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="N85" s="73" t="s">
+      <c r="M85" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="N85" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="73" t="s">
+      <c r="O85" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P85" s="73" t="s">
+      <c r="P85" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q85" s="73" t="s">
+      <c r="Q85" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="R85" s="73" t="s">
+      <c r="R85" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S85" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="T85" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="U85" s="74" t="s">
-        <v>7</v>
+      <c r="S85" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="T85" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="U85" s="86" t="s">
+        <v>6</v>
       </c>
       <c r="V85" s="24"/>
-      <c r="W85" s="73" t="s">
+      <c r="W85" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="X85" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y85" s="73" t="s">
+      <c r="X85" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y85" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="Z85" s="73" t="s">
+      <c r="Z85" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AA85" s="73" t="s">
+      <c r="AA85" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AB85" s="73" t="s">
+      <c r="AB85" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AC85" s="73" t="s">
+      <c r="AC85" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AD85" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE85" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF85" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH85" s="73" t="s">
+      <c r="AD85" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE85" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF85" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH85" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AI85" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ85" s="73" t="s">
+      <c r="AI85" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ85" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AK85" s="73" t="s">
+      <c r="AK85" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AL85" s="73" t="s">
+      <c r="AL85" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AM85" s="73" t="s">
+      <c r="AM85" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AN85" s="73" t="s">
+      <c r="AN85" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AO85" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP85" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ85" s="74" t="s">
-        <v>7</v>
+      <c r="AO85" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP85" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ85" s="86" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A86" s="73"/>
-      <c r="B86" s="90"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="84"/>
-      <c r="J86" s="74"/>
-      <c r="L86" s="73"/>
-      <c r="M86" s="73"/>
-      <c r="N86" s="73"/>
-      <c r="O86" s="73"/>
-      <c r="P86" s="73"/>
-      <c r="Q86" s="73"/>
-      <c r="R86" s="73"/>
-      <c r="S86" s="73"/>
-      <c r="T86" s="84"/>
-      <c r="U86" s="74"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="87"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="83"/>
+      <c r="J86" s="86"/>
+      <c r="L86" s="85"/>
+      <c r="M86" s="85"/>
+      <c r="N86" s="85"/>
+      <c r="O86" s="85"/>
+      <c r="P86" s="85"/>
+      <c r="Q86" s="85"/>
+      <c r="R86" s="85"/>
+      <c r="S86" s="85"/>
+      <c r="T86" s="83"/>
+      <c r="U86" s="86"/>
       <c r="V86" s="24"/>
-      <c r="W86" s="73"/>
-      <c r="X86" s="73"/>
-      <c r="Y86" s="73"/>
-      <c r="Z86" s="73"/>
-      <c r="AA86" s="73"/>
-      <c r="AB86" s="73"/>
-      <c r="AC86" s="73"/>
-      <c r="AD86" s="73"/>
-      <c r="AE86" s="84"/>
-      <c r="AF86" s="74"/>
-      <c r="AH86" s="73"/>
-      <c r="AI86" s="73"/>
-      <c r="AJ86" s="73"/>
-      <c r="AK86" s="73"/>
-      <c r="AL86" s="73"/>
-      <c r="AM86" s="73"/>
-      <c r="AN86" s="73"/>
-      <c r="AO86" s="73"/>
-      <c r="AP86" s="84"/>
-      <c r="AQ86" s="74"/>
+      <c r="W86" s="85"/>
+      <c r="X86" s="85"/>
+      <c r="Y86" s="85"/>
+      <c r="Z86" s="85"/>
+      <c r="AA86" s="85"/>
+      <c r="AB86" s="85"/>
+      <c r="AC86" s="85"/>
+      <c r="AD86" s="85"/>
+      <c r="AE86" s="83"/>
+      <c r="AF86" s="86"/>
+      <c r="AH86" s="85"/>
+      <c r="AI86" s="85"/>
+      <c r="AJ86" s="85"/>
+      <c r="AK86" s="85"/>
+      <c r="AL86" s="85"/>
+      <c r="AM86" s="85"/>
+      <c r="AN86" s="85"/>
+      <c r="AO86" s="85"/>
+      <c r="AP86" s="83"/>
+      <c r="AQ86" s="86"/>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A87" s="73"/>
-      <c r="B87" s="90"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="73"/>
-      <c r="H87" s="73"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="74"/>
-      <c r="L87" s="73"/>
-      <c r="M87" s="73"/>
-      <c r="N87" s="73"/>
-      <c r="O87" s="73"/>
-      <c r="P87" s="73"/>
-      <c r="Q87" s="73"/>
-      <c r="R87" s="73"/>
-      <c r="S87" s="73"/>
-      <c r="T87" s="85"/>
-      <c r="U87" s="74"/>
+      <c r="A87" s="85"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="84"/>
+      <c r="J87" s="86"/>
+      <c r="L87" s="85"/>
+      <c r="M87" s="85"/>
+      <c r="N87" s="85"/>
+      <c r="O87" s="85"/>
+      <c r="P87" s="85"/>
+      <c r="Q87" s="85"/>
+      <c r="R87" s="85"/>
+      <c r="S87" s="85"/>
+      <c r="T87" s="84"/>
+      <c r="U87" s="86"/>
       <c r="V87" s="24"/>
-      <c r="W87" s="73"/>
-      <c r="X87" s="73"/>
-      <c r="Y87" s="73"/>
-      <c r="Z87" s="73"/>
-      <c r="AA87" s="73"/>
-      <c r="AB87" s="73"/>
-      <c r="AC87" s="73"/>
-      <c r="AD87" s="73"/>
-      <c r="AE87" s="85"/>
-      <c r="AF87" s="74"/>
-      <c r="AH87" s="73"/>
-      <c r="AI87" s="73"/>
-      <c r="AJ87" s="73"/>
-      <c r="AK87" s="73"/>
-      <c r="AL87" s="73"/>
-      <c r="AM87" s="73"/>
-      <c r="AN87" s="73"/>
-      <c r="AO87" s="73"/>
-      <c r="AP87" s="85"/>
-      <c r="AQ87" s="74"/>
+      <c r="W87" s="85"/>
+      <c r="X87" s="85"/>
+      <c r="Y87" s="85"/>
+      <c r="Z87" s="85"/>
+      <c r="AA87" s="85"/>
+      <c r="AB87" s="85"/>
+      <c r="AC87" s="85"/>
+      <c r="AD87" s="85"/>
+      <c r="AE87" s="84"/>
+      <c r="AF87" s="86"/>
+      <c r="AH87" s="85"/>
+      <c r="AI87" s="85"/>
+      <c r="AJ87" s="85"/>
+      <c r="AK87" s="85"/>
+      <c r="AL87" s="85"/>
+      <c r="AM87" s="85"/>
+      <c r="AN87" s="85"/>
+      <c r="AO87" s="85"/>
+      <c r="AP87" s="84"/>
+      <c r="AQ87" s="86"/>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
         <v>1</v>
       </c>
-      <c r="B88" s="91">
+      <c r="B88" s="81">
         <v>580</v>
       </c>
       <c r="C88" s="23">
@@ -7928,7 +7922,7 @@
       <c r="H88" s="21">
         <v>2.8125000000000004E-2</v>
       </c>
-      <c r="I88" s="87">
+      <c r="I88" s="78">
         <v>2430</v>
       </c>
       <c r="J88" s="16"/>
@@ -7956,7 +7950,7 @@
       <c r="S88" s="21">
         <v>5.6250000000000008E-2</v>
       </c>
-      <c r="T88" s="87">
+      <c r="T88" s="78">
         <v>4860</v>
       </c>
       <c r="U88" s="16"/>
@@ -7985,7 +7979,7 @@
       <c r="AD88" s="21">
         <v>5.6250000000000008E-2</v>
       </c>
-      <c r="AE88" s="87">
+      <c r="AE88" s="78">
         <v>4860</v>
       </c>
       <c r="AF88" s="16"/>
@@ -8013,7 +8007,7 @@
       <c r="AO88" s="21">
         <v>5.6250000000000008E-2</v>
       </c>
-      <c r="AP88" s="87">
+      <c r="AP88" s="78">
         <v>4860</v>
       </c>
       <c r="AQ88" s="16"/>
@@ -8022,7 +8016,7 @@
       <c r="A89" s="20">
         <v>2</v>
       </c>
-      <c r="B89" s="91">
+      <c r="B89" s="81">
         <v>539</v>
       </c>
       <c r="C89" s="23">
@@ -8043,7 +8037,7 @@
       <c r="H89" s="21">
         <v>0.11250000000000002</v>
       </c>
-      <c r="I89" s="87">
+      <c r="I89" s="78">
         <v>9720</v>
       </c>
       <c r="J89" s="16"/>
@@ -8071,7 +8065,7 @@
       <c r="S89" s="21">
         <v>0.22500000000000003</v>
       </c>
-      <c r="T89" s="87">
+      <c r="T89" s="78">
         <v>19440</v>
       </c>
       <c r="U89" s="16"/>
@@ -8100,7 +8094,7 @@
       <c r="AD89" s="21">
         <v>0.22500000000000003</v>
       </c>
-      <c r="AE89" s="87">
+      <c r="AE89" s="78">
         <v>19440</v>
       </c>
       <c r="AF89" s="16"/>
@@ -8128,7 +8122,7 @@
       <c r="AO89" s="21">
         <v>0.22500000000000003</v>
       </c>
-      <c r="AP89" s="87">
+      <c r="AP89" s="78">
         <v>19440</v>
       </c>
       <c r="AQ89" s="16"/>
@@ -8137,7 +8131,7 @@
       <c r="A90" s="20">
         <v>3</v>
       </c>
-      <c r="B90" s="91">
+      <c r="B90" s="81">
         <v>497</v>
       </c>
       <c r="C90" s="23">
@@ -8158,7 +8152,7 @@
       <c r="H90" s="21">
         <v>0.45000000000000007</v>
       </c>
-      <c r="I90" s="87">
+      <c r="I90" s="78">
         <v>38880</v>
       </c>
       <c r="J90" s="16"/>
@@ -8186,7 +8180,7 @@
       <c r="S90" s="21">
         <v>0.90000000000000013</v>
       </c>
-      <c r="T90" s="87">
+      <c r="T90" s="78">
         <v>77760</v>
       </c>
       <c r="U90" s="16"/>
@@ -8215,7 +8209,7 @@
       <c r="AD90" s="21">
         <v>0.90000000000000013</v>
       </c>
-      <c r="AE90" s="87">
+      <c r="AE90" s="78">
         <v>77760</v>
       </c>
       <c r="AF90" s="16"/>
@@ -8243,7 +8237,7 @@
       <c r="AO90" s="21">
         <v>0.90000000000000013</v>
       </c>
-      <c r="AP90" s="87">
+      <c r="AP90" s="78">
         <v>77760</v>
       </c>
       <c r="AQ90" s="16"/>
@@ -8252,7 +8246,7 @@
       <c r="A91" s="20">
         <v>4</v>
       </c>
-      <c r="B91" s="91">
+      <c r="B91" s="81">
         <v>454</v>
       </c>
       <c r="C91" s="23">
@@ -8273,7 +8267,7 @@
       <c r="H91" s="21">
         <v>1.62</v>
       </c>
-      <c r="I91" s="87">
+      <c r="I91" s="78">
         <v>53568</v>
       </c>
       <c r="J91" s="16"/>
@@ -8299,9 +8293,9 @@
         <v>181760</v>
       </c>
       <c r="S91" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="T91" s="87">
+        <v>144</v>
+      </c>
+      <c r="T91" s="78">
         <v>107136</v>
       </c>
       <c r="U91" s="16"/>
@@ -8328,9 +8322,9 @@
         <v>181760</v>
       </c>
       <c r="AD91" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE91" s="87">
+        <v>144</v>
+      </c>
+      <c r="AE91" s="78">
         <v>107136</v>
       </c>
       <c r="AF91" s="16"/>
@@ -8356,9 +8350,9 @@
         <v>181760</v>
       </c>
       <c r="AO91" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP91" s="87">
+        <v>144</v>
+      </c>
+      <c r="AP91" s="78">
         <v>107136</v>
       </c>
       <c r="AQ91" s="16"/>
@@ -8367,7 +8361,7 @@
       <c r="A92" s="20">
         <v>5</v>
       </c>
-      <c r="B92" s="91">
+      <c r="B92" s="81">
         <v>410</v>
       </c>
       <c r="C92" s="23">
@@ -8386,9 +8380,9 @@
         <v>181760</v>
       </c>
       <c r="H92" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I92" s="87">
+        <v>138</v>
+      </c>
+      <c r="I92" s="78">
         <v>92171</v>
       </c>
       <c r="J92" s="16"/>
@@ -8414,9 +8408,9 @@
         <v>271360</v>
       </c>
       <c r="S92" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="T92" s="87">
+        <v>146</v>
+      </c>
+      <c r="T92" s="78">
         <v>210971</v>
       </c>
       <c r="U92" s="16"/>
@@ -8443,9 +8437,9 @@
         <v>271360</v>
       </c>
       <c r="AD92" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE92" s="87">
+        <v>146</v>
+      </c>
+      <c r="AE92" s="78">
         <v>210971</v>
       </c>
       <c r="AF92" s="16"/>
@@ -8471,9 +8465,9 @@
         <v>271360</v>
       </c>
       <c r="AO92" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP92" s="87">
+        <v>146</v>
+      </c>
+      <c r="AP92" s="78">
         <v>210971</v>
       </c>
       <c r="AQ92" s="16"/>
@@ -8482,7 +8476,7 @@
       <c r="A93" s="20">
         <v>6</v>
       </c>
-      <c r="B93" s="91">
+      <c r="B93" s="81">
         <v>365</v>
       </c>
       <c r="C93" s="23">
@@ -8501,9 +8495,9 @@
         <v>272000</v>
       </c>
       <c r="H93" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I93" s="87">
+        <v>139</v>
+      </c>
+      <c r="I93" s="78">
         <v>149749</v>
       </c>
       <c r="J93" s="16"/>
@@ -8529,9 +8523,9 @@
         <v>407040</v>
       </c>
       <c r="S93" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="T93" s="87">
+        <v>145</v>
+      </c>
+      <c r="T93" s="78">
         <v>236149</v>
       </c>
       <c r="U93" s="16"/>
@@ -8558,9 +8552,9 @@
         <v>407040</v>
       </c>
       <c r="AD93" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE93" s="87">
+        <v>145</v>
+      </c>
+      <c r="AE93" s="78">
         <v>236149</v>
       </c>
       <c r="AF93" s="16"/>
@@ -8586,9 +8580,9 @@
         <v>407040</v>
       </c>
       <c r="AO93" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP93" s="87">
+        <v>145</v>
+      </c>
+      <c r="AP93" s="78">
         <v>236149</v>
       </c>
       <c r="AQ93" s="16"/>
@@ -8597,7 +8591,7 @@
       <c r="A94" s="20">
         <v>7</v>
       </c>
-      <c r="B94" s="91">
+      <c r="B94" s="81">
         <v>319</v>
       </c>
       <c r="C94" s="23">
@@ -8616,9 +8610,9 @@
         <v>408320</v>
       </c>
       <c r="H94" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="I94" s="87">
+        <v>140</v>
+      </c>
+      <c r="I94" s="78">
         <v>226503</v>
       </c>
       <c r="J94" s="16"/>
@@ -8644,9 +8638,9 @@
         <v>611840</v>
       </c>
       <c r="S94" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="T94" s="87">
+        <v>147</v>
+      </c>
+      <c r="T94" s="78">
         <v>399303</v>
       </c>
       <c r="U94" s="16"/>
@@ -8673,9 +8667,9 @@
         <v>611840</v>
       </c>
       <c r="AD94" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE94" s="87">
+        <v>147</v>
+      </c>
+      <c r="AE94" s="78">
         <v>399303</v>
       </c>
       <c r="AF94" s="16"/>
@@ -8701,9 +8695,9 @@
         <v>611840</v>
       </c>
       <c r="AO94" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP94" s="87">
+        <v>147</v>
+      </c>
+      <c r="AP94" s="78">
         <v>399303</v>
       </c>
       <c r="AQ94" s="16"/>
@@ -8712,7 +8706,7 @@
       <c r="A95" s="20">
         <v>8</v>
       </c>
-      <c r="B95" s="91">
+      <c r="B95" s="81">
         <v>272</v>
       </c>
       <c r="C95" s="23">
@@ -8731,9 +8725,9 @@
         <v>612480</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="I95" s="87">
+        <v>141</v>
+      </c>
+      <c r="I95" s="78">
         <v>564319</v>
       </c>
       <c r="J95" s="16"/>
@@ -8759,9 +8753,9 @@
         <v>919040</v>
       </c>
       <c r="S95" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="T95" s="87">
+        <v>148</v>
+      </c>
+      <c r="T95" s="78">
         <v>737119</v>
       </c>
       <c r="U95" s="16"/>
@@ -8788,9 +8782,9 @@
         <v>919040</v>
       </c>
       <c r="AD95" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE95" s="87">
+        <v>148</v>
+      </c>
+      <c r="AE95" s="78">
         <v>737119</v>
       </c>
       <c r="AF95" s="16"/>
@@ -8816,9 +8810,9 @@
         <v>919040</v>
       </c>
       <c r="AO95" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP95" s="87">
+        <v>148</v>
+      </c>
+      <c r="AP95" s="78">
         <v>737119</v>
       </c>
       <c r="AQ95" s="16"/>
@@ -8827,7 +8821,7 @@
       <c r="A96" s="20">
         <v>9</v>
       </c>
-      <c r="B96" s="91">
+      <c r="B96" s="81">
         <v>224</v>
       </c>
       <c r="C96" s="23">
@@ -8846,9 +8840,9 @@
         <v>918400</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I96" s="87">
+        <v>142</v>
+      </c>
+      <c r="I96" s="78">
         <v>1618160</v>
       </c>
       <c r="J96" s="16"/>
@@ -8874,9 +8868,9 @@
         <v>1377280</v>
       </c>
       <c r="S96" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="T96" s="87">
+        <v>149</v>
+      </c>
+      <c r="T96" s="78">
         <v>1790960</v>
       </c>
       <c r="U96" s="16"/>
@@ -8903,9 +8897,9 @@
         <v>1377280</v>
       </c>
       <c r="AD96" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE96" s="87">
+        <v>149</v>
+      </c>
+      <c r="AE96" s="78">
         <v>1790960</v>
       </c>
       <c r="AF96" s="16"/>
@@ -8931,9 +8925,9 @@
         <v>1377280</v>
       </c>
       <c r="AO96" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP96" s="87">
+        <v>149</v>
+      </c>
+      <c r="AP96" s="78">
         <v>1790960</v>
       </c>
       <c r="AQ96" s="16"/>
@@ -8942,7 +8936,7 @@
       <c r="A97" s="20">
         <v>10</v>
       </c>
-      <c r="B97" s="91">
+      <c r="B97" s="81">
         <v>175</v>
       </c>
       <c r="C97" s="23">
@@ -8961,9 +8955,9 @@
         <v>1377920</v>
       </c>
       <c r="H97" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I97" s="87">
+        <v>143</v>
+      </c>
+      <c r="I97" s="78">
         <v>5191928</v>
       </c>
       <c r="J97" s="16"/>
@@ -8989,9 +8983,9 @@
         <v>2065920</v>
       </c>
       <c r="S97" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="T97" s="87">
+        <v>150</v>
+      </c>
+      <c r="T97" s="78">
         <v>5364728</v>
       </c>
       <c r="U97" s="16"/>
@@ -9018,9 +9012,9 @@
         <v>2065920</v>
       </c>
       <c r="AD97" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE97" s="87">
+        <v>150</v>
+      </c>
+      <c r="AE97" s="78">
         <v>5364728</v>
       </c>
       <c r="AF97" s="16"/>
@@ -9046,66 +9040,102 @@
         <v>2065920</v>
       </c>
       <c r="AO97" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP97" s="87">
+        <v>150</v>
+      </c>
+      <c r="AP97" s="78">
         <v>5364728</v>
       </c>
       <c r="AQ97" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="T34:T36"/>
-    <mergeCell ref="AE34:AE36"/>
-    <mergeCell ref="AP34:AP36"/>
-    <mergeCell ref="AP51:AP53"/>
-    <mergeCell ref="AE51:AE53"/>
-    <mergeCell ref="T51:T53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="T68:T70"/>
-    <mergeCell ref="AE68:AE70"/>
-    <mergeCell ref="AE85:AE87"/>
-    <mergeCell ref="AP85:AP87"/>
-    <mergeCell ref="AP68:AP70"/>
-    <mergeCell ref="AH85:AH87"/>
-    <mergeCell ref="AI85:AI87"/>
-    <mergeCell ref="AJ85:AJ87"/>
-    <mergeCell ref="AK85:AK87"/>
-    <mergeCell ref="AL85:AL87"/>
-    <mergeCell ref="AM85:AM87"/>
-    <mergeCell ref="AN85:AN87"/>
-    <mergeCell ref="AO85:AO87"/>
-    <mergeCell ref="AQ85:AQ87"/>
-    <mergeCell ref="W85:W87"/>
-    <mergeCell ref="X85:X87"/>
-    <mergeCell ref="Y85:Y87"/>
-    <mergeCell ref="Z85:Z87"/>
-    <mergeCell ref="AA85:AA87"/>
-    <mergeCell ref="AB85:AB87"/>
-    <mergeCell ref="AC85:AC87"/>
-    <mergeCell ref="AD85:AD87"/>
-    <mergeCell ref="AF85:AF87"/>
-    <mergeCell ref="L85:L87"/>
-    <mergeCell ref="M85:M87"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="P85:P87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="R68:R70"/>
+    <mergeCell ref="S68:S70"/>
+    <mergeCell ref="U68:U70"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="AL68:AL70"/>
+    <mergeCell ref="AM68:AM70"/>
+    <mergeCell ref="AN68:AN70"/>
+    <mergeCell ref="AO68:AO70"/>
+    <mergeCell ref="AQ68:AQ70"/>
+    <mergeCell ref="AD68:AD70"/>
+    <mergeCell ref="AF68:AF70"/>
+    <mergeCell ref="AH68:AH70"/>
+    <mergeCell ref="AI68:AI70"/>
+    <mergeCell ref="AJ68:AJ70"/>
+    <mergeCell ref="AK68:AK70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:N70"/>
+    <mergeCell ref="O68:O70"/>
+    <mergeCell ref="AN51:AN53"/>
+    <mergeCell ref="AO51:AO53"/>
+    <mergeCell ref="AQ51:AQ53"/>
+    <mergeCell ref="AJ51:AJ53"/>
+    <mergeCell ref="AK51:AK53"/>
+    <mergeCell ref="AL51:AL53"/>
+    <mergeCell ref="AM51:AM53"/>
+    <mergeCell ref="O51:O53"/>
+    <mergeCell ref="P51:P53"/>
+    <mergeCell ref="Q51:Q53"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="Y68:Y70"/>
+    <mergeCell ref="Z68:Z70"/>
+    <mergeCell ref="AA68:AA70"/>
+    <mergeCell ref="AB68:AB70"/>
+    <mergeCell ref="AC68:AC70"/>
+    <mergeCell ref="P68:P70"/>
+    <mergeCell ref="Q68:Q70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="AH51:AH53"/>
+    <mergeCell ref="AI51:AI53"/>
+    <mergeCell ref="Z51:Z53"/>
+    <mergeCell ref="AA51:AA53"/>
+    <mergeCell ref="AB51:AB53"/>
+    <mergeCell ref="AC51:AC53"/>
+    <mergeCell ref="AD51:AD53"/>
+    <mergeCell ref="AF51:AF53"/>
+    <mergeCell ref="R51:R53"/>
+    <mergeCell ref="S51:S53"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="W51:W53"/>
+    <mergeCell ref="X51:X53"/>
+    <mergeCell ref="Y51:Y53"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="AQ34:AQ36"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="AJ34:AJ36"/>
+    <mergeCell ref="AK34:AK36"/>
+    <mergeCell ref="AL34:AL36"/>
+    <mergeCell ref="AM34:AM36"/>
+    <mergeCell ref="AN34:AN36"/>
+    <mergeCell ref="AO34:AO36"/>
+    <mergeCell ref="AB34:AB36"/>
+    <mergeCell ref="AC34:AC36"/>
+    <mergeCell ref="AD34:AD36"/>
+    <mergeCell ref="AF34:AF36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AI34:AI36"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="S34:S36"/>
     <mergeCell ref="X34:X36"/>
     <mergeCell ref="Y34:Y36"/>
     <mergeCell ref="Z34:Z36"/>
@@ -9130,93 +9160,57 @@
     <mergeCell ref="G34:G36"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="I34:I36"/>
-    <mergeCell ref="AQ34:AQ36"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="AJ34:AJ36"/>
-    <mergeCell ref="AK34:AK36"/>
-    <mergeCell ref="AL34:AL36"/>
-    <mergeCell ref="AM34:AM36"/>
-    <mergeCell ref="AN34:AN36"/>
-    <mergeCell ref="AO34:AO36"/>
-    <mergeCell ref="AB34:AB36"/>
-    <mergeCell ref="AC34:AC36"/>
-    <mergeCell ref="AD34:AD36"/>
-    <mergeCell ref="AF34:AF36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AI34:AI36"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="S34:S36"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="AH51:AH53"/>
-    <mergeCell ref="AI51:AI53"/>
-    <mergeCell ref="Z51:Z53"/>
-    <mergeCell ref="AA51:AA53"/>
-    <mergeCell ref="AB51:AB53"/>
-    <mergeCell ref="AC51:AC53"/>
-    <mergeCell ref="AD51:AD53"/>
-    <mergeCell ref="AF51:AF53"/>
-    <mergeCell ref="R51:R53"/>
-    <mergeCell ref="S51:S53"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="W51:W53"/>
-    <mergeCell ref="X51:X53"/>
-    <mergeCell ref="Y51:Y53"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="N68:N70"/>
-    <mergeCell ref="O68:O70"/>
-    <mergeCell ref="AN51:AN53"/>
-    <mergeCell ref="AO51:AO53"/>
-    <mergeCell ref="AQ51:AQ53"/>
-    <mergeCell ref="AJ51:AJ53"/>
-    <mergeCell ref="AK51:AK53"/>
-    <mergeCell ref="AL51:AL53"/>
-    <mergeCell ref="AM51:AM53"/>
-    <mergeCell ref="O51:O53"/>
-    <mergeCell ref="P51:P53"/>
-    <mergeCell ref="Q51:Q53"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="Y68:Y70"/>
-    <mergeCell ref="Z68:Z70"/>
-    <mergeCell ref="AA68:AA70"/>
-    <mergeCell ref="AB68:AB70"/>
-    <mergeCell ref="AC68:AC70"/>
-    <mergeCell ref="P68:P70"/>
-    <mergeCell ref="Q68:Q70"/>
-    <mergeCell ref="R68:R70"/>
-    <mergeCell ref="S68:S70"/>
-    <mergeCell ref="U68:U70"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="AL68:AL70"/>
-    <mergeCell ref="AM68:AM70"/>
-    <mergeCell ref="AN68:AN70"/>
-    <mergeCell ref="AO68:AO70"/>
-    <mergeCell ref="AQ68:AQ70"/>
-    <mergeCell ref="AD68:AD70"/>
-    <mergeCell ref="AF68:AF70"/>
-    <mergeCell ref="AH68:AH70"/>
-    <mergeCell ref="AI68:AI70"/>
-    <mergeCell ref="AJ68:AJ70"/>
-    <mergeCell ref="AK68:AK70"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="P85:P87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="AQ85:AQ87"/>
+    <mergeCell ref="W85:W87"/>
+    <mergeCell ref="X85:X87"/>
+    <mergeCell ref="Y85:Y87"/>
+    <mergeCell ref="Z85:Z87"/>
+    <mergeCell ref="AA85:AA87"/>
+    <mergeCell ref="AB85:AB87"/>
+    <mergeCell ref="AC85:AC87"/>
+    <mergeCell ref="AD85:AD87"/>
+    <mergeCell ref="AF85:AF87"/>
+    <mergeCell ref="T34:T36"/>
+    <mergeCell ref="AE34:AE36"/>
+    <mergeCell ref="AP34:AP36"/>
+    <mergeCell ref="AP51:AP53"/>
+    <mergeCell ref="AE51:AE53"/>
+    <mergeCell ref="T51:T53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="T68:T70"/>
+    <mergeCell ref="AE68:AE70"/>
+    <mergeCell ref="AE85:AE87"/>
+    <mergeCell ref="AP85:AP87"/>
+    <mergeCell ref="AP68:AP70"/>
+    <mergeCell ref="AH85:AH87"/>
+    <mergeCell ref="AI85:AI87"/>
+    <mergeCell ref="AJ85:AJ87"/>
+    <mergeCell ref="AK85:AK87"/>
+    <mergeCell ref="AL85:AL87"/>
+    <mergeCell ref="AM85:AM87"/>
+    <mergeCell ref="AN85:AN87"/>
+    <mergeCell ref="AO85:AO87"/>
+    <mergeCell ref="L85:L87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9236,35 +9230,35 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="76" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="59"/>
     <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>223</v>
+        <v>162</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>221</v>
       </c>
       <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" t="s">
-        <v>154</v>
-      </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O1">
         <v>118020</v>
@@ -9294,7 +9288,7 @@
         <f>A2/1440</f>
         <v>1.1574074074074075E-2</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="79"/>
       <c r="H2">
         <v>3</v>
       </c>
@@ -9498,7 +9492,7 @@
         <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -9513,8 +9507,8 @@
         <f t="shared" si="1"/>
         <v>4.6296296296296301E-2</v>
       </c>
-      <c r="D9" s="82" t="s">
-        <v>194</v>
+      <c r="D9" s="76" t="s">
+        <v>192</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -9549,8 +9543,8 @@
         <f t="shared" si="1"/>
         <v>6.4814814814814811E-2</v>
       </c>
-      <c r="D10" s="82" t="s">
-        <v>195</v>
+      <c r="D10" s="76" t="s">
+        <v>193</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -9566,7 +9560,7 @@
         <v>360</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:M28" si="3">K10/1440/60</f>
+        <f t="shared" ref="L10:L28" si="3">K10/1440/60</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="M10" s="59">
@@ -9585,8 +9579,8 @@
         <f t="shared" si="1"/>
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="D11" s="82" t="s">
-        <v>196</v>
+      <c r="D11" s="76" t="s">
+        <v>194</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -9621,8 +9615,8 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D12" s="82" t="s">
-        <v>197</v>
+      <c r="D12" s="76" t="s">
+        <v>195</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -9657,8 +9651,8 @@
         <f t="shared" si="1"/>
         <v>8.7962962962962965E-2</v>
       </c>
-      <c r="D13" s="82" t="s">
-        <v>198</v>
+      <c r="D13" s="76" t="s">
+        <v>196</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -9693,8 +9687,8 @@
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D14" s="82" t="s">
-        <v>199</v>
+      <c r="D14" s="76" t="s">
+        <v>197</v>
       </c>
       <c r="H14">
         <v>23</v>
@@ -9729,8 +9723,8 @@
         <f t="shared" si="1"/>
         <v>0.11574074074074073</v>
       </c>
-      <c r="D15" s="82" t="s">
-        <v>200</v>
+      <c r="D15" s="76" t="s">
+        <v>198</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9768,8 +9762,8 @@
         <f t="shared" si="1"/>
         <v>0.14814814814814817</v>
       </c>
-      <c r="D16" s="82" t="s">
-        <v>201</v>
+      <c r="D16" s="76" t="s">
+        <v>199</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -9807,8 +9801,8 @@
         <f t="shared" si="1"/>
         <v>0.22916666666666666</v>
       </c>
-      <c r="D17" s="82" t="s">
-        <v>202</v>
+      <c r="D17" s="76" t="s">
+        <v>200</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -9846,8 +9840,8 @@
         <f t="shared" si="1"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="D18" s="82" t="s">
-        <v>203</v>
+      <c r="D18" s="76" t="s">
+        <v>201</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -9885,8 +9879,8 @@
         <f t="shared" si="1"/>
         <v>0.32407407407407407</v>
       </c>
-      <c r="D19" s="82" t="s">
-        <v>204</v>
+      <c r="D19" s="76" t="s">
+        <v>202</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -9924,8 +9918,8 @@
         <f t="shared" si="1"/>
         <v>0.3842592592592593</v>
       </c>
-      <c r="D20" s="82" t="s">
-        <v>205</v>
+      <c r="D20" s="76" t="s">
+        <v>203</v>
       </c>
       <c r="G20">
         <v>7</v>
@@ -9960,8 +9954,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D21" s="82" t="s">
-        <v>206</v>
+      <c r="D21" s="76" t="s">
+        <v>204</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -9999,8 +9993,8 @@
         <f t="shared" ref="C22:C27" si="5">A22/1440/60</f>
         <v>1.3659722222222221</v>
       </c>
-      <c r="D22" s="82" t="s">
-        <v>207</v>
+      <c r="D22" s="76" t="s">
+        <v>205</v>
       </c>
       <c r="G22">
         <v>12</v>
@@ -10038,8 +10032,8 @@
         <f t="shared" si="5"/>
         <v>4.0965277777777773</v>
       </c>
-      <c r="D23" s="82" t="s">
-        <v>208</v>
+      <c r="D23" s="76" t="s">
+        <v>206</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -10077,8 +10071,8 @@
         <f t="shared" si="5"/>
         <v>12.288194444444445</v>
       </c>
-      <c r="D24" s="82" t="s">
-        <v>209</v>
+      <c r="D24" s="76" t="s">
+        <v>207</v>
       </c>
       <c r="G24">
         <v>17</v>
@@ -10116,8 +10110,8 @@
         <f t="shared" si="5"/>
         <v>36.864583333333336</v>
       </c>
-      <c r="D25" s="82" t="s">
-        <v>210</v>
+      <c r="D25" s="76" t="s">
+        <v>208</v>
       </c>
       <c r="G25">
         <v>20</v>
@@ -10155,8 +10149,8 @@
         <f t="shared" si="5"/>
         <v>92.161111111111111</v>
       </c>
-      <c r="D26" s="82" t="s">
-        <v>211</v>
+      <c r="D26" s="76" t="s">
+        <v>209</v>
       </c>
       <c r="G26">
         <v>24</v>
@@ -10194,8 +10188,8 @@
         <f t="shared" si="5"/>
         <v>147.65555555555557</v>
       </c>
-      <c r="D27" s="82" t="s">
-        <v>212</v>
+      <c r="D27" s="76" t="s">
+        <v>210</v>
       </c>
       <c r="G27">
         <v>52</v>
@@ -10222,8 +10216,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="82" t="s">
-        <v>213</v>
+      <c r="D28" s="76" t="s">
+        <v>211</v>
       </c>
       <c r="G28">
         <v>156</v>
@@ -10255,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:M29" si="7">K29/1440/60</f>
+        <f t="shared" ref="L29" si="7">K29/1440/60</f>
         <v>0</v>
       </c>
       <c r="M29" s="59">
@@ -10263,7 +10257,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H30" s="86">
+      <c r="H30" s="77">
         <v>0</v>
       </c>
       <c r="I30">
@@ -10277,7 +10271,7 @@
         <v>360</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:M30" si="8">K30/1440/60</f>
+        <f t="shared" ref="L30" si="8">K30/1440/60</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="M30" s="59">
@@ -10285,7 +10279,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H31" s="86">
+      <c r="H31" s="77">
         <v>0</v>
       </c>
       <c r="I31">
@@ -10299,7 +10293,7 @@
         <v>1440</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31:M31" si="9">K31/1440/60</f>
+        <f t="shared" ref="L31" si="9">K31/1440/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="M31" s="59">
@@ -10307,7 +10301,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H32" s="86">
+      <c r="H32" s="77">
         <v>1</v>
       </c>
       <c r="I32">
@@ -10321,7 +10315,7 @@
         <v>5760</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32:M32" si="10">K32/1440/60</f>
+        <f t="shared" ref="L32" si="10">K32/1440/60</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M32" s="59">
@@ -10329,7 +10323,7 @@
       </c>
     </row>
     <row r="33" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H33" s="86">
+      <c r="H33" s="77">
         <v>5</v>
       </c>
       <c r="I33">
@@ -10343,7 +10337,7 @@
         <v>20736</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L33:M33" si="11">K33/1440/60</f>
+        <f t="shared" ref="L33" si="11">K33/1440/60</f>
         <v>0.24000000000000002</v>
       </c>
       <c r="M33" s="59">
@@ -10351,7 +10345,7 @@
       </c>
     </row>
     <row r="34" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="86">
+      <c r="H34" s="77">
         <v>7</v>
       </c>
       <c r="I34">
@@ -10365,7 +10359,7 @@
         <v>26455</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:M34" si="12">K34/1440/60</f>
+        <f t="shared" ref="L34" si="12">K34/1440/60</f>
         <v>0.30619212962962966</v>
       </c>
       <c r="M34" s="59">
@@ -10373,7 +10367,7 @@
       </c>
     </row>
     <row r="35" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="86">
+      <c r="H35" s="77">
         <v>9</v>
       </c>
       <c r="I35">
@@ -10387,7 +10381,7 @@
         <v>34985</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35:M35" si="13">K35/1440/60</f>
+        <f t="shared" ref="L35" si="13">K35/1440/60</f>
         <v>0.40491898148148148</v>
       </c>
       <c r="M35" s="59">
@@ -10395,7 +10389,7 @@
       </c>
     </row>
     <row r="36" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="86">
+      <c r="H36" s="77">
         <v>12</v>
       </c>
       <c r="I36">
@@ -10409,7 +10403,7 @@
         <v>46268</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:M36" si="14">K36/1440/60</f>
+        <f t="shared" ref="L36" si="14">K36/1440/60</f>
         <v>0.53550925925925918</v>
       </c>
       <c r="M36" s="59">
@@ -10417,8 +10411,8 @@
       </c>
     </row>
     <row r="37" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G37" s="86" t="s">
-        <v>215</v>
+      <c r="G37" s="77" t="s">
+        <v>213</v>
       </c>
       <c r="H37">
         <v>22</v>
@@ -10434,7 +10428,7 @@
         <v>168319</v>
       </c>
       <c r="L37">
-        <f t="shared" ref="L37:M37" si="15">K37/1440/60</f>
+        <f t="shared" ref="L37" si="15">K37/1440/60</f>
         <v>1.9481365740740741</v>
       </c>
       <c r="M37" s="59">
@@ -10442,8 +10436,8 @@
       </c>
     </row>
     <row r="38" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G38" s="86" t="s">
-        <v>216</v>
+      <c r="G38" s="77" t="s">
+        <v>214</v>
       </c>
       <c r="H38">
         <v>7</v>
@@ -10459,7 +10453,7 @@
         <v>545351</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:M38" si="16">K38/1440/60</f>
+        <f t="shared" ref="L38" si="16">K38/1440/60</f>
         <v>6.3119328703703701</v>
       </c>
       <c r="M38" s="59">
@@ -10467,8 +10461,8 @@
       </c>
     </row>
     <row r="39" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G39" s="86" t="s">
-        <v>217</v>
+      <c r="G39" s="77" t="s">
+        <v>215</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -10484,7 +10478,7 @@
         <v>1908728</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:M39" si="17">K39/1440/60</f>
+        <f t="shared" ref="L39" si="17">K39/1440/60</f>
         <v>22.091759259259259</v>
       </c>
       <c r="M39" s="59">
@@ -10502,8 +10496,8 @@
       </c>
     </row>
     <row r="41" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H41" s="89" t="s">
-        <v>218</v>
+      <c r="H41" s="80" t="s">
+        <v>216</v>
       </c>
       <c r="I41">
         <v>3</v>
@@ -10516,7 +10510,7 @@
         <v>180</v>
       </c>
       <c r="L41">
-        <f t="shared" ref="L41:M41" si="20">K41/1440/60</f>
+        <f t="shared" ref="L41" si="20">K41/1440/60</f>
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="M41" s="59">
@@ -10525,8 +10519,8 @@
       </c>
     </row>
     <row r="42" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="89" t="s">
-        <v>218</v>
+      <c r="H42" s="80" t="s">
+        <v>216</v>
       </c>
       <c r="I42">
         <v>12</v>
@@ -10539,7 +10533,7 @@
         <v>720</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42:M42" si="21">K42/1440/60</f>
+        <f t="shared" ref="L42" si="21">K42/1440/60</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="M42" s="59">
@@ -10548,8 +10542,8 @@
       </c>
     </row>
     <row r="43" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H43" s="89" t="s">
-        <v>218</v>
+      <c r="H43" s="80" t="s">
+        <v>216</v>
       </c>
       <c r="I43">
         <v>48</v>
@@ -10562,7 +10556,7 @@
         <v>2880</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43:M43" si="23">K43/1440/60</f>
+        <f t="shared" ref="L43" si="23">K43/1440/60</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M43" s="59">
@@ -10571,8 +10565,8 @@
       </c>
     </row>
     <row r="44" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H44" s="89" t="s">
-        <v>219</v>
+      <c r="H44" s="80" t="s">
+        <v>217</v>
       </c>
       <c r="I44">
         <v>52</v>
@@ -10585,7 +10579,7 @@
         <v>10368</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44:M44" si="24">K44/1440/60</f>
+        <f t="shared" ref="L44" si="24">K44/1440/60</f>
         <v>0.12000000000000001</v>
       </c>
       <c r="M44" s="59">
@@ -10594,8 +10588,8 @@
       </c>
     </row>
     <row r="45" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H45" s="89" t="s">
-        <v>220</v>
+      <c r="H45" s="80" t="s">
+        <v>218</v>
       </c>
       <c r="I45">
         <v>40</v>
@@ -10608,7 +10602,7 @@
         <v>13228</v>
       </c>
       <c r="L45">
-        <f t="shared" ref="L45:M45" si="25">K45/1440/60</f>
+        <f t="shared" ref="L45" si="25">K45/1440/60</f>
         <v>0.15310185185185185</v>
       </c>
       <c r="M45" s="59">
@@ -10617,8 +10611,8 @@
       </c>
     </row>
     <row r="46" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H46" s="89" t="s">
-        <v>221</v>
+      <c r="H46" s="80" t="s">
+        <v>219</v>
       </c>
       <c r="I46">
         <v>51</v>
@@ -10631,7 +10625,7 @@
         <v>17493</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46:M46" si="26">K46/1440/60</f>
+        <f t="shared" ref="L46" si="26">K46/1440/60</f>
         <v>0.20246527777777779</v>
       </c>
       <c r="M46" s="59">
@@ -10640,8 +10634,8 @@
       </c>
     </row>
     <row r="47" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H47" s="89" t="s">
-        <v>216</v>
+      <c r="H47" s="80" t="s">
+        <v>214</v>
       </c>
       <c r="I47">
         <v>25</v>
@@ -10654,7 +10648,7 @@
         <v>23134</v>
       </c>
       <c r="L47">
-        <f t="shared" ref="L47:M47" si="27">K47/1440/60</f>
+        <f t="shared" ref="L47" si="27">K47/1440/60</f>
         <v>0.26775462962962959</v>
       </c>
       <c r="M47" s="59">
@@ -10663,7 +10657,7 @@
       </c>
     </row>
     <row r="48" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G48" s="89">
+      <c r="G48" s="80">
         <v>1</v>
       </c>
       <c r="H48">
@@ -10680,7 +10674,7 @@
         <v>127390</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48:M48" si="28">K48/1440/60</f>
+        <f t="shared" ref="L48" si="28">K48/1440/60</f>
         <v>1.4744212962962961</v>
       </c>
       <c r="M48" s="59">
@@ -10689,7 +10683,7 @@
       </c>
     </row>
     <row r="49" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G49" s="89">
+      <c r="G49" s="80">
         <v>3</v>
       </c>
       <c r="H49">
@@ -10706,7 +10700,7 @@
         <v>271800</v>
       </c>
       <c r="L49">
-        <f t="shared" ref="L49:M49" si="29">K49/1440/60</f>
+        <f t="shared" ref="L49" si="29">K49/1440/60</f>
         <v>3.1458333333333335</v>
       </c>
       <c r="M49" s="59">
@@ -10715,7 +10709,7 @@
       </c>
     </row>
     <row r="50" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G50" s="89">
+      <c r="G50" s="80">
         <v>11</v>
       </c>
       <c r="H50">
@@ -10732,7 +10726,7 @@
         <v>954368</v>
       </c>
       <c r="L50">
-        <f t="shared" ref="L50:M50" si="30">K50/1440/60</f>
+        <f t="shared" ref="L50" si="30">K50/1440/60</f>
         <v>11.045925925925927</v>
       </c>
       <c r="M50" s="59">
@@ -10755,7 +10749,7 @@
       </c>
     </row>
     <row r="52" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H52" s="82">
+      <c r="H52" s="76">
         <v>0</v>
       </c>
       <c r="I52">
@@ -10778,7 +10772,7 @@
       </c>
     </row>
     <row r="53" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H53" s="82">
+      <c r="H53" s="76">
         <v>0</v>
       </c>
       <c r="I53">
@@ -10801,7 +10795,7 @@
       </c>
     </row>
     <row r="54" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H54" s="82">
+      <c r="H54" s="76">
         <v>1</v>
       </c>
       <c r="I54">
@@ -10824,7 +10818,7 @@
       </c>
     </row>
     <row r="55" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H55" s="82">
+      <c r="H55" s="76">
         <v>4</v>
       </c>
       <c r="I55">
@@ -10847,7 +10841,7 @@
       </c>
     </row>
     <row r="56" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H56" s="82">
+      <c r="H56" s="76">
         <v>5</v>
       </c>
       <c r="I56">
@@ -10870,7 +10864,7 @@
       </c>
     </row>
     <row r="57" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H57" s="82">
+      <c r="H57" s="76">
         <v>7</v>
       </c>
       <c r="I57">
@@ -10893,7 +10887,7 @@
       </c>
     </row>
     <row r="58" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H58" s="82">
+      <c r="H58" s="76">
         <v>9</v>
       </c>
       <c r="I58">
@@ -10916,8 +10910,8 @@
       </c>
     </row>
     <row r="59" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G59" s="82" t="s">
-        <v>215</v>
+      <c r="G59" s="76" t="s">
+        <v>213</v>
       </c>
       <c r="H59">
         <v>22</v>
@@ -10942,8 +10936,8 @@
       </c>
     </row>
     <row r="60" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G60" s="82" t="s">
-        <v>216</v>
+      <c r="G60" s="76" t="s">
+        <v>214</v>
       </c>
       <c r="H60">
         <v>7</v>
@@ -10968,8 +10962,8 @@
       </c>
     </row>
     <row r="61" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G61" s="82" t="s">
-        <v>222</v>
+      <c r="G61" s="76" t="s">
+        <v>220</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -11008,8 +11002,8 @@
       </c>
     </row>
     <row r="63" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H63" s="82" t="s">
-        <v>218</v>
+      <c r="H63" s="76" t="s">
+        <v>216</v>
       </c>
       <c r="I63">
         <v>13</v>
@@ -11031,8 +11025,8 @@
       </c>
     </row>
     <row r="64" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H64" s="82" t="s">
-        <v>218</v>
+      <c r="H64" s="76" t="s">
+        <v>216</v>
       </c>
       <c r="I64">
         <v>54</v>
@@ -11054,8 +11048,8 @@
       </c>
     </row>
     <row r="65" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H65" s="82" t="s">
-        <v>220</v>
+      <c r="H65" s="76" t="s">
+        <v>218</v>
       </c>
       <c r="I65">
         <v>36</v>
@@ -11077,8 +11071,8 @@
       </c>
     </row>
     <row r="66" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H66" s="82" t="s">
-        <v>224</v>
+      <c r="H66" s="76" t="s">
+        <v>222</v>
       </c>
       <c r="I66">
         <v>57</v>
@@ -11100,8 +11094,8 @@
       </c>
     </row>
     <row r="67" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H67" s="82" t="s">
-        <v>225</v>
+      <c r="H67" s="76" t="s">
+        <v>223</v>
       </c>
       <c r="I67">
         <v>32</v>
@@ -11123,8 +11117,8 @@
       </c>
     </row>
     <row r="68" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H68" s="82" t="s">
-        <v>226</v>
+      <c r="H68" s="76" t="s">
+        <v>224</v>
       </c>
       <c r="I68">
         <v>51</v>
@@ -11146,7 +11140,7 @@
       </c>
     </row>
     <row r="69" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G69" s="82">
+      <c r="G69" s="76">
         <v>1</v>
       </c>
       <c r="H69">
@@ -11172,7 +11166,7 @@
       </c>
     </row>
     <row r="70" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G70" s="82">
+      <c r="G70" s="76">
         <v>3</v>
       </c>
       <c r="H70">
@@ -11198,7 +11192,7 @@
       </c>
     </row>
     <row r="71" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G71" s="82">
+      <c r="G71" s="76">
         <v>16</v>
       </c>
       <c r="H71">
@@ -11224,7 +11218,7 @@
       </c>
     </row>
     <row r="72" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G72" s="82">
+      <c r="G72" s="76">
         <v>40</v>
       </c>
       <c r="H72">
@@ -11264,7 +11258,7 @@
       </c>
     </row>
     <row r="74" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H74" s="82">
+      <c r="H74" s="76">
         <v>0</v>
       </c>
       <c r="I74">
@@ -11287,7 +11281,7 @@
       </c>
     </row>
     <row r="75" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H75" s="82">
+      <c r="H75" s="76">
         <v>0</v>
       </c>
       <c r="I75">
@@ -11310,7 +11304,7 @@
       </c>
     </row>
     <row r="76" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H76" s="82">
+      <c r="H76" s="76">
         <v>1</v>
       </c>
       <c r="I76">
@@ -11333,7 +11327,7 @@
       </c>
     </row>
     <row r="77" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H77" s="82">
+      <c r="H77" s="76">
         <v>6</v>
       </c>
       <c r="I77">
@@ -11356,7 +11350,7 @@
       </c>
     </row>
     <row r="78" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H78" s="82">
+      <c r="H78" s="76">
         <v>8</v>
       </c>
       <c r="I78">
@@ -11379,7 +11373,7 @@
       </c>
     </row>
     <row r="79" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H79" s="82">
+      <c r="H79" s="76">
         <v>10</v>
       </c>
       <c r="I79">
@@ -11402,7 +11396,7 @@
       </c>
     </row>
     <row r="80" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H80" s="82">
+      <c r="H80" s="76">
         <v>17</v>
       </c>
       <c r="I80">
@@ -11425,8 +11419,8 @@
       </c>
     </row>
     <row r="81" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G81" s="82" t="s">
-        <v>215</v>
+      <c r="G81" s="76" t="s">
+        <v>213</v>
       </c>
       <c r="H81">
         <v>6</v>
@@ -11451,8 +11445,8 @@
       </c>
     </row>
     <row r="82" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G82" s="82" t="s">
-        <v>227</v>
+      <c r="G82" s="76" t="s">
+        <v>225</v>
       </c>
       <c r="H82">
         <v>9</v>
@@ -11477,8 +11471,8 @@
       </c>
     </row>
     <row r="83" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G83" s="82" t="s">
-        <v>228</v>
+      <c r="G83" s="76" t="s">
+        <v>226</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -11517,8 +11511,8 @@
       </c>
     </row>
     <row r="85" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H85" s="82" t="s">
-        <v>215</v>
+      <c r="H85" s="76" t="s">
+        <v>213</v>
       </c>
       <c r="I85">
         <v>21</v>
@@ -11540,8 +11534,8 @@
       </c>
     </row>
     <row r="86" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H86" s="82" t="s">
-        <v>229</v>
+      <c r="H86" s="76" t="s">
+        <v>227</v>
       </c>
       <c r="I86">
         <v>24</v>
@@ -11563,8 +11557,8 @@
       </c>
     </row>
     <row r="87" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="H87" s="82" t="s">
-        <v>226</v>
+      <c r="H87" s="76" t="s">
+        <v>224</v>
       </c>
       <c r="I87">
         <v>36</v>
@@ -11586,7 +11580,7 @@
       </c>
     </row>
     <row r="88" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G88" s="82">
+      <c r="G88" s="76">
         <v>1</v>
       </c>
       <c r="H88">
@@ -11612,7 +11606,7 @@
       </c>
     </row>
     <row r="89" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G89" s="82">
+      <c r="G89" s="76">
         <v>2</v>
       </c>
       <c r="H89">
@@ -11638,7 +11632,7 @@
       </c>
     </row>
     <row r="90" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G90" s="82">
+      <c r="G90" s="76">
         <v>2</v>
       </c>
       <c r="H90">
@@ -11664,7 +11658,7 @@
       </c>
     </row>
     <row r="91" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G91" s="82">
+      <c r="G91" s="76">
         <v>4</v>
       </c>
       <c r="H91">
@@ -11690,7 +11684,7 @@
       </c>
     </row>
     <row r="92" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G92" s="82">
+      <c r="G92" s="76">
         <v>8</v>
       </c>
       <c r="H92">
@@ -11716,7 +11710,7 @@
       </c>
     </row>
     <row r="93" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G93" s="82">
+      <c r="G93" s="76">
         <v>20</v>
       </c>
       <c r="H93">
@@ -11742,7 +11736,7 @@
       </c>
     </row>
     <row r="94" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G94" s="82">
+      <c r="G94" s="76">
         <v>62</v>
       </c>
       <c r="H94">
@@ -11782,8 +11776,8 @@
       </c>
     </row>
     <row r="96" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G96" s="82"/>
-      <c r="H96" s="82">
+      <c r="G96" s="76"/>
+      <c r="H96" s="76">
         <v>0</v>
       </c>
       <c r="I96">
@@ -11806,8 +11800,8 @@
       </c>
     </row>
     <row r="97" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G97" s="82"/>
-      <c r="H97" s="82">
+      <c r="G97" s="76"/>
+      <c r="H97" s="76">
         <v>2</v>
       </c>
       <c r="I97">
@@ -11830,8 +11824,8 @@
       </c>
     </row>
     <row r="98" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G98" s="82"/>
-      <c r="H98" s="82">
+      <c r="G98" s="76"/>
+      <c r="H98" s="76">
         <v>10</v>
       </c>
       <c r="I98">
@@ -11854,8 +11848,8 @@
       </c>
     </row>
     <row r="99" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G99" s="82"/>
-      <c r="H99" s="82">
+      <c r="G99" s="76"/>
+      <c r="H99" s="76">
         <v>14</v>
       </c>
       <c r="I99">
@@ -11878,8 +11872,8 @@
       </c>
     </row>
     <row r="100" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G100" s="82" t="s">
-        <v>215</v>
+      <c r="G100" s="76" t="s">
+        <v>213</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -11904,8 +11898,8 @@
       </c>
     </row>
     <row r="101" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G101" s="82" t="s">
-        <v>215</v>
+      <c r="G101" s="76" t="s">
+        <v>213</v>
       </c>
       <c r="H101">
         <v>17</v>
@@ -11930,8 +11924,8 @@
       </c>
     </row>
     <row r="102" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G102" s="82" t="s">
-        <v>219</v>
+      <c r="G102" s="76" t="s">
+        <v>217</v>
       </c>
       <c r="H102">
         <v>14</v>
@@ -11956,8 +11950,8 @@
       </c>
     </row>
     <row r="103" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G103" s="82" t="s">
-        <v>216</v>
+      <c r="G103" s="76" t="s">
+        <v>214</v>
       </c>
       <c r="H103">
         <v>12</v>
@@ -11982,8 +11976,8 @@
       </c>
     </row>
     <row r="104" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G104" s="82" t="s">
-        <v>230</v>
+      <c r="G104" s="76" t="s">
+        <v>228</v>
       </c>
       <c r="H104">
         <v>17</v>
@@ -12008,8 +12002,8 @@
       </c>
     </row>
     <row r="105" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G105" s="82" t="s">
-        <v>231</v>
+      <c r="G105" s="76" t="s">
+        <v>229</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -12084,16 +12078,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>162</v>
-      </c>
       <c r="I1" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J1" s="53"/>
     </row>
@@ -12128,16 +12122,16 @@
       <c r="L2" s="59"/>
       <c r="M2" s="59"/>
       <c r="O2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" t="s">
         <v>153</v>
       </c>
-      <c r="P2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>154</v>
-      </c>
       <c r="R2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -12183,7 +12177,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N3" s="59">
         <v>1.7361111111111112E-2</v>
@@ -12244,7 +12238,7 @@
         <v>6.805555555555555E-2</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N4" s="59">
         <v>6.805555555555555E-2</v>
@@ -12305,7 +12299,7 @@
         <v>0.14097222222222222</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N5" s="59">
         <v>0.14097222222222222</v>
@@ -12366,7 +12360,7 @@
         <v>0.19722222222222222</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N6" s="59">
         <v>0.19722222222222222</v>
@@ -12427,7 +12421,7 @@
         <v>0.45555555555555555</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N7" s="59">
         <v>0.45555555555555555</v>
@@ -12462,7 +12456,7 @@
         <v>104660</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="64">
         <f>S8+R8*60+Q8*60*60+P8*24*60*60</f>
@@ -12484,10 +12478,10 @@
         <v>96</v>
       </c>
       <c r="L8" s="59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -12544,7 +12538,7 @@
         <v>523290</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G9" s="64">
         <f>S9+R9*60+Q9*60*60+P9*24*60*60</f>
@@ -12566,10 +12560,10 @@
         <v>136</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N9">
         <v>4</v>
@@ -12626,7 +12620,7 @@
         <v>1046570</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G10" s="64">
         <f>S10+R10*60+Q10*60*60+P10*24*60*60</f>
@@ -12648,10 +12642,10 @@
         <v>184</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N10">
         <v>12</v>
@@ -12708,7 +12702,7 @@
         <v>3093140</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G11" s="64">
         <f>S11+R11*60+Q11*60*60+P11*24*60*60</f>
@@ -12730,10 +12724,10 @@
         <v>240</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N11">
         <v>36</v>
@@ -12790,7 +12784,7 @@
         <v>15464810</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G12" s="64">
         <f>S12+R12*60+Q12*60*60+P12*24*60*60</f>
@@ -12812,10 +12806,10 @@
         <v>304</v>
       </c>
       <c r="L12" s="59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N12">
         <v>92</v>
@@ -12860,7 +12854,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G14" s="60"/>
       <c r="J14" s="53"/>
@@ -12870,7 +12864,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B15" s="52"/>
       <c r="C15" s="53"/>
@@ -12883,7 +12877,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -12896,7 +12890,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -12909,7 +12903,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -12922,7 +12916,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -12932,7 +12926,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
@@ -12947,7 +12941,7 @@
     </row>
     <row r="21" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" s="66">
         <f>H2</f>
@@ -14064,7 +14058,7 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B42" s="54">
         <f>B22/1440</f>
@@ -14948,7 +14942,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -16190,16 +16184,16 @@
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="20"/>
       <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>155</v>
       </c>
       <c r="J1" s="20"/>
       <c r="L1" s="53">
@@ -16457,7 +16451,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -16482,7 +16476,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -16507,7 +16501,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -16532,7 +16526,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -16557,7 +16551,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -16582,7 +16576,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -16607,7 +16601,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -16632,7 +16626,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -16657,7 +16651,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -16679,7 +16673,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>41</v>

--- a/Xmind/Upgrade_Research/Infantry.xlsx
+++ b/Xmind/Upgrade_Research/Infantry.xlsx
@@ -5,12 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Xmind\Upgrade_Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\FileXmind\Xmind\Upgrade_Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MainBase_Upgrade" sheetId="5" r:id="rId1"/>
@@ -1095,15 +1094,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1124,6 +1114,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1412,12 +1411,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N23"/>
+  <dimension ref="A2:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -1429,7 +1425,7 @@
     <col min="14" max="14" width="9.140625" style="76"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>190</v>
       </c>
@@ -1447,7 +1443,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1508,7 +1504,7 @@
       <c r="J4" s="12"/>
       <c r="M4" s="59"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1537,7 +1533,7 @@
       <c r="J5" s="12"/>
       <c r="M5" s="59"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1566,7 +1562,7 @@
       <c r="J6" s="12"/>
       <c r="M6" s="59"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1595,7 +1591,7 @@
       <c r="J7" s="12"/>
       <c r="M7" s="59"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1624,7 +1620,7 @@
       <c r="J8" s="12"/>
       <c r="M8" s="59"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1653,7 +1649,7 @@
       <c r="J9" s="12"/>
       <c r="M9" s="59"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1682,7 +1678,7 @@
       <c r="J10" s="12"/>
       <c r="M10" s="59"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1711,7 +1707,7 @@
       <c r="J11" s="12"/>
       <c r="M11" s="59"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1740,7 +1736,7 @@
       <c r="J12" s="12"/>
       <c r="M12" s="59"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1769,7 +1765,7 @@
       <c r="J13" s="12"/>
       <c r="M13" s="59"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1798,7 +1794,7 @@
       <c r="J14" s="12"/>
       <c r="M14" s="59"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1827,7 +1823,7 @@
       <c r="J15" s="12"/>
       <c r="M15" s="59"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1855,6 +1851,14 @@
       <c r="I16" s="6"/>
       <c r="J16" s="12"/>
       <c r="M16" s="59"/>
+      <c r="N16" s="57">
+        <f>45-36</f>
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <f>9*60/15</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -2069,10 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ97"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:H46"/>
-    </sheetView>
-    <sheetView topLeftCell="A58" workbookViewId="1">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -2104,23 +2105,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-      <c r="K1" s="91" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="K1" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -3191,213 +3192,213 @@
       <c r="AP33" s="38"/>
     </row>
     <row r="34" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="85" t="s">
+      <c r="E34" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="85" t="s">
+      <c r="F34" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="85" t="s">
+      <c r="G34" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="85" t="s">
+      <c r="H34" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="82" t="s">
+      <c r="I34" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="J34" s="86" t="s">
+      <c r="J34" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="85" t="s">
+      <c r="L34" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="85" t="s">
+      <c r="M34" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N34" s="85" t="s">
+      <c r="N34" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="O34" s="85" t="s">
+      <c r="O34" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P34" s="85" t="s">
+      <c r="P34" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q34" s="85" t="s">
+      <c r="Q34" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R34" s="85" t="s">
+      <c r="R34" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="85" t="s">
+      <c r="S34" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="T34" s="82" t="s">
+      <c r="T34" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="U34" s="86" t="s">
+      <c r="U34" s="83" t="s">
         <v>6</v>
       </c>
       <c r="V34" s="24"/>
-      <c r="W34" s="85" t="s">
+      <c r="W34" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="X34" s="85" t="s">
+      <c r="X34" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="Y34" s="85" t="s">
+      <c r="Y34" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z34" s="85" t="s">
+      <c r="Z34" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AA34" s="85" t="s">
+      <c r="AA34" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB34" s="85" t="s">
+      <c r="AB34" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AC34" s="85" t="s">
+      <c r="AC34" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AD34" s="85" t="s">
+      <c r="AD34" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AE34" s="82" t="s">
+      <c r="AE34" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AF34" s="86" t="s">
+      <c r="AF34" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AH34" s="85" t="s">
+      <c r="AH34" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AI34" s="85" t="s">
+      <c r="AI34" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AJ34" s="85" t="s">
+      <c r="AJ34" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AK34" s="85" t="s">
+      <c r="AK34" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AL34" s="85" t="s">
+      <c r="AL34" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AM34" s="85" t="s">
+      <c r="AM34" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AN34" s="85" t="s">
+      <c r="AN34" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AO34" s="85" t="s">
+      <c r="AO34" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AP34" s="82" t="s">
+      <c r="AP34" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AQ34" s="86" t="s">
+      <c r="AQ34" s="83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="86"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="86"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="83"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="83"/>
       <c r="V35" s="24"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="86"/>
-      <c r="AH35" s="85"/>
-      <c r="AI35" s="85"/>
-      <c r="AJ35" s="85"/>
-      <c r="AK35" s="85"/>
-      <c r="AL35" s="85"/>
-      <c r="AM35" s="85"/>
-      <c r="AN35" s="85"/>
-      <c r="AO35" s="85"/>
-      <c r="AP35" s="83"/>
-      <c r="AQ35" s="86"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="90"/>
+      <c r="AF35" s="83"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="82"/>
+      <c r="AJ35" s="82"/>
+      <c r="AK35" s="82"/>
+      <c r="AL35" s="82"/>
+      <c r="AM35" s="82"/>
+      <c r="AN35" s="82"/>
+      <c r="AO35" s="82"/>
+      <c r="AP35" s="90"/>
+      <c r="AQ35" s="83"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="86"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="86"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="83"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="83"/>
       <c r="V36" s="24"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="85"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="85"/>
-      <c r="AA36" s="85"/>
-      <c r="AB36" s="85"/>
-      <c r="AC36" s="85"/>
-      <c r="AD36" s="85"/>
-      <c r="AE36" s="84"/>
-      <c r="AF36" s="86"/>
-      <c r="AH36" s="85"/>
-      <c r="AI36" s="85"/>
-      <c r="AJ36" s="85"/>
-      <c r="AK36" s="85"/>
-      <c r="AL36" s="85"/>
-      <c r="AM36" s="85"/>
-      <c r="AN36" s="85"/>
-      <c r="AO36" s="85"/>
-      <c r="AP36" s="84"/>
-      <c r="AQ36" s="86"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82"/>
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="91"/>
+      <c r="AF36" s="83"/>
+      <c r="AH36" s="82"/>
+      <c r="AI36" s="82"/>
+      <c r="AJ36" s="82"/>
+      <c r="AK36" s="82"/>
+      <c r="AL36" s="82"/>
+      <c r="AM36" s="82"/>
+      <c r="AN36" s="82"/>
+      <c r="AO36" s="82"/>
+      <c r="AP36" s="91"/>
+      <c r="AQ36" s="83"/>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -4723,213 +4724,213 @@
       <c r="AP50" s="38"/>
     </row>
     <row r="51" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="85" t="s">
+      <c r="D51" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="85" t="s">
+      <c r="E51" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="85" t="s">
+      <c r="F51" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="85" t="s">
+      <c r="G51" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="85" t="s">
+      <c r="H51" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I51" s="82" t="s">
+      <c r="I51" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="J51" s="86" t="s">
+      <c r="J51" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="L51" s="85" t="s">
+      <c r="L51" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="M51" s="85" t="s">
+      <c r="M51" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N51" s="85" t="s">
+      <c r="N51" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="85" t="s">
+      <c r="O51" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P51" s="85" t="s">
+      <c r="P51" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q51" s="85" t="s">
+      <c r="Q51" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="85" t="s">
+      <c r="R51" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="S51" s="85" t="s">
+      <c r="S51" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="T51" s="82" t="s">
+      <c r="T51" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="U51" s="86" t="s">
+      <c r="U51" s="83" t="s">
         <v>6</v>
       </c>
       <c r="V51" s="24"/>
-      <c r="W51" s="85" t="s">
+      <c r="W51" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="X51" s="85" t="s">
+      <c r="X51" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="Y51" s="85" t="s">
+      <c r="Y51" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z51" s="85" t="s">
+      <c r="Z51" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AA51" s="85" t="s">
+      <c r="AA51" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB51" s="85" t="s">
+      <c r="AB51" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AC51" s="85" t="s">
+      <c r="AC51" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AD51" s="85" t="s">
+      <c r="AD51" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AE51" s="82" t="s">
+      <c r="AE51" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AF51" s="86" t="s">
+      <c r="AF51" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AH51" s="85" t="s">
+      <c r="AH51" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AI51" s="85" t="s">
+      <c r="AI51" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AJ51" s="85" t="s">
+      <c r="AJ51" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AK51" s="85" t="s">
+      <c r="AK51" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AL51" s="85" t="s">
+      <c r="AL51" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AM51" s="85" t="s">
+      <c r="AM51" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AN51" s="85" t="s">
+      <c r="AN51" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AO51" s="85" t="s">
+      <c r="AO51" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AP51" s="82" t="s">
+      <c r="AP51" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AQ51" s="86" t="s">
+      <c r="AQ51" s="83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="85"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="86"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-      <c r="Q52" s="85"/>
-      <c r="R52" s="85"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="83"/>
-      <c r="U52" s="86"/>
+      <c r="A52" s="82"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="83"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="90"/>
+      <c r="U52" s="83"/>
       <c r="V52" s="24"/>
-      <c r="W52" s="85"/>
-      <c r="X52" s="85"/>
-      <c r="Y52" s="85"/>
-      <c r="Z52" s="85"/>
-      <c r="AA52" s="85"/>
-      <c r="AB52" s="85"/>
-      <c r="AC52" s="85"/>
-      <c r="AD52" s="85"/>
-      <c r="AE52" s="83"/>
-      <c r="AF52" s="86"/>
-      <c r="AH52" s="85"/>
-      <c r="AI52" s="85"/>
-      <c r="AJ52" s="85"/>
-      <c r="AK52" s="85"/>
-      <c r="AL52" s="85"/>
-      <c r="AM52" s="85"/>
-      <c r="AN52" s="85"/>
-      <c r="AO52" s="85"/>
-      <c r="AP52" s="83"/>
-      <c r="AQ52" s="86"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="82"/>
+      <c r="Y52" s="82"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="82"/>
+      <c r="AB52" s="82"/>
+      <c r="AC52" s="82"/>
+      <c r="AD52" s="82"/>
+      <c r="AE52" s="90"/>
+      <c r="AF52" s="83"/>
+      <c r="AH52" s="82"/>
+      <c r="AI52" s="82"/>
+      <c r="AJ52" s="82"/>
+      <c r="AK52" s="82"/>
+      <c r="AL52" s="82"/>
+      <c r="AM52" s="82"/>
+      <c r="AN52" s="82"/>
+      <c r="AO52" s="82"/>
+      <c r="AP52" s="90"/>
+      <c r="AQ52" s="83"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A53" s="85"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="86"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="86"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="83"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="82"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="82"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="91"/>
+      <c r="U53" s="83"/>
       <c r="V53" s="24"/>
-      <c r="W53" s="85"/>
-      <c r="X53" s="85"/>
-      <c r="Y53" s="85"/>
-      <c r="Z53" s="85"/>
-      <c r="AA53" s="85"/>
-      <c r="AB53" s="85"/>
-      <c r="AC53" s="85"/>
-      <c r="AD53" s="85"/>
-      <c r="AE53" s="84"/>
-      <c r="AF53" s="86"/>
-      <c r="AH53" s="85"/>
-      <c r="AI53" s="85"/>
-      <c r="AJ53" s="85"/>
-      <c r="AK53" s="85"/>
-      <c r="AL53" s="85"/>
-      <c r="AM53" s="85"/>
-      <c r="AN53" s="85"/>
-      <c r="AO53" s="85"/>
-      <c r="AP53" s="84"/>
-      <c r="AQ53" s="86"/>
+      <c r="W53" s="82"/>
+      <c r="X53" s="82"/>
+      <c r="Y53" s="82"/>
+      <c r="Z53" s="82"/>
+      <c r="AA53" s="82"/>
+      <c r="AB53" s="82"/>
+      <c r="AC53" s="82"/>
+      <c r="AD53" s="82"/>
+      <c r="AE53" s="91"/>
+      <c r="AF53" s="83"/>
+      <c r="AH53" s="82"/>
+      <c r="AI53" s="82"/>
+      <c r="AJ53" s="82"/>
+      <c r="AK53" s="82"/>
+      <c r="AL53" s="82"/>
+      <c r="AM53" s="82"/>
+      <c r="AN53" s="82"/>
+      <c r="AO53" s="82"/>
+      <c r="AP53" s="91"/>
+      <c r="AQ53" s="83"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
@@ -6205,213 +6206,213 @@
       <c r="AP67" s="38"/>
     </row>
     <row r="68" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="85" t="s">
+      <c r="A68" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="87" t="s">
+      <c r="B68" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="85" t="s">
+      <c r="C68" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="85" t="s">
+      <c r="D68" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="85" t="s">
+      <c r="E68" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="85" t="s">
+      <c r="F68" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="85" t="s">
+      <c r="G68" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="85" t="s">
+      <c r="H68" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I68" s="82" t="s">
+      <c r="I68" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="J68" s="86" t="s">
+      <c r="J68" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="L68" s="85" t="s">
+      <c r="L68" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="M68" s="85" t="s">
+      <c r="M68" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N68" s="85" t="s">
+      <c r="N68" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="85" t="s">
+      <c r="O68" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P68" s="85" t="s">
+      <c r="P68" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q68" s="85" t="s">
+      <c r="Q68" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R68" s="85" t="s">
+      <c r="R68" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="S68" s="85" t="s">
+      <c r="S68" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="T68" s="82" t="s">
+      <c r="T68" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="U68" s="86" t="s">
+      <c r="U68" s="83" t="s">
         <v>6</v>
       </c>
       <c r="V68" s="24"/>
-      <c r="W68" s="85" t="s">
+      <c r="W68" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="X68" s="85" t="s">
+      <c r="X68" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="Y68" s="85" t="s">
+      <c r="Y68" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z68" s="85" t="s">
+      <c r="Z68" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AA68" s="85" t="s">
+      <c r="AA68" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB68" s="85" t="s">
+      <c r="AB68" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AC68" s="85" t="s">
+      <c r="AC68" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AD68" s="85" t="s">
+      <c r="AD68" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AE68" s="82" t="s">
+      <c r="AE68" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AF68" s="86" t="s">
+      <c r="AF68" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AH68" s="85" t="s">
+      <c r="AH68" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AI68" s="85" t="s">
+      <c r="AI68" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AJ68" s="85" t="s">
+      <c r="AJ68" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AK68" s="85" t="s">
+      <c r="AK68" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AL68" s="85" t="s">
+      <c r="AL68" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AM68" s="85" t="s">
+      <c r="AM68" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AN68" s="85" t="s">
+      <c r="AN68" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AO68" s="85" t="s">
+      <c r="AO68" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AP68" s="82" t="s">
+      <c r="AP68" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AQ68" s="86" t="s">
+      <c r="AQ68" s="83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="86"/>
-      <c r="L69" s="85"/>
-      <c r="M69" s="85"/>
-      <c r="N69" s="85"/>
-      <c r="O69" s="85"/>
-      <c r="P69" s="85"/>
-      <c r="Q69" s="85"/>
-      <c r="R69" s="85"/>
-      <c r="S69" s="85"/>
-      <c r="T69" s="83"/>
-      <c r="U69" s="86"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="83"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="82"/>
+      <c r="P69" s="82"/>
+      <c r="Q69" s="82"/>
+      <c r="R69" s="82"/>
+      <c r="S69" s="82"/>
+      <c r="T69" s="90"/>
+      <c r="U69" s="83"/>
       <c r="V69" s="24"/>
-      <c r="W69" s="85"/>
-      <c r="X69" s="85"/>
-      <c r="Y69" s="85"/>
-      <c r="Z69" s="85"/>
-      <c r="AA69" s="85"/>
-      <c r="AB69" s="85"/>
-      <c r="AC69" s="85"/>
-      <c r="AD69" s="85"/>
-      <c r="AE69" s="83"/>
-      <c r="AF69" s="86"/>
-      <c r="AH69" s="85"/>
-      <c r="AI69" s="85"/>
-      <c r="AJ69" s="85"/>
-      <c r="AK69" s="85"/>
-      <c r="AL69" s="85"/>
-      <c r="AM69" s="85"/>
-      <c r="AN69" s="85"/>
-      <c r="AO69" s="85"/>
-      <c r="AP69" s="83"/>
-      <c r="AQ69" s="86"/>
+      <c r="W69" s="82"/>
+      <c r="X69" s="82"/>
+      <c r="Y69" s="82"/>
+      <c r="Z69" s="82"/>
+      <c r="AA69" s="82"/>
+      <c r="AB69" s="82"/>
+      <c r="AC69" s="82"/>
+      <c r="AD69" s="82"/>
+      <c r="AE69" s="90"/>
+      <c r="AF69" s="83"/>
+      <c r="AH69" s="82"/>
+      <c r="AI69" s="82"/>
+      <c r="AJ69" s="82"/>
+      <c r="AK69" s="82"/>
+      <c r="AL69" s="82"/>
+      <c r="AM69" s="82"/>
+      <c r="AN69" s="82"/>
+      <c r="AO69" s="82"/>
+      <c r="AP69" s="90"/>
+      <c r="AQ69" s="83"/>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="86"/>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
-      <c r="N70" s="85"/>
-      <c r="O70" s="85"/>
-      <c r="P70" s="85"/>
-      <c r="Q70" s="85"/>
-      <c r="R70" s="85"/>
-      <c r="S70" s="85"/>
-      <c r="T70" s="84"/>
-      <c r="U70" s="86"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="83"/>
+      <c r="L70" s="82"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="82"/>
+      <c r="O70" s="82"/>
+      <c r="P70" s="82"/>
+      <c r="Q70" s="82"/>
+      <c r="R70" s="82"/>
+      <c r="S70" s="82"/>
+      <c r="T70" s="91"/>
+      <c r="U70" s="83"/>
       <c r="V70" s="24"/>
-      <c r="W70" s="85"/>
-      <c r="X70" s="85"/>
-      <c r="Y70" s="85"/>
-      <c r="Z70" s="85"/>
-      <c r="AA70" s="85"/>
-      <c r="AB70" s="85"/>
-      <c r="AC70" s="85"/>
-      <c r="AD70" s="85"/>
-      <c r="AE70" s="84"/>
-      <c r="AF70" s="86"/>
-      <c r="AH70" s="85"/>
-      <c r="AI70" s="85"/>
-      <c r="AJ70" s="85"/>
-      <c r="AK70" s="85"/>
-      <c r="AL70" s="85"/>
-      <c r="AM70" s="85"/>
-      <c r="AN70" s="85"/>
-      <c r="AO70" s="85"/>
-      <c r="AP70" s="84"/>
-      <c r="AQ70" s="86"/>
+      <c r="W70" s="82"/>
+      <c r="X70" s="82"/>
+      <c r="Y70" s="82"/>
+      <c r="Z70" s="82"/>
+      <c r="AA70" s="82"/>
+      <c r="AB70" s="82"/>
+      <c r="AC70" s="82"/>
+      <c r="AD70" s="82"/>
+      <c r="AE70" s="91"/>
+      <c r="AF70" s="83"/>
+      <c r="AH70" s="82"/>
+      <c r="AI70" s="82"/>
+      <c r="AJ70" s="82"/>
+      <c r="AK70" s="82"/>
+      <c r="AL70" s="82"/>
+      <c r="AM70" s="82"/>
+      <c r="AN70" s="82"/>
+      <c r="AO70" s="82"/>
+      <c r="AP70" s="91"/>
+      <c r="AQ70" s="83"/>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
@@ -7689,213 +7690,213 @@
       <c r="AP84" s="38"/>
     </row>
     <row r="85" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="85" t="s">
+      <c r="A85" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="87" t="s">
+      <c r="B85" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="85" t="s">
+      <c r="C85" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="85" t="s">
+      <c r="D85" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="85" t="s">
+      <c r="E85" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="85" t="s">
+      <c r="F85" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="85" t="s">
+      <c r="G85" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H85" s="85" t="s">
+      <c r="H85" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I85" s="82" t="s">
+      <c r="I85" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="J85" s="86" t="s">
+      <c r="J85" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="L85" s="85" t="s">
+      <c r="L85" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="M85" s="85" t="s">
+      <c r="M85" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N85" s="85" t="s">
+      <c r="N85" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="85" t="s">
+      <c r="O85" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P85" s="85" t="s">
+      <c r="P85" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q85" s="85" t="s">
+      <c r="Q85" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R85" s="85" t="s">
+      <c r="R85" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="S85" s="85" t="s">
+      <c r="S85" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="T85" s="82" t="s">
+      <c r="T85" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="U85" s="86" t="s">
+      <c r="U85" s="83" t="s">
         <v>6</v>
       </c>
       <c r="V85" s="24"/>
-      <c r="W85" s="85" t="s">
+      <c r="W85" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="X85" s="85" t="s">
+      <c r="X85" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="Y85" s="85" t="s">
+      <c r="Y85" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z85" s="85" t="s">
+      <c r="Z85" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AA85" s="85" t="s">
+      <c r="AA85" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB85" s="85" t="s">
+      <c r="AB85" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AC85" s="85" t="s">
+      <c r="AC85" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AD85" s="85" t="s">
+      <c r="AD85" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AE85" s="82" t="s">
+      <c r="AE85" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AF85" s="86" t="s">
+      <c r="AF85" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AH85" s="85" t="s">
+      <c r="AH85" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AI85" s="85" t="s">
+      <c r="AI85" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AJ85" s="85" t="s">
+      <c r="AJ85" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AK85" s="85" t="s">
+      <c r="AK85" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AL85" s="85" t="s">
+      <c r="AL85" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AM85" s="85" t="s">
+      <c r="AM85" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AN85" s="85" t="s">
+      <c r="AN85" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AO85" s="85" t="s">
+      <c r="AO85" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AP85" s="82" t="s">
+      <c r="AP85" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AQ85" s="86" t="s">
+      <c r="AQ85" s="83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A86" s="85"/>
-      <c r="B86" s="87"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
-      <c r="I86" s="83"/>
-      <c r="J86" s="86"/>
-      <c r="L86" s="85"/>
-      <c r="M86" s="85"/>
-      <c r="N86" s="85"/>
-      <c r="O86" s="85"/>
-      <c r="P86" s="85"/>
-      <c r="Q86" s="85"/>
-      <c r="R86" s="85"/>
-      <c r="S86" s="85"/>
-      <c r="T86" s="83"/>
-      <c r="U86" s="86"/>
+      <c r="A86" s="82"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="82"/>
+      <c r="I86" s="90"/>
+      <c r="J86" s="83"/>
+      <c r="L86" s="82"/>
+      <c r="M86" s="82"/>
+      <c r="N86" s="82"/>
+      <c r="O86" s="82"/>
+      <c r="P86" s="82"/>
+      <c r="Q86" s="82"/>
+      <c r="R86" s="82"/>
+      <c r="S86" s="82"/>
+      <c r="T86" s="90"/>
+      <c r="U86" s="83"/>
       <c r="V86" s="24"/>
-      <c r="W86" s="85"/>
-      <c r="X86" s="85"/>
-      <c r="Y86" s="85"/>
-      <c r="Z86" s="85"/>
-      <c r="AA86" s="85"/>
-      <c r="AB86" s="85"/>
-      <c r="AC86" s="85"/>
-      <c r="AD86" s="85"/>
-      <c r="AE86" s="83"/>
-      <c r="AF86" s="86"/>
-      <c r="AH86" s="85"/>
-      <c r="AI86" s="85"/>
-      <c r="AJ86" s="85"/>
-      <c r="AK86" s="85"/>
-      <c r="AL86" s="85"/>
-      <c r="AM86" s="85"/>
-      <c r="AN86" s="85"/>
-      <c r="AO86" s="85"/>
-      <c r="AP86" s="83"/>
-      <c r="AQ86" s="86"/>
+      <c r="W86" s="82"/>
+      <c r="X86" s="82"/>
+      <c r="Y86" s="82"/>
+      <c r="Z86" s="82"/>
+      <c r="AA86" s="82"/>
+      <c r="AB86" s="82"/>
+      <c r="AC86" s="82"/>
+      <c r="AD86" s="82"/>
+      <c r="AE86" s="90"/>
+      <c r="AF86" s="83"/>
+      <c r="AH86" s="82"/>
+      <c r="AI86" s="82"/>
+      <c r="AJ86" s="82"/>
+      <c r="AK86" s="82"/>
+      <c r="AL86" s="82"/>
+      <c r="AM86" s="82"/>
+      <c r="AN86" s="82"/>
+      <c r="AO86" s="82"/>
+      <c r="AP86" s="90"/>
+      <c r="AQ86" s="83"/>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A87" s="85"/>
-      <c r="B87" s="87"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="84"/>
-      <c r="J87" s="86"/>
-      <c r="L87" s="85"/>
-      <c r="M87" s="85"/>
-      <c r="N87" s="85"/>
-      <c r="O87" s="85"/>
-      <c r="P87" s="85"/>
-      <c r="Q87" s="85"/>
-      <c r="R87" s="85"/>
-      <c r="S87" s="85"/>
-      <c r="T87" s="84"/>
-      <c r="U87" s="86"/>
+      <c r="A87" s="82"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="83"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="82"/>
+      <c r="O87" s="82"/>
+      <c r="P87" s="82"/>
+      <c r="Q87" s="82"/>
+      <c r="R87" s="82"/>
+      <c r="S87" s="82"/>
+      <c r="T87" s="91"/>
+      <c r="U87" s="83"/>
       <c r="V87" s="24"/>
-      <c r="W87" s="85"/>
-      <c r="X87" s="85"/>
-      <c r="Y87" s="85"/>
-      <c r="Z87" s="85"/>
-      <c r="AA87" s="85"/>
-      <c r="AB87" s="85"/>
-      <c r="AC87" s="85"/>
-      <c r="AD87" s="85"/>
-      <c r="AE87" s="84"/>
-      <c r="AF87" s="86"/>
-      <c r="AH87" s="85"/>
-      <c r="AI87" s="85"/>
-      <c r="AJ87" s="85"/>
-      <c r="AK87" s="85"/>
-      <c r="AL87" s="85"/>
-      <c r="AM87" s="85"/>
-      <c r="AN87" s="85"/>
-      <c r="AO87" s="85"/>
-      <c r="AP87" s="84"/>
-      <c r="AQ87" s="86"/>
+      <c r="W87" s="82"/>
+      <c r="X87" s="82"/>
+      <c r="Y87" s="82"/>
+      <c r="Z87" s="82"/>
+      <c r="AA87" s="82"/>
+      <c r="AB87" s="82"/>
+      <c r="AC87" s="82"/>
+      <c r="AD87" s="82"/>
+      <c r="AE87" s="91"/>
+      <c r="AF87" s="83"/>
+      <c r="AH87" s="82"/>
+      <c r="AI87" s="82"/>
+      <c r="AJ87" s="82"/>
+      <c r="AK87" s="82"/>
+      <c r="AL87" s="82"/>
+      <c r="AM87" s="82"/>
+      <c r="AN87" s="82"/>
+      <c r="AO87" s="82"/>
+      <c r="AP87" s="91"/>
+      <c r="AQ87" s="83"/>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
@@ -9049,21 +9050,129 @@
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="R68:R70"/>
-    <mergeCell ref="S68:S70"/>
-    <mergeCell ref="U68:U70"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="AL68:AL70"/>
-    <mergeCell ref="AM68:AM70"/>
-    <mergeCell ref="AN68:AN70"/>
-    <mergeCell ref="AO68:AO70"/>
-    <mergeCell ref="AQ68:AQ70"/>
-    <mergeCell ref="AD68:AD70"/>
-    <mergeCell ref="AF68:AF70"/>
-    <mergeCell ref="AH68:AH70"/>
-    <mergeCell ref="AI68:AI70"/>
-    <mergeCell ref="AJ68:AJ70"/>
-    <mergeCell ref="AK68:AK70"/>
+    <mergeCell ref="T34:T36"/>
+    <mergeCell ref="AE34:AE36"/>
+    <mergeCell ref="AP34:AP36"/>
+    <mergeCell ref="AP51:AP53"/>
+    <mergeCell ref="AE51:AE53"/>
+    <mergeCell ref="T51:T53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="T68:T70"/>
+    <mergeCell ref="AE68:AE70"/>
+    <mergeCell ref="AE85:AE87"/>
+    <mergeCell ref="AP85:AP87"/>
+    <mergeCell ref="AP68:AP70"/>
+    <mergeCell ref="AH85:AH87"/>
+    <mergeCell ref="AI85:AI87"/>
+    <mergeCell ref="AJ85:AJ87"/>
+    <mergeCell ref="AK85:AK87"/>
+    <mergeCell ref="AL85:AL87"/>
+    <mergeCell ref="AM85:AM87"/>
+    <mergeCell ref="AN85:AN87"/>
+    <mergeCell ref="AO85:AO87"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="AQ85:AQ87"/>
+    <mergeCell ref="W85:W87"/>
+    <mergeCell ref="X85:X87"/>
+    <mergeCell ref="Y85:Y87"/>
+    <mergeCell ref="Z85:Z87"/>
+    <mergeCell ref="AA85:AA87"/>
+    <mergeCell ref="AB85:AB87"/>
+    <mergeCell ref="AC85:AC87"/>
+    <mergeCell ref="AD85:AD87"/>
+    <mergeCell ref="AF85:AF87"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="P85:P87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="X34:X36"/>
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="Z34:Z36"/>
+    <mergeCell ref="AA34:AA36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="U34:U36"/>
+    <mergeCell ref="W34:W36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="AQ34:AQ36"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="AJ34:AJ36"/>
+    <mergeCell ref="AK34:AK36"/>
+    <mergeCell ref="AL34:AL36"/>
+    <mergeCell ref="AM34:AM36"/>
+    <mergeCell ref="AN34:AN36"/>
+    <mergeCell ref="AO34:AO36"/>
+    <mergeCell ref="AB34:AB36"/>
+    <mergeCell ref="AC34:AC36"/>
+    <mergeCell ref="AD34:AD36"/>
+    <mergeCell ref="AF34:AF36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AI34:AI36"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="S34:S36"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="AH51:AH53"/>
+    <mergeCell ref="AI51:AI53"/>
+    <mergeCell ref="Z51:Z53"/>
+    <mergeCell ref="AA51:AA53"/>
+    <mergeCell ref="AB51:AB53"/>
+    <mergeCell ref="AC51:AC53"/>
+    <mergeCell ref="AD51:AD53"/>
+    <mergeCell ref="AF51:AF53"/>
+    <mergeCell ref="R51:R53"/>
+    <mergeCell ref="S51:S53"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="W51:W53"/>
+    <mergeCell ref="X51:X53"/>
+    <mergeCell ref="Y51:Y53"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="N51:N53"/>
     <mergeCell ref="H68:H70"/>
     <mergeCell ref="J68:J70"/>
     <mergeCell ref="L68:L70"/>
@@ -9088,129 +9197,21 @@
     <mergeCell ref="AC68:AC70"/>
     <mergeCell ref="P68:P70"/>
     <mergeCell ref="Q68:Q70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="AH51:AH53"/>
-    <mergeCell ref="AI51:AI53"/>
-    <mergeCell ref="Z51:Z53"/>
-    <mergeCell ref="AA51:AA53"/>
-    <mergeCell ref="AB51:AB53"/>
-    <mergeCell ref="AC51:AC53"/>
-    <mergeCell ref="AD51:AD53"/>
-    <mergeCell ref="AF51:AF53"/>
-    <mergeCell ref="R51:R53"/>
-    <mergeCell ref="S51:S53"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="W51:W53"/>
-    <mergeCell ref="X51:X53"/>
-    <mergeCell ref="Y51:Y53"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="AQ34:AQ36"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="AJ34:AJ36"/>
-    <mergeCell ref="AK34:AK36"/>
-    <mergeCell ref="AL34:AL36"/>
-    <mergeCell ref="AM34:AM36"/>
-    <mergeCell ref="AN34:AN36"/>
-    <mergeCell ref="AO34:AO36"/>
-    <mergeCell ref="AB34:AB36"/>
-    <mergeCell ref="AC34:AC36"/>
-    <mergeCell ref="AD34:AD36"/>
-    <mergeCell ref="AF34:AF36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AI34:AI36"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="S34:S36"/>
-    <mergeCell ref="X34:X36"/>
-    <mergeCell ref="Y34:Y36"/>
-    <mergeCell ref="Z34:Z36"/>
-    <mergeCell ref="AA34:AA36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="O34:O36"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="U34:U36"/>
-    <mergeCell ref="W34:W36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="M85:M87"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="P85:P87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="AQ85:AQ87"/>
-    <mergeCell ref="W85:W87"/>
-    <mergeCell ref="X85:X87"/>
-    <mergeCell ref="Y85:Y87"/>
-    <mergeCell ref="Z85:Z87"/>
-    <mergeCell ref="AA85:AA87"/>
-    <mergeCell ref="AB85:AB87"/>
-    <mergeCell ref="AC85:AC87"/>
-    <mergeCell ref="AD85:AD87"/>
-    <mergeCell ref="AF85:AF87"/>
-    <mergeCell ref="T34:T36"/>
-    <mergeCell ref="AE34:AE36"/>
-    <mergeCell ref="AP34:AP36"/>
-    <mergeCell ref="AP51:AP53"/>
-    <mergeCell ref="AE51:AE53"/>
-    <mergeCell ref="T51:T53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="T68:T70"/>
-    <mergeCell ref="AE68:AE70"/>
-    <mergeCell ref="AE85:AE87"/>
-    <mergeCell ref="AP85:AP87"/>
-    <mergeCell ref="AP68:AP70"/>
-    <mergeCell ref="AH85:AH87"/>
-    <mergeCell ref="AI85:AI87"/>
-    <mergeCell ref="AJ85:AJ87"/>
-    <mergeCell ref="AK85:AK87"/>
-    <mergeCell ref="AL85:AL87"/>
-    <mergeCell ref="AM85:AM87"/>
-    <mergeCell ref="AN85:AN87"/>
-    <mergeCell ref="AO85:AO87"/>
-    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="R68:R70"/>
+    <mergeCell ref="S68:S70"/>
+    <mergeCell ref="U68:U70"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="AL68:AL70"/>
+    <mergeCell ref="AM68:AM70"/>
+    <mergeCell ref="AN68:AN70"/>
+    <mergeCell ref="AO68:AO70"/>
+    <mergeCell ref="AQ68:AQ70"/>
+    <mergeCell ref="AD68:AD70"/>
+    <mergeCell ref="AF68:AF70"/>
+    <mergeCell ref="AH68:AH70"/>
+    <mergeCell ref="AI68:AI70"/>
+    <mergeCell ref="AJ68:AJ70"/>
+    <mergeCell ref="AK68:AK70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9221,11 +9222,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K96" sqref="K96:K105"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="M2" s="59">
         <f>SUM(L:L)</f>
-        <v>10740.056168981491</v>
+        <v>10666.724895833342</v>
       </c>
       <c r="O2">
         <v>353940</v>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="M3" s="59">
         <f>M2/60</f>
-        <v>179.00093614969151</v>
+        <v>177.77874826388904</v>
       </c>
       <c r="O3">
         <v>1061700</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="M4" s="59">
         <f>M3/24</f>
-        <v>7.45837233957048</v>
+        <v>7.4074478443287104</v>
       </c>
       <c r="O4">
         <v>3185100</v>
@@ -9510,26 +9510,23 @@
       <c r="D9" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <f>5*124</f>
+        <v>620</v>
       </c>
       <c r="K9">
         <f>G9*$G$8+H9*$H$8+I9*$I$8+J9</f>
-        <v>180</v>
+        <v>37200</v>
       </c>
       <c r="L9">
         <f>K9/1440/60</f>
-        <v>2.0833333333333333E-3</v>
+        <v>0.43055555555555552</v>
       </c>
       <c r="M9" s="59">
-        <v>2.0833333333333333E-3</v>
-      </c>
+        <f>L9</f>
+        <v>0.43055555555555552</v>
+      </c>
+      <c r="N9" s="59"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -9546,26 +9543,23 @@
       <c r="D10" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <f>10*226</f>
+        <v>2260</v>
       </c>
       <c r="K10">
         <f t="shared" ref="K10:K28" si="2">G10*$G$8+H10*$H$8+I10*$I$8+J10</f>
-        <v>360</v>
+        <v>135600</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:L28" si="3">K10/1440/60</f>
-        <v>4.1666666666666666E-3</v>
+        <v>1.5694444444444444</v>
       </c>
       <c r="M10" s="59">
-        <v>4.1666666666666666E-3</v>
-      </c>
+        <f t="shared" ref="M10:N23" si="4">L10</f>
+        <v>1.5694444444444444</v>
+      </c>
+      <c r="N10" s="59"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -9582,26 +9576,23 @@
       <c r="D11" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
       <c r="I11">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <f>15*43</f>
+        <v>645</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>11520</v>
+        <v>38700</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>0.13333333333333333</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="M11" s="59">
-        <v>0.13333333333333333</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -9618,26 +9609,23 @@
       <c r="D12" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
       <c r="I12">
-        <v>24</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <f>30*42</f>
+        <v>1260</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>23040</v>
+        <v>75600</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>0.26666666666666666</v>
+        <v>0.875</v>
       </c>
       <c r="M12" s="59">
-        <v>0.26666666666666666</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="N12" s="59"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -9655,25 +9643,21 @@
         <v>196</v>
       </c>
       <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>31</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>41472</v>
+        <v>25200</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>0.48000000000000004</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="M13" s="59">
-        <v>0.48000000000000004</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="N13" s="59"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -9691,25 +9675,22 @@
         <v>197</v>
       </c>
       <c r="H14">
-        <v>23</v>
-      </c>
-      <c r="I14">
-        <v>57</v>
-      </c>
-      <c r="J14">
-        <v>42</v>
+        <f>3*7</f>
+        <v>21</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>86262</v>
+        <v>75600</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>0.99840277777777786</v>
+        <v>0.875</v>
       </c>
       <c r="M14" s="59">
-        <v>0.99840277777777786</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="N14" s="59"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -9726,29 +9707,22 @@
       <c r="D15" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>33</v>
-      </c>
-      <c r="J15">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>99202</v>
+        <v>28800</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>1.1481712962962964</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M15" s="59">
-        <v>1.1481712962962964</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -9765,28 +9739,17 @@
       <c r="D16" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <v>41</v>
-      </c>
-      <c r="J16">
-        <v>22</v>
-      </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>114082</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>1.3203935185185185</v>
+        <v>0</v>
       </c>
       <c r="M16" s="59">
-        <v>1.3203935185185185</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -9804,28 +9767,17 @@
       <c r="D17" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>12</v>
-      </c>
-      <c r="I17">
-        <v>26</v>
-      </c>
-      <c r="J17">
-        <v>34</v>
-      </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>217594</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>2.5184490740740744</v>
+        <v>0</v>
       </c>
       <c r="M17" s="59">
-        <v>2.5184490740740744</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -9843,28 +9795,17 @@
       <c r="D18" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
-      <c r="I18">
-        <v>54</v>
-      </c>
-      <c r="J18">
-        <v>34</v>
-      </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>323674</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>3.7462268518518518</v>
+        <v>0</v>
       </c>
       <c r="M18" s="59">
-        <v>3.7462268518518518</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -9882,28 +9823,17 @@
       <c r="D19" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>11</v>
-      </c>
-      <c r="J19">
-        <v>44</v>
-      </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>432704</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>5.0081481481481482</v>
+        <v>0</v>
       </c>
       <c r="M19" s="59">
-        <v>5.0081481481481482</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -9921,28 +9851,17 @@
       <c r="D20" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20">
-        <v>25</v>
-      </c>
-      <c r="J20">
-        <v>32</v>
-      </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>631532</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>7.3093981481481478</v>
+        <v>0</v>
       </c>
       <c r="M20" s="59">
-        <v>7.3093981481481478</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -9957,28 +9876,17 @@
       <c r="D21" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <v>13</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
         <f t="shared" si="2"/>
-        <v>912000</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>10.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="M21" s="59">
-        <v>10.555555555555555</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -9986,38 +9894,27 @@
         <v>118020</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B27" si="4">A22/1440/60</f>
+        <f t="shared" ref="B22:B27" si="5">A22/1440/60</f>
         <v>1.3659722222222221</v>
       </c>
       <c r="C22" s="56">
-        <f t="shared" ref="C22:C27" si="5">A22/1440/60</f>
+        <f t="shared" ref="C22:C27" si="6">A22/1440/60</f>
         <v>1.3659722222222221</v>
       </c>
       <c r="D22" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="G22">
-        <v>12</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>18</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <f t="shared" si="2"/>
-        <v>1041480</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>12.054166666666667</v>
+        <v>0</v>
       </c>
       <c r="M22" s="59">
-        <v>12.054166666666667</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -10025,38 +9922,27 @@
         <v>353940</v>
       </c>
       <c r="B23">
-        <f t="shared" si="4"/>
-        <v>4.0965277777777773</v>
-      </c>
-      <c r="C23" s="56">
         <f t="shared" si="5"/>
         <v>4.0965277777777773</v>
       </c>
+      <c r="C23" s="56">
+        <f t="shared" si="6"/>
+        <v>4.0965277777777773</v>
+      </c>
       <c r="D23" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="G23">
-        <v>15</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23">
-        <v>16</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>1314960</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>15.219444444444443</v>
+        <v>0</v>
       </c>
       <c r="M23" s="59">
-        <v>15.219444444444443</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -10064,35 +9950,23 @@
         <v>1061700</v>
       </c>
       <c r="B24">
-        <f t="shared" si="4"/>
-        <v>12.288194444444445</v>
-      </c>
-      <c r="C24" s="56">
         <f t="shared" si="5"/>
         <v>12.288194444444445</v>
       </c>
+      <c r="C24" s="56">
+        <f t="shared" si="6"/>
+        <v>12.288194444444445</v>
+      </c>
       <c r="D24" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="G24">
-        <v>17</v>
-      </c>
-      <c r="H24">
-        <v>9</v>
-      </c>
-      <c r="I24">
-        <v>21</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>1502460</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>17.389583333333334</v>
+        <v>0</v>
       </c>
       <c r="M24" s="59">
         <v>17.389583333333334</v>
@@ -10103,11 +9977,11 @@
         <v>3185100</v>
       </c>
       <c r="B25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.864583333333336</v>
       </c>
       <c r="C25" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36.864583333333336</v>
       </c>
       <c r="D25" s="76" t="s">
@@ -10142,11 +10016,11 @@
         <v>7962720</v>
       </c>
       <c r="B26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92.161111111111111</v>
       </c>
       <c r="C26" s="56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>92.161111111111111</v>
       </c>
       <c r="D26" s="76" t="s">
@@ -10181,11 +10055,11 @@
         <v>12757440</v>
       </c>
       <c r="B27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>147.65555555555557</v>
       </c>
       <c r="C27" s="61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>147.65555555555557</v>
       </c>
       <c r="D27" s="76" t="s">
@@ -10245,11 +10119,11 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K29">
-        <f t="shared" ref="K29:K39" si="6">G29*$G$8+H29*$H$8+I29*$I$8+J29</f>
+        <f t="shared" ref="K29:K39" si="7">G29*$G$8+H29*$H$8+I29*$I$8+J29</f>
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29" si="7">K29/1440/60</f>
+        <f t="shared" ref="L29" si="8">K29/1440/60</f>
         <v>0</v>
       </c>
       <c r="M29" s="59">
@@ -10267,11 +10141,11 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30" si="8">K30/1440/60</f>
+        <f t="shared" ref="L30" si="9">K30/1440/60</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="M30" s="59">
@@ -10289,11 +10163,11 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1440</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31" si="9">K31/1440/60</f>
+        <f t="shared" ref="L31" si="10">K31/1440/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="M31" s="59">
@@ -10311,11 +10185,11 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5760</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32" si="10">K32/1440/60</f>
+        <f t="shared" ref="L32" si="11">K32/1440/60</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M32" s="59">
@@ -10333,11 +10207,11 @@
         <v>36</v>
       </c>
       <c r="K33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20736</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L33" si="11">K33/1440/60</f>
+        <f t="shared" ref="L33" si="12">K33/1440/60</f>
         <v>0.24000000000000002</v>
       </c>
       <c r="M33" s="59">
@@ -10355,11 +10229,11 @@
         <v>55</v>
       </c>
       <c r="K34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26455</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34" si="12">K34/1440/60</f>
+        <f t="shared" ref="L34" si="13">K34/1440/60</f>
         <v>0.30619212962962966</v>
       </c>
       <c r="M34" s="59">
@@ -10377,11 +10251,11 @@
         <v>5</v>
       </c>
       <c r="K35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34985</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35" si="13">K35/1440/60</f>
+        <f t="shared" ref="L35" si="14">K35/1440/60</f>
         <v>0.40491898148148148</v>
       </c>
       <c r="M35" s="59">
@@ -10399,11 +10273,11 @@
         <v>8</v>
       </c>
       <c r="K36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46268</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36" si="14">K36/1440/60</f>
+        <f t="shared" ref="L36" si="15">K36/1440/60</f>
         <v>0.53550925925925918</v>
       </c>
       <c r="M36" s="59">
@@ -10424,11 +10298,11 @@
         <v>19</v>
       </c>
       <c r="K37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>168319</v>
       </c>
       <c r="L37">
-        <f t="shared" ref="L37" si="15">K37/1440/60</f>
+        <f t="shared" ref="L37" si="16">K37/1440/60</f>
         <v>1.9481365740740741</v>
       </c>
       <c r="M37" s="59">
@@ -10449,11 +10323,11 @@
         <v>11</v>
       </c>
       <c r="K38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>545351</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38" si="16">K38/1440/60</f>
+        <f t="shared" ref="L38" si="17">K38/1440/60</f>
         <v>6.3119328703703701</v>
       </c>
       <c r="M38" s="59">
@@ -10474,11 +10348,11 @@
         <v>8</v>
       </c>
       <c r="K39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1908728</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39" si="17">K39/1440/60</f>
+        <f t="shared" ref="L39" si="18">K39/1440/60</f>
         <v>22.091759259259259</v>
       </c>
       <c r="M39" s="59">
@@ -10487,11 +10361,11 @@
     </row>
     <row r="40" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K40">
-        <f t="shared" ref="K40:K50" si="18">G40*$G$8+H40*$H$8+I40*$I$8+J40</f>
+        <f t="shared" ref="K40:K50" si="19">G40*$G$8+H40*$H$8+I40*$I$8+J40</f>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" ref="L40" si="19">K40/1440/60</f>
+        <f t="shared" ref="L40" si="20">K40/1440/60</f>
         <v>0</v>
       </c>
     </row>
@@ -10506,11 +10380,11 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>180</v>
       </c>
       <c r="L41">
-        <f t="shared" ref="L41" si="20">K41/1440/60</f>
+        <f t="shared" ref="L41" si="21">K41/1440/60</f>
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="M41" s="59">
@@ -10529,15 +10403,15 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>720</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42" si="21">K42/1440/60</f>
+        <f t="shared" ref="L42" si="22">K42/1440/60</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="M42" s="59">
-        <f t="shared" ref="M42:M105" si="22">L42</f>
+        <f t="shared" ref="M42:M105" si="23">L42</f>
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
@@ -10552,15 +10426,15 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2880</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43" si="23">K43/1440/60</f>
+        <f t="shared" ref="L43" si="24">K43/1440/60</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M43" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
@@ -10575,15 +10449,15 @@
         <v>48</v>
       </c>
       <c r="K44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10368</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44" si="24">K44/1440/60</f>
+        <f t="shared" ref="L44" si="25">K44/1440/60</f>
         <v>0.12000000000000001</v>
       </c>
       <c r="M44" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
@@ -10598,15 +10472,15 @@
         <v>28</v>
       </c>
       <c r="K45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13228</v>
       </c>
       <c r="L45">
-        <f t="shared" ref="L45" si="25">K45/1440/60</f>
+        <f t="shared" ref="L45" si="26">K45/1440/60</f>
         <v>0.15310185185185185</v>
       </c>
       <c r="M45" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15310185185185185</v>
       </c>
     </row>
@@ -10621,15 +10495,15 @@
         <v>33</v>
       </c>
       <c r="K46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17493</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46" si="26">K46/1440/60</f>
+        <f t="shared" ref="L46" si="27">K46/1440/60</f>
         <v>0.20246527777777779</v>
       </c>
       <c r="M46" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.20246527777777779</v>
       </c>
     </row>
@@ -10644,15 +10518,15 @@
         <v>34</v>
       </c>
       <c r="K47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23134</v>
       </c>
       <c r="L47">
-        <f t="shared" ref="L47" si="27">K47/1440/60</f>
+        <f t="shared" ref="L47" si="28">K47/1440/60</f>
         <v>0.26775462962962959</v>
       </c>
       <c r="M47" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.26775462962962959</v>
       </c>
     </row>
@@ -10670,15 +10544,15 @@
         <v>10</v>
       </c>
       <c r="K48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>127390</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48" si="28">K48/1440/60</f>
+        <f t="shared" ref="L48" si="29">K48/1440/60</f>
         <v>1.4744212962962961</v>
       </c>
       <c r="M48" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.4744212962962961</v>
       </c>
     </row>
@@ -10696,15 +10570,15 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>271800</v>
       </c>
       <c r="L49">
-        <f t="shared" ref="L49" si="29">K49/1440/60</f>
+        <f t="shared" ref="L49" si="30">K49/1440/60</f>
         <v>3.1458333333333335</v>
       </c>
       <c r="M49" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.1458333333333335</v>
       </c>
     </row>
@@ -10722,29 +10596,29 @@
         <v>8</v>
       </c>
       <c r="K50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>954368</v>
       </c>
       <c r="L50">
-        <f t="shared" ref="L50" si="30">K50/1440/60</f>
+        <f t="shared" ref="L50" si="31">K50/1440/60</f>
         <v>11.045925925925927</v>
       </c>
       <c r="M50" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11.045925925925927</v>
       </c>
     </row>
     <row r="51" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K51">
-        <f t="shared" ref="K51:K61" si="31">G51*$G$8+H51*$H$8+I51*$I$8+J51</f>
+        <f t="shared" ref="K51:K61" si="32">G51*$G$8+H51*$H$8+I51*$I$8+J51</f>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" ref="L51" si="32">K51/1440/60</f>
+        <f t="shared" ref="L51" si="33">K51/1440/60</f>
         <v>0</v>
       </c>
       <c r="M51" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -10759,15 +10633,15 @@
         <v>30</v>
       </c>
       <c r="K52">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>270</v>
       </c>
       <c r="L52">
-        <f t="shared" ref="L52" si="33">K52/1440/60</f>
+        <f t="shared" ref="L52" si="34">K52/1440/60</f>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="M52" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.1250000000000002E-3</v>
       </c>
     </row>
@@ -10782,15 +10656,15 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1080</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53" si="34">K53/1440/60</f>
+        <f t="shared" ref="L53" si="35">K53/1440/60</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="M53" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
@@ -10805,15 +10679,15 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4320</v>
       </c>
       <c r="L54">
-        <f t="shared" ref="L54" si="35">K54/1440/60</f>
+        <f t="shared" ref="L54" si="36">K54/1440/60</f>
         <v>0.05</v>
       </c>
       <c r="M54" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.05</v>
       </c>
     </row>
@@ -10828,15 +10702,15 @@
         <v>12</v>
       </c>
       <c r="K55">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>15552</v>
       </c>
       <c r="L55">
-        <f t="shared" ref="L55" si="36">K55/1440/60</f>
+        <f t="shared" ref="L55" si="37">K55/1440/60</f>
         <v>0.18000000000000002</v>
       </c>
       <c r="M55" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.18000000000000002</v>
       </c>
     </row>
@@ -10851,15 +10725,15 @@
         <v>41</v>
       </c>
       <c r="K56">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>19841</v>
       </c>
       <c r="L56">
-        <f t="shared" ref="L56" si="37">K56/1440/60</f>
+        <f t="shared" ref="L56" si="38">K56/1440/60</f>
         <v>0.22964120370370369</v>
       </c>
       <c r="M56" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.22964120370370369</v>
       </c>
     </row>
@@ -10874,15 +10748,15 @@
         <v>19</v>
       </c>
       <c r="K57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>26239</v>
       </c>
       <c r="L57">
-        <f t="shared" ref="L57" si="38">K57/1440/60</f>
+        <f t="shared" ref="L57" si="39">K57/1440/60</f>
         <v>0.3036921296296296</v>
       </c>
       <c r="M57" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.3036921296296296</v>
       </c>
     </row>
@@ -10897,15 +10771,15 @@
         <v>21</v>
       </c>
       <c r="K58">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>34701</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58" si="39">K58/1440/60</f>
+        <f t="shared" ref="L58" si="40">K58/1440/60</f>
         <v>0.40163194444444444</v>
       </c>
       <c r="M58" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.40163194444444444</v>
       </c>
     </row>
@@ -10923,15 +10797,15 @@
         <v>19</v>
       </c>
       <c r="K59">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>168319</v>
       </c>
       <c r="L59">
-        <f t="shared" ref="L59" si="40">K59/1440/60</f>
+        <f t="shared" ref="L59" si="41">K59/1440/60</f>
         <v>1.9481365740740741</v>
       </c>
       <c r="M59" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.9481365740740741</v>
       </c>
     </row>
@@ -10949,15 +10823,15 @@
         <v>11</v>
       </c>
       <c r="K60">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>545351</v>
       </c>
       <c r="L60">
-        <f t="shared" ref="L60" si="41">K60/1440/60</f>
+        <f t="shared" ref="L60" si="42">K60/1440/60</f>
         <v>6.3119328703703701</v>
       </c>
       <c r="M60" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.3119328703703701</v>
       </c>
     </row>
@@ -10975,29 +10849,29 @@
         <v>8</v>
       </c>
       <c r="K61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1649528</v>
       </c>
       <c r="L61">
-        <f t="shared" ref="L61:L105" si="42">K61/1440/60</f>
+        <f t="shared" ref="L61:L105" si="43">K61/1440/60</f>
         <v>19.091759259259259</v>
       </c>
       <c r="M61" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>19.091759259259259</v>
       </c>
     </row>
     <row r="62" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K62">
-        <f t="shared" ref="K62:K72" si="43">G62*$G$8+H62*$H$8+I62*$I$8+J62</f>
+        <f t="shared" ref="K62:K72" si="44">G62*$G$8+H62*$H$8+I62*$I$8+J62</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M62" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -11012,15 +10886,15 @@
         <v>30</v>
       </c>
       <c r="K63">
+        <f t="shared" si="44"/>
+        <v>810</v>
+      </c>
+      <c r="L63">
         <f t="shared" si="43"/>
-        <v>810</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="42"/>
         <v>9.3749999999999997E-3</v>
       </c>
       <c r="M63" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.3749999999999997E-3</v>
       </c>
     </row>
@@ -11035,15 +10909,15 @@
         <v>0</v>
       </c>
       <c r="K64">
+        <f t="shared" si="44"/>
+        <v>3240</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="43"/>
-        <v>3240</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="42"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="M64" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
@@ -11058,15 +10932,15 @@
         <v>0</v>
       </c>
       <c r="K65">
+        <f t="shared" si="44"/>
+        <v>12960</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="43"/>
-        <v>12960</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="42"/>
         <v>0.15</v>
       </c>
       <c r="M65" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
     </row>
@@ -11081,15 +10955,15 @@
         <v>36</v>
       </c>
       <c r="K66">
+        <f t="shared" si="44"/>
+        <v>46656</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="43"/>
-        <v>46656</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="42"/>
         <v>0.53999999999999992</v>
       </c>
       <c r="M66" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.53999999999999992</v>
       </c>
     </row>
@@ -11104,15 +10978,15 @@
         <v>4</v>
       </c>
       <c r="K67">
+        <f t="shared" si="44"/>
+        <v>59524</v>
+      </c>
+      <c r="L67">
         <f t="shared" si="43"/>
-        <v>59524</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="42"/>
         <v>0.68893518518518515</v>
       </c>
       <c r="M67" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.68893518518518515</v>
       </c>
     </row>
@@ -11127,15 +11001,15 @@
         <v>56</v>
       </c>
       <c r="K68">
+        <f t="shared" si="44"/>
+        <v>78716</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="43"/>
-        <v>78716</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="42"/>
         <v>0.91106481481481483</v>
       </c>
       <c r="M68" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.91106481481481483</v>
       </c>
     </row>
@@ -11153,15 +11027,15 @@
         <v>3</v>
       </c>
       <c r="K69">
+        <f t="shared" si="44"/>
+        <v>104103</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="43"/>
-        <v>104103</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="42"/>
         <v>1.2048958333333333</v>
       </c>
       <c r="M69" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2048958333333333</v>
       </c>
     </row>
@@ -11179,15 +11053,15 @@
         <v>19</v>
       </c>
       <c r="K70">
+        <f t="shared" si="44"/>
+        <v>305119</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="43"/>
-        <v>305119</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="42"/>
         <v>3.5314699074074074</v>
       </c>
       <c r="M70" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.5314699074074074</v>
       </c>
     </row>
@@ -11205,15 +11079,15 @@
         <v>20</v>
       </c>
       <c r="K71">
+        <f t="shared" si="44"/>
+        <v>1445360</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="43"/>
-        <v>1445360</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="42"/>
         <v>16.728703703703705</v>
       </c>
       <c r="M71" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16.728703703703705</v>
       </c>
     </row>
@@ -11231,29 +11105,29 @@
         <v>8</v>
       </c>
       <c r="K72">
+        <f t="shared" si="44"/>
+        <v>3463928</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="43"/>
-        <v>3463928</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="42"/>
         <v>40.091759259259256</v>
       </c>
       <c r="M72" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>40.091759259259256</v>
       </c>
     </row>
     <row r="73" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K73">
-        <f t="shared" ref="K73:K83" si="44">G73*$G$8+H73*$H$8+I73*$I$8+J73</f>
+        <f t="shared" ref="K73:K83" si="45">G73*$G$8+H73*$H$8+I73*$I$8+J73</f>
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M73" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -11268,15 +11142,15 @@
         <v>45</v>
       </c>
       <c r="K74">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>405</v>
       </c>
       <c r="L74">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.6874999999999998E-3</v>
       </c>
       <c r="M74" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.6874999999999998E-3</v>
       </c>
     </row>
@@ -11291,15 +11165,15 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1620</v>
       </c>
       <c r="L75">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="M75" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
@@ -11314,15 +11188,15 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6480</v>
       </c>
       <c r="L76">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="M76" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -11337,15 +11211,15 @@
         <v>48</v>
       </c>
       <c r="K77">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23328</v>
       </c>
       <c r="L77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.26999999999999996</v>
       </c>
       <c r="M77" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.26999999999999996</v>
       </c>
     </row>
@@ -11360,15 +11234,15 @@
         <v>2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>29762</v>
       </c>
       <c r="L78">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.34446759259259258</v>
       </c>
       <c r="M78" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.34446759259259258</v>
       </c>
     </row>
@@ -11383,15 +11257,15 @@
         <v>58</v>
       </c>
       <c r="K79">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>39358</v>
       </c>
       <c r="L79">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.45553240740740741</v>
       </c>
       <c r="M79" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.45553240740740741</v>
       </c>
     </row>
@@ -11406,15 +11280,15 @@
         <v>3</v>
       </c>
       <c r="K80">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>63003</v>
       </c>
       <c r="L80">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.72920138888888886</v>
       </c>
       <c r="M80" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.72920138888888886</v>
       </c>
     </row>
@@ -11432,15 +11306,15 @@
         <v>19</v>
       </c>
       <c r="K81">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>110719</v>
       </c>
       <c r="L81">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1.2814699074074076</v>
       </c>
       <c r="M81" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2814699074074076</v>
       </c>
     </row>
@@ -11458,15 +11332,15 @@
         <v>20</v>
       </c>
       <c r="K82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>724520</v>
       </c>
       <c r="L82">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>8.3856481481481477</v>
       </c>
       <c r="M82" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.3856481481481477</v>
       </c>
     </row>
@@ -11484,29 +11358,29 @@
         <v>4</v>
       </c>
       <c r="K83">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1735924</v>
       </c>
       <c r="L83">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>20.091712962962962</v>
       </c>
       <c r="M83" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20.091712962962962</v>
       </c>
     </row>
     <row r="84" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K84">
-        <f t="shared" ref="K84:K94" si="45">G84*$G$8+H84*$H$8+I84*$I$8+J84</f>
+        <f t="shared" ref="K84:K94" si="46">G84*$G$8+H84*$H$8+I84*$I$8+J84</f>
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M84" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -11521,15 +11395,15 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4860</v>
       </c>
       <c r="L85">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="M85" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
@@ -11544,15 +11418,15 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>19440</v>
       </c>
       <c r="L86">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="M86" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.22500000000000001</v>
       </c>
     </row>
@@ -11567,15 +11441,15 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>77760</v>
       </c>
       <c r="L87">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.9</v>
       </c>
       <c r="M87" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.9</v>
       </c>
     </row>
@@ -11593,15 +11467,15 @@
         <v>36</v>
       </c>
       <c r="K88">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>107136</v>
       </c>
       <c r="L88">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1.24</v>
       </c>
       <c r="M88" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.24</v>
       </c>
     </row>
@@ -11619,15 +11493,15 @@
         <v>11</v>
       </c>
       <c r="K89">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>210971</v>
       </c>
       <c r="L89">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.4417939814814815</v>
       </c>
       <c r="M89" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.4417939814814815</v>
       </c>
     </row>
@@ -11645,15 +11519,15 @@
         <v>49</v>
       </c>
       <c r="K90">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>236149</v>
       </c>
       <c r="L90">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.7332060185185183</v>
       </c>
       <c r="M90" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.7332060185185183</v>
       </c>
     </row>
@@ -11671,15 +11545,15 @@
         <v>3</v>
       </c>
       <c r="K91">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>399303</v>
       </c>
       <c r="L91">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.6215624999999996</v>
       </c>
       <c r="M91" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.6215624999999996</v>
       </c>
     </row>
@@ -11697,15 +11571,15 @@
         <v>19</v>
       </c>
       <c r="K92">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>737119</v>
       </c>
       <c r="L92">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>8.5314699074074074</v>
       </c>
       <c r="M92" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8.5314699074074074</v>
       </c>
     </row>
@@ -11723,15 +11597,15 @@
         <v>20</v>
       </c>
       <c r="K93">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1790960</v>
       </c>
       <c r="L93">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>20.728703703703705</v>
       </c>
       <c r="M93" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20.728703703703705</v>
       </c>
     </row>
@@ -11749,29 +11623,29 @@
         <v>8</v>
       </c>
       <c r="K94">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>5364728</v>
       </c>
       <c r="L94">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>62.091759259259256</v>
       </c>
       <c r="M94" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>62.091759259259256</v>
       </c>
     </row>
     <row r="95" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K95">
-        <f t="shared" ref="K95:K105" si="46">G95*$G$8+H95*$H$8+I95*$I$8+J95</f>
+        <f t="shared" ref="K95:K105" si="47">G95*$G$8+H95*$H$8+I95*$I$8+J95</f>
         <v>0</v>
       </c>
       <c r="L95">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M95" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -11787,15 +11661,15 @@
         <v>30</v>
       </c>
       <c r="K96">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2430</v>
       </c>
       <c r="L96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.8125000000000001E-2</v>
       </c>
       <c r="M96" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.8125000000000001E-2</v>
       </c>
     </row>
@@ -11811,15 +11685,15 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>9720</v>
       </c>
       <c r="L97">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.1125</v>
       </c>
       <c r="M97" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1125</v>
       </c>
     </row>
@@ -11835,15 +11709,15 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>38880</v>
       </c>
       <c r="L98">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.45</v>
       </c>
       <c r="M98" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.45</v>
       </c>
     </row>
@@ -11859,15 +11733,15 @@
         <v>48</v>
       </c>
       <c r="K99">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>53568</v>
       </c>
       <c r="L99">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.62</v>
       </c>
       <c r="M99" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.62</v>
       </c>
     </row>
@@ -11885,15 +11759,15 @@
         <v>11</v>
       </c>
       <c r="K100">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>92171</v>
       </c>
       <c r="L100">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1.0667939814814815</v>
       </c>
       <c r="M100" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0667939814814815</v>
       </c>
     </row>
@@ -11911,15 +11785,15 @@
         <v>49</v>
       </c>
       <c r="K101">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>149749</v>
       </c>
       <c r="L101">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1.7332060185185185</v>
       </c>
       <c r="M101" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.7332060185185185</v>
       </c>
     </row>
@@ -11937,15 +11811,15 @@
         <v>3</v>
       </c>
       <c r="K102">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>226503</v>
       </c>
       <c r="L102">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.6215625</v>
       </c>
       <c r="M102" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.6215625</v>
       </c>
     </row>
@@ -11963,15 +11837,15 @@
         <v>19</v>
       </c>
       <c r="K103">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>564319</v>
       </c>
       <c r="L103">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6.5314699074074074</v>
       </c>
       <c r="M103" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.5314699074074074</v>
       </c>
     </row>
@@ -11989,15 +11863,15 @@
         <v>20</v>
       </c>
       <c r="K104">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1618160</v>
       </c>
       <c r="L104">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>18.728703703703705</v>
       </c>
       <c r="M104" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>18.728703703703705</v>
       </c>
     </row>
@@ -12015,15 +11889,15 @@
         <v>8</v>
       </c>
       <c r="K105">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>5191928</v>
       </c>
       <c r="L105">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>60.091759259259256</v>
       </c>
       <c r="M105" s="59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60.091759259259256</v>
       </c>
     </row>
@@ -12036,10 +11910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16170,10 +16041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L19"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Xmind/Upgrade_Research/Infantry.xlsx
+++ b/Xmind/Upgrade_Research/Infantry.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="233">
   <si>
     <t>Level</t>
   </si>
@@ -668,9 +668,6 @@
     <t>156d 20:15:30</t>
   </si>
   <si>
-    <t>sum</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -723,6 +720,15 @@
   </si>
   <si>
     <t>Time_Min</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>mins</t>
   </si>
 </sst>
 </file>
@@ -1094,6 +1100,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,15 +1129,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1463,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>159</v>
@@ -2105,23 +2111,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
-      <c r="K1" s="88" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="90"/>
+      <c r="K1" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -2368,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>159</v>
@@ -3192,213 +3198,213 @@
       <c r="AP33" s="38"/>
     </row>
     <row r="34" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="82" t="s">
+      <c r="F34" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="82" t="s">
+      <c r="G34" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="82" t="s">
+      <c r="H34" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="89" t="s">
+      <c r="I34" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="J34" s="83" t="s">
+      <c r="J34" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="82" t="s">
+      <c r="L34" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="82" t="s">
+      <c r="M34" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="N34" s="82" t="s">
+      <c r="N34" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="O34" s="82" t="s">
+      <c r="O34" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P34" s="82" t="s">
+      <c r="P34" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q34" s="82" t="s">
+      <c r="Q34" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="R34" s="82" t="s">
+      <c r="R34" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="82" t="s">
+      <c r="S34" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="T34" s="89" t="s">
+      <c r="T34" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="U34" s="83" t="s">
+      <c r="U34" s="86" t="s">
         <v>6</v>
       </c>
       <c r="V34" s="24"/>
-      <c r="W34" s="82" t="s">
+      <c r="W34" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="X34" s="82" t="s">
+      <c r="X34" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="Y34" s="82" t="s">
+      <c r="Y34" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="Z34" s="82" t="s">
+      <c r="Z34" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AA34" s="82" t="s">
+      <c r="AA34" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AB34" s="82" t="s">
+      <c r="AB34" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AC34" s="82" t="s">
+      <c r="AC34" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AD34" s="82" t="s">
+      <c r="AD34" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AE34" s="89" t="s">
+      <c r="AE34" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="AF34" s="83" t="s">
+      <c r="AF34" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AH34" s="82" t="s">
+      <c r="AH34" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AI34" s="82" t="s">
+      <c r="AI34" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="AJ34" s="82" t="s">
+      <c r="AJ34" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AK34" s="82" t="s">
+      <c r="AK34" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AL34" s="82" t="s">
+      <c r="AL34" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AM34" s="82" t="s">
+      <c r="AM34" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AN34" s="82" t="s">
+      <c r="AN34" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AO34" s="82" t="s">
+      <c r="AO34" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AP34" s="89" t="s">
+      <c r="AP34" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="AQ34" s="83" t="s">
+      <c r="AQ34" s="86" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="83"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="83"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="86"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="83"/>
+      <c r="U35" s="86"/>
       <c r="V35" s="24"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="82"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="90"/>
-      <c r="AF35" s="83"/>
-      <c r="AH35" s="82"/>
-      <c r="AI35" s="82"/>
-      <c r="AJ35" s="82"/>
-      <c r="AK35" s="82"/>
-      <c r="AL35" s="82"/>
-      <c r="AM35" s="82"/>
-      <c r="AN35" s="82"/>
-      <c r="AO35" s="82"/>
-      <c r="AP35" s="90"/>
-      <c r="AQ35" s="83"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="85"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="85"/>
+      <c r="AD35" s="85"/>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="86"/>
+      <c r="AH35" s="85"/>
+      <c r="AI35" s="85"/>
+      <c r="AJ35" s="85"/>
+      <c r="AK35" s="85"/>
+      <c r="AL35" s="85"/>
+      <c r="AM35" s="85"/>
+      <c r="AN35" s="85"/>
+      <c r="AO35" s="85"/>
+      <c r="AP35" s="83"/>
+      <c r="AQ35" s="86"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="83"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="91"/>
-      <c r="U36" s="83"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="86"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="86"/>
       <c r="V36" s="24"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="91"/>
-      <c r="AF36" s="83"/>
-      <c r="AH36" s="82"/>
-      <c r="AI36" s="82"/>
-      <c r="AJ36" s="82"/>
-      <c r="AK36" s="82"/>
-      <c r="AL36" s="82"/>
-      <c r="AM36" s="82"/>
-      <c r="AN36" s="82"/>
-      <c r="AO36" s="82"/>
-      <c r="AP36" s="91"/>
-      <c r="AQ36" s="83"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="85"/>
+      <c r="AD36" s="85"/>
+      <c r="AE36" s="84"/>
+      <c r="AF36" s="86"/>
+      <c r="AH36" s="85"/>
+      <c r="AI36" s="85"/>
+      <c r="AJ36" s="85"/>
+      <c r="AK36" s="85"/>
+      <c r="AL36" s="85"/>
+      <c r="AM36" s="85"/>
+      <c r="AN36" s="85"/>
+      <c r="AO36" s="85"/>
+      <c r="AP36" s="84"/>
+      <c r="AQ36" s="86"/>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -4724,213 +4730,213 @@
       <c r="AP50" s="38"/>
     </row>
     <row r="51" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="82" t="s">
+      <c r="C51" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="82" t="s">
+      <c r="D51" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="82" t="s">
+      <c r="E51" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="82" t="s">
+      <c r="F51" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="82" t="s">
+      <c r="G51" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="82" t="s">
+      <c r="H51" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="I51" s="89" t="s">
+      <c r="I51" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="J51" s="83" t="s">
+      <c r="J51" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="L51" s="82" t="s">
+      <c r="L51" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="M51" s="82" t="s">
+      <c r="M51" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="N51" s="82" t="s">
+      <c r="N51" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="82" t="s">
+      <c r="O51" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P51" s="82" t="s">
+      <c r="P51" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q51" s="82" t="s">
+      <c r="Q51" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="82" t="s">
+      <c r="R51" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S51" s="82" t="s">
+      <c r="S51" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="T51" s="89" t="s">
+      <c r="T51" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="U51" s="83" t="s">
+      <c r="U51" s="86" t="s">
         <v>6</v>
       </c>
       <c r="V51" s="24"/>
-      <c r="W51" s="82" t="s">
+      <c r="W51" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="X51" s="82" t="s">
+      <c r="X51" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="Y51" s="82" t="s">
+      <c r="Y51" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="Z51" s="82" t="s">
+      <c r="Z51" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AA51" s="82" t="s">
+      <c r="AA51" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AB51" s="82" t="s">
+      <c r="AB51" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AC51" s="82" t="s">
+      <c r="AC51" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AD51" s="82" t="s">
+      <c r="AD51" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AE51" s="89" t="s">
+      <c r="AE51" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="AF51" s="83" t="s">
+      <c r="AF51" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AH51" s="82" t="s">
+      <c r="AH51" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AI51" s="82" t="s">
+      <c r="AI51" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="AJ51" s="82" t="s">
+      <c r="AJ51" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AK51" s="82" t="s">
+      <c r="AK51" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AL51" s="82" t="s">
+      <c r="AL51" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AM51" s="82" t="s">
+      <c r="AM51" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AN51" s="82" t="s">
+      <c r="AN51" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AO51" s="82" t="s">
+      <c r="AO51" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AP51" s="89" t="s">
+      <c r="AP51" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="AQ51" s="83" t="s">
+      <c r="AQ51" s="86" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="83"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="82"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="90"/>
-      <c r="U52" s="83"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="86"/>
+      <c r="L52" s="85"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="85"/>
+      <c r="O52" s="85"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="85"/>
+      <c r="R52" s="85"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="86"/>
       <c r="V52" s="24"/>
-      <c r="W52" s="82"/>
-      <c r="X52" s="82"/>
-      <c r="Y52" s="82"/>
-      <c r="Z52" s="82"/>
-      <c r="AA52" s="82"/>
-      <c r="AB52" s="82"/>
-      <c r="AC52" s="82"/>
-      <c r="AD52" s="82"/>
-      <c r="AE52" s="90"/>
-      <c r="AF52" s="83"/>
-      <c r="AH52" s="82"/>
-      <c r="AI52" s="82"/>
-      <c r="AJ52" s="82"/>
-      <c r="AK52" s="82"/>
-      <c r="AL52" s="82"/>
-      <c r="AM52" s="82"/>
-      <c r="AN52" s="82"/>
-      <c r="AO52" s="82"/>
-      <c r="AP52" s="90"/>
-      <c r="AQ52" s="83"/>
+      <c r="W52" s="85"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="85"/>
+      <c r="AA52" s="85"/>
+      <c r="AB52" s="85"/>
+      <c r="AC52" s="85"/>
+      <c r="AD52" s="85"/>
+      <c r="AE52" s="83"/>
+      <c r="AF52" s="86"/>
+      <c r="AH52" s="85"/>
+      <c r="AI52" s="85"/>
+      <c r="AJ52" s="85"/>
+      <c r="AK52" s="85"/>
+      <c r="AL52" s="85"/>
+      <c r="AM52" s="85"/>
+      <c r="AN52" s="85"/>
+      <c r="AO52" s="85"/>
+      <c r="AP52" s="83"/>
+      <c r="AQ52" s="86"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A53" s="82"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="83"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="82"/>
-      <c r="R53" s="82"/>
-      <c r="S53" s="82"/>
-      <c r="T53" s="91"/>
-      <c r="U53" s="83"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="86"/>
+      <c r="L53" s="85"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="84"/>
+      <c r="U53" s="86"/>
       <c r="V53" s="24"/>
-      <c r="W53" s="82"/>
-      <c r="X53" s="82"/>
-      <c r="Y53" s="82"/>
-      <c r="Z53" s="82"/>
-      <c r="AA53" s="82"/>
-      <c r="AB53" s="82"/>
-      <c r="AC53" s="82"/>
-      <c r="AD53" s="82"/>
-      <c r="AE53" s="91"/>
-      <c r="AF53" s="83"/>
-      <c r="AH53" s="82"/>
-      <c r="AI53" s="82"/>
-      <c r="AJ53" s="82"/>
-      <c r="AK53" s="82"/>
-      <c r="AL53" s="82"/>
-      <c r="AM53" s="82"/>
-      <c r="AN53" s="82"/>
-      <c r="AO53" s="82"/>
-      <c r="AP53" s="91"/>
-      <c r="AQ53" s="83"/>
+      <c r="W53" s="85"/>
+      <c r="X53" s="85"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="85"/>
+      <c r="AA53" s="85"/>
+      <c r="AB53" s="85"/>
+      <c r="AC53" s="85"/>
+      <c r="AD53" s="85"/>
+      <c r="AE53" s="84"/>
+      <c r="AF53" s="86"/>
+      <c r="AH53" s="85"/>
+      <c r="AI53" s="85"/>
+      <c r="AJ53" s="85"/>
+      <c r="AK53" s="85"/>
+      <c r="AL53" s="85"/>
+      <c r="AM53" s="85"/>
+      <c r="AN53" s="85"/>
+      <c r="AO53" s="85"/>
+      <c r="AP53" s="84"/>
+      <c r="AQ53" s="86"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
@@ -6206,213 +6212,213 @@
       <c r="AP67" s="38"/>
     </row>
     <row r="68" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="82" t="s">
+      <c r="A68" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="84" t="s">
+      <c r="B68" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="82" t="s">
+      <c r="D68" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="82" t="s">
+      <c r="E68" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="82" t="s">
+      <c r="F68" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="82" t="s">
+      <c r="G68" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="82" t="s">
+      <c r="H68" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="I68" s="89" t="s">
+      <c r="I68" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="J68" s="83" t="s">
+      <c r="J68" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="L68" s="82" t="s">
+      <c r="L68" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="M68" s="82" t="s">
+      <c r="M68" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="N68" s="82" t="s">
+      <c r="N68" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="82" t="s">
+      <c r="O68" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P68" s="82" t="s">
+      <c r="P68" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q68" s="82" t="s">
+      <c r="Q68" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="R68" s="82" t="s">
+      <c r="R68" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S68" s="82" t="s">
+      <c r="S68" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="T68" s="89" t="s">
+      <c r="T68" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="U68" s="83" t="s">
+      <c r="U68" s="86" t="s">
         <v>6</v>
       </c>
       <c r="V68" s="24"/>
-      <c r="W68" s="82" t="s">
+      <c r="W68" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="X68" s="82" t="s">
+      <c r="X68" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="Y68" s="82" t="s">
+      <c r="Y68" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="Z68" s="82" t="s">
+      <c r="Z68" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AA68" s="82" t="s">
+      <c r="AA68" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AB68" s="82" t="s">
+      <c r="AB68" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AC68" s="82" t="s">
+      <c r="AC68" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AD68" s="82" t="s">
+      <c r="AD68" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AE68" s="89" t="s">
+      <c r="AE68" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="AF68" s="83" t="s">
+      <c r="AF68" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AH68" s="82" t="s">
+      <c r="AH68" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AI68" s="82" t="s">
+      <c r="AI68" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="AJ68" s="82" t="s">
+      <c r="AJ68" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AK68" s="82" t="s">
+      <c r="AK68" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AL68" s="82" t="s">
+      <c r="AL68" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AM68" s="82" t="s">
+      <c r="AM68" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AN68" s="82" t="s">
+      <c r="AN68" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AO68" s="82" t="s">
+      <c r="AO68" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AP68" s="89" t="s">
+      <c r="AP68" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="AQ68" s="83" t="s">
+      <c r="AQ68" s="86" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A69" s="82"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="82"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="83"/>
-      <c r="L69" s="82"/>
-      <c r="M69" s="82"/>
-      <c r="N69" s="82"/>
-      <c r="O69" s="82"/>
-      <c r="P69" s="82"/>
-      <c r="Q69" s="82"/>
-      <c r="R69" s="82"/>
-      <c r="S69" s="82"/>
-      <c r="T69" s="90"/>
-      <c r="U69" s="83"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="86"/>
+      <c r="L69" s="85"/>
+      <c r="M69" s="85"/>
+      <c r="N69" s="85"/>
+      <c r="O69" s="85"/>
+      <c r="P69" s="85"/>
+      <c r="Q69" s="85"/>
+      <c r="R69" s="85"/>
+      <c r="S69" s="85"/>
+      <c r="T69" s="83"/>
+      <c r="U69" s="86"/>
       <c r="V69" s="24"/>
-      <c r="W69" s="82"/>
-      <c r="X69" s="82"/>
-      <c r="Y69" s="82"/>
-      <c r="Z69" s="82"/>
-      <c r="AA69" s="82"/>
-      <c r="AB69" s="82"/>
-      <c r="AC69" s="82"/>
-      <c r="AD69" s="82"/>
-      <c r="AE69" s="90"/>
-      <c r="AF69" s="83"/>
-      <c r="AH69" s="82"/>
-      <c r="AI69" s="82"/>
-      <c r="AJ69" s="82"/>
-      <c r="AK69" s="82"/>
-      <c r="AL69" s="82"/>
-      <c r="AM69" s="82"/>
-      <c r="AN69" s="82"/>
-      <c r="AO69" s="82"/>
-      <c r="AP69" s="90"/>
-      <c r="AQ69" s="83"/>
+      <c r="W69" s="85"/>
+      <c r="X69" s="85"/>
+      <c r="Y69" s="85"/>
+      <c r="Z69" s="85"/>
+      <c r="AA69" s="85"/>
+      <c r="AB69" s="85"/>
+      <c r="AC69" s="85"/>
+      <c r="AD69" s="85"/>
+      <c r="AE69" s="83"/>
+      <c r="AF69" s="86"/>
+      <c r="AH69" s="85"/>
+      <c r="AI69" s="85"/>
+      <c r="AJ69" s="85"/>
+      <c r="AK69" s="85"/>
+      <c r="AL69" s="85"/>
+      <c r="AM69" s="85"/>
+      <c r="AN69" s="85"/>
+      <c r="AO69" s="85"/>
+      <c r="AP69" s="83"/>
+      <c r="AQ69" s="86"/>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A70" s="82"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="82"/>
-      <c r="H70" s="82"/>
-      <c r="I70" s="91"/>
-      <c r="J70" s="83"/>
-      <c r="L70" s="82"/>
-      <c r="M70" s="82"/>
-      <c r="N70" s="82"/>
-      <c r="O70" s="82"/>
-      <c r="P70" s="82"/>
-      <c r="Q70" s="82"/>
-      <c r="R70" s="82"/>
-      <c r="S70" s="82"/>
-      <c r="T70" s="91"/>
-      <c r="U70" s="83"/>
+      <c r="A70" s="85"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="84"/>
+      <c r="J70" s="86"/>
+      <c r="L70" s="85"/>
+      <c r="M70" s="85"/>
+      <c r="N70" s="85"/>
+      <c r="O70" s="85"/>
+      <c r="P70" s="85"/>
+      <c r="Q70" s="85"/>
+      <c r="R70" s="85"/>
+      <c r="S70" s="85"/>
+      <c r="T70" s="84"/>
+      <c r="U70" s="86"/>
       <c r="V70" s="24"/>
-      <c r="W70" s="82"/>
-      <c r="X70" s="82"/>
-      <c r="Y70" s="82"/>
-      <c r="Z70" s="82"/>
-      <c r="AA70" s="82"/>
-      <c r="AB70" s="82"/>
-      <c r="AC70" s="82"/>
-      <c r="AD70" s="82"/>
-      <c r="AE70" s="91"/>
-      <c r="AF70" s="83"/>
-      <c r="AH70" s="82"/>
-      <c r="AI70" s="82"/>
-      <c r="AJ70" s="82"/>
-      <c r="AK70" s="82"/>
-      <c r="AL70" s="82"/>
-      <c r="AM70" s="82"/>
-      <c r="AN70" s="82"/>
-      <c r="AO70" s="82"/>
-      <c r="AP70" s="91"/>
-      <c r="AQ70" s="83"/>
+      <c r="W70" s="85"/>
+      <c r="X70" s="85"/>
+      <c r="Y70" s="85"/>
+      <c r="Z70" s="85"/>
+      <c r="AA70" s="85"/>
+      <c r="AB70" s="85"/>
+      <c r="AC70" s="85"/>
+      <c r="AD70" s="85"/>
+      <c r="AE70" s="84"/>
+      <c r="AF70" s="86"/>
+      <c r="AH70" s="85"/>
+      <c r="AI70" s="85"/>
+      <c r="AJ70" s="85"/>
+      <c r="AK70" s="85"/>
+      <c r="AL70" s="85"/>
+      <c r="AM70" s="85"/>
+      <c r="AN70" s="85"/>
+      <c r="AO70" s="85"/>
+      <c r="AP70" s="84"/>
+      <c r="AQ70" s="86"/>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
@@ -7690,213 +7696,213 @@
       <c r="AP84" s="38"/>
     </row>
     <row r="85" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="84" t="s">
+      <c r="B85" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="82" t="s">
+      <c r="C85" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="82" t="s">
+      <c r="D85" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="82" t="s">
+      <c r="E85" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="82" t="s">
+      <c r="F85" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="82" t="s">
+      <c r="G85" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H85" s="82" t="s">
+      <c r="H85" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="I85" s="89" t="s">
+      <c r="I85" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="J85" s="83" t="s">
+      <c r="J85" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="L85" s="82" t="s">
+      <c r="L85" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="M85" s="82" t="s">
+      <c r="M85" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="N85" s="82" t="s">
+      <c r="N85" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="82" t="s">
+      <c r="O85" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="P85" s="82" t="s">
+      <c r="P85" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="Q85" s="82" t="s">
+      <c r="Q85" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="R85" s="82" t="s">
+      <c r="R85" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="S85" s="82" t="s">
+      <c r="S85" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="T85" s="89" t="s">
+      <c r="T85" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="U85" s="83" t="s">
+      <c r="U85" s="86" t="s">
         <v>6</v>
       </c>
       <c r="V85" s="24"/>
-      <c r="W85" s="82" t="s">
+      <c r="W85" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="X85" s="82" t="s">
+      <c r="X85" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="Y85" s="82" t="s">
+      <c r="Y85" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="Z85" s="82" t="s">
+      <c r="Z85" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AA85" s="82" t="s">
+      <c r="AA85" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AB85" s="82" t="s">
+      <c r="AB85" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AC85" s="82" t="s">
+      <c r="AC85" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AD85" s="82" t="s">
+      <c r="AD85" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AE85" s="89" t="s">
+      <c r="AE85" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="AF85" s="83" t="s">
+      <c r="AF85" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AH85" s="82" t="s">
+      <c r="AH85" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AI85" s="82" t="s">
+      <c r="AI85" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="AJ85" s="82" t="s">
+      <c r="AJ85" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AK85" s="82" t="s">
+      <c r="AK85" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AL85" s="82" t="s">
+      <c r="AL85" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AM85" s="82" t="s">
+      <c r="AM85" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AN85" s="82" t="s">
+      <c r="AN85" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AO85" s="82" t="s">
+      <c r="AO85" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AP85" s="89" t="s">
+      <c r="AP85" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="AQ85" s="83" t="s">
+      <c r="AQ85" s="86" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A86" s="82"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="82"/>
-      <c r="H86" s="82"/>
-      <c r="I86" s="90"/>
-      <c r="J86" s="83"/>
-      <c r="L86" s="82"/>
-      <c r="M86" s="82"/>
-      <c r="N86" s="82"/>
-      <c r="O86" s="82"/>
-      <c r="P86" s="82"/>
-      <c r="Q86" s="82"/>
-      <c r="R86" s="82"/>
-      <c r="S86" s="82"/>
-      <c r="T86" s="90"/>
-      <c r="U86" s="83"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="87"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="83"/>
+      <c r="J86" s="86"/>
+      <c r="L86" s="85"/>
+      <c r="M86" s="85"/>
+      <c r="N86" s="85"/>
+      <c r="O86" s="85"/>
+      <c r="P86" s="85"/>
+      <c r="Q86" s="85"/>
+      <c r="R86" s="85"/>
+      <c r="S86" s="85"/>
+      <c r="T86" s="83"/>
+      <c r="U86" s="86"/>
       <c r="V86" s="24"/>
-      <c r="W86" s="82"/>
-      <c r="X86" s="82"/>
-      <c r="Y86" s="82"/>
-      <c r="Z86" s="82"/>
-      <c r="AA86" s="82"/>
-      <c r="AB86" s="82"/>
-      <c r="AC86" s="82"/>
-      <c r="AD86" s="82"/>
-      <c r="AE86" s="90"/>
-      <c r="AF86" s="83"/>
-      <c r="AH86" s="82"/>
-      <c r="AI86" s="82"/>
-      <c r="AJ86" s="82"/>
-      <c r="AK86" s="82"/>
-      <c r="AL86" s="82"/>
-      <c r="AM86" s="82"/>
-      <c r="AN86" s="82"/>
-      <c r="AO86" s="82"/>
-      <c r="AP86" s="90"/>
-      <c r="AQ86" s="83"/>
+      <c r="W86" s="85"/>
+      <c r="X86" s="85"/>
+      <c r="Y86" s="85"/>
+      <c r="Z86" s="85"/>
+      <c r="AA86" s="85"/>
+      <c r="AB86" s="85"/>
+      <c r="AC86" s="85"/>
+      <c r="AD86" s="85"/>
+      <c r="AE86" s="83"/>
+      <c r="AF86" s="86"/>
+      <c r="AH86" s="85"/>
+      <c r="AI86" s="85"/>
+      <c r="AJ86" s="85"/>
+      <c r="AK86" s="85"/>
+      <c r="AL86" s="85"/>
+      <c r="AM86" s="85"/>
+      <c r="AN86" s="85"/>
+      <c r="AO86" s="85"/>
+      <c r="AP86" s="83"/>
+      <c r="AQ86" s="86"/>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A87" s="82"/>
-      <c r="B87" s="84"/>
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-      <c r="I87" s="91"/>
-      <c r="J87" s="83"/>
-      <c r="L87" s="82"/>
-      <c r="M87" s="82"/>
-      <c r="N87" s="82"/>
-      <c r="O87" s="82"/>
-      <c r="P87" s="82"/>
-      <c r="Q87" s="82"/>
-      <c r="R87" s="82"/>
-      <c r="S87" s="82"/>
-      <c r="T87" s="91"/>
-      <c r="U87" s="83"/>
+      <c r="A87" s="85"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="84"/>
+      <c r="J87" s="86"/>
+      <c r="L87" s="85"/>
+      <c r="M87" s="85"/>
+      <c r="N87" s="85"/>
+      <c r="O87" s="85"/>
+      <c r="P87" s="85"/>
+      <c r="Q87" s="85"/>
+      <c r="R87" s="85"/>
+      <c r="S87" s="85"/>
+      <c r="T87" s="84"/>
+      <c r="U87" s="86"/>
       <c r="V87" s="24"/>
-      <c r="W87" s="82"/>
-      <c r="X87" s="82"/>
-      <c r="Y87" s="82"/>
-      <c r="Z87" s="82"/>
-      <c r="AA87" s="82"/>
-      <c r="AB87" s="82"/>
-      <c r="AC87" s="82"/>
-      <c r="AD87" s="82"/>
-      <c r="AE87" s="91"/>
-      <c r="AF87" s="83"/>
-      <c r="AH87" s="82"/>
-      <c r="AI87" s="82"/>
-      <c r="AJ87" s="82"/>
-      <c r="AK87" s="82"/>
-      <c r="AL87" s="82"/>
-      <c r="AM87" s="82"/>
-      <c r="AN87" s="82"/>
-      <c r="AO87" s="82"/>
-      <c r="AP87" s="91"/>
-      <c r="AQ87" s="83"/>
+      <c r="W87" s="85"/>
+      <c r="X87" s="85"/>
+      <c r="Y87" s="85"/>
+      <c r="Z87" s="85"/>
+      <c r="AA87" s="85"/>
+      <c r="AB87" s="85"/>
+      <c r="AC87" s="85"/>
+      <c r="AD87" s="85"/>
+      <c r="AE87" s="84"/>
+      <c r="AF87" s="86"/>
+      <c r="AH87" s="85"/>
+      <c r="AI87" s="85"/>
+      <c r="AJ87" s="85"/>
+      <c r="AK87" s="85"/>
+      <c r="AL87" s="85"/>
+      <c r="AM87" s="85"/>
+      <c r="AN87" s="85"/>
+      <c r="AO87" s="85"/>
+      <c r="AP87" s="84"/>
+      <c r="AQ87" s="86"/>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
@@ -9050,6 +9056,144 @@
     </row>
   </sheetData>
   <mergeCells count="162">
+    <mergeCell ref="R68:R70"/>
+    <mergeCell ref="S68:S70"/>
+    <mergeCell ref="U68:U70"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="AL68:AL70"/>
+    <mergeCell ref="AM68:AM70"/>
+    <mergeCell ref="AN68:AN70"/>
+    <mergeCell ref="AO68:AO70"/>
+    <mergeCell ref="AQ68:AQ70"/>
+    <mergeCell ref="AD68:AD70"/>
+    <mergeCell ref="AF68:AF70"/>
+    <mergeCell ref="AH68:AH70"/>
+    <mergeCell ref="AI68:AI70"/>
+    <mergeCell ref="AJ68:AJ70"/>
+    <mergeCell ref="AK68:AK70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:N70"/>
+    <mergeCell ref="O68:O70"/>
+    <mergeCell ref="AN51:AN53"/>
+    <mergeCell ref="AO51:AO53"/>
+    <mergeCell ref="AQ51:AQ53"/>
+    <mergeCell ref="AJ51:AJ53"/>
+    <mergeCell ref="AK51:AK53"/>
+    <mergeCell ref="AL51:AL53"/>
+    <mergeCell ref="AM51:AM53"/>
+    <mergeCell ref="O51:O53"/>
+    <mergeCell ref="P51:P53"/>
+    <mergeCell ref="Q51:Q53"/>
+    <mergeCell ref="X68:X70"/>
+    <mergeCell ref="Y68:Y70"/>
+    <mergeCell ref="Z68:Z70"/>
+    <mergeCell ref="AA68:AA70"/>
+    <mergeCell ref="AB68:AB70"/>
+    <mergeCell ref="AC68:AC70"/>
+    <mergeCell ref="P68:P70"/>
+    <mergeCell ref="Q68:Q70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="AH51:AH53"/>
+    <mergeCell ref="AI51:AI53"/>
+    <mergeCell ref="Z51:Z53"/>
+    <mergeCell ref="AA51:AA53"/>
+    <mergeCell ref="AB51:AB53"/>
+    <mergeCell ref="AC51:AC53"/>
+    <mergeCell ref="AD51:AD53"/>
+    <mergeCell ref="AF51:AF53"/>
+    <mergeCell ref="R51:R53"/>
+    <mergeCell ref="S51:S53"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="W51:W53"/>
+    <mergeCell ref="X51:X53"/>
+    <mergeCell ref="Y51:Y53"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="AQ34:AQ36"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="AJ34:AJ36"/>
+    <mergeCell ref="AK34:AK36"/>
+    <mergeCell ref="AL34:AL36"/>
+    <mergeCell ref="AM34:AM36"/>
+    <mergeCell ref="AN34:AN36"/>
+    <mergeCell ref="AO34:AO36"/>
+    <mergeCell ref="AB34:AB36"/>
+    <mergeCell ref="AC34:AC36"/>
+    <mergeCell ref="AD34:AD36"/>
+    <mergeCell ref="AF34:AF36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AI34:AI36"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="S34:S36"/>
+    <mergeCell ref="X34:X36"/>
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="Z34:Z36"/>
+    <mergeCell ref="AA34:AA36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="U34:U36"/>
+    <mergeCell ref="W34:W36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="P85:P87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="AQ85:AQ87"/>
+    <mergeCell ref="W85:W87"/>
+    <mergeCell ref="X85:X87"/>
+    <mergeCell ref="Y85:Y87"/>
+    <mergeCell ref="Z85:Z87"/>
+    <mergeCell ref="AA85:AA87"/>
+    <mergeCell ref="AB85:AB87"/>
+    <mergeCell ref="AC85:AC87"/>
+    <mergeCell ref="AD85:AD87"/>
+    <mergeCell ref="AF85:AF87"/>
     <mergeCell ref="T34:T36"/>
     <mergeCell ref="AE34:AE36"/>
     <mergeCell ref="AP34:AP36"/>
@@ -9074,144 +9218,6 @@
     <mergeCell ref="AN85:AN87"/>
     <mergeCell ref="AO85:AO87"/>
     <mergeCell ref="L85:L87"/>
-    <mergeCell ref="AQ85:AQ87"/>
-    <mergeCell ref="W85:W87"/>
-    <mergeCell ref="X85:X87"/>
-    <mergeCell ref="Y85:Y87"/>
-    <mergeCell ref="Z85:Z87"/>
-    <mergeCell ref="AA85:AA87"/>
-    <mergeCell ref="AB85:AB87"/>
-    <mergeCell ref="AC85:AC87"/>
-    <mergeCell ref="AD85:AD87"/>
-    <mergeCell ref="AF85:AF87"/>
-    <mergeCell ref="M85:M87"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="P85:P87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="X34:X36"/>
-    <mergeCell ref="Y34:Y36"/>
-    <mergeCell ref="Z34:Z36"/>
-    <mergeCell ref="AA34:AA36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="O34:O36"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="U34:U36"/>
-    <mergeCell ref="W34:W36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="AQ34:AQ36"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="AJ34:AJ36"/>
-    <mergeCell ref="AK34:AK36"/>
-    <mergeCell ref="AL34:AL36"/>
-    <mergeCell ref="AM34:AM36"/>
-    <mergeCell ref="AN34:AN36"/>
-    <mergeCell ref="AO34:AO36"/>
-    <mergeCell ref="AB34:AB36"/>
-    <mergeCell ref="AC34:AC36"/>
-    <mergeCell ref="AD34:AD36"/>
-    <mergeCell ref="AF34:AF36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AI34:AI36"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="S34:S36"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="AH51:AH53"/>
-    <mergeCell ref="AI51:AI53"/>
-    <mergeCell ref="Z51:Z53"/>
-    <mergeCell ref="AA51:AA53"/>
-    <mergeCell ref="AB51:AB53"/>
-    <mergeCell ref="AC51:AC53"/>
-    <mergeCell ref="AD51:AD53"/>
-    <mergeCell ref="AF51:AF53"/>
-    <mergeCell ref="R51:R53"/>
-    <mergeCell ref="S51:S53"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="W51:W53"/>
-    <mergeCell ref="X51:X53"/>
-    <mergeCell ref="Y51:Y53"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="N68:N70"/>
-    <mergeCell ref="O68:O70"/>
-    <mergeCell ref="AN51:AN53"/>
-    <mergeCell ref="AO51:AO53"/>
-    <mergeCell ref="AQ51:AQ53"/>
-    <mergeCell ref="AJ51:AJ53"/>
-    <mergeCell ref="AK51:AK53"/>
-    <mergeCell ref="AL51:AL53"/>
-    <mergeCell ref="AM51:AM53"/>
-    <mergeCell ref="O51:O53"/>
-    <mergeCell ref="P51:P53"/>
-    <mergeCell ref="Q51:Q53"/>
-    <mergeCell ref="X68:X70"/>
-    <mergeCell ref="Y68:Y70"/>
-    <mergeCell ref="Z68:Z70"/>
-    <mergeCell ref="AA68:AA70"/>
-    <mergeCell ref="AB68:AB70"/>
-    <mergeCell ref="AC68:AC70"/>
-    <mergeCell ref="P68:P70"/>
-    <mergeCell ref="Q68:Q70"/>
-    <mergeCell ref="R68:R70"/>
-    <mergeCell ref="S68:S70"/>
-    <mergeCell ref="U68:U70"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="AL68:AL70"/>
-    <mergeCell ref="AM68:AM70"/>
-    <mergeCell ref="AN68:AN70"/>
-    <mergeCell ref="AO68:AO70"/>
-    <mergeCell ref="AQ68:AQ70"/>
-    <mergeCell ref="AD68:AD70"/>
-    <mergeCell ref="AF68:AF70"/>
-    <mergeCell ref="AH68:AH70"/>
-    <mergeCell ref="AI68:AI70"/>
-    <mergeCell ref="AJ68:AJ70"/>
-    <mergeCell ref="AK68:AK70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9223,8 +9229,8 @@
   <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9246,7 +9252,7 @@
         <v>162</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G1" t="s">
         <v>152</v>
@@ -9260,21 +9266,7 @@
       <c r="J1" t="s">
         <v>181</v>
       </c>
-      <c r="O1">
-        <v>118020</v>
-      </c>
-      <c r="P1">
-        <f>O1-(24*60*60)</f>
-        <v>31620</v>
-      </c>
-      <c r="Q1">
-        <f>P1/1440</f>
-        <v>21.958333333333332</v>
-      </c>
-      <c r="R1" s="59">
-        <f>Q1/1440</f>
-        <v>1.5248842592592592E-2</v>
-      </c>
+      <c r="R1" s="59"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -9289,30 +9281,20 @@
         <v>1.1574074074074075E-2</v>
       </c>
       <c r="D2" s="79"/>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
       <c r="L2">
         <f>K2*H2*60</f>
-        <v>1080</v>
-      </c>
-      <c r="M2" s="59">
-        <f>SUM(L:L)</f>
-        <v>10666.724895833342</v>
-      </c>
-      <c r="O2">
-        <v>353940</v>
-      </c>
-      <c r="Q2">
-        <f>O2/1440</f>
-        <v>245.79166666666666</v>
-      </c>
-      <c r="R2" s="59">
-        <v>245.79166666666666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" t="s">
+        <v>231</v>
+      </c>
+      <c r="O2" t="s">
+        <v>230</v>
+      </c>
+      <c r="R2" s="59"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -9327,29 +9309,28 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <f>K3*I3</f>
-        <v>3300</v>
-      </c>
-      <c r="M3" s="59">
-        <f>M2/60</f>
-        <v>177.77874826388904</v>
+        <v>3</v>
+      </c>
+      <c r="M3" s="27">
+        <f>SUM(L3:L12)</f>
+        <v>16863</v>
+      </c>
+      <c r="N3">
+        <f>M3/60</f>
+        <v>281.05</v>
       </c>
       <c r="O3">
-        <v>1061700</v>
-      </c>
-      <c r="Q3">
-        <f>O3/1440</f>
-        <v>737.29166666666663</v>
-      </c>
-      <c r="R3" s="59">
-        <v>737.29166666666663</v>
-      </c>
+        <f>N3/24</f>
+        <v>11.710416666666667</v>
+      </c>
+      <c r="R3" s="59"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -9364,29 +9345,16 @@
         <v>1.8518518518518521E-2</v>
       </c>
       <c r="I4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="L4">
         <f>K4*I4</f>
-        <v>1110</v>
-      </c>
-      <c r="M4" s="59">
-        <f>M3/24</f>
-        <v>7.4074478443287104</v>
-      </c>
-      <c r="O4">
-        <v>3185100</v>
-      </c>
-      <c r="Q4">
-        <f>O4/1440</f>
-        <v>2211.875</v>
-      </c>
-      <c r="R4" s="59">
-        <v>2211.875</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="R4" s="59"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -9401,25 +9369,16 @@
         <v>2.314814814814815E-2</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>60</v>
+        <v>489</v>
       </c>
       <c r="L5">
         <f>K5*I5</f>
-        <v>900</v>
-      </c>
-      <c r="O5">
-        <v>7962720</v>
-      </c>
-      <c r="Q5">
-        <f>O5/1440</f>
-        <v>5529.666666666667</v>
-      </c>
-      <c r="R5" s="59">
-        <v>5529.666666666667</v>
-      </c>
+        <v>4890</v>
+      </c>
+      <c r="R5" s="59"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -9434,14 +9393,14 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c r="L6">
-        <f>K6*I6</f>
-        <v>3110</v>
+        <f t="shared" ref="L6:L12" si="2">K6*I6</f>
+        <v>1695</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -9457,14 +9416,14 @@
         <v>3.2407407407407406E-2</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="L7">
-        <f>K7*I7</f>
-        <v>540</v>
+        <f t="shared" si="2"/>
+        <v>2430</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -9491,8 +9450,16 @@
         <f>60</f>
         <v>60</v>
       </c>
-      <c r="K8" t="s">
-        <v>212</v>
+      <c r="K8">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>1260</v>
+      </c>
+      <c r="Q8">
+        <f>42700/2400</f>
+        <v>17.791666666666668</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -9510,21 +9477,19 @@
       <c r="D9" s="76" t="s">
         <v>192</v>
       </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
       <c r="I9">
-        <f>5*124</f>
-        <v>620</v>
+        <f>3*60</f>
+        <v>180</v>
       </c>
       <c r="K9">
-        <f>G9*$G$8+H9*$H$8+I9*$I$8+J9</f>
-        <v>37200</v>
+        <v>27</v>
       </c>
       <c r="L9">
-        <f>K9/1440/60</f>
-        <v>0.43055555555555552</v>
-      </c>
-      <c r="M9" s="59">
-        <f>L9</f>
-        <v>0.43055555555555552</v>
+        <f t="shared" si="2"/>
+        <v>4860</v>
       </c>
       <c r="N9" s="59"/>
     </row>
@@ -9543,21 +9508,19 @@
       <c r="D10" s="76" t="s">
         <v>193</v>
       </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
       <c r="I10">
-        <f>10*226</f>
-        <v>2260</v>
+        <f>H10*60</f>
+        <v>900</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K28" si="2">G10*$G$8+H10*$H$8+I10*$I$8+J10</f>
-        <v>135600</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L28" si="3">K10/1440/60</f>
-        <v>1.5694444444444444</v>
-      </c>
-      <c r="M10" s="59">
-        <f t="shared" ref="M10:N23" si="4">L10</f>
-        <v>1.5694444444444444</v>
+        <f t="shared" si="2"/>
+        <v>900</v>
       </c>
       <c r="N10" s="59"/>
     </row>
@@ -9580,17 +9543,9 @@
         <f>15*43</f>
         <v>645</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="2"/>
-        <v>38700</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="3"/>
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="M11" s="59">
-        <f t="shared" si="4"/>
-        <v>0.44791666666666669</v>
+        <v>0</v>
       </c>
       <c r="N11" s="59"/>
     </row>
@@ -9613,17 +9568,9 @@
         <f>30*42</f>
         <v>1260</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="2"/>
-        <v>75600</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="3"/>
-        <v>0.875</v>
-      </c>
-      <c r="M12" s="59">
-        <f t="shared" si="4"/>
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="N12" s="59"/>
     </row>
@@ -9642,22 +9589,12 @@
       <c r="D13" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>25200</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="3"/>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="M13" s="59">
-        <f t="shared" si="4"/>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="N13" s="59"/>
+      <c r="N13" t="s">
+        <v>231</v>
+      </c>
+      <c r="O13" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -9674,23 +9611,18 @@
       <c r="D14" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="H14">
-        <f>3*7</f>
-        <v>21</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>75600</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
-        <v>0.875</v>
-      </c>
-      <c r="M14" s="59">
-        <f t="shared" si="4"/>
-        <v>0.875</v>
-      </c>
-      <c r="N14" s="59"/>
+      <c r="M14" s="27">
+        <f>SUM(L15:L24)</f>
+        <v>28710</v>
+      </c>
+      <c r="N14">
+        <f>M14/60</f>
+        <v>478.5</v>
+      </c>
+      <c r="O14">
+        <f>N14/24</f>
+        <v>19.9375</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -9707,20 +9639,12 @@
       <c r="D15" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>28800</v>
+      <c r="I15">
+        <v>3</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M15" s="59">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <f>K15*I15</f>
+        <v>0</v>
       </c>
       <c r="N15" s="59"/>
     </row>
@@ -9739,16 +9663,11 @@
       <c r="D16" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="I16">
+        <v>5</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="59">
-        <f t="shared" si="4"/>
+        <f>K16*I16</f>
         <v>0</v>
       </c>
     </row>
@@ -9767,17 +9686,15 @@
       <c r="D17" s="76" t="s">
         <v>200</v>
       </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
       <c r="K17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="59">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>K17*I17</f>
+        <v>1890</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -9795,17 +9712,15 @@
       <c r="D18" s="76" t="s">
         <v>201</v>
       </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
       <c r="K18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="59">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="L18:L24" si="3">K18*I18</f>
+        <v>2280</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -9823,17 +9738,15 @@
       <c r="D19" s="76" t="s">
         <v>202</v>
       </c>
+      <c r="I19">
+        <v>30</v>
+      </c>
       <c r="K19">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="59">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -9851,17 +9764,24 @@
       <c r="D20" s="76" t="s">
         <v>203</v>
       </c>
+      <c r="G20">
+        <f>24*60*60</f>
+        <v>86400</v>
+      </c>
+      <c r="H20">
+        <f>60*60</f>
+        <v>3600</v>
+      </c>
+      <c r="I20">
+        <f>60</f>
+        <v>60</v>
+      </c>
       <c r="K20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="59">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -9876,17 +9796,19 @@
       <c r="D21" s="76" t="s">
         <v>204</v>
       </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <f>3*60</f>
+        <v>180</v>
+      </c>
       <c r="K21">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="59">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -9894,27 +9816,29 @@
         <v>118020</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B27" si="5">A22/1440/60</f>
+        <f t="shared" ref="B22:B27" si="4">A22/1440/60</f>
         <v>1.3659722222222221</v>
       </c>
       <c r="C22" s="56">
-        <f t="shared" ref="C22:C27" si="6">A22/1440/60</f>
+        <f t="shared" ref="C22:C27" si="5">A22/1440/60</f>
         <v>1.3659722222222221</v>
       </c>
       <c r="D22" s="76" t="s">
         <v>205</v>
       </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <f>H22*60</f>
+        <v>480</v>
+      </c>
       <c r="K22">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="59">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -9922,27 +9846,29 @@
         <v>353940</v>
       </c>
       <c r="B23">
+        <f t="shared" si="4"/>
+        <v>4.0965277777777773</v>
+      </c>
+      <c r="C23" s="56">
         <f t="shared" si="5"/>
         <v>4.0965277777777773</v>
       </c>
-      <c r="C23" s="56">
-        <f t="shared" si="6"/>
-        <v>4.0965277777777773</v>
-      </c>
       <c r="D23" s="76" t="s">
         <v>206</v>
       </c>
+      <c r="H23">
+        <v>15</v>
+      </c>
+      <c r="I23">
+        <f>H23*60</f>
+        <v>900</v>
+      </c>
       <c r="K23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="59">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -9950,65 +9876,39 @@
         <v>1061700</v>
       </c>
       <c r="B24">
+        <f t="shared" si="4"/>
+        <v>12.288194444444445</v>
+      </c>
+      <c r="C24" s="56">
         <f t="shared" si="5"/>
         <v>12.288194444444445</v>
       </c>
-      <c r="C24" s="56">
-        <f t="shared" si="6"/>
-        <v>12.288194444444445</v>
-      </c>
       <c r="D24" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="I24">
+        <f>30*42</f>
+        <v>1260</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M24" s="59">
-        <v>17.389583333333334</v>
-      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3185100</v>
       </c>
       <c r="B25">
+        <f t="shared" si="4"/>
+        <v>36.864583333333336</v>
+      </c>
+      <c r="C25" s="56">
         <f t="shared" si="5"/>
         <v>36.864583333333336</v>
       </c>
-      <c r="C25" s="56">
-        <f t="shared" si="6"/>
-        <v>36.864583333333336</v>
-      </c>
       <c r="D25" s="76" t="s">
         <v>208</v>
-      </c>
-      <c r="G25">
-        <v>20</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>21</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>1747260</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="3"/>
-        <v>20.222916666666666</v>
-      </c>
-      <c r="M25" s="59">
-        <v>20.222916666666666</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -10016,38 +9916,15 @@
         <v>7962720</v>
       </c>
       <c r="B26">
+        <f t="shared" si="4"/>
+        <v>92.161111111111111</v>
+      </c>
+      <c r="C26" s="56">
         <f t="shared" si="5"/>
         <v>92.161111111111111</v>
       </c>
-      <c r="C26" s="56">
-        <f t="shared" si="6"/>
-        <v>92.161111111111111</v>
-      </c>
       <c r="D26" s="76" t="s">
         <v>209</v>
-      </c>
-      <c r="G26">
-        <v>24</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>35</v>
-      </c>
-      <c r="J26">
-        <v>48</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>2086548</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="3"/>
-        <v>24.149861111111111</v>
-      </c>
-      <c r="M26" s="59">
-        <v>24.149861111111111</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -10055,102 +9932,24 @@
         <v>12757440</v>
       </c>
       <c r="B27">
+        <f t="shared" si="4"/>
+        <v>147.65555555555557</v>
+      </c>
+      <c r="C27" s="61">
         <f t="shared" si="5"/>
         <v>147.65555555555557</v>
       </c>
-      <c r="C27" s="61">
-        <f t="shared" si="6"/>
-        <v>147.65555555555557</v>
-      </c>
       <c r="D27" s="76" t="s">
         <v>210</v>
-      </c>
-      <c r="G27">
-        <v>52</v>
-      </c>
-      <c r="H27">
-        <v>16</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
-        <v>4550640</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="3"/>
-        <v>52.669444444444444</v>
-      </c>
-      <c r="M27" s="59">
-        <v>52.669444444444444</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D28" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="G28">
-        <v>156</v>
-      </c>
-      <c r="H28">
-        <v>20</v>
-      </c>
-      <c r="I28">
-        <v>15</v>
-      </c>
-      <c r="J28">
-        <v>30</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
-        <v>13551330</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="3"/>
-        <v>156.84409722222225</v>
-      </c>
-      <c r="M28" s="59">
-        <v>156.84409722222225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K29">
-        <f t="shared" ref="K29:K39" si="7">G29*$G$8+H29*$H$8+I29*$I$8+J29</f>
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <f t="shared" ref="L29" si="8">K29/1440/60</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="59">
-        <v>156.84409722222225</v>
-      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H30" s="77">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>6</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="7"/>
-        <v>360</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ref="L30" si="9">K30/1440/60</f>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="M30" s="59">
-        <v>4.1666666666666666E-3</v>
-      </c>
+      <c r="H30" s="77"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H31" s="77">
@@ -10163,11 +9962,11 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K29:K39" si="6">G31*$G$8+H31*$H$8+I31*$I$8+J31</f>
         <v>1440</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31" si="10">K31/1440/60</f>
+        <f t="shared" ref="L31" si="7">K31/1440/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="M31" s="59">
@@ -10185,11 +9984,11 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5760</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32" si="11">K32/1440/60</f>
+        <f t="shared" ref="L32" si="8">K32/1440/60</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="M32" s="59">
@@ -10207,11 +10006,11 @@
         <v>36</v>
       </c>
       <c r="K33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20736</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L33" si="12">K33/1440/60</f>
+        <f t="shared" ref="L33" si="9">K33/1440/60</f>
         <v>0.24000000000000002</v>
       </c>
       <c r="M33" s="59">
@@ -10229,11 +10028,11 @@
         <v>55</v>
       </c>
       <c r="K34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26455</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34" si="13">K34/1440/60</f>
+        <f t="shared" ref="L34" si="10">K34/1440/60</f>
         <v>0.30619212962962966</v>
       </c>
       <c r="M34" s="59">
@@ -10251,11 +10050,11 @@
         <v>5</v>
       </c>
       <c r="K35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>34985</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35" si="14">K35/1440/60</f>
+        <f t="shared" ref="L35" si="11">K35/1440/60</f>
         <v>0.40491898148148148</v>
       </c>
       <c r="M35" s="59">
@@ -10273,11 +10072,11 @@
         <v>8</v>
       </c>
       <c r="K36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>46268</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36" si="15">K36/1440/60</f>
+        <f t="shared" ref="L36" si="12">K36/1440/60</f>
         <v>0.53550925925925918</v>
       </c>
       <c r="M36" s="59">
@@ -10286,7 +10085,7 @@
     </row>
     <row r="37" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G37" s="77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H37">
         <v>22</v>
@@ -10298,11 +10097,11 @@
         <v>19</v>
       </c>
       <c r="K37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>168319</v>
       </c>
       <c r="L37">
-        <f t="shared" ref="L37" si="16">K37/1440/60</f>
+        <f t="shared" ref="L37" si="13">K37/1440/60</f>
         <v>1.9481365740740741</v>
       </c>
       <c r="M37" s="59">
@@ -10311,7 +10110,7 @@
     </row>
     <row r="38" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G38" s="77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H38">
         <v>7</v>
@@ -10323,11 +10122,11 @@
         <v>11</v>
       </c>
       <c r="K38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>545351</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38" si="17">K38/1440/60</f>
+        <f t="shared" ref="L38" si="14">K38/1440/60</f>
         <v>6.3119328703703701</v>
       </c>
       <c r="M38" s="59">
@@ -10336,7 +10135,7 @@
     </row>
     <row r="39" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G39" s="77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -10348,11 +10147,11 @@
         <v>8</v>
       </c>
       <c r="K39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1908728</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39" si="18">K39/1440/60</f>
+        <f t="shared" ref="L39" si="15">K39/1440/60</f>
         <v>22.091759259259259</v>
       </c>
       <c r="M39" s="59">
@@ -10361,17 +10160,17 @@
     </row>
     <row r="40" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K40">
-        <f t="shared" ref="K40:K50" si="19">G40*$G$8+H40*$H$8+I40*$I$8+J40</f>
+        <f t="shared" ref="K40:K50" si="16">G40*$G$8+H40*$H$8+I40*$I$8+J40</f>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" ref="L40" si="20">K40/1440/60</f>
+        <f t="shared" ref="L40" si="17">K40/1440/60</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H41" s="80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I41">
         <v>3</v>
@@ -10380,11 +10179,11 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>180</v>
       </c>
       <c r="L41">
-        <f t="shared" ref="L41" si="21">K41/1440/60</f>
+        <f t="shared" ref="L41" si="18">K41/1440/60</f>
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="M41" s="59">
@@ -10394,7 +10193,7 @@
     </row>
     <row r="42" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H42" s="80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I42">
         <v>12</v>
@@ -10403,21 +10202,21 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>720</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42" si="22">K42/1440/60</f>
+        <f t="shared" ref="L42" si="19">K42/1440/60</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="M42" s="59">
-        <f t="shared" ref="M42:M105" si="23">L42</f>
+        <f t="shared" ref="M42:M105" si="20">L42</f>
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="43" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H43" s="80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I43">
         <v>48</v>
@@ -10426,21 +10225,21 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2880</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43" si="24">K43/1440/60</f>
+        <f t="shared" ref="L43" si="21">K43/1440/60</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="M43" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="44" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H44" s="80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I44">
         <v>52</v>
@@ -10449,21 +10248,21 @@
         <v>48</v>
       </c>
       <c r="K44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>10368</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44" si="25">K44/1440/60</f>
+        <f t="shared" ref="L44" si="22">K44/1440/60</f>
         <v>0.12000000000000001</v>
       </c>
       <c r="M44" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.12000000000000001</v>
       </c>
     </row>
     <row r="45" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H45" s="80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I45">
         <v>40</v>
@@ -10472,21 +10271,21 @@
         <v>28</v>
       </c>
       <c r="K45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>13228</v>
       </c>
       <c r="L45">
-        <f t="shared" ref="L45" si="26">K45/1440/60</f>
+        <f t="shared" ref="L45" si="23">K45/1440/60</f>
         <v>0.15310185185185185</v>
       </c>
       <c r="M45" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.15310185185185185</v>
       </c>
     </row>
     <row r="46" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H46" s="80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I46">
         <v>51</v>
@@ -10495,21 +10294,21 @@
         <v>33</v>
       </c>
       <c r="K46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>17493</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46" si="27">K46/1440/60</f>
+        <f t="shared" ref="L46" si="24">K46/1440/60</f>
         <v>0.20246527777777779</v>
       </c>
       <c r="M46" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.20246527777777779</v>
       </c>
     </row>
     <row r="47" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H47" s="80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I47">
         <v>25</v>
@@ -10518,15 +10317,15 @@
         <v>34</v>
       </c>
       <c r="K47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>23134</v>
       </c>
       <c r="L47">
-        <f t="shared" ref="L47" si="28">K47/1440/60</f>
+        <f t="shared" ref="L47" si="25">K47/1440/60</f>
         <v>0.26775462962962959</v>
       </c>
       <c r="M47" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.26775462962962959</v>
       </c>
     </row>
@@ -10544,15 +10343,15 @@
         <v>10</v>
       </c>
       <c r="K48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>127390</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48" si="29">K48/1440/60</f>
+        <f t="shared" ref="L48" si="26">K48/1440/60</f>
         <v>1.4744212962962961</v>
       </c>
       <c r="M48" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.4744212962962961</v>
       </c>
     </row>
@@ -10570,15 +10369,15 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>271800</v>
       </c>
       <c r="L49">
-        <f t="shared" ref="L49" si="30">K49/1440/60</f>
+        <f t="shared" ref="L49" si="27">K49/1440/60</f>
         <v>3.1458333333333335</v>
       </c>
       <c r="M49" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>3.1458333333333335</v>
       </c>
     </row>
@@ -10596,29 +10395,29 @@
         <v>8</v>
       </c>
       <c r="K50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>954368</v>
       </c>
       <c r="L50">
-        <f t="shared" ref="L50" si="31">K50/1440/60</f>
+        <f t="shared" ref="L50" si="28">K50/1440/60</f>
         <v>11.045925925925927</v>
       </c>
       <c r="M50" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>11.045925925925927</v>
       </c>
     </row>
     <row r="51" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K51">
-        <f t="shared" ref="K51:K61" si="32">G51*$G$8+H51*$H$8+I51*$I$8+J51</f>
+        <f t="shared" ref="K51:K61" si="29">G51*$G$8+H51*$H$8+I51*$I$8+J51</f>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" ref="L51" si="33">K51/1440/60</f>
+        <f t="shared" ref="L51" si="30">K51/1440/60</f>
         <v>0</v>
       </c>
       <c r="M51" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -10633,15 +10432,15 @@
         <v>30</v>
       </c>
       <c r="K52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>270</v>
       </c>
       <c r="L52">
-        <f t="shared" ref="L52" si="34">K52/1440/60</f>
+        <f t="shared" ref="L52" si="31">K52/1440/60</f>
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="M52" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>3.1250000000000002E-3</v>
       </c>
     </row>
@@ -10656,15 +10455,15 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>1080</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53" si="35">K53/1440/60</f>
+        <f t="shared" ref="L53" si="32">K53/1440/60</f>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="M53" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
@@ -10679,15 +10478,15 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>4320</v>
       </c>
       <c r="L54">
-        <f t="shared" ref="L54" si="36">K54/1440/60</f>
+        <f t="shared" ref="L54" si="33">K54/1440/60</f>
         <v>0.05</v>
       </c>
       <c r="M54" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.05</v>
       </c>
     </row>
@@ -10702,15 +10501,15 @@
         <v>12</v>
       </c>
       <c r="K55">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>15552</v>
       </c>
       <c r="L55">
-        <f t="shared" ref="L55" si="37">K55/1440/60</f>
+        <f t="shared" ref="L55" si="34">K55/1440/60</f>
         <v>0.18000000000000002</v>
       </c>
       <c r="M55" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.18000000000000002</v>
       </c>
     </row>
@@ -10725,15 +10524,15 @@
         <v>41</v>
       </c>
       <c r="K56">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>19841</v>
       </c>
       <c r="L56">
-        <f t="shared" ref="L56" si="38">K56/1440/60</f>
+        <f t="shared" ref="L56" si="35">K56/1440/60</f>
         <v>0.22964120370370369</v>
       </c>
       <c r="M56" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.22964120370370369</v>
       </c>
     </row>
@@ -10748,15 +10547,15 @@
         <v>19</v>
       </c>
       <c r="K57">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>26239</v>
       </c>
       <c r="L57">
-        <f t="shared" ref="L57" si="39">K57/1440/60</f>
+        <f t="shared" ref="L57" si="36">K57/1440/60</f>
         <v>0.3036921296296296</v>
       </c>
       <c r="M57" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.3036921296296296</v>
       </c>
     </row>
@@ -10771,21 +10570,21 @@
         <v>21</v>
       </c>
       <c r="K58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>34701</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58" si="40">K58/1440/60</f>
+        <f t="shared" ref="L58" si="37">K58/1440/60</f>
         <v>0.40163194444444444</v>
       </c>
       <c r="M58" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.40163194444444444</v>
       </c>
     </row>
     <row r="59" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G59" s="76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H59">
         <v>22</v>
@@ -10797,21 +10596,21 @@
         <v>19</v>
       </c>
       <c r="K59">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>168319</v>
       </c>
       <c r="L59">
-        <f t="shared" ref="L59" si="41">K59/1440/60</f>
+        <f t="shared" ref="L59" si="38">K59/1440/60</f>
         <v>1.9481365740740741</v>
       </c>
       <c r="M59" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.9481365740740741</v>
       </c>
     </row>
     <row r="60" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G60" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H60">
         <v>7</v>
@@ -10823,21 +10622,21 @@
         <v>11</v>
       </c>
       <c r="K60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>545351</v>
       </c>
       <c r="L60">
-        <f t="shared" ref="L60" si="42">K60/1440/60</f>
+        <f t="shared" ref="L60" si="39">K60/1440/60</f>
         <v>6.3119328703703701</v>
       </c>
       <c r="M60" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>6.3119328703703701</v>
       </c>
     </row>
     <row r="61" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G61" s="76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -10849,35 +10648,35 @@
         <v>8</v>
       </c>
       <c r="K61">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>1649528</v>
       </c>
       <c r="L61">
-        <f t="shared" ref="L61:L105" si="43">K61/1440/60</f>
+        <f t="shared" ref="L61:L105" si="40">K61/1440/60</f>
         <v>19.091759259259259</v>
       </c>
       <c r="M61" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>19.091759259259259</v>
       </c>
     </row>
     <row r="62" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K62">
-        <f t="shared" ref="K62:K72" si="44">G62*$G$8+H62*$H$8+I62*$I$8+J62</f>
+        <f t="shared" ref="K62:K72" si="41">G62*$G$8+H62*$H$8+I62*$I$8+J62</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M62" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H63" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I63">
         <v>13</v>
@@ -10886,21 +10685,21 @@
         <v>30</v>
       </c>
       <c r="K63">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>810</v>
       </c>
       <c r="L63">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>9.3749999999999997E-3</v>
       </c>
       <c r="M63" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>9.3749999999999997E-3</v>
       </c>
     </row>
     <row r="64" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H64" s="76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I64">
         <v>54</v>
@@ -10909,21 +10708,21 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>3240</v>
       </c>
       <c r="L64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="M64" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H65" s="76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I65">
         <v>36</v>
@@ -10932,21 +10731,21 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>12960</v>
       </c>
       <c r="L65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.15</v>
       </c>
       <c r="M65" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="66" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H66" s="76" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I66">
         <v>57</v>
@@ -10955,21 +10754,21 @@
         <v>36</v>
       </c>
       <c r="K66">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>46656</v>
       </c>
       <c r="L66">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.53999999999999992</v>
       </c>
       <c r="M66" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.53999999999999992</v>
       </c>
     </row>
     <row r="67" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H67" s="76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I67">
         <v>32</v>
@@ -10978,21 +10777,21 @@
         <v>4</v>
       </c>
       <c r="K67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>59524</v>
       </c>
       <c r="L67">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.68893518518518515</v>
       </c>
       <c r="M67" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.68893518518518515</v>
       </c>
     </row>
     <row r="68" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H68" s="76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I68">
         <v>51</v>
@@ -11001,15 +10800,15 @@
         <v>56</v>
       </c>
       <c r="K68">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>78716</v>
       </c>
       <c r="L68">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.91106481481481483</v>
       </c>
       <c r="M68" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.91106481481481483</v>
       </c>
     </row>
@@ -11027,15 +10826,15 @@
         <v>3</v>
       </c>
       <c r="K69">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>104103</v>
       </c>
       <c r="L69">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.2048958333333333</v>
       </c>
       <c r="M69" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.2048958333333333</v>
       </c>
     </row>
@@ -11053,15 +10852,15 @@
         <v>19</v>
       </c>
       <c r="K70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>305119</v>
       </c>
       <c r="L70">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>3.5314699074074074</v>
       </c>
       <c r="M70" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>3.5314699074074074</v>
       </c>
     </row>
@@ -11079,15 +10878,15 @@
         <v>20</v>
       </c>
       <c r="K71">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>1445360</v>
       </c>
       <c r="L71">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>16.728703703703705</v>
       </c>
       <c r="M71" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>16.728703703703705</v>
       </c>
     </row>
@@ -11105,29 +10904,29 @@
         <v>8</v>
       </c>
       <c r="K72">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>3463928</v>
       </c>
       <c r="L72">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>40.091759259259256</v>
       </c>
       <c r="M72" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>40.091759259259256</v>
       </c>
     </row>
     <row r="73" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K73">
-        <f t="shared" ref="K73:K83" si="45">G73*$G$8+H73*$H$8+I73*$I$8+J73</f>
+        <f t="shared" ref="K73:K83" si="42">G73*$G$8+H73*$H$8+I73*$I$8+J73</f>
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M73" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -11142,15 +10941,15 @@
         <v>45</v>
       </c>
       <c r="K74">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>405</v>
       </c>
       <c r="L74">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>4.6874999999999998E-3</v>
       </c>
       <c r="M74" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>4.6874999999999998E-3</v>
       </c>
     </row>
@@ -11165,15 +10964,15 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>1620</v>
       </c>
       <c r="L75">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="M75" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
@@ -11188,15 +10987,15 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>6480</v>
       </c>
       <c r="L76">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="M76" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -11211,15 +11010,15 @@
         <v>48</v>
       </c>
       <c r="K77">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>23328</v>
       </c>
       <c r="L77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.26999999999999996</v>
       </c>
       <c r="M77" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.26999999999999996</v>
       </c>
     </row>
@@ -11234,15 +11033,15 @@
         <v>2</v>
       </c>
       <c r="K78">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>29762</v>
       </c>
       <c r="L78">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.34446759259259258</v>
       </c>
       <c r="M78" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.34446759259259258</v>
       </c>
     </row>
@@ -11257,15 +11056,15 @@
         <v>58</v>
       </c>
       <c r="K79">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>39358</v>
       </c>
       <c r="L79">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.45553240740740741</v>
       </c>
       <c r="M79" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.45553240740740741</v>
       </c>
     </row>
@@ -11280,21 +11079,21 @@
         <v>3</v>
       </c>
       <c r="K80">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>63003</v>
       </c>
       <c r="L80">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.72920138888888886</v>
       </c>
       <c r="M80" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.72920138888888886</v>
       </c>
     </row>
     <row r="81" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G81" s="76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H81">
         <v>6</v>
@@ -11306,21 +11105,21 @@
         <v>19</v>
       </c>
       <c r="K81">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>110719</v>
       </c>
       <c r="L81">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.2814699074074076</v>
       </c>
       <c r="M81" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.2814699074074076</v>
       </c>
     </row>
     <row r="82" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G82" s="76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H82">
         <v>9</v>
@@ -11332,21 +11131,21 @@
         <v>20</v>
       </c>
       <c r="K82">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>724520</v>
       </c>
       <c r="L82">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>8.3856481481481477</v>
       </c>
       <c r="M82" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>8.3856481481481477</v>
       </c>
     </row>
     <row r="83" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G83" s="76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -11358,35 +11157,35 @@
         <v>4</v>
       </c>
       <c r="K83">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>1735924</v>
       </c>
       <c r="L83">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>20.091712962962962</v>
       </c>
       <c r="M83" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>20.091712962962962</v>
       </c>
     </row>
     <row r="84" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K84">
-        <f t="shared" ref="K84:K94" si="46">G84*$G$8+H84*$H$8+I84*$I$8+J84</f>
+        <f t="shared" ref="K84:K94" si="43">G84*$G$8+H84*$H$8+I84*$I$8+J84</f>
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M84" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H85" s="76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I85">
         <v>21</v>
@@ -11395,21 +11194,21 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>4860</v>
       </c>
       <c r="L85">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="M85" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="86" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H86" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I86">
         <v>24</v>
@@ -11418,21 +11217,21 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>19440</v>
       </c>
       <c r="L86">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="M86" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="87" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H87" s="76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I87">
         <v>36</v>
@@ -11441,15 +11240,15 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>77760</v>
       </c>
       <c r="L87">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.9</v>
       </c>
       <c r="M87" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.9</v>
       </c>
     </row>
@@ -11467,15 +11266,15 @@
         <v>36</v>
       </c>
       <c r="K88">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>107136</v>
       </c>
       <c r="L88">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.24</v>
       </c>
       <c r="M88" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.24</v>
       </c>
     </row>
@@ -11493,15 +11292,15 @@
         <v>11</v>
       </c>
       <c r="K89">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>210971</v>
       </c>
       <c r="L89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>2.4417939814814815</v>
       </c>
       <c r="M89" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>2.4417939814814815</v>
       </c>
     </row>
@@ -11519,15 +11318,15 @@
         <v>49</v>
       </c>
       <c r="K90">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>236149</v>
       </c>
       <c r="L90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>2.7332060185185183</v>
       </c>
       <c r="M90" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>2.7332060185185183</v>
       </c>
     </row>
@@ -11545,15 +11344,15 @@
         <v>3</v>
       </c>
       <c r="K91">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>399303</v>
       </c>
       <c r="L91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>4.6215624999999996</v>
       </c>
       <c r="M91" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>4.6215624999999996</v>
       </c>
     </row>
@@ -11571,15 +11370,15 @@
         <v>19</v>
       </c>
       <c r="K92">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>737119</v>
       </c>
       <c r="L92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>8.5314699074074074</v>
       </c>
       <c r="M92" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>8.5314699074074074</v>
       </c>
     </row>
@@ -11597,15 +11396,15 @@
         <v>20</v>
       </c>
       <c r="K93">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>1790960</v>
       </c>
       <c r="L93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>20.728703703703705</v>
       </c>
       <c r="M93" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>20.728703703703705</v>
       </c>
     </row>
@@ -11623,29 +11422,29 @@
         <v>8</v>
       </c>
       <c r="K94">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>5364728</v>
       </c>
       <c r="L94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>62.091759259259256</v>
       </c>
       <c r="M94" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>62.091759259259256</v>
       </c>
     </row>
     <row r="95" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K95">
-        <f t="shared" ref="K95:K105" si="47">G95*$G$8+H95*$H$8+I95*$I$8+J95</f>
+        <f t="shared" ref="K95:K105" si="44">G95*$G$8+H95*$H$8+I95*$I$8+J95</f>
         <v>0</v>
       </c>
       <c r="L95">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M95" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -11661,15 +11460,15 @@
         <v>30</v>
       </c>
       <c r="K96">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>2430</v>
       </c>
       <c r="L96">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>2.8125000000000001E-2</v>
       </c>
       <c r="M96" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>2.8125000000000001E-2</v>
       </c>
     </row>
@@ -11685,15 +11484,15 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>9720</v>
       </c>
       <c r="L97">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.1125</v>
       </c>
       <c r="M97" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.1125</v>
       </c>
     </row>
@@ -11709,15 +11508,15 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>38880</v>
       </c>
       <c r="L98">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.45</v>
       </c>
       <c r="M98" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.45</v>
       </c>
     </row>
@@ -11733,21 +11532,21 @@
         <v>48</v>
       </c>
       <c r="K99">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>53568</v>
       </c>
       <c r="L99">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>0.62</v>
       </c>
       <c r="M99" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0.62</v>
       </c>
     </row>
     <row r="100" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G100" s="76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -11759,21 +11558,21 @@
         <v>11</v>
       </c>
       <c r="K100">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>92171</v>
       </c>
       <c r="L100">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.0667939814814815</v>
       </c>
       <c r="M100" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.0667939814814815</v>
       </c>
     </row>
     <row r="101" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G101" s="76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H101">
         <v>17</v>
@@ -11785,21 +11584,21 @@
         <v>49</v>
       </c>
       <c r="K101">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>149749</v>
       </c>
       <c r="L101">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1.7332060185185185</v>
       </c>
       <c r="M101" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1.7332060185185185</v>
       </c>
     </row>
     <row r="102" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G102" s="76" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H102">
         <v>14</v>
@@ -11811,21 +11610,21 @@
         <v>3</v>
       </c>
       <c r="K102">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>226503</v>
       </c>
       <c r="L102">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>2.6215625</v>
       </c>
       <c r="M102" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>2.6215625</v>
       </c>
     </row>
     <row r="103" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G103" s="76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H103">
         <v>12</v>
@@ -11837,21 +11636,21 @@
         <v>19</v>
       </c>
       <c r="K103">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>564319</v>
       </c>
       <c r="L103">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>6.5314699074074074</v>
       </c>
       <c r="M103" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>6.5314699074074074</v>
       </c>
     </row>
     <row r="104" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G104" s="76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H104">
         <v>17</v>
@@ -11863,21 +11662,21 @@
         <v>20</v>
       </c>
       <c r="K104">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1618160</v>
       </c>
       <c r="L104">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>18.728703703703705</v>
       </c>
       <c r="M104" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>18.728703703703705</v>
       </c>
     </row>
     <row r="105" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G105" s="76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -11889,15 +11688,15 @@
         <v>8</v>
       </c>
       <c r="K105">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>5191928</v>
       </c>
       <c r="L105">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>60.091759259259256</v>
       </c>
       <c r="M105" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>60.091759259259256</v>
       </c>
     </row>

--- a/Xmind/Upgrade_Research/Infantry.xlsx
+++ b/Xmind/Upgrade_Research/Infantry.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
-    <sheet name="MainBase_Upgrade" sheetId="5" r:id="rId1"/>
-    <sheet name="Infantry_BộBinh" sheetId="1" r:id="rId2"/>
-    <sheet name="Convert Time" sheetId="4" r:id="rId3"/>
-    <sheet name="RSS_Research" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Upgrade_ID" sheetId="6" r:id="rId1"/>
+    <sheet name="MainBase_Upgrade" sheetId="5" r:id="rId2"/>
+    <sheet name="Infantry_BộBinh" sheetId="1" r:id="rId3"/>
+    <sheet name="Convert Time" sheetId="4" r:id="rId4"/>
+    <sheet name="RSS_Research" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="275">
   <si>
     <t>Level</t>
   </si>
@@ -729,6 +730,132 @@
   </si>
   <si>
     <t>mins</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name_Upgrade</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Farm Gathering</t>
+  </si>
+  <si>
+    <t>Wood Gathering</t>
+  </si>
+  <si>
+    <t>Stone Gathering</t>
+  </si>
+  <si>
+    <t>Metal Gathering</t>
+  </si>
+  <si>
+    <t>Main Base</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Tranined Solider</t>
+  </si>
+  <si>
+    <t>Ranged</t>
+  </si>
+  <si>
+    <t>Slingshot</t>
+  </si>
+  <si>
+    <t>Sharpshooter</t>
+  </si>
+  <si>
+    <t>Crossbow</t>
+  </si>
+  <si>
+    <t>Bomber</t>
+  </si>
+  <si>
+    <t>Buffaloman</t>
+  </si>
+  <si>
+    <t>Mounted</t>
+  </si>
+  <si>
+    <t>Horseman</t>
+  </si>
+  <si>
+    <t>War Elephant</t>
+  </si>
+  <si>
+    <t>War Stormer</t>
+  </si>
+  <si>
+    <t>Siege Engine</t>
+  </si>
+  <si>
+    <t>Ballista</t>
+  </si>
+  <si>
+    <t>Javalin Ballista</t>
+  </si>
+  <si>
+    <t>Stone Thrower</t>
+  </si>
+  <si>
+    <t>War Destroyer</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Market Time</t>
+  </si>
+  <si>
+    <t>Market Cost</t>
+  </si>
+  <si>
+    <t>Market Transport</t>
+  </si>
+  <si>
+    <t>Market Quality</t>
+  </si>
+  <si>
+    <t>Phố Hiến's Ship</t>
+  </si>
+  <si>
+    <t>Refresh Time</t>
+  </si>
+  <si>
+    <t>Special Trade</t>
+  </si>
+  <si>
+    <t>Embassy</t>
+  </si>
+  <si>
+    <t>Infirmary</t>
+  </si>
+  <si>
+    <t>Shelter</t>
+  </si>
+  <si>
+    <t>Arrow Tower</t>
+  </si>
+  <si>
+    <t>Base Wall</t>
+  </si>
+  <si>
+    <t>Farm Harvesting</t>
+  </si>
+  <si>
+    <t>Wood Harvesting</t>
+  </si>
+  <si>
+    <t>Stone Harvesting</t>
+  </si>
+  <si>
+    <t>Metal Harvesting</t>
   </si>
 </sst>
 </file>
@@ -1100,15 +1227,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1129,6 +1247,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1417,6 +1544,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2075,7 +2748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ97"/>
   <sheetViews>
@@ -2111,23 +2784,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-      <c r="K1" s="91" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="K1" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
@@ -3198,213 +3871,213 @@
       <c r="AP33" s="38"/>
     </row>
     <row r="34" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="85" t="s">
+      <c r="E34" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="85" t="s">
+      <c r="F34" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="85" t="s">
+      <c r="G34" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="85" t="s">
+      <c r="H34" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="82" t="s">
+      <c r="I34" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="J34" s="86" t="s">
+      <c r="J34" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="85" t="s">
+      <c r="L34" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="M34" s="85" t="s">
+      <c r="M34" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N34" s="85" t="s">
+      <c r="N34" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="O34" s="85" t="s">
+      <c r="O34" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P34" s="85" t="s">
+      <c r="P34" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q34" s="85" t="s">
+      <c r="Q34" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R34" s="85" t="s">
+      <c r="R34" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="S34" s="85" t="s">
+      <c r="S34" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="T34" s="82" t="s">
+      <c r="T34" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="U34" s="86" t="s">
+      <c r="U34" s="83" t="s">
         <v>6</v>
       </c>
       <c r="V34" s="24"/>
-      <c r="W34" s="85" t="s">
+      <c r="W34" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="X34" s="85" t="s">
+      <c r="X34" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="Y34" s="85" t="s">
+      <c r="Y34" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z34" s="85" t="s">
+      <c r="Z34" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AA34" s="85" t="s">
+      <c r="AA34" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB34" s="85" t="s">
+      <c r="AB34" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AC34" s="85" t="s">
+      <c r="AC34" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AD34" s="85" t="s">
+      <c r="AD34" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AE34" s="82" t="s">
+      <c r="AE34" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AF34" s="86" t="s">
+      <c r="AF34" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AH34" s="85" t="s">
+      <c r="AH34" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AI34" s="85" t="s">
+      <c r="AI34" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AJ34" s="85" t="s">
+      <c r="AJ34" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AK34" s="85" t="s">
+      <c r="AK34" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AL34" s="85" t="s">
+      <c r="AL34" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AM34" s="85" t="s">
+      <c r="AM34" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AN34" s="85" t="s">
+      <c r="AN34" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AO34" s="85" t="s">
+      <c r="AO34" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AP34" s="82" t="s">
+      <c r="AP34" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AQ34" s="86" t="s">
+      <c r="AQ34" s="83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="86"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="86"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="83"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="83"/>
       <c r="V35" s="24"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
-      <c r="Y35" s="85"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="85"/>
-      <c r="AC35" s="85"/>
-      <c r="AD35" s="85"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="86"/>
-      <c r="AH35" s="85"/>
-      <c r="AI35" s="85"/>
-      <c r="AJ35" s="85"/>
-      <c r="AK35" s="85"/>
-      <c r="AL35" s="85"/>
-      <c r="AM35" s="85"/>
-      <c r="AN35" s="85"/>
-      <c r="AO35" s="85"/>
-      <c r="AP35" s="83"/>
-      <c r="AQ35" s="86"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="90"/>
+      <c r="AF35" s="83"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="82"/>
+      <c r="AJ35" s="82"/>
+      <c r="AK35" s="82"/>
+      <c r="AL35" s="82"/>
+      <c r="AM35" s="82"/>
+      <c r="AN35" s="82"/>
+      <c r="AO35" s="82"/>
+      <c r="AP35" s="90"/>
+      <c r="AQ35" s="83"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="86"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="86"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="83"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="83"/>
       <c r="V36" s="24"/>
-      <c r="W36" s="85"/>
-      <c r="X36" s="85"/>
-      <c r="Y36" s="85"/>
-      <c r="Z36" s="85"/>
-      <c r="AA36" s="85"/>
-      <c r="AB36" s="85"/>
-      <c r="AC36" s="85"/>
-      <c r="AD36" s="85"/>
-      <c r="AE36" s="84"/>
-      <c r="AF36" s="86"/>
-      <c r="AH36" s="85"/>
-      <c r="AI36" s="85"/>
-      <c r="AJ36" s="85"/>
-      <c r="AK36" s="85"/>
-      <c r="AL36" s="85"/>
-      <c r="AM36" s="85"/>
-      <c r="AN36" s="85"/>
-      <c r="AO36" s="85"/>
-      <c r="AP36" s="84"/>
-      <c r="AQ36" s="86"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="82"/>
+      <c r="AA36" s="82"/>
+      <c r="AB36" s="82"/>
+      <c r="AC36" s="82"/>
+      <c r="AD36" s="82"/>
+      <c r="AE36" s="91"/>
+      <c r="AF36" s="83"/>
+      <c r="AH36" s="82"/>
+      <c r="AI36" s="82"/>
+      <c r="AJ36" s="82"/>
+      <c r="AK36" s="82"/>
+      <c r="AL36" s="82"/>
+      <c r="AM36" s="82"/>
+      <c r="AN36" s="82"/>
+      <c r="AO36" s="82"/>
+      <c r="AP36" s="91"/>
+      <c r="AQ36" s="83"/>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -4730,213 +5403,213 @@
       <c r="AP50" s="38"/>
     </row>
     <row r="51" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="85" t="s">
+      <c r="D51" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="85" t="s">
+      <c r="E51" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="85" t="s">
+      <c r="F51" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="85" t="s">
+      <c r="G51" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H51" s="85" t="s">
+      <c r="H51" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I51" s="82" t="s">
+      <c r="I51" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="J51" s="86" t="s">
+      <c r="J51" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="L51" s="85" t="s">
+      <c r="L51" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="M51" s="85" t="s">
+      <c r="M51" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N51" s="85" t="s">
+      <c r="N51" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="85" t="s">
+      <c r="O51" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P51" s="85" t="s">
+      <c r="P51" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q51" s="85" t="s">
+      <c r="Q51" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="85" t="s">
+      <c r="R51" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="S51" s="85" t="s">
+      <c r="S51" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="T51" s="82" t="s">
+      <c r="T51" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="U51" s="86" t="s">
+      <c r="U51" s="83" t="s">
         <v>6</v>
       </c>
       <c r="V51" s="24"/>
-      <c r="W51" s="85" t="s">
+      <c r="W51" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="X51" s="85" t="s">
+      <c r="X51" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="Y51" s="85" t="s">
+      <c r="Y51" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z51" s="85" t="s">
+      <c r="Z51" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AA51" s="85" t="s">
+      <c r="AA51" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB51" s="85" t="s">
+      <c r="AB51" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AC51" s="85" t="s">
+      <c r="AC51" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AD51" s="85" t="s">
+      <c r="AD51" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AE51" s="82" t="s">
+      <c r="AE51" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AF51" s="86" t="s">
+      <c r="AF51" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AH51" s="85" t="s">
+      <c r="AH51" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AI51" s="85" t="s">
+      <c r="AI51" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AJ51" s="85" t="s">
+      <c r="AJ51" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AK51" s="85" t="s">
+      <c r="AK51" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AL51" s="85" t="s">
+      <c r="AL51" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AM51" s="85" t="s">
+      <c r="AM51" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AN51" s="85" t="s">
+      <c r="AN51" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AO51" s="85" t="s">
+      <c r="AO51" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AP51" s="82" t="s">
+      <c r="AP51" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AQ51" s="86" t="s">
+      <c r="AQ51" s="83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="85"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="86"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-      <c r="Q52" s="85"/>
-      <c r="R52" s="85"/>
-      <c r="S52" s="85"/>
-      <c r="T52" s="83"/>
-      <c r="U52" s="86"/>
+      <c r="A52" s="82"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="83"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="90"/>
+      <c r="U52" s="83"/>
       <c r="V52" s="24"/>
-      <c r="W52" s="85"/>
-      <c r="X52" s="85"/>
-      <c r="Y52" s="85"/>
-      <c r="Z52" s="85"/>
-      <c r="AA52" s="85"/>
-      <c r="AB52" s="85"/>
-      <c r="AC52" s="85"/>
-      <c r="AD52" s="85"/>
-      <c r="AE52" s="83"/>
-      <c r="AF52" s="86"/>
-      <c r="AH52" s="85"/>
-      <c r="AI52" s="85"/>
-      <c r="AJ52" s="85"/>
-      <c r="AK52" s="85"/>
-      <c r="AL52" s="85"/>
-      <c r="AM52" s="85"/>
-      <c r="AN52" s="85"/>
-      <c r="AO52" s="85"/>
-      <c r="AP52" s="83"/>
-      <c r="AQ52" s="86"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="82"/>
+      <c r="Y52" s="82"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="82"/>
+      <c r="AB52" s="82"/>
+      <c r="AC52" s="82"/>
+      <c r="AD52" s="82"/>
+      <c r="AE52" s="90"/>
+      <c r="AF52" s="83"/>
+      <c r="AH52" s="82"/>
+      <c r="AI52" s="82"/>
+      <c r="AJ52" s="82"/>
+      <c r="AK52" s="82"/>
+      <c r="AL52" s="82"/>
+      <c r="AM52" s="82"/>
+      <c r="AN52" s="82"/>
+      <c r="AO52" s="82"/>
+      <c r="AP52" s="90"/>
+      <c r="AQ52" s="83"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A53" s="85"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="86"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-      <c r="Q53" s="85"/>
-      <c r="R53" s="85"/>
-      <c r="S53" s="85"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="86"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="83"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="82"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="82"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="91"/>
+      <c r="U53" s="83"/>
       <c r="V53" s="24"/>
-      <c r="W53" s="85"/>
-      <c r="X53" s="85"/>
-      <c r="Y53" s="85"/>
-      <c r="Z53" s="85"/>
-      <c r="AA53" s="85"/>
-      <c r="AB53" s="85"/>
-      <c r="AC53" s="85"/>
-      <c r="AD53" s="85"/>
-      <c r="AE53" s="84"/>
-      <c r="AF53" s="86"/>
-      <c r="AH53" s="85"/>
-      <c r="AI53" s="85"/>
-      <c r="AJ53" s="85"/>
-      <c r="AK53" s="85"/>
-      <c r="AL53" s="85"/>
-      <c r="AM53" s="85"/>
-      <c r="AN53" s="85"/>
-      <c r="AO53" s="85"/>
-      <c r="AP53" s="84"/>
-      <c r="AQ53" s="86"/>
+      <c r="W53" s="82"/>
+      <c r="X53" s="82"/>
+      <c r="Y53" s="82"/>
+      <c r="Z53" s="82"/>
+      <c r="AA53" s="82"/>
+      <c r="AB53" s="82"/>
+      <c r="AC53" s="82"/>
+      <c r="AD53" s="82"/>
+      <c r="AE53" s="91"/>
+      <c r="AF53" s="83"/>
+      <c r="AH53" s="82"/>
+      <c r="AI53" s="82"/>
+      <c r="AJ53" s="82"/>
+      <c r="AK53" s="82"/>
+      <c r="AL53" s="82"/>
+      <c r="AM53" s="82"/>
+      <c r="AN53" s="82"/>
+      <c r="AO53" s="82"/>
+      <c r="AP53" s="91"/>
+      <c r="AQ53" s="83"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
@@ -6212,213 +6885,213 @@
       <c r="AP67" s="38"/>
     </row>
     <row r="68" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="85" t="s">
+      <c r="A68" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="87" t="s">
+      <c r="B68" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="85" t="s">
+      <c r="C68" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="85" t="s">
+      <c r="D68" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="85" t="s">
+      <c r="E68" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="85" t="s">
+      <c r="F68" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="85" t="s">
+      <c r="G68" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H68" s="85" t="s">
+      <c r="H68" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I68" s="82" t="s">
+      <c r="I68" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="J68" s="86" t="s">
+      <c r="J68" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="L68" s="85" t="s">
+      <c r="L68" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="M68" s="85" t="s">
+      <c r="M68" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N68" s="85" t="s">
+      <c r="N68" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="O68" s="85" t="s">
+      <c r="O68" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P68" s="85" t="s">
+      <c r="P68" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q68" s="85" t="s">
+      <c r="Q68" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R68" s="85" t="s">
+      <c r="R68" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="S68" s="85" t="s">
+      <c r="S68" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="T68" s="82" t="s">
+      <c r="T68" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="U68" s="86" t="s">
+      <c r="U68" s="83" t="s">
         <v>6</v>
       </c>
       <c r="V68" s="24"/>
-      <c r="W68" s="85" t="s">
+      <c r="W68" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="X68" s="85" t="s">
+      <c r="X68" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="Y68" s="85" t="s">
+      <c r="Y68" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z68" s="85" t="s">
+      <c r="Z68" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AA68" s="85" t="s">
+      <c r="AA68" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB68" s="85" t="s">
+      <c r="AB68" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AC68" s="85" t="s">
+      <c r="AC68" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AD68" s="85" t="s">
+      <c r="AD68" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AE68" s="82" t="s">
+      <c r="AE68" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AF68" s="86" t="s">
+      <c r="AF68" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AH68" s="85" t="s">
+      <c r="AH68" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AI68" s="85" t="s">
+      <c r="AI68" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AJ68" s="85" t="s">
+      <c r="AJ68" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AK68" s="85" t="s">
+      <c r="AK68" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AL68" s="85" t="s">
+      <c r="AL68" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AM68" s="85" t="s">
+      <c r="AM68" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AN68" s="85" t="s">
+      <c r="AN68" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AO68" s="85" t="s">
+      <c r="AO68" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AP68" s="82" t="s">
+      <c r="AP68" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AQ68" s="86" t="s">
+      <c r="AQ68" s="83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="86"/>
-      <c r="L69" s="85"/>
-      <c r="M69" s="85"/>
-      <c r="N69" s="85"/>
-      <c r="O69" s="85"/>
-      <c r="P69" s="85"/>
-      <c r="Q69" s="85"/>
-      <c r="R69" s="85"/>
-      <c r="S69" s="85"/>
-      <c r="T69" s="83"/>
-      <c r="U69" s="86"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="82"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="83"/>
+      <c r="L69" s="82"/>
+      <c r="M69" s="82"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="82"/>
+      <c r="P69" s="82"/>
+      <c r="Q69" s="82"/>
+      <c r="R69" s="82"/>
+      <c r="S69" s="82"/>
+      <c r="T69" s="90"/>
+      <c r="U69" s="83"/>
       <c r="V69" s="24"/>
-      <c r="W69" s="85"/>
-      <c r="X69" s="85"/>
-      <c r="Y69" s="85"/>
-      <c r="Z69" s="85"/>
-      <c r="AA69" s="85"/>
-      <c r="AB69" s="85"/>
-      <c r="AC69" s="85"/>
-      <c r="AD69" s="85"/>
-      <c r="AE69" s="83"/>
-      <c r="AF69" s="86"/>
-      <c r="AH69" s="85"/>
-      <c r="AI69" s="85"/>
-      <c r="AJ69" s="85"/>
-      <c r="AK69" s="85"/>
-      <c r="AL69" s="85"/>
-      <c r="AM69" s="85"/>
-      <c r="AN69" s="85"/>
-      <c r="AO69" s="85"/>
-      <c r="AP69" s="83"/>
-      <c r="AQ69" s="86"/>
+      <c r="W69" s="82"/>
+      <c r="X69" s="82"/>
+      <c r="Y69" s="82"/>
+      <c r="Z69" s="82"/>
+      <c r="AA69" s="82"/>
+      <c r="AB69" s="82"/>
+      <c r="AC69" s="82"/>
+      <c r="AD69" s="82"/>
+      <c r="AE69" s="90"/>
+      <c r="AF69" s="83"/>
+      <c r="AH69" s="82"/>
+      <c r="AI69" s="82"/>
+      <c r="AJ69" s="82"/>
+      <c r="AK69" s="82"/>
+      <c r="AL69" s="82"/>
+      <c r="AM69" s="82"/>
+      <c r="AN69" s="82"/>
+      <c r="AO69" s="82"/>
+      <c r="AP69" s="90"/>
+      <c r="AQ69" s="83"/>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
-      <c r="I70" s="84"/>
-      <c r="J70" s="86"/>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
-      <c r="N70" s="85"/>
-      <c r="O70" s="85"/>
-      <c r="P70" s="85"/>
-      <c r="Q70" s="85"/>
-      <c r="R70" s="85"/>
-      <c r="S70" s="85"/>
-      <c r="T70" s="84"/>
-      <c r="U70" s="86"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="82"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="83"/>
+      <c r="L70" s="82"/>
+      <c r="M70" s="82"/>
+      <c r="N70" s="82"/>
+      <c r="O70" s="82"/>
+      <c r="P70" s="82"/>
+      <c r="Q70" s="82"/>
+      <c r="R70" s="82"/>
+      <c r="S70" s="82"/>
+      <c r="T70" s="91"/>
+      <c r="U70" s="83"/>
       <c r="V70" s="24"/>
-      <c r="W70" s="85"/>
-      <c r="X70" s="85"/>
-      <c r="Y70" s="85"/>
-      <c r="Z70" s="85"/>
-      <c r="AA70" s="85"/>
-      <c r="AB70" s="85"/>
-      <c r="AC70" s="85"/>
-      <c r="AD70" s="85"/>
-      <c r="AE70" s="84"/>
-      <c r="AF70" s="86"/>
-      <c r="AH70" s="85"/>
-      <c r="AI70" s="85"/>
-      <c r="AJ70" s="85"/>
-      <c r="AK70" s="85"/>
-      <c r="AL70" s="85"/>
-      <c r="AM70" s="85"/>
-      <c r="AN70" s="85"/>
-      <c r="AO70" s="85"/>
-      <c r="AP70" s="84"/>
-      <c r="AQ70" s="86"/>
+      <c r="W70" s="82"/>
+      <c r="X70" s="82"/>
+      <c r="Y70" s="82"/>
+      <c r="Z70" s="82"/>
+      <c r="AA70" s="82"/>
+      <c r="AB70" s="82"/>
+      <c r="AC70" s="82"/>
+      <c r="AD70" s="82"/>
+      <c r="AE70" s="91"/>
+      <c r="AF70" s="83"/>
+      <c r="AH70" s="82"/>
+      <c r="AI70" s="82"/>
+      <c r="AJ70" s="82"/>
+      <c r="AK70" s="82"/>
+      <c r="AL70" s="82"/>
+      <c r="AM70" s="82"/>
+      <c r="AN70" s="82"/>
+      <c r="AO70" s="82"/>
+      <c r="AP70" s="91"/>
+      <c r="AQ70" s="83"/>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" s="20">
@@ -7696,213 +8369,213 @@
       <c r="AP84" s="38"/>
     </row>
     <row r="85" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="85" t="s">
+      <c r="A85" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="87" t="s">
+      <c r="B85" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="85" t="s">
+      <c r="C85" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="85" t="s">
+      <c r="D85" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E85" s="85" t="s">
+      <c r="E85" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="85" t="s">
+      <c r="F85" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="85" t="s">
+      <c r="G85" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H85" s="85" t="s">
+      <c r="H85" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="I85" s="82" t="s">
+      <c r="I85" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="J85" s="86" t="s">
+      <c r="J85" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="L85" s="85" t="s">
+      <c r="L85" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="M85" s="85" t="s">
+      <c r="M85" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N85" s="85" t="s">
+      <c r="N85" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="O85" s="85" t="s">
+      <c r="O85" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P85" s="85" t="s">
+      <c r="P85" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="Q85" s="85" t="s">
+      <c r="Q85" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R85" s="85" t="s">
+      <c r="R85" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="S85" s="85" t="s">
+      <c r="S85" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="T85" s="82" t="s">
+      <c r="T85" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="U85" s="86" t="s">
+      <c r="U85" s="83" t="s">
         <v>6</v>
       </c>
       <c r="V85" s="24"/>
-      <c r="W85" s="85" t="s">
+      <c r="W85" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="X85" s="85" t="s">
+      <c r="X85" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="Y85" s="85" t="s">
+      <c r="Y85" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z85" s="85" t="s">
+      <c r="Z85" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AA85" s="85" t="s">
+      <c r="AA85" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AB85" s="85" t="s">
+      <c r="AB85" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AC85" s="85" t="s">
+      <c r="AC85" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AD85" s="85" t="s">
+      <c r="AD85" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AE85" s="82" t="s">
+      <c r="AE85" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AF85" s="86" t="s">
+      <c r="AF85" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="AH85" s="85" t="s">
+      <c r="AH85" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="AI85" s="85" t="s">
+      <c r="AI85" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AJ85" s="85" t="s">
+      <c r="AJ85" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="AK85" s="85" t="s">
+      <c r="AK85" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AL85" s="85" t="s">
+      <c r="AL85" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AM85" s="85" t="s">
+      <c r="AM85" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AN85" s="85" t="s">
+      <c r="AN85" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="AO85" s="85" t="s">
+      <c r="AO85" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AP85" s="82" t="s">
+      <c r="AP85" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="AQ85" s="86" t="s">
+      <c r="AQ85" s="83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A86" s="85"/>
-      <c r="B86" s="87"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
-      <c r="I86" s="83"/>
-      <c r="J86" s="86"/>
-      <c r="L86" s="85"/>
-      <c r="M86" s="85"/>
-      <c r="N86" s="85"/>
-      <c r="O86" s="85"/>
-      <c r="P86" s="85"/>
-      <c r="Q86" s="85"/>
-      <c r="R86" s="85"/>
-      <c r="S86" s="85"/>
-      <c r="T86" s="83"/>
-      <c r="U86" s="86"/>
+      <c r="A86" s="82"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="82"/>
+      <c r="H86" s="82"/>
+      <c r="I86" s="90"/>
+      <c r="J86" s="83"/>
+      <c r="L86" s="82"/>
+      <c r="M86" s="82"/>
+      <c r="N86" s="82"/>
+      <c r="O86" s="82"/>
+      <c r="P86" s="82"/>
+      <c r="Q86" s="82"/>
+      <c r="R86" s="82"/>
+      <c r="S86" s="82"/>
+      <c r="T86" s="90"/>
+      <c r="U86" s="83"/>
       <c r="V86" s="24"/>
-      <c r="W86" s="85"/>
-      <c r="X86" s="85"/>
-      <c r="Y86" s="85"/>
-      <c r="Z86" s="85"/>
-      <c r="AA86" s="85"/>
-      <c r="AB86" s="85"/>
-      <c r="AC86" s="85"/>
-      <c r="AD86" s="85"/>
-      <c r="AE86" s="83"/>
-      <c r="AF86" s="86"/>
-      <c r="AH86" s="85"/>
-      <c r="AI86" s="85"/>
-      <c r="AJ86" s="85"/>
-      <c r="AK86" s="85"/>
-      <c r="AL86" s="85"/>
-      <c r="AM86" s="85"/>
-      <c r="AN86" s="85"/>
-      <c r="AO86" s="85"/>
-      <c r="AP86" s="83"/>
-      <c r="AQ86" s="86"/>
+      <c r="W86" s="82"/>
+      <c r="X86" s="82"/>
+      <c r="Y86" s="82"/>
+      <c r="Z86" s="82"/>
+      <c r="AA86" s="82"/>
+      <c r="AB86" s="82"/>
+      <c r="AC86" s="82"/>
+      <c r="AD86" s="82"/>
+      <c r="AE86" s="90"/>
+      <c r="AF86" s="83"/>
+      <c r="AH86" s="82"/>
+      <c r="AI86" s="82"/>
+      <c r="AJ86" s="82"/>
+      <c r="AK86" s="82"/>
+      <c r="AL86" s="82"/>
+      <c r="AM86" s="82"/>
+      <c r="AN86" s="82"/>
+      <c r="AO86" s="82"/>
+      <c r="AP86" s="90"/>
+      <c r="AQ86" s="83"/>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A87" s="85"/>
-      <c r="B87" s="87"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="84"/>
-      <c r="J87" s="86"/>
-      <c r="L87" s="85"/>
-      <c r="M87" s="85"/>
-      <c r="N87" s="85"/>
-      <c r="O87" s="85"/>
-      <c r="P87" s="85"/>
-      <c r="Q87" s="85"/>
-      <c r="R87" s="85"/>
-      <c r="S87" s="85"/>
-      <c r="T87" s="84"/>
-      <c r="U87" s="86"/>
+      <c r="A87" s="82"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="82"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="83"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="82"/>
+      <c r="O87" s="82"/>
+      <c r="P87" s="82"/>
+      <c r="Q87" s="82"/>
+      <c r="R87" s="82"/>
+      <c r="S87" s="82"/>
+      <c r="T87" s="91"/>
+      <c r="U87" s="83"/>
       <c r="V87" s="24"/>
-      <c r="W87" s="85"/>
-      <c r="X87" s="85"/>
-      <c r="Y87" s="85"/>
-      <c r="Z87" s="85"/>
-      <c r="AA87" s="85"/>
-      <c r="AB87" s="85"/>
-      <c r="AC87" s="85"/>
-      <c r="AD87" s="85"/>
-      <c r="AE87" s="84"/>
-      <c r="AF87" s="86"/>
-      <c r="AH87" s="85"/>
-      <c r="AI87" s="85"/>
-      <c r="AJ87" s="85"/>
-      <c r="AK87" s="85"/>
-      <c r="AL87" s="85"/>
-      <c r="AM87" s="85"/>
-      <c r="AN87" s="85"/>
-      <c r="AO87" s="85"/>
-      <c r="AP87" s="84"/>
-      <c r="AQ87" s="86"/>
+      <c r="W87" s="82"/>
+      <c r="X87" s="82"/>
+      <c r="Y87" s="82"/>
+      <c r="Z87" s="82"/>
+      <c r="AA87" s="82"/>
+      <c r="AB87" s="82"/>
+      <c r="AC87" s="82"/>
+      <c r="AD87" s="82"/>
+      <c r="AE87" s="91"/>
+      <c r="AF87" s="83"/>
+      <c r="AH87" s="82"/>
+      <c r="AI87" s="82"/>
+      <c r="AJ87" s="82"/>
+      <c r="AK87" s="82"/>
+      <c r="AL87" s="82"/>
+      <c r="AM87" s="82"/>
+      <c r="AN87" s="82"/>
+      <c r="AO87" s="82"/>
+      <c r="AP87" s="91"/>
+      <c r="AQ87" s="83"/>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" s="20">
@@ -9056,21 +9729,129 @@
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="R68:R70"/>
-    <mergeCell ref="S68:S70"/>
-    <mergeCell ref="U68:U70"/>
-    <mergeCell ref="W68:W70"/>
-    <mergeCell ref="AL68:AL70"/>
-    <mergeCell ref="AM68:AM70"/>
-    <mergeCell ref="AN68:AN70"/>
-    <mergeCell ref="AO68:AO70"/>
-    <mergeCell ref="AQ68:AQ70"/>
-    <mergeCell ref="AD68:AD70"/>
-    <mergeCell ref="AF68:AF70"/>
-    <mergeCell ref="AH68:AH70"/>
-    <mergeCell ref="AI68:AI70"/>
-    <mergeCell ref="AJ68:AJ70"/>
-    <mergeCell ref="AK68:AK70"/>
+    <mergeCell ref="T34:T36"/>
+    <mergeCell ref="AE34:AE36"/>
+    <mergeCell ref="AP34:AP36"/>
+    <mergeCell ref="AP51:AP53"/>
+    <mergeCell ref="AE51:AE53"/>
+    <mergeCell ref="T51:T53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="T85:T87"/>
+    <mergeCell ref="T68:T70"/>
+    <mergeCell ref="AE68:AE70"/>
+    <mergeCell ref="AE85:AE87"/>
+    <mergeCell ref="AP85:AP87"/>
+    <mergeCell ref="AP68:AP70"/>
+    <mergeCell ref="AH85:AH87"/>
+    <mergeCell ref="AI85:AI87"/>
+    <mergeCell ref="AJ85:AJ87"/>
+    <mergeCell ref="AK85:AK87"/>
+    <mergeCell ref="AL85:AL87"/>
+    <mergeCell ref="AM85:AM87"/>
+    <mergeCell ref="AN85:AN87"/>
+    <mergeCell ref="AO85:AO87"/>
+    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="AQ85:AQ87"/>
+    <mergeCell ref="W85:W87"/>
+    <mergeCell ref="X85:X87"/>
+    <mergeCell ref="Y85:Y87"/>
+    <mergeCell ref="Z85:Z87"/>
+    <mergeCell ref="AA85:AA87"/>
+    <mergeCell ref="AB85:AB87"/>
+    <mergeCell ref="AC85:AC87"/>
+    <mergeCell ref="AD85:AD87"/>
+    <mergeCell ref="AF85:AF87"/>
+    <mergeCell ref="M85:M87"/>
+    <mergeCell ref="N85:N87"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="P85:P87"/>
+    <mergeCell ref="Q85:Q87"/>
+    <mergeCell ref="R85:R87"/>
+    <mergeCell ref="S85:S87"/>
+    <mergeCell ref="U85:U87"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="X34:X36"/>
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="Z34:Z36"/>
+    <mergeCell ref="AA34:AA36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="R34:R36"/>
+    <mergeCell ref="U34:U36"/>
+    <mergeCell ref="W34:W36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="AQ34:AQ36"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="AJ34:AJ36"/>
+    <mergeCell ref="AK34:AK36"/>
+    <mergeCell ref="AL34:AL36"/>
+    <mergeCell ref="AM34:AM36"/>
+    <mergeCell ref="AN34:AN36"/>
+    <mergeCell ref="AO34:AO36"/>
+    <mergeCell ref="AB34:AB36"/>
+    <mergeCell ref="AC34:AC36"/>
+    <mergeCell ref="AD34:AD36"/>
+    <mergeCell ref="AF34:AF36"/>
+    <mergeCell ref="AH34:AH36"/>
+    <mergeCell ref="AI34:AI36"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="S34:S36"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="AH51:AH53"/>
+    <mergeCell ref="AI51:AI53"/>
+    <mergeCell ref="Z51:Z53"/>
+    <mergeCell ref="AA51:AA53"/>
+    <mergeCell ref="AB51:AB53"/>
+    <mergeCell ref="AC51:AC53"/>
+    <mergeCell ref="AD51:AD53"/>
+    <mergeCell ref="AF51:AF53"/>
+    <mergeCell ref="R51:R53"/>
+    <mergeCell ref="S51:S53"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="W51:W53"/>
+    <mergeCell ref="X51:X53"/>
+    <mergeCell ref="Y51:Y53"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="M51:M53"/>
+    <mergeCell ref="N51:N53"/>
     <mergeCell ref="H68:H70"/>
     <mergeCell ref="J68:J70"/>
     <mergeCell ref="L68:L70"/>
@@ -9095,140 +9876,32 @@
     <mergeCell ref="AC68:AC70"/>
     <mergeCell ref="P68:P70"/>
     <mergeCell ref="Q68:Q70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="AH51:AH53"/>
-    <mergeCell ref="AI51:AI53"/>
-    <mergeCell ref="Z51:Z53"/>
-    <mergeCell ref="AA51:AA53"/>
-    <mergeCell ref="AB51:AB53"/>
-    <mergeCell ref="AC51:AC53"/>
-    <mergeCell ref="AD51:AD53"/>
-    <mergeCell ref="AF51:AF53"/>
-    <mergeCell ref="R51:R53"/>
-    <mergeCell ref="S51:S53"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="W51:W53"/>
-    <mergeCell ref="X51:X53"/>
-    <mergeCell ref="Y51:Y53"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="M51:M53"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="AQ34:AQ36"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="J51:J53"/>
-    <mergeCell ref="AJ34:AJ36"/>
-    <mergeCell ref="AK34:AK36"/>
-    <mergeCell ref="AL34:AL36"/>
-    <mergeCell ref="AM34:AM36"/>
-    <mergeCell ref="AN34:AN36"/>
-    <mergeCell ref="AO34:AO36"/>
-    <mergeCell ref="AB34:AB36"/>
-    <mergeCell ref="AC34:AC36"/>
-    <mergeCell ref="AD34:AD36"/>
-    <mergeCell ref="AF34:AF36"/>
-    <mergeCell ref="AH34:AH36"/>
-    <mergeCell ref="AI34:AI36"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="S34:S36"/>
-    <mergeCell ref="X34:X36"/>
-    <mergeCell ref="Y34:Y36"/>
-    <mergeCell ref="Z34:Z36"/>
-    <mergeCell ref="AA34:AA36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="O34:O36"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="R34:R36"/>
-    <mergeCell ref="U34:U36"/>
-    <mergeCell ref="W34:W36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="M85:M87"/>
-    <mergeCell ref="N85:N87"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="P85:P87"/>
-    <mergeCell ref="Q85:Q87"/>
-    <mergeCell ref="R85:R87"/>
-    <mergeCell ref="S85:S87"/>
-    <mergeCell ref="U85:U87"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="AQ85:AQ87"/>
-    <mergeCell ref="W85:W87"/>
-    <mergeCell ref="X85:X87"/>
-    <mergeCell ref="Y85:Y87"/>
-    <mergeCell ref="Z85:Z87"/>
-    <mergeCell ref="AA85:AA87"/>
-    <mergeCell ref="AB85:AB87"/>
-    <mergeCell ref="AC85:AC87"/>
-    <mergeCell ref="AD85:AD87"/>
-    <mergeCell ref="AF85:AF87"/>
-    <mergeCell ref="T34:T36"/>
-    <mergeCell ref="AE34:AE36"/>
-    <mergeCell ref="AP34:AP36"/>
-    <mergeCell ref="AP51:AP53"/>
-    <mergeCell ref="AE51:AE53"/>
-    <mergeCell ref="T51:T53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="T85:T87"/>
-    <mergeCell ref="T68:T70"/>
-    <mergeCell ref="AE68:AE70"/>
-    <mergeCell ref="AE85:AE87"/>
-    <mergeCell ref="AP85:AP87"/>
-    <mergeCell ref="AP68:AP70"/>
-    <mergeCell ref="AH85:AH87"/>
-    <mergeCell ref="AI85:AI87"/>
-    <mergeCell ref="AJ85:AJ87"/>
-    <mergeCell ref="AK85:AK87"/>
-    <mergeCell ref="AL85:AL87"/>
-    <mergeCell ref="AM85:AM87"/>
-    <mergeCell ref="AN85:AN87"/>
-    <mergeCell ref="AO85:AO87"/>
-    <mergeCell ref="L85:L87"/>
+    <mergeCell ref="R68:R70"/>
+    <mergeCell ref="S68:S70"/>
+    <mergeCell ref="U68:U70"/>
+    <mergeCell ref="W68:W70"/>
+    <mergeCell ref="AL68:AL70"/>
+    <mergeCell ref="AM68:AM70"/>
+    <mergeCell ref="AN68:AN70"/>
+    <mergeCell ref="AO68:AO70"/>
+    <mergeCell ref="AQ68:AQ70"/>
+    <mergeCell ref="AD68:AD70"/>
+    <mergeCell ref="AF68:AF70"/>
+    <mergeCell ref="AH68:AH70"/>
+    <mergeCell ref="AI68:AI70"/>
+    <mergeCell ref="AJ68:AJ70"/>
+    <mergeCell ref="AK68:AK70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
@@ -9962,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K29:K39" si="6">G31*$G$8+H31*$H$8+I31*$I$8+J31</f>
+        <f t="shared" ref="K31:K39" si="6">G31*$G$8+H31*$H$8+I31*$I$8+J31</f>
         <v>1440</v>
       </c>
       <c r="L31">
@@ -11705,11 +12378,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15836,7 +16511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U77"/>
   <sheetViews>

--- a/Xmind/Upgrade_Research/Infantry.xlsx
+++ b/Xmind/Upgrade_Research/Infantry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="MainBase_Upgrade" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="323">
   <si>
     <t>Level</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>ID_Guild</t>
+  </si>
+  <si>
+    <t>S_REJECT_APPLY</t>
   </si>
 </sst>
 </file>
@@ -14258,7 +14261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -18658,9 +18661,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18672,7 +18677,7 @@
     <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -18699,7 +18704,7 @@
       </c>
       <c r="R1" s="51"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="70">
         <v>360</v>
       </c>
@@ -18727,7 +18732,7 @@
       </c>
       <c r="R2" s="51"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="81">
         <f>(A4-A2)/2</f>
         <v>540</v>
@@ -18743,28 +18748,25 @@
       <c r="I3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
       <c r="L3">
         <f>K3*I3</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M3" s="22">
         <f>SUM(L3:L12)</f>
-        <v>34860</v>
+        <v>5340</v>
       </c>
       <c r="N3">
         <f>M3/60</f>
-        <v>581</v>
+        <v>89</v>
       </c>
       <c r="O3">
         <f>N3/24</f>
-        <v>24.208333333333332</v>
+        <v>3.7083333333333335</v>
       </c>
       <c r="R3" s="51"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="70">
         <v>1440</v>
       </c>
@@ -18779,16 +18781,13 @@
       <c r="I4">
         <v>5</v>
       </c>
-      <c r="K4">
-        <v>474</v>
-      </c>
       <c r="L4">
         <f>K4*I4</f>
-        <v>2370</v>
+        <v>0</v>
       </c>
       <c r="R4" s="51"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18801,15 +18800,15 @@
         <v>10</v>
       </c>
       <c r="K5">
-        <v>1587</v>
+        <v>36</v>
       </c>
       <c r="L5">
         <f>K5*I5</f>
-        <v>15870</v>
+        <v>360</v>
       </c>
       <c r="R5" s="51"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="70">
         <v>5760</v>
       </c>
@@ -18825,14 +18824,14 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>369</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L12" si="2">K6*I6</f>
-        <v>5535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18845,14 +18844,14 @@
         <v>30</v>
       </c>
       <c r="K7">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>6690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="70">
         <v>20736</v>
       </c>
@@ -18877,18 +18876,18 @@
         <v>60</v>
       </c>
       <c r="K8">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>4380</v>
+        <v>1860</v>
       </c>
       <c r="Q8">
         <f>42700/2400</f>
         <v>17.791666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18904,13 +18903,16 @@
         <f>3*60</f>
         <v>180</v>
       </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1980</v>
       </c>
       <c r="N9" s="51"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
         <v>26455</v>
       </c>
@@ -18935,7 +18937,7 @@
       </c>
       <c r="N10" s="51"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18950,7 +18952,7 @@
       </c>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>34985</v>
       </c>
@@ -18968,7 +18970,7 @@
       </c>
       <c r="N12" s="51"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18984,7 +18986,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
         <v>46268</v>
       </c>
@@ -18998,18 +19000,18 @@
       </c>
       <c r="M14" s="22">
         <f>SUM(L15:L24)</f>
-        <v>18765</v>
+        <v>21739</v>
       </c>
       <c r="N14">
         <f>M14/60</f>
-        <v>312.75</v>
+        <v>362.31666666666666</v>
       </c>
       <c r="O14">
         <f>N14/24</f>
-        <v>13.03125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>15.096527777777778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19022,15 +19024,22 @@
         <v>3</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <f>K15*I15</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N15" s="51"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>322</v>
+      </c>
+      <c r="U15" t="str">
+        <f>LOWER(T15)</f>
+        <v>s_reject_apply</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="70">
         <v>168319</v>
       </c>
@@ -19046,11 +19055,11 @@
         <v>5</v>
       </c>
       <c r="K16">
-        <v>498</v>
+        <v>827</v>
       </c>
       <c r="L16">
         <f>K16*I16</f>
-        <v>2490</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -19066,11 +19075,11 @@
         <v>10</v>
       </c>
       <c r="K17">
-        <v>1416</v>
+        <v>1155</v>
       </c>
       <c r="L17">
         <f>K17*I17</f>
-        <v>14160</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -19089,11 +19098,11 @@
         <v>15</v>
       </c>
       <c r="K18">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="L18">
         <f t="shared" ref="L18:L24" si="3">K18*I18</f>
-        <v>1950</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -19110,11 +19119,11 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>930</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -19140,11 +19149,11 @@
         <v>60</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -19166,9 +19175,12 @@
         <f>3*60</f>
         <v>180</v>
       </c>
+      <c r="K21">
+        <v>11</v>
+      </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">

--- a/Xmind/Upgrade_Research/Infantry.xlsx
+++ b/Xmind/Upgrade_Research/Infantry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="MainBase_Upgrade" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="347">
   <si>
     <t>Level</t>
   </si>
@@ -806,39 +806,9 @@
     <t>23d 14h:52m:14</t>
   </si>
   <si>
-    <t>rss=Might*50</t>
-  </si>
-  <si>
-    <t>MROUND(B5,1)</t>
-  </si>
-  <si>
-    <t>MROUND(A28*$B$4,1)</t>
-  </si>
-  <si>
-    <t>Sum Material</t>
-  </si>
-  <si>
-    <t>85/180</t>
-  </si>
-  <si>
-    <t>ROUNDUP(H3,0)</t>
-  </si>
-  <si>
     <t>UPDATE `TrainedSolider` SET `</t>
   </si>
   <si>
-    <t>att</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>MROUND(C95,1)</t>
-  </si>
-  <si>
     <t>35d 10h:18m:21</t>
   </si>
   <si>
@@ -887,9 +857,6 @@
     <t>70d 20h:36m:42</t>
   </si>
   <si>
-    <t>106d 10h:18m:20</t>
-  </si>
-  <si>
     <t>21m:36</t>
   </si>
   <si>
@@ -999,13 +966,118 @@
   </si>
   <si>
     <t>S_REJECT_APPLY</t>
+  </si>
+  <si>
+    <t>stringKey[1] = (posX-1) +","+posY+",0";</t>
+  </si>
+  <si>
+    <t>stringKey[2] = (posX-1) +","+(posY-1)+",0";</t>
+  </si>
+  <si>
+    <t>stringKey[3] = (posX-1) +","+(posY+1)+",0";</t>
+  </si>
+  <si>
+    <t>stringKey[4] = (posX) +","+(posY+1)+",0";</t>
+  </si>
+  <si>
+    <t>stringKey[5] = (posX) +","+(posY-1)+",0";</t>
+  </si>
+  <si>
+    <t>stringKey[6] = (posX-1) +","+(posY)+",0";</t>
+  </si>
+  <si>
+    <t>posY</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>)+","+(</t>
+  </si>
+  <si>
+    <t>)+",0";</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>stringKey[</t>
+  </si>
+  <si>
+    <t>] = (posX</t>
+  </si>
+  <si>
+    <t>] = (posX-2)+","+(posY)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX-2)+","+(posY-1)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX-2)+","+(posY+1)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX-1)+","+(posY-2)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX-1)+","+(posY+2)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX)+","+(posY-2)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX)+","+(posY+2)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX+1)+","+(posY+2)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX+1)+","+(posY-2)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX+1)+","+(posY-1)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX+1)+","+(posY+1)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX+2)+","+(posY)+",0";</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>] = (posX-1)+","+(posY-1)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX-1)+","+(posY+1)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX+2)+","+(posY-1)+",0";</t>
+  </si>
+  <si>
+    <t>] = (posX+2)+","+(posY+1)+",0";</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1013,8 +1085,6 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="m&quot;m&quot;:d&quot;d&quot;:h&quot;h&quot;:mm&quot;m&quot;:ss&quot;s&quot;"/>
     <numFmt numFmtId="169" formatCode="d&quot;d&quot;\ h&quot;h&quot;:mm&quot;m&quot;:ss&quot;&quot;"/>
-    <numFmt numFmtId="170" formatCode="h&quot;h&quot;:mm&quot;m&quot;:ss&quot;&quot;"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1054,7 +1124,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,12 +1176,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,7 +1266,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1394,11 +1458,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1445,27 +1507,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1478,7 +1522,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1495,13 +1538,25 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3113,25 +3168,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="M1" s="145" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="M1" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
     </row>
     <row r="2" spans="1:23" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -4922,16 +4977,16 @@
       </c>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="81"/>
       <c r="H30" s="81"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C31" s="70"/>
-      <c r="F31" s="121"/>
+      <c r="F31" s="119"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -5011,7 +5066,7 @@
       <c r="A34" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="106" t="s">
         <v>170</v>
       </c>
       <c r="C34" s="42" t="s">
@@ -5044,7 +5099,7 @@
       <c r="L34" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="M34" s="109" t="s">
+      <c r="M34" s="107" t="s">
         <v>5</v>
       </c>
       <c r="N34" s="42" t="s">
@@ -5089,7 +5144,7 @@
       <c r="AA34" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="AB34" s="109" t="s">
+      <c r="AB34" s="107" t="s">
         <v>5</v>
       </c>
       <c r="AC34" s="42" t="s">
@@ -5106,7 +5161,7 @@
       <c r="B35" s="73">
         <v>90</v>
       </c>
-      <c r="C35" s="122">
+      <c r="C35" s="120">
         <v>170</v>
       </c>
       <c r="D35" s="18">
@@ -5210,7 +5265,7 @@
         <f>B35-4</f>
         <v>86</v>
       </c>
-      <c r="C36" s="122">
+      <c r="C36" s="120">
         <v>424</v>
       </c>
       <c r="D36" s="18">
@@ -5317,7 +5372,7 @@
         <f t="shared" ref="B37:B53" si="26">B36-4</f>
         <v>82</v>
       </c>
-      <c r="C37" s="122">
+      <c r="C37" s="120">
         <v>680</v>
       </c>
       <c r="D37" s="18">
@@ -5424,7 +5479,7 @@
         <f t="shared" si="26"/>
         <v>78</v>
       </c>
-      <c r="C38" s="122">
+      <c r="C38" s="120">
         <v>1699</v>
       </c>
       <c r="D38" s="18">
@@ -5528,7 +5583,7 @@
         <f t="shared" si="26"/>
         <v>74</v>
       </c>
-      <c r="C39" s="122">
+      <c r="C39" s="120">
         <v>2549</v>
       </c>
       <c r="D39" s="18">
@@ -5632,7 +5687,7 @@
         <f t="shared" si="26"/>
         <v>70</v>
       </c>
-      <c r="C40" s="122">
+      <c r="C40" s="120">
         <v>5099</v>
       </c>
       <c r="D40" s="18">
@@ -5736,7 +5791,7 @@
         <f t="shared" si="26"/>
         <v>66</v>
       </c>
-      <c r="C41" s="122">
+      <c r="C41" s="120">
         <v>7649</v>
       </c>
       <c r="D41" s="18">
@@ -5840,7 +5895,7 @@
         <f t="shared" si="26"/>
         <v>62</v>
       </c>
-      <c r="C42" s="122">
+      <c r="C42" s="120">
         <v>19124</v>
       </c>
       <c r="D42" s="18">
@@ -5944,7 +5999,7 @@
         <f t="shared" si="26"/>
         <v>58</v>
       </c>
-      <c r="C43" s="122">
+      <c r="C43" s="120">
         <v>28687</v>
       </c>
       <c r="D43" s="18">
@@ -6048,7 +6103,7 @@
         <f t="shared" si="26"/>
         <v>54</v>
       </c>
-      <c r="C44" s="122">
+      <c r="C44" s="120">
         <v>34425</v>
       </c>
       <c r="D44" s="18">
@@ -6154,7 +6209,7 @@
         <f t="shared" si="26"/>
         <v>50</v>
       </c>
-      <c r="C45" s="122">
+      <c r="C45" s="120">
         <v>41310</v>
       </c>
       <c r="D45" s="18">
@@ -6260,7 +6315,7 @@
         <f t="shared" si="26"/>
         <v>46</v>
       </c>
-      <c r="C46" s="122">
+      <c r="C46" s="120">
         <v>49572</v>
       </c>
       <c r="D46" s="18">
@@ -6366,7 +6421,7 @@
         <f t="shared" si="26"/>
         <v>42</v>
       </c>
-      <c r="C47" s="122">
+      <c r="C47" s="120">
         <v>59487</v>
       </c>
       <c r="D47" s="18">
@@ -6472,7 +6527,7 @@
         <f t="shared" si="26"/>
         <v>38</v>
       </c>
-      <c r="C48" s="122">
+      <c r="C48" s="120">
         <v>71383</v>
       </c>
       <c r="D48" s="18">
@@ -6578,7 +6633,7 @@
         <f t="shared" si="26"/>
         <v>34</v>
       </c>
-      <c r="C49" s="122">
+      <c r="C49" s="120">
         <v>107076</v>
       </c>
       <c r="D49" s="18">
@@ -6684,7 +6739,7 @@
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="C50" s="122">
+      <c r="C50" s="120">
         <v>267688</v>
       </c>
       <c r="D50" s="18">
@@ -6790,7 +6845,7 @@
         <f t="shared" si="26"/>
         <v>26</v>
       </c>
-      <c r="C51" s="122">
+      <c r="C51" s="120">
         <v>401533</v>
       </c>
       <c r="D51" s="18">
@@ -6896,7 +6951,7 @@
         <f t="shared" si="26"/>
         <v>22</v>
       </c>
-      <c r="C52" s="122">
+      <c r="C52" s="120">
         <v>803066</v>
       </c>
       <c r="D52" s="18">
@@ -7002,7 +7057,7 @@
         <f t="shared" si="26"/>
         <v>18</v>
       </c>
-      <c r="C53" s="122">
+      <c r="C53" s="120">
         <v>1204599</v>
       </c>
       <c r="D53" s="18">
@@ -7122,29 +7177,29 @@
         <f t="shared" si="29"/>
         <v>9.0499999999999989</v>
       </c>
-      <c r="G54" s="106">
-        <v>0</v>
-      </c>
-      <c r="H54" s="106">
-        <v>0</v>
-      </c>
-      <c r="I54" s="106">
-        <v>0</v>
-      </c>
-      <c r="J54" s="106">
-        <v>0</v>
-      </c>
-      <c r="K54" s="106">
-        <v>0</v>
-      </c>
-      <c r="L54" s="106">
+      <c r="G54" s="104">
+        <v>0</v>
+      </c>
+      <c r="H54" s="104">
+        <v>0</v>
+      </c>
+      <c r="I54" s="104">
+        <v>0</v>
+      </c>
+      <c r="J54" s="104">
+        <v>0</v>
+      </c>
+      <c r="K54" s="104">
+        <v>0</v>
+      </c>
+      <c r="L54" s="104">
         <v>0</v>
       </c>
       <c r="M54" s="15"/>
-      <c r="N54" s="107">
-        <v>0</v>
-      </c>
-      <c r="O54" s="107">
+      <c r="N54" s="105">
+        <v>0</v>
+      </c>
+      <c r="O54" s="105">
         <v>0</v>
       </c>
       <c r="P54" s="91">
@@ -7203,43 +7258,43 @@
         <v>UPDATE `solider` SET `RequiredLevel`='0' WHERE `Level`='20';</v>
       </c>
     </row>
-    <row r="55" spans="1:44" s="114" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="80"/>
       <c r="B55" s="80"/>
-      <c r="C55" s="110"/>
+      <c r="C55" s="108"/>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
       <c r="F55" s="80"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
-      <c r="K55" s="112"/>
-      <c r="L55" s="113"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="110"/>
+      <c r="L55" s="111"/>
       <c r="M55" s="80"/>
-      <c r="W55" s="110"/>
-    </row>
-    <row r="56" spans="1:44" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="115"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="118"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="115"/>
-      <c r="M56" s="115"/>
-      <c r="N56" s="116"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="115"/>
-      <c r="Q56" s="116"/>
-      <c r="R56" s="116"/>
-      <c r="S56" s="116"/>
-      <c r="T56" s="115"/>
-      <c r="U56" s="117"/>
+      <c r="W55" s="108"/>
+    </row>
+    <row r="56" spans="1:44" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="113"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="116"/>
+      <c r="K56" s="117"/>
+      <c r="L56" s="113"/>
+      <c r="M56" s="113"/>
+      <c r="N56" s="114"/>
+      <c r="O56" s="118"/>
+      <c r="P56" s="113"/>
+      <c r="Q56" s="114"/>
+      <c r="R56" s="114"/>
+      <c r="S56" s="114"/>
+      <c r="T56" s="113"/>
+      <c r="U56" s="115"/>
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
@@ -7339,7 +7394,7 @@
       <c r="A60" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="108" t="s">
+      <c r="B60" s="106" t="s">
         <v>170</v>
       </c>
       <c r="C60" s="42" t="s">
@@ -7372,7 +7427,7 @@
       <c r="L60" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="M60" s="109" t="s">
+      <c r="M60" s="107" t="s">
         <v>5</v>
       </c>
       <c r="N60" s="42" t="s">
@@ -7385,9 +7440,9 @@
         <v>184</v>
       </c>
       <c r="Q60" s="102" t="s">
-        <v>264</v>
-      </c>
-      <c r="R60" s="108" t="s">
+        <v>258</v>
+      </c>
+      <c r="R60" s="106" t="s">
         <v>170</v>
       </c>
       <c r="S60" s="42" t="s">
@@ -7420,7 +7475,7 @@
       <c r="AB60" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="AC60" s="109" t="s">
+      <c r="AC60" s="107" t="s">
         <v>5</v>
       </c>
       <c r="AD60" s="42" t="s">
@@ -7440,13 +7495,13 @@
       <c r="C61" s="20">
         <v>204</v>
       </c>
-      <c r="D61" s="104">
+      <c r="D61" s="103">
         <v>4</v>
       </c>
-      <c r="E61" s="104">
+      <c r="E61" s="103">
         <v>2</v>
       </c>
-      <c r="F61" s="104">
+      <c r="F61" s="103">
         <v>10</v>
       </c>
       <c r="G61" s="95">
@@ -7555,13 +7610,13 @@
       <c r="C62" s="20">
         <v>510</v>
       </c>
-      <c r="D62" s="104">
+      <c r="D62" s="103">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E62" s="104">
+      <c r="E62" s="103">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F62" s="104">
+      <c r="F62" s="103">
         <v>10.25</v>
       </c>
       <c r="G62" s="95">
@@ -7670,13 +7725,13 @@
       <c r="C63" s="20">
         <v>816</v>
       </c>
-      <c r="D63" s="104">
+      <c r="D63" s="103">
         <v>4.3</v>
       </c>
-      <c r="E63" s="104">
+      <c r="E63" s="103">
         <v>2.1</v>
       </c>
-      <c r="F63" s="104">
+      <c r="F63" s="103">
         <v>10.45</v>
       </c>
       <c r="G63" s="95">
@@ -7785,13 +7840,13 @@
       <c r="C64" s="20">
         <v>2040</v>
       </c>
-      <c r="D64" s="104">
+      <c r="D64" s="103">
         <v>4.45</v>
       </c>
-      <c r="E64" s="104">
+      <c r="E64" s="103">
         <v>2.15</v>
       </c>
-      <c r="F64" s="104">
+      <c r="F64" s="103">
         <v>10.65</v>
       </c>
       <c r="G64" s="95">
@@ -7897,13 +7952,13 @@
       <c r="C65" s="20">
         <v>3060</v>
       </c>
-      <c r="D65" s="104">
+      <c r="D65" s="103">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E65" s="104">
+      <c r="E65" s="103">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F65" s="104">
+      <c r="F65" s="103">
         <v>10.85</v>
       </c>
       <c r="G65" s="95">
@@ -8009,13 +8064,13 @@
       <c r="C66" s="20">
         <v>6120</v>
       </c>
-      <c r="D66" s="104">
+      <c r="D66" s="103">
         <v>4.75</v>
       </c>
-      <c r="E66" s="104">
+      <c r="E66" s="103">
         <v>2.25</v>
       </c>
-      <c r="F66" s="104">
+      <c r="F66" s="103">
         <v>11.05</v>
       </c>
       <c r="G66" s="95">
@@ -8121,13 +8176,13 @@
       <c r="C67" s="20">
         <v>9180</v>
       </c>
-      <c r="D67" s="104">
+      <c r="D67" s="103">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E67" s="104">
+      <c r="E67" s="103">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F67" s="104">
+      <c r="F67" s="103">
         <v>11.25</v>
       </c>
       <c r="G67" s="95">
@@ -8233,13 +8288,13 @@
       <c r="C68" s="20">
         <v>22950</v>
       </c>
-      <c r="D68" s="104">
+      <c r="D68" s="103">
         <v>5.05</v>
       </c>
-      <c r="E68" s="104">
+      <c r="E68" s="103">
         <v>2.35</v>
       </c>
-      <c r="F68" s="104">
+      <c r="F68" s="103">
         <v>11.45</v>
       </c>
       <c r="G68" s="95">
@@ -8345,13 +8400,13 @@
       <c r="C69" s="20">
         <v>34425</v>
       </c>
-      <c r="D69" s="104">
+      <c r="D69" s="103">
         <v>5.2</v>
       </c>
-      <c r="E69" s="104">
+      <c r="E69" s="103">
         <v>2.4</v>
       </c>
-      <c r="F69" s="104">
+      <c r="F69" s="103">
         <v>11.65</v>
       </c>
       <c r="G69" s="95">
@@ -8457,13 +8512,13 @@
       <c r="C70" s="20">
         <v>41310</v>
       </c>
-      <c r="D70" s="104">
+      <c r="D70" s="103">
         <v>5.35</v>
       </c>
-      <c r="E70" s="104">
+      <c r="E70" s="103">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F70" s="104">
+      <c r="F70" s="103">
         <v>11.85</v>
       </c>
       <c r="G70" s="95">
@@ -8571,13 +8626,13 @@
       <c r="C71" s="20">
         <v>49572</v>
       </c>
-      <c r="D71" s="104">
+      <c r="D71" s="103">
         <v>5.5</v>
       </c>
-      <c r="E71" s="104">
+      <c r="E71" s="103">
         <v>2.5</v>
       </c>
-      <c r="F71" s="104">
+      <c r="F71" s="103">
         <v>12.05</v>
       </c>
       <c r="G71" s="95">
@@ -8685,13 +8740,13 @@
       <c r="C72" s="20">
         <v>59486</v>
       </c>
-      <c r="D72" s="104">
+      <c r="D72" s="103">
         <v>5.65</v>
       </c>
-      <c r="E72" s="104">
+      <c r="E72" s="103">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F72" s="104">
+      <c r="F72" s="103">
         <v>12.25</v>
       </c>
       <c r="G72" s="95">
@@ -8799,13 +8854,13 @@
       <c r="C73" s="20">
         <v>71384</v>
       </c>
-      <c r="D73" s="104">
+      <c r="D73" s="103">
         <v>5.8</v>
       </c>
-      <c r="E73" s="104">
+      <c r="E73" s="103">
         <v>2.6</v>
       </c>
-      <c r="F73" s="104">
+      <c r="F73" s="103">
         <v>12.45</v>
       </c>
       <c r="G73" s="95">
@@ -8913,13 +8968,13 @@
       <c r="C74" s="20">
         <v>85661</v>
       </c>
-      <c r="D74" s="104">
+      <c r="D74" s="103">
         <v>5.95</v>
       </c>
-      <c r="E74" s="104">
+      <c r="E74" s="103">
         <v>2.65</v>
       </c>
-      <c r="F74" s="104">
+      <c r="F74" s="103">
         <v>12.65</v>
       </c>
       <c r="G74" s="95">
@@ -9027,13 +9082,13 @@
       <c r="C75" s="20">
         <v>128491</v>
       </c>
-      <c r="D75" s="104">
+      <c r="D75" s="103">
         <v>6.1</v>
       </c>
-      <c r="E75" s="104">
+      <c r="E75" s="103">
         <v>2.7</v>
       </c>
-      <c r="F75" s="104">
+      <c r="F75" s="103">
         <v>12.85</v>
       </c>
       <c r="G75" s="95">
@@ -9141,13 +9196,13 @@
       <c r="C76" s="20">
         <v>321227</v>
       </c>
-      <c r="D76" s="104">
+      <c r="D76" s="103">
         <v>6.25</v>
       </c>
-      <c r="E76" s="104">
+      <c r="E76" s="103">
         <v>2.75</v>
       </c>
-      <c r="F76" s="104">
+      <c r="F76" s="103">
         <v>13.05</v>
       </c>
       <c r="G76" s="95">
@@ -9255,13 +9310,13 @@
       <c r="C77" s="20">
         <v>481840</v>
       </c>
-      <c r="D77" s="104">
+      <c r="D77" s="103">
         <v>6.4</v>
       </c>
-      <c r="E77" s="104">
+      <c r="E77" s="103">
         <v>2.8</v>
       </c>
-      <c r="F77" s="104">
+      <c r="F77" s="103">
         <v>13.25</v>
       </c>
       <c r="G77" s="95">
@@ -9369,13 +9424,13 @@
       <c r="C78" s="20">
         <v>963680</v>
       </c>
-      <c r="D78" s="104">
+      <c r="D78" s="103">
         <v>6.55</v>
       </c>
-      <c r="E78" s="104">
+      <c r="E78" s="103">
         <v>2.85</v>
       </c>
-      <c r="F78" s="104">
+      <c r="F78" s="103">
         <v>13.45</v>
       </c>
       <c r="G78" s="95">
@@ -9483,13 +9538,13 @@
       <c r="C79" s="20">
         <v>1445519</v>
       </c>
-      <c r="D79" s="104">
+      <c r="D79" s="103">
         <v>6.7</v>
       </c>
-      <c r="E79" s="104">
+      <c r="E79" s="103">
         <v>2.9</v>
       </c>
-      <c r="F79" s="104">
+      <c r="F79" s="103">
         <v>13.65</v>
       </c>
       <c r="G79" s="95">
@@ -9597,38 +9652,38 @@
       <c r="C80" s="20">
         <v>0</v>
       </c>
-      <c r="D80" s="104">
+      <c r="D80" s="103">
         <v>6.85</v>
       </c>
-      <c r="E80" s="104">
+      <c r="E80" s="103">
         <v>2.95</v>
       </c>
-      <c r="F80" s="104">
+      <c r="F80" s="103">
         <v>13.85</v>
       </c>
-      <c r="G80" s="106">
-        <v>0</v>
-      </c>
-      <c r="H80" s="106">
-        <v>0</v>
-      </c>
-      <c r="I80" s="106">
-        <v>0</v>
-      </c>
-      <c r="J80" s="106">
-        <v>0</v>
-      </c>
-      <c r="K80" s="106">
-        <v>0</v>
-      </c>
-      <c r="L80" s="106">
+      <c r="G80" s="104">
+        <v>0</v>
+      </c>
+      <c r="H80" s="104">
+        <v>0</v>
+      </c>
+      <c r="I80" s="104">
+        <v>0</v>
+      </c>
+      <c r="J80" s="104">
+        <v>0</v>
+      </c>
+      <c r="K80" s="104">
+        <v>0</v>
+      </c>
+      <c r="L80" s="104">
         <v>0</v>
       </c>
       <c r="M80" s="15"/>
-      <c r="N80" s="107">
-        <v>0</v>
-      </c>
-      <c r="O80" s="107">
+      <c r="N80" s="105">
+        <v>0</v>
+      </c>
+      <c r="O80" s="105">
         <v>0</v>
       </c>
       <c r="P80" s="91">
@@ -9700,10 +9755,10 @@
       <c r="AR80" s="80"/>
     </row>
     <row r="81" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K81" s="131"/>
+      <c r="K81" s="122"/>
     </row>
     <row r="82" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K82" s="131"/>
+      <c r="K82" s="122"/>
     </row>
     <row r="84" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
@@ -9782,7 +9837,7 @@
       <c r="A86" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="108" t="s">
+      <c r="B86" s="106" t="s">
         <v>170</v>
       </c>
       <c r="C86" s="42" t="s">
@@ -9815,7 +9870,7 @@
       <c r="L86" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="M86" s="109" t="s">
+      <c r="M86" s="107" t="s">
         <v>5</v>
       </c>
       <c r="N86" s="42" t="s">
@@ -9828,9 +9883,9 @@
         <v>184</v>
       </c>
       <c r="Q86" s="102" t="s">
-        <v>302</v>
-      </c>
-      <c r="R86" s="108" t="s">
+        <v>291</v>
+      </c>
+      <c r="R86" s="106" t="s">
         <v>170</v>
       </c>
       <c r="S86" s="42" t="s">
@@ -9863,7 +9918,7 @@
       <c r="AB86" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="AC86" s="109" t="s">
+      <c r="AC86" s="107" t="s">
         <v>5</v>
       </c>
       <c r="AD86" s="42" t="s">
@@ -9883,13 +9938,13 @@
       <c r="C87" s="20">
         <v>306</v>
       </c>
-      <c r="D87" s="104">
+      <c r="D87" s="103">
         <v>6</v>
       </c>
-      <c r="E87" s="104">
+      <c r="E87" s="103">
         <v>3</v>
       </c>
-      <c r="F87" s="104">
+      <c r="F87" s="103">
         <v>15</v>
       </c>
       <c r="G87" s="95">
@@ -9904,8 +9959,8 @@
       <c r="J87" s="95">
         <v>5832</v>
       </c>
-      <c r="K87" s="135" t="s">
-        <v>271</v>
+      <c r="K87" s="123" t="s">
+        <v>261</v>
       </c>
       <c r="L87" s="70">
         <v>648</v>
@@ -9990,13 +10045,13 @@
       <c r="C88" s="20">
         <v>765</v>
       </c>
-      <c r="D88" s="104">
+      <c r="D88" s="103">
         <v>6.15</v>
       </c>
-      <c r="E88" s="104">
+      <c r="E88" s="103">
         <v>3.05</v>
       </c>
-      <c r="F88" s="104">
+      <c r="F88" s="103">
         <v>15.25</v>
       </c>
       <c r="G88" s="95">
@@ -10011,8 +10066,8 @@
       <c r="J88" s="95">
         <v>12219</v>
       </c>
-      <c r="K88" s="136" t="s">
-        <v>272</v>
+      <c r="K88" s="124" t="s">
+        <v>262</v>
       </c>
       <c r="L88" s="94">
         <v>1620</v>
@@ -10097,13 +10152,13 @@
       <c r="C89" s="20">
         <v>1224</v>
       </c>
-      <c r="D89" s="104">
+      <c r="D89" s="103">
         <v>6.3</v>
       </c>
-      <c r="E89" s="104">
+      <c r="E89" s="103">
         <v>3.1</v>
       </c>
-      <c r="F89" s="104">
+      <c r="F89" s="103">
         <v>15.45</v>
       </c>
       <c r="G89" s="95">
@@ -10118,8 +10173,8 @@
       <c r="J89" s="95">
         <v>19548</v>
       </c>
-      <c r="K89" s="135" t="s">
-        <v>273</v>
+      <c r="K89" s="123" t="s">
+        <v>263</v>
       </c>
       <c r="L89" s="70">
         <v>2592</v>
@@ -10204,13 +10259,13 @@
       <c r="C90" s="20">
         <v>3060</v>
       </c>
-      <c r="D90" s="104">
+      <c r="D90" s="103">
         <v>6.45</v>
       </c>
-      <c r="E90" s="104">
+      <c r="E90" s="103">
         <v>3.15</v>
       </c>
-      <c r="F90" s="104">
+      <c r="F90" s="103">
         <v>15.65</v>
       </c>
       <c r="G90" s="95">
@@ -10225,7 +10280,7 @@
       <c r="J90" s="95">
         <v>50673</v>
       </c>
-      <c r="K90" s="136" t="s">
+      <c r="K90" s="124" t="s">
         <v>248</v>
       </c>
       <c r="L90" s="94">
@@ -10308,13 +10363,13 @@
       <c r="C91" s="20">
         <v>4590</v>
       </c>
-      <c r="D91" s="104">
+      <c r="D91" s="103">
         <v>6.6</v>
       </c>
-      <c r="E91" s="104">
+      <c r="E91" s="103">
         <v>3.2</v>
       </c>
-      <c r="F91" s="104">
+      <c r="F91" s="103">
         <v>15.85</v>
       </c>
       <c r="G91" s="95">
@@ -10329,8 +10384,8 @@
       <c r="J91" s="95">
         <v>75111</v>
       </c>
-      <c r="K91" s="135" t="s">
-        <v>274</v>
+      <c r="K91" s="123" t="s">
+        <v>264</v>
       </c>
       <c r="L91" s="70">
         <v>9720</v>
@@ -10412,13 +10467,13 @@
       <c r="C92" s="20">
         <v>9180</v>
       </c>
-      <c r="D92" s="104">
+      <c r="D92" s="103">
         <v>6.75</v>
       </c>
-      <c r="E92" s="104">
+      <c r="E92" s="103">
         <v>3.25</v>
       </c>
-      <c r="F92" s="104">
+      <c r="F92" s="103">
         <v>16.05</v>
       </c>
       <c r="G92" s="95">
@@ -10433,7 +10488,7 @@
       <c r="J92" s="95">
         <v>147161</v>
       </c>
-      <c r="K92" s="136" t="s">
+      <c r="K92" s="124" t="s">
         <v>250</v>
       </c>
       <c r="L92" s="94">
@@ -10516,13 +10571,13 @@
       <c r="C93" s="20">
         <v>13770</v>
       </c>
-      <c r="D93" s="104">
+      <c r="D93" s="103">
         <v>6.9</v>
       </c>
-      <c r="E93" s="104">
+      <c r="E93" s="103">
         <v>3.3</v>
       </c>
-      <c r="F93" s="104">
+      <c r="F93" s="103">
         <v>16.25</v>
       </c>
       <c r="G93" s="95">
@@ -10537,8 +10592,8 @@
       <c r="J93" s="95">
         <v>223532</v>
       </c>
-      <c r="K93" s="135" t="s">
-        <v>275</v>
+      <c r="K93" s="123" t="s">
+        <v>265</v>
       </c>
       <c r="L93" s="70">
         <v>29160</v>
@@ -10620,13 +10675,13 @@
       <c r="C94" s="20">
         <v>34425</v>
       </c>
-      <c r="D94" s="104">
+      <c r="D94" s="103">
         <v>7.05</v>
       </c>
-      <c r="E94" s="104">
+      <c r="E94" s="103">
         <v>3.35</v>
       </c>
-      <c r="F94" s="104">
+      <c r="F94" s="103">
         <v>16.45</v>
       </c>
       <c r="G94" s="95">
@@ -10641,7 +10696,7 @@
       <c r="J94" s="95">
         <v>553428</v>
       </c>
-      <c r="K94" s="136" t="s">
+      <c r="K94" s="124" t="s">
         <v>229</v>
       </c>
       <c r="L94" s="94">
@@ -10724,13 +10779,13 @@
       <c r="C95" s="20">
         <v>51638</v>
       </c>
-      <c r="D95" s="104">
+      <c r="D95" s="103">
         <v>7.2</v>
       </c>
-      <c r="E95" s="104">
+      <c r="E95" s="103">
         <v>3.4</v>
       </c>
-      <c r="F95" s="104">
+      <c r="F95" s="103">
         <v>16.649999999999999</v>
       </c>
       <c r="G95" s="95">
@@ -10745,8 +10800,8 @@
       <c r="J95" s="95">
         <v>822942</v>
       </c>
-      <c r="K95" s="135" t="s">
-        <v>276</v>
+      <c r="K95" s="123" t="s">
+        <v>266</v>
       </c>
       <c r="L95" s="70">
         <v>109350</v>
@@ -10828,13 +10883,13 @@
       <c r="C96" s="20">
         <v>61965</v>
       </c>
-      <c r="D96" s="104">
+      <c r="D96" s="103">
         <v>7.35</v>
       </c>
-      <c r="E96" s="104">
+      <c r="E96" s="103">
         <v>3.45</v>
       </c>
-      <c r="F96" s="104">
+      <c r="F96" s="103">
         <v>16.850000000000001</v>
       </c>
       <c r="G96" s="95">
@@ -10849,8 +10904,8 @@
       <c r="J96" s="95">
         <v>989691</v>
       </c>
-      <c r="K96" s="136" t="s">
-        <v>277</v>
+      <c r="K96" s="124" t="s">
+        <v>267</v>
       </c>
       <c r="L96" s="94">
         <v>131220</v>
@@ -10934,13 +10989,13 @@
       <c r="C97" s="20">
         <v>74358</v>
       </c>
-      <c r="D97" s="104">
+      <c r="D97" s="103">
         <v>7.5</v>
       </c>
-      <c r="E97" s="104">
+      <c r="E97" s="103">
         <v>3.5</v>
       </c>
-      <c r="F97" s="104">
+      <c r="F97" s="103">
         <v>17.05</v>
       </c>
       <c r="G97" s="95">
@@ -10955,8 +11010,8 @@
       <c r="J97" s="95">
         <v>1204730</v>
       </c>
-      <c r="K97" s="135" t="s">
-        <v>278</v>
+      <c r="K97" s="123" t="s">
+        <v>268</v>
       </c>
       <c r="L97" s="70">
         <v>157464</v>
@@ -11040,13 +11095,13 @@
       <c r="C98" s="20">
         <v>89230</v>
       </c>
-      <c r="D98" s="104">
+      <c r="D98" s="103">
         <v>7.65</v>
       </c>
-      <c r="E98" s="104">
+      <c r="E98" s="103">
         <v>3.55</v>
       </c>
-      <c r="F98" s="104">
+      <c r="F98" s="103">
         <v>17.25</v>
       </c>
       <c r="G98" s="95">
@@ -11061,8 +11116,8 @@
       <c r="J98" s="95">
         <v>1427136</v>
       </c>
-      <c r="K98" s="136" t="s">
-        <v>279</v>
+      <c r="K98" s="124" t="s">
+        <v>269</v>
       </c>
       <c r="L98" s="94">
         <v>188957</v>
@@ -11146,13 +11201,13 @@
       <c r="C99" s="20">
         <v>107076</v>
       </c>
-      <c r="D99" s="104">
+      <c r="D99" s="103">
         <v>7.8</v>
       </c>
-      <c r="E99" s="104">
+      <c r="E99" s="103">
         <v>3.6</v>
       </c>
-      <c r="F99" s="104">
+      <c r="F99" s="103">
         <v>17.45</v>
       </c>
       <c r="G99" s="95">
@@ -11167,7 +11222,7 @@
       <c r="J99" s="95">
         <v>1711277</v>
       </c>
-      <c r="K99" s="135" t="s">
+      <c r="K99" s="123" t="s">
         <v>234</v>
       </c>
       <c r="L99" s="70">
@@ -11252,13 +11307,13 @@
       <c r="C100" s="20">
         <v>128491</v>
       </c>
-      <c r="D100" s="104">
+      <c r="D100" s="103">
         <v>7.95</v>
       </c>
-      <c r="E100" s="104">
+      <c r="E100" s="103">
         <v>3.65</v>
       </c>
-      <c r="F100" s="104">
+      <c r="F100" s="103">
         <v>17.649999999999999</v>
       </c>
       <c r="G100" s="95">
@@ -11273,7 +11328,7 @@
       <c r="J100" s="95">
         <v>2100831</v>
       </c>
-      <c r="K100" s="137" t="s">
+      <c r="K100" s="125" t="s">
         <v>254</v>
       </c>
       <c r="L100" s="94">
@@ -11358,13 +11413,13 @@
       <c r="C101" s="20">
         <v>192737</v>
       </c>
-      <c r="D101" s="104">
+      <c r="D101" s="103">
         <v>8.1</v>
       </c>
-      <c r="E101" s="104">
+      <c r="E101" s="103">
         <v>3.7</v>
       </c>
-      <c r="F101" s="104">
+      <c r="F101" s="103">
         <v>17.850000000000001</v>
       </c>
       <c r="G101" s="95">
@@ -11379,8 +11434,8 @@
       <c r="J101" s="95">
         <v>3098145</v>
       </c>
-      <c r="K101" s="138" t="s">
-        <v>280</v>
+      <c r="K101" s="126" t="s">
+        <v>270</v>
       </c>
       <c r="L101" s="70">
         <v>408149</v>
@@ -11464,13 +11519,13 @@
       <c r="C102" s="20">
         <v>481840</v>
       </c>
-      <c r="D102" s="104">
+      <c r="D102" s="103">
         <v>8.25</v>
       </c>
-      <c r="E102" s="104">
+      <c r="E102" s="103">
         <v>3.75</v>
       </c>
-      <c r="F102" s="104">
+      <c r="F102" s="103">
         <v>18.05</v>
       </c>
       <c r="G102" s="95">
@@ -11485,8 +11540,8 @@
       <c r="J102" s="95">
         <v>7911843</v>
       </c>
-      <c r="K102" s="137" t="s">
-        <v>281</v>
+      <c r="K102" s="125" t="s">
+        <v>271</v>
       </c>
       <c r="L102" s="94">
         <v>1020368</v>
@@ -11570,13 +11625,13 @@
       <c r="C103" s="20">
         <v>722760</v>
       </c>
-      <c r="D103" s="104">
+      <c r="D103" s="103">
         <v>8.4</v>
       </c>
-      <c r="E103" s="104">
+      <c r="E103" s="103">
         <v>3.8</v>
       </c>
-      <c r="F103" s="104">
+      <c r="F103" s="103">
         <v>18.25</v>
       </c>
       <c r="G103" s="95">
@@ -11591,8 +11646,8 @@
       <c r="J103" s="95">
         <v>11831754</v>
       </c>
-      <c r="K103" s="138" t="s">
-        <v>282</v>
+      <c r="K103" s="126" t="s">
+        <v>272</v>
       </c>
       <c r="L103" s="70">
         <v>1530551</v>
@@ -11676,13 +11731,13 @@
       <c r="C104" s="20">
         <v>1445520</v>
       </c>
-      <c r="D104" s="104">
+      <c r="D104" s="103">
         <v>8.5500000000000007</v>
       </c>
-      <c r="E104" s="104">
+      <c r="E104" s="103">
         <v>3.85</v>
       </c>
-      <c r="F104" s="104">
+      <c r="F104" s="103">
         <v>18.45</v>
       </c>
       <c r="G104" s="95">
@@ -11697,8 +11752,8 @@
       <c r="J104" s="95">
         <v>23124590</v>
       </c>
-      <c r="K104" s="138" t="s">
-        <v>269</v>
+      <c r="K104" s="126" t="s">
+        <v>259</v>
       </c>
       <c r="L104" s="94">
         <v>3061101</v>
@@ -11782,13 +11837,13 @@
       <c r="C105" s="20">
         <v>2168279</v>
       </c>
-      <c r="D105" s="104">
+      <c r="D105" s="103">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E105" s="104">
+      <c r="E105" s="103">
         <v>3.9</v>
       </c>
-      <c r="F105" s="104">
+      <c r="F105" s="103">
         <v>18.649999999999999</v>
       </c>
       <c r="G105" s="95">
@@ -11803,8 +11858,8 @@
       <c r="J105" s="95">
         <v>35351250</v>
       </c>
-      <c r="K105" s="138" t="s">
-        <v>270</v>
+      <c r="K105" s="126" t="s">
+        <v>260</v>
       </c>
       <c r="L105" s="70">
         <v>4591650</v>
@@ -11888,38 +11943,38 @@
       <c r="C106" s="20">
         <v>0</v>
       </c>
-      <c r="D106" s="104">
+      <c r="D106" s="103">
         <v>8.85</v>
       </c>
-      <c r="E106" s="104">
+      <c r="E106" s="103">
         <v>3.95</v>
       </c>
-      <c r="F106" s="104">
+      <c r="F106" s="103">
         <v>18.850000000000001</v>
       </c>
-      <c r="G106" s="106">
-        <v>0</v>
-      </c>
-      <c r="H106" s="106">
-        <v>0</v>
-      </c>
-      <c r="I106" s="106">
-        <v>0</v>
-      </c>
-      <c r="J106" s="106">
-        <v>0</v>
-      </c>
-      <c r="K106" s="106">
-        <v>0</v>
-      </c>
-      <c r="L106" s="106">
+      <c r="G106" s="104">
+        <v>0</v>
+      </c>
+      <c r="H106" s="104">
+        <v>0</v>
+      </c>
+      <c r="I106" s="104">
+        <v>0</v>
+      </c>
+      <c r="J106" s="104">
+        <v>0</v>
+      </c>
+      <c r="K106" s="104">
+        <v>0</v>
+      </c>
+      <c r="L106" s="104">
         <v>0</v>
       </c>
       <c r="M106" s="15"/>
-      <c r="N106" s="107">
-        <v>0</v>
-      </c>
-      <c r="O106" s="107">
+      <c r="N106" s="105">
+        <v>0</v>
+      </c>
+      <c r="O106" s="105">
         <v>0</v>
       </c>
       <c r="P106" s="91">
@@ -11983,10 +12038,10 @@
       </c>
     </row>
     <row r="107" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K107" s="131"/>
+      <c r="K107" s="122"/>
     </row>
     <row r="108" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K108" s="131"/>
+      <c r="K108" s="122"/>
     </row>
     <row r="110" spans="1:42" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
@@ -12067,7 +12122,7 @@
       <c r="A112" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="108" t="s">
+      <c r="B112" s="106" t="s">
         <v>170</v>
       </c>
       <c r="C112" s="42" t="s">
@@ -12100,7 +12155,7 @@
       <c r="L112" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="M112" s="109" t="s">
+      <c r="M112" s="107" t="s">
         <v>5</v>
       </c>
       <c r="N112" s="42" t="s">
@@ -12113,9 +12168,9 @@
         <v>184</v>
       </c>
       <c r="Q112" s="102" t="s">
-        <v>300</v>
-      </c>
-      <c r="R112" s="108" t="s">
+        <v>289</v>
+      </c>
+      <c r="R112" s="106" t="s">
         <v>170</v>
       </c>
       <c r="S112" s="42" t="s">
@@ -12148,7 +12203,7 @@
       <c r="AB112" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="AC112" s="109" t="s">
+      <c r="AC112" s="107" t="s">
         <v>5</v>
       </c>
       <c r="AD112" s="42" t="s">
@@ -12168,13 +12223,13 @@
       <c r="C113" s="20">
         <v>612</v>
       </c>
-      <c r="D113" s="104">
+      <c r="D113" s="103">
         <v>8</v>
       </c>
-      <c r="E113" s="104">
+      <c r="E113" s="103">
         <v>4</v>
       </c>
-      <c r="F113" s="104">
+      <c r="F113" s="103">
         <v>20</v>
       </c>
       <c r="G113" s="95">
@@ -12189,8 +12244,8 @@
       <c r="J113" s="95">
         <v>5832</v>
       </c>
-      <c r="K113" s="135" t="s">
-        <v>286</v>
+      <c r="K113" s="123" t="s">
+        <v>275</v>
       </c>
       <c r="L113" s="70">
         <v>1296</v>
@@ -12275,13 +12330,13 @@
       <c r="C114" s="20">
         <v>1530</v>
       </c>
-      <c r="D114" s="104">
+      <c r="D114" s="103">
         <v>8.15</v>
       </c>
-      <c r="E114" s="104">
+      <c r="E114" s="103">
         <v>4.05</v>
       </c>
-      <c r="F114" s="104">
+      <c r="F114" s="103">
         <v>20.25</v>
       </c>
       <c r="G114" s="95">
@@ -12296,8 +12351,8 @@
       <c r="J114" s="95">
         <v>12219</v>
       </c>
-      <c r="K114" s="136" t="s">
-        <v>287</v>
+      <c r="K114" s="124" t="s">
+        <v>276</v>
       </c>
       <c r="L114" s="94">
         <v>3240</v>
@@ -12382,13 +12437,13 @@
       <c r="C115" s="20">
         <v>2448</v>
       </c>
-      <c r="D115" s="104">
+      <c r="D115" s="103">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E115" s="104">
+      <c r="E115" s="103">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F115" s="104">
+      <c r="F115" s="103">
         <v>20.45</v>
       </c>
       <c r="G115" s="95">
@@ -12403,8 +12458,8 @@
       <c r="J115" s="95">
         <v>19548</v>
       </c>
-      <c r="K115" s="135" t="s">
-        <v>288</v>
+      <c r="K115" s="123" t="s">
+        <v>277</v>
       </c>
       <c r="L115" s="70">
         <v>5184</v>
@@ -12489,13 +12544,13 @@
       <c r="C116" s="20">
         <v>6120</v>
       </c>
-      <c r="D116" s="104">
+      <c r="D116" s="103">
         <v>8.4499999999999993</v>
       </c>
-      <c r="E116" s="104">
+      <c r="E116" s="103">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F116" s="104">
+      <c r="F116" s="103">
         <v>20.65</v>
       </c>
       <c r="G116" s="95">
@@ -12510,7 +12565,7 @@
       <c r="J116" s="95">
         <v>50673</v>
       </c>
-      <c r="K116" s="136" t="s">
+      <c r="K116" s="124" t="s">
         <v>249</v>
       </c>
       <c r="L116" s="94">
@@ -12593,13 +12648,13 @@
       <c r="C117" s="20">
         <v>9180</v>
       </c>
-      <c r="D117" s="104">
+      <c r="D117" s="103">
         <v>8.6</v>
       </c>
-      <c r="E117" s="104">
+      <c r="E117" s="103">
         <v>4.2</v>
       </c>
-      <c r="F117" s="104">
+      <c r="F117" s="103">
         <v>20.85</v>
       </c>
       <c r="G117" s="95">
@@ -12614,7 +12669,7 @@
       <c r="J117" s="95">
         <v>75111</v>
       </c>
-      <c r="K117" s="135" t="s">
+      <c r="K117" s="123" t="s">
         <v>250</v>
       </c>
       <c r="L117" s="70">
@@ -12697,13 +12752,13 @@
       <c r="C118" s="20">
         <v>18360</v>
       </c>
-      <c r="D118" s="104">
+      <c r="D118" s="103">
         <v>8.75</v>
       </c>
-      <c r="E118" s="104">
+      <c r="E118" s="103">
         <v>4.25</v>
       </c>
-      <c r="F118" s="104">
+      <c r="F118" s="103">
         <v>21.05</v>
       </c>
       <c r="G118" s="95">
@@ -12718,8 +12773,8 @@
       <c r="J118" s="95">
         <v>147161</v>
       </c>
-      <c r="K118" s="136" t="s">
-        <v>289</v>
+      <c r="K118" s="124" t="s">
+        <v>278</v>
       </c>
       <c r="L118" s="94">
         <v>38880</v>
@@ -12801,13 +12856,13 @@
       <c r="C119" s="20">
         <v>27540</v>
       </c>
-      <c r="D119" s="104">
+      <c r="D119" s="103">
         <v>8.9</v>
       </c>
-      <c r="E119" s="104">
+      <c r="E119" s="103">
         <v>4.3</v>
       </c>
-      <c r="F119" s="104">
+      <c r="F119" s="103">
         <v>21.25</v>
       </c>
       <c r="G119" s="95">
@@ -12822,8 +12877,8 @@
       <c r="J119" s="95">
         <v>223532</v>
       </c>
-      <c r="K119" s="135" t="s">
-        <v>290</v>
+      <c r="K119" s="123" t="s">
+        <v>279</v>
       </c>
       <c r="L119" s="70">
         <v>58320</v>
@@ -12905,13 +12960,13 @@
       <c r="C120" s="20">
         <v>68850</v>
       </c>
-      <c r="D120" s="104">
+      <c r="D120" s="103">
         <v>9.0500000000000007</v>
       </c>
-      <c r="E120" s="104">
+      <c r="E120" s="103">
         <v>4.3499999999999996</v>
       </c>
-      <c r="F120" s="104">
+      <c r="F120" s="103">
         <v>21.45</v>
       </c>
       <c r="G120" s="95">
@@ -12926,8 +12981,8 @@
       <c r="J120" s="95">
         <v>553428</v>
       </c>
-      <c r="K120" s="136" t="s">
-        <v>291</v>
+      <c r="K120" s="124" t="s">
+        <v>280</v>
       </c>
       <c r="L120" s="94">
         <v>145800</v>
@@ -13009,13 +13064,13 @@
       <c r="C121" s="20">
         <v>103275</v>
       </c>
-      <c r="D121" s="104">
+      <c r="D121" s="103">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E121" s="104">
+      <c r="E121" s="103">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F121" s="104">
+      <c r="F121" s="103">
         <v>21.65</v>
       </c>
       <c r="G121" s="95">
@@ -13030,8 +13085,8 @@
       <c r="J121" s="95">
         <v>822942</v>
       </c>
-      <c r="K121" s="135" t="s">
-        <v>292</v>
+      <c r="K121" s="123" t="s">
+        <v>281</v>
       </c>
       <c r="L121" s="70">
         <v>218700</v>
@@ -13113,13 +13168,13 @@
       <c r="C122" s="20">
         <v>123930</v>
       </c>
-      <c r="D122" s="104">
+      <c r="D122" s="103">
         <v>9.35</v>
       </c>
-      <c r="E122" s="104">
+      <c r="E122" s="103">
         <v>4.45</v>
       </c>
-      <c r="F122" s="104">
+      <c r="F122" s="103">
         <v>21.85</v>
       </c>
       <c r="G122" s="95">
@@ -13134,8 +13189,8 @@
       <c r="J122" s="95">
         <v>989691</v>
       </c>
-      <c r="K122" s="136" t="s">
-        <v>293</v>
+      <c r="K122" s="124" t="s">
+        <v>282</v>
       </c>
       <c r="L122" s="94">
         <v>262440</v>
@@ -13217,13 +13272,13 @@
       <c r="C123" s="20">
         <v>148716</v>
       </c>
-      <c r="D123" s="104">
+      <c r="D123" s="103">
         <v>9.5</v>
       </c>
-      <c r="E123" s="104">
+      <c r="E123" s="103">
         <v>4.5</v>
       </c>
-      <c r="F123" s="104">
+      <c r="F123" s="103">
         <v>22.05</v>
       </c>
       <c r="G123" s="95">
@@ -13238,8 +13293,8 @@
       <c r="J123" s="95">
         <v>1204730</v>
       </c>
-      <c r="K123" s="135" t="s">
-        <v>294</v>
+      <c r="K123" s="123" t="s">
+        <v>283</v>
       </c>
       <c r="L123" s="70">
         <v>314928</v>
@@ -13321,13 +13376,13 @@
       <c r="C124" s="20">
         <v>178459</v>
       </c>
-      <c r="D124" s="104">
+      <c r="D124" s="103">
         <v>9.65</v>
       </c>
-      <c r="E124" s="104">
+      <c r="E124" s="103">
         <v>4.55</v>
       </c>
-      <c r="F124" s="104">
+      <c r="F124" s="103">
         <v>22.25</v>
       </c>
       <c r="G124" s="95">
@@ -13342,8 +13397,8 @@
       <c r="J124" s="95">
         <v>1427136</v>
       </c>
-      <c r="K124" s="136" t="s">
-        <v>295</v>
+      <c r="K124" s="124" t="s">
+        <v>284</v>
       </c>
       <c r="L124" s="94">
         <v>377914</v>
@@ -13425,13 +13480,13 @@
       <c r="C125" s="20">
         <v>214152</v>
       </c>
-      <c r="D125" s="104">
+      <c r="D125" s="103">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E125" s="104">
+      <c r="E125" s="103">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F125" s="104">
+      <c r="F125" s="103">
         <v>22.45</v>
       </c>
       <c r="G125" s="95">
@@ -13446,8 +13501,8 @@
       <c r="J125" s="95">
         <v>1711277</v>
       </c>
-      <c r="K125" s="135" t="s">
-        <v>296</v>
+      <c r="K125" s="123" t="s">
+        <v>285</v>
       </c>
       <c r="L125" s="70">
         <v>453498</v>
@@ -13529,13 +13584,13 @@
       <c r="C126" s="20">
         <v>256982</v>
       </c>
-      <c r="D126" s="104">
+      <c r="D126" s="103">
         <v>9.9499999999999993</v>
       </c>
-      <c r="E126" s="104">
+      <c r="E126" s="103">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F126" s="104">
+      <c r="F126" s="103">
         <v>22.65</v>
       </c>
       <c r="G126" s="95">
@@ -13550,8 +13605,8 @@
       <c r="J126" s="95">
         <v>2100831</v>
       </c>
-      <c r="K126" s="137" t="s">
-        <v>297</v>
+      <c r="K126" s="125" t="s">
+        <v>286</v>
       </c>
       <c r="L126" s="94">
         <v>544198</v>
@@ -13633,13 +13688,13 @@
       <c r="C127" s="20">
         <v>385474</v>
       </c>
-      <c r="D127" s="104">
+      <c r="D127" s="103">
         <v>10.1</v>
       </c>
-      <c r="E127" s="104">
+      <c r="E127" s="103">
         <v>4.7</v>
       </c>
-      <c r="F127" s="104">
+      <c r="F127" s="103">
         <v>22.85</v>
       </c>
       <c r="G127" s="95">
@@ -13654,8 +13709,8 @@
       <c r="J127" s="95">
         <v>3098145</v>
       </c>
-      <c r="K127" s="138" t="s">
-        <v>298</v>
+      <c r="K127" s="126" t="s">
+        <v>287</v>
       </c>
       <c r="L127" s="70">
         <v>816298</v>
@@ -13737,13 +13792,13 @@
       <c r="C128" s="20">
         <v>963681</v>
       </c>
-      <c r="D128" s="104">
+      <c r="D128" s="103">
         <v>10.25</v>
       </c>
-      <c r="E128" s="104">
+      <c r="E128" s="103">
         <v>4.75</v>
       </c>
-      <c r="F128" s="104">
+      <c r="F128" s="103">
         <v>23.05</v>
       </c>
       <c r="G128" s="95">
@@ -13758,8 +13813,8 @@
       <c r="J128" s="95">
         <v>7911843</v>
       </c>
-      <c r="K128" s="137" t="s">
-        <v>299</v>
+      <c r="K128" s="125" t="s">
+        <v>288</v>
       </c>
       <c r="L128" s="94">
         <v>2040736</v>
@@ -13841,13 +13896,13 @@
       <c r="C129" s="20">
         <v>1445520</v>
       </c>
-      <c r="D129" s="104">
+      <c r="D129" s="103">
         <v>10.4</v>
       </c>
-      <c r="E129" s="104">
+      <c r="E129" s="103">
         <v>4.8</v>
       </c>
-      <c r="F129" s="104">
+      <c r="F129" s="103">
         <v>23.25</v>
       </c>
       <c r="G129" s="95">
@@ -13862,8 +13917,8 @@
       <c r="J129" s="95">
         <v>11831754</v>
       </c>
-      <c r="K129" s="138" t="s">
-        <v>283</v>
+      <c r="K129" s="126" t="s">
+        <v>273</v>
       </c>
       <c r="L129" s="70">
         <v>3061102</v>
@@ -13945,13 +14000,13 @@
       <c r="C130" s="20">
         <v>2891040</v>
       </c>
-      <c r="D130" s="104">
+      <c r="D130" s="103">
         <v>10.55</v>
       </c>
-      <c r="E130" s="104">
+      <c r="E130" s="103">
         <v>4.8499999999999996</v>
       </c>
-      <c r="F130" s="104">
+      <c r="F130" s="103">
         <v>23.45</v>
       </c>
       <c r="G130" s="95">
@@ -13966,8 +14021,8 @@
       <c r="J130" s="95">
         <v>23124590</v>
       </c>
-      <c r="K130" s="138" t="s">
-        <v>284</v>
+      <c r="K130" s="126" t="s">
+        <v>274</v>
       </c>
       <c r="L130" s="94">
         <v>6122202</v>
@@ -14049,13 +14104,13 @@
       <c r="C131" s="20">
         <v>4336558</v>
       </c>
-      <c r="D131" s="104">
+      <c r="D131" s="103">
         <v>10.7</v>
       </c>
-      <c r="E131" s="104">
+      <c r="E131" s="103">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F131" s="104">
+      <c r="F131" s="103">
         <v>23.65</v>
       </c>
       <c r="G131" s="95">
@@ -14070,8 +14125,8 @@
       <c r="J131" s="95">
         <v>35351250</v>
       </c>
-      <c r="K131" s="138" t="s">
-        <v>301</v>
+      <c r="K131" s="126" t="s">
+        <v>290</v>
       </c>
       <c r="L131" s="70">
         <v>9183300</v>
@@ -14153,31 +14208,31 @@
       <c r="C132" s="20">
         <v>0</v>
       </c>
-      <c r="D132" s="104">
+      <c r="D132" s="103">
         <v>10.85</v>
       </c>
-      <c r="E132" s="104">
+      <c r="E132" s="103">
         <v>4.95</v>
       </c>
-      <c r="F132" s="104">
+      <c r="F132" s="103">
         <v>23.85</v>
       </c>
-      <c r="G132" s="106">
-        <v>0</v>
-      </c>
-      <c r="H132" s="106">
-        <v>0</v>
-      </c>
-      <c r="I132" s="106">
-        <v>0</v>
-      </c>
-      <c r="J132" s="106">
-        <v>0</v>
-      </c>
-      <c r="K132" s="106">
-        <v>0</v>
-      </c>
-      <c r="L132" s="106">
+      <c r="G132" s="104">
+        <v>0</v>
+      </c>
+      <c r="H132" s="104">
+        <v>0</v>
+      </c>
+      <c r="I132" s="104">
+        <v>0</v>
+      </c>
+      <c r="J132" s="104">
+        <v>0</v>
+      </c>
+      <c r="K132" s="104">
+        <v>0</v>
+      </c>
+      <c r="L132" s="104">
         <v>0</v>
       </c>
       <c r="M132" s="15"/>
@@ -14282,13 +14337,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -14384,7 +14439,7 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="M7" s="141"/>
+      <c r="M7" s="128"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -14675,37 +14730,37 @@
         <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F24" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G24" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H24" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="I24" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="J24" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="K24" t="s">
         <v>239</v>
       </c>
       <c r="L24" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="M24" t="s">
         <v>63</v>
@@ -14725,28 +14780,28 @@
         <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D26" t="s">
         <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F26" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H26" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="I26" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -14756,3915 +14811,931 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD113"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="39.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="68"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="124" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="124" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H7" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="K8" t="str">
+        <f>CONCATENATE(A8,B8,C8,H8,D8,E8,I8,F8)</f>
+        <v>stringKey[12] = (posX-3)+","+(posY)+",0";</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>327</v>
+      </c>
+      <c r="W8" t="str">
+        <f>CONCATENATE(Q8,R8,S8)</f>
+        <v>stringKey[0] = (posX-2)+","+(posY)+",0";</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="I9" s="133" t="s">
+        <v>321</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" ref="K9:K25" si="0">CONCATENATE(A9,B9,C9,H9,D9,E9,I9,F9)</f>
+        <v>stringKey[13] = (posX-2)+","+(posY+1)+",0";</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>325</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>328</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" ref="W9:W19" si="1">CONCATENATE(Q9,R9,S9)</f>
+        <v>stringKey[1] = (posX-2)+","+(posY-1)+",0";</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10" s="133" t="s">
+        <v>339</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[14] = (posX-2)+","+(posY-1)+",0";</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>325</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>329</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="1"/>
+        <v>stringKey[2] = (posX-2)+","+(posY+1)+",0";</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="133" t="s">
+        <v>340</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[15] = (posX-2)+","+(posY+2)+",0";</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>325</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s">
+        <v>330</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="1"/>
+        <v>stringKey[3] = (posX-1)+","+(posY-2)+",0";</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="133" t="s">
+        <v>340</v>
+      </c>
+      <c r="I12" s="133" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[16] = (posX-2)+","+(posY-2)+",0";</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>325</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s">
+        <v>331</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="1"/>
+        <v>stringKey[4] = (posX-1)+","+(posY+2)+",0";</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="133" t="s">
+        <v>339</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[17] = (posX-1)+","+(posY+3)+",0";</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>325</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>332</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="1"/>
+        <v>stringKey[5] = (posX)+","+(posY-2)+",0";</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F14" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H14" s="133" t="s">
+        <v>339</v>
+      </c>
+      <c r="I14" s="133" t="s">
+        <v>342</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[18] = (posX-1)+","+(posY-3)+",0";</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>325</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14" t="s">
+        <v>333</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="1"/>
+        <v>stringKey[6] = (posX)+","+(posY+2)+",0";</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133" t="s">
+        <v>341</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[19] = (posX)+","+(posY+3)+",0";</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>325</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15" t="s">
+        <v>334</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="1"/>
+        <v>stringKey[7] = (posX+1)+","+(posY+2)+",0";</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133" t="s">
+        <v>342</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[20] = (posX)+","+(posY-3)+",0";</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>325</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16" t="s">
+        <v>335</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="1"/>
+        <v>stringKey[8] = (posX+1)+","+(posY-2)+",0";</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" s="133" t="s">
+        <v>321</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[21] = (posX+1)+","+(posY+3)+",0";</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>325</v>
+      </c>
+      <c r="R17">
+        <v>9</v>
+      </c>
+      <c r="S17" t="s">
+        <v>336</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="1"/>
+        <v>stringKey[9] = (posX+1)+","+(posY-1)+",0";</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F18" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H18" s="133" t="s">
+        <v>321</v>
+      </c>
+      <c r="I18" s="133" t="s">
+        <v>342</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[22] = (posX+1)+","+(posY-3)+",0";</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>325</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18" t="s">
+        <v>337</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="1"/>
+        <v>stringKey[10] = (posX+1)+","+(posY+1)+",0";</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H19" s="133" t="s">
+        <v>324</v>
+      </c>
+      <c r="I19" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[23] = (posX+2)+","+(posY+3)+",0";</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>325</v>
+      </c>
+      <c r="R19">
+        <v>11</v>
+      </c>
+      <c r="S19" t="s">
+        <v>338</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="1"/>
+        <v>stringKey[11] = (posX+2)+","+(posY)+",0";</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" t="s">
+        <v>322</v>
+      </c>
+      <c r="E20" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H20" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="I20" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[24] = (posX+2)+","+(posY-3)+",0";</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21" t="s">
+        <v>318</v>
+      </c>
+      <c r="F21" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H21" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="I21" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[25] = (posX+2)+","+(posY+2)+",0";</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
-        <v>180</v>
-      </c>
-      <c r="B2" s="54">
-        <v>85</v>
-      </c>
-      <c r="C2" s="124">
-        <f>B2*50</f>
-        <v>4250</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22">
-        <f>SUM(O2:R2)</f>
-        <v>90060</v>
-      </c>
-      <c r="O2">
-        <f>24*60*60</f>
-        <v>86400</v>
-      </c>
-      <c r="P2">
-        <f>60*60</f>
-        <v>3600</v>
-      </c>
-      <c r="Q2">
-        <v>60</v>
-      </c>
-      <c r="U2">
-        <v>86</v>
-      </c>
-      <c r="V2">
-        <f>U2+$V$1</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>360</v>
-      </c>
-      <c r="B3" s="125">
-        <f>A3*B2/A2</f>
-        <v>170</v>
-      </c>
-      <c r="C3" s="124">
-        <f>B3*50</f>
-        <v>8500</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="C22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" t="s">
+        <v>322</v>
+      </c>
+      <c r="E22" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="I22" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[26] = (posX+2)+","+(posY-2)+",0";</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>325</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>327</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" ref="W22:W33" si="2">CONCATENATE(Q22,R22,S22)</f>
+        <v>stringKey[0] = (posX-2)+","+(posY)+",0";</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" t="s">
+        <v>322</v>
+      </c>
+      <c r="E23" t="s">
+        <v>318</v>
+      </c>
+      <c r="F23" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H23" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="I23" s="68" t="s">
+        <v>321</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[27] = (posX+3)+","+(posY+1)+",0";</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>325</v>
+      </c>
+      <c r="R23">
         <v>1</v>
       </c>
-      <c r="H3" s="104">
-        <v>1296</v>
-      </c>
-      <c r="I3" s="22">
-        <f>ROUNDUP(H3,0)</f>
-        <v>1296</v>
-      </c>
-      <c r="J3" s="22">
-        <f>I3/1440/60</f>
-        <v>1.5000000000000001E-2</v>
-      </c>
-      <c r="K3" s="86">
-        <f>J3</f>
-        <v>1.5000000000000001E-2</v>
-      </c>
-      <c r="L3" s="103">
-        <f>K3</f>
-        <v>1.5000000000000001E-2</v>
-      </c>
-      <c r="M3" s="22">
-        <f>N3*O3</f>
-        <v>31536000</v>
-      </c>
-      <c r="N3">
-        <v>365</v>
-      </c>
-      <c r="O3">
-        <v>86400</v>
-      </c>
-      <c r="U3">
-        <f>U2+1</f>
-        <v>87</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V5" si="0">U3+$V$1</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="121" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="127">
-        <f>85/180</f>
-        <v>0.47222222222222221</v>
-      </c>
-      <c r="C4" s="128"/>
-      <c r="F4" s="6">
+      <c r="S23" t="s">
+        <v>343</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="2"/>
+        <v>stringKey[1] = (posX-1)+","+(posY-1)+",0";</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E24" t="s">
+        <v>318</v>
+      </c>
+      <c r="F24" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>stringKey[28] = (posX+3)+","+(posY-1)+",0";</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>325</v>
+      </c>
+      <c r="R24">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>2.5</v>
-      </c>
-      <c r="H4" s="105">
-        <v>3240</v>
-      </c>
-      <c r="I4" s="22">
-        <f t="shared" ref="I4:I20" si="1">ROUNDUP(H4,0)</f>
-        <v>3240</v>
-      </c>
-      <c r="J4" s="22">
-        <f t="shared" ref="J4:J22" si="2">I4/1440/60</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="K4" s="86">
-        <f t="shared" ref="K4:L21" si="3">J4</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="L4" s="103">
-        <f t="shared" si="3"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="U4">
-        <f t="shared" ref="U4:U5" si="4">U3+1</f>
-        <v>88</v>
-      </c>
-      <c r="V4">
+      <c r="S24" t="s">
+        <v>344</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="2"/>
+        <v>stringKey[2] = (posX-1)+","+(posY+1)+",0";</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D25" t="s">
+        <v>322</v>
+      </c>
+      <c r="E25" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="H25" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F5" s="6">
+        <v>stringKey[29] = (posX+3)+","+(posY)+",0";</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>325</v>
+      </c>
+      <c r="R25">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>1.6</v>
-      </c>
-      <c r="H5" s="105">
-        <v>5184</v>
-      </c>
-      <c r="I5" s="22">
-        <f t="shared" si="1"/>
-        <v>5184</v>
-      </c>
-      <c r="J5" s="22">
+      <c r="S25" t="s">
+        <v>330</v>
+      </c>
+      <c r="W25" t="str">
         <f t="shared" si="2"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="K5" s="86">
-        <f t="shared" si="3"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="L5" s="103">
-        <f t="shared" si="3"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="M5" s="22"/>
-      <c r="U5">
-        <f t="shared" si="4"/>
-        <v>89</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
+        <v>stringKey[3] = (posX-1)+","+(posY-2)+",0";</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>325</v>
+      </c>
+      <c r="R26">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>2.5</v>
-      </c>
-      <c r="H6" s="105">
-        <v>12960</v>
-      </c>
-      <c r="I6" s="22">
-        <f t="shared" si="1"/>
-        <v>12960</v>
-      </c>
-      <c r="J6" s="22">
+      <c r="S26" t="s">
+        <v>331</v>
+      </c>
+      <c r="W26" t="str">
         <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="K6" s="86">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="L6" s="103">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>1</v>
-      </c>
-      <c r="B7" s="20">
-        <v>306</v>
-      </c>
-      <c r="C7">
-        <f>MROUND(B7,1)</f>
-        <v>306</v>
-      </c>
-      <c r="D7" s="134">
-        <f>B7*$D$6</f>
-        <v>612</v>
-      </c>
-      <c r="F7" s="6">
+        <v>stringKey[4] = (posX-1)+","+(posY+2)+",0";</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>325</v>
+      </c>
+      <c r="R27">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>1.5</v>
-      </c>
-      <c r="H7" s="105">
-        <v>19440</v>
-      </c>
-      <c r="I7" s="22">
-        <f t="shared" si="1"/>
-        <v>19440</v>
-      </c>
-      <c r="J7" s="22">
+      <c r="S27" t="s">
+        <v>332</v>
+      </c>
+      <c r="W27" t="str">
         <f t="shared" si="2"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="K7" s="86">
-        <f t="shared" si="3"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="L7" s="103">
-        <f t="shared" si="3"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>2</v>
-      </c>
-      <c r="B8" s="20">
-        <v>765</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8:C25" si="5">MROUND(B8,1)</f>
-        <v>765</v>
-      </c>
-      <c r="D8" s="134">
-        <f t="shared" ref="D8:D25" si="6">B8*$D$6</f>
-        <v>1530</v>
-      </c>
-      <c r="F8" s="6">
+        <v>stringKey[5] = (posX)+","+(posY-2)+",0";</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>325</v>
+      </c>
+      <c r="R28">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="105">
-        <v>38880</v>
-      </c>
-      <c r="I8" s="22">
-        <f t="shared" si="1"/>
-        <v>38880</v>
-      </c>
-      <c r="J8" s="22">
+      <c r="S28" t="s">
+        <v>333</v>
+      </c>
+      <c r="W28" t="str">
         <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
-      <c r="K8" s="86">
-        <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-      <c r="L8" s="103">
-        <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1224</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="5"/>
-        <v>1224</v>
-      </c>
-      <c r="D9" s="134">
-        <f t="shared" si="6"/>
-        <v>2448</v>
-      </c>
-      <c r="F9" s="6">
+        <v>stringKey[6] = (posX)+","+(posY+2)+",0";</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>325</v>
+      </c>
+      <c r="R29">
         <v>7</v>
       </c>
-      <c r="G9">
-        <v>1.5</v>
-      </c>
-      <c r="H9" s="105">
-        <v>58320</v>
-      </c>
-      <c r="I9" s="22">
-        <f t="shared" si="1"/>
-        <v>58320</v>
-      </c>
-      <c r="J9" s="22">
+      <c r="S29" t="s">
+        <v>335</v>
+      </c>
+      <c r="W29" t="str">
         <f t="shared" si="2"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="K9" s="86">
-        <f t="shared" si="3"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="L9" s="103">
-        <f t="shared" si="3"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>4</v>
-      </c>
-      <c r="B10" s="20">
-        <v>3060</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="5"/>
-        <v>3060</v>
-      </c>
-      <c r="D10" s="134">
-        <f t="shared" si="6"/>
-        <v>6120</v>
-      </c>
-      <c r="F10" s="6">
+        <v>stringKey[7] = (posX+1)+","+(posY-2)+",0";</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>325</v>
+      </c>
+      <c r="R30">
         <v>8</v>
       </c>
-      <c r="G10">
-        <v>2.5</v>
-      </c>
-      <c r="H10" s="105">
-        <v>145800</v>
-      </c>
-      <c r="I10" s="22">
-        <f t="shared" si="1"/>
-        <v>145800</v>
-      </c>
-      <c r="J10" s="22">
+      <c r="S30" t="s">
+        <v>334</v>
+      </c>
+      <c r="W30" t="str">
         <f t="shared" si="2"/>
-        <v>1.6875</v>
-      </c>
-      <c r="K10" s="86">
-        <f t="shared" si="3"/>
-        <v>1.6875</v>
-      </c>
-      <c r="L10" s="103">
-        <f t="shared" si="3"/>
-        <v>1.6875</v>
-      </c>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>5</v>
-      </c>
-      <c r="B11" s="20">
-        <v>4590</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="5"/>
-        <v>4590</v>
-      </c>
-      <c r="D11" s="134">
-        <f t="shared" si="6"/>
-        <v>9180</v>
-      </c>
-      <c r="F11" s="6">
+        <v>stringKey[8] = (posX+1)+","+(posY+2)+",0";</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>325</v>
+      </c>
+      <c r="R31">
         <v>9</v>
       </c>
-      <c r="G11">
-        <v>1.5</v>
-      </c>
-      <c r="H11" s="105">
-        <v>218700</v>
-      </c>
-      <c r="I11" s="22">
-        <f t="shared" si="1"/>
-        <v>218700</v>
-      </c>
-      <c r="J11" s="22">
+      <c r="S31" t="s">
+        <v>345</v>
+      </c>
+      <c r="W31" t="str">
         <f t="shared" si="2"/>
-        <v>2.53125</v>
-      </c>
-      <c r="K11" s="86">
-        <f t="shared" si="3"/>
-        <v>2.53125</v>
-      </c>
-      <c r="L11" s="86">
-        <f t="shared" si="3"/>
-        <v>2.53125</v>
-      </c>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>6</v>
-      </c>
-      <c r="B12" s="20">
-        <v>9180</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="5"/>
-        <v>9180</v>
-      </c>
-      <c r="D12" s="134">
-        <f t="shared" si="6"/>
-        <v>18360</v>
-      </c>
-      <c r="F12" s="6">
+        <v>stringKey[9] = (posX+2)+","+(posY-1)+",0";</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>325</v>
+      </c>
+      <c r="R32">
         <v>10</v>
       </c>
-      <c r="G12">
-        <v>1.2</v>
-      </c>
-      <c r="H12" s="105">
-        <v>262440</v>
-      </c>
-      <c r="I12" s="22">
-        <f t="shared" si="1"/>
-        <v>262440</v>
-      </c>
-      <c r="J12" s="22">
+      <c r="S32" t="s">
+        <v>346</v>
+      </c>
+      <c r="W32" t="str">
         <f t="shared" si="2"/>
-        <v>3.0375000000000001</v>
-      </c>
-      <c r="K12" s="86">
-        <f t="shared" si="3"/>
-        <v>3.0375000000000001</v>
-      </c>
-      <c r="L12" s="86">
-        <f t="shared" si="3"/>
-        <v>3.0375000000000001</v>
-      </c>
-      <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>7</v>
-      </c>
-      <c r="B13" s="20">
-        <v>13770</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="5"/>
-        <v>13770</v>
-      </c>
-      <c r="D13" s="134">
-        <f t="shared" si="6"/>
-        <v>27540</v>
-      </c>
-      <c r="F13" s="6">
+        <v>stringKey[10] = (posX+2)+","+(posY+1)+",0";</v>
+      </c>
+    </row>
+    <row r="33" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>325</v>
+      </c>
+      <c r="R33">
         <v>11</v>
       </c>
-      <c r="G13">
-        <v>1.2</v>
-      </c>
-      <c r="H13" s="105">
-        <v>314928</v>
-      </c>
-      <c r="I13" s="22">
-        <f t="shared" si="1"/>
-        <v>314928</v>
-      </c>
-      <c r="J13" s="22">
+      <c r="S33" t="s">
+        <v>338</v>
+      </c>
+      <c r="W33" t="str">
         <f t="shared" si="2"/>
-        <v>3.645</v>
-      </c>
-      <c r="K13" s="86">
-        <f t="shared" si="3"/>
-        <v>3.645</v>
-      </c>
-      <c r="L13" s="86">
-        <f t="shared" si="3"/>
-        <v>3.645</v>
-      </c>
-      <c r="M13" s="22"/>
-      <c r="O13">
-        <v>106</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="Q13">
-        <v>55</v>
-      </c>
-      <c r="S13" t="str">
-        <f>CONCATENATE(O13,"d ",P13,"h:",Q13,"m:",R14)</f>
-        <v>106d 6h:55m:0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>8</v>
-      </c>
-      <c r="B14" s="20">
-        <v>34425</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="5"/>
-        <v>34425</v>
-      </c>
-      <c r="D14" s="134">
-        <f t="shared" si="6"/>
-        <v>68850</v>
-      </c>
-      <c r="F14" s="6">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>1.2</v>
-      </c>
-      <c r="H14" s="105">
-        <v>377914</v>
-      </c>
-      <c r="I14" s="22">
-        <f t="shared" si="1"/>
-        <v>377914</v>
-      </c>
-      <c r="J14" s="22">
-        <f t="shared" si="2"/>
-        <v>4.3740046296296295</v>
-      </c>
-      <c r="K14" s="86">
-        <f t="shared" si="3"/>
-        <v>4.3740046296296295</v>
-      </c>
-      <c r="L14" s="86">
-        <f t="shared" si="3"/>
-        <v>4.3740046296296295</v>
-      </c>
-      <c r="M14" s="22">
-        <f>SUM(O14:R14)</f>
-        <v>9183300</v>
-      </c>
-      <c r="O14">
-        <f>O13*O2</f>
-        <v>9158400</v>
-      </c>
-      <c r="P14">
-        <f>P13*P2</f>
-        <v>21600</v>
-      </c>
-      <c r="Q14">
-        <f>Q13*Q2</f>
-        <v>3300</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>9</v>
-      </c>
-      <c r="B15" s="20">
-        <v>51638</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="5"/>
-        <v>51638</v>
-      </c>
-      <c r="D15" s="134">
-        <f t="shared" si="6"/>
-        <v>103276</v>
-      </c>
-      <c r="F15" s="6">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>1.2</v>
-      </c>
-      <c r="H15" s="105">
-        <v>453498</v>
-      </c>
-      <c r="I15" s="22">
-        <f t="shared" si="1"/>
-        <v>453498</v>
-      </c>
-      <c r="J15" s="22">
-        <f t="shared" si="2"/>
-        <v>5.2488194444444449</v>
-      </c>
-      <c r="K15" s="86">
-        <f t="shared" si="3"/>
-        <v>5.2488194444444449</v>
-      </c>
-      <c r="L15" s="86">
-        <f t="shared" si="3"/>
-        <v>5.2488194444444449</v>
-      </c>
-      <c r="M15" s="139">
-        <f>I21</f>
-        <v>9183300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>10</v>
-      </c>
-      <c r="B16" s="20">
-        <v>61965</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="5"/>
-        <v>61965</v>
-      </c>
-      <c r="D16" s="134">
-        <f t="shared" si="6"/>
-        <v>123930</v>
-      </c>
-      <c r="F16" s="6">
-        <v>14</v>
-      </c>
-      <c r="G16">
-        <v>1.2</v>
-      </c>
-      <c r="H16" s="105">
-        <v>544198</v>
-      </c>
-      <c r="I16" s="22">
-        <f t="shared" si="1"/>
-        <v>544198</v>
-      </c>
-      <c r="J16" s="22">
-        <f t="shared" si="2"/>
-        <v>6.2985879629629631</v>
-      </c>
-      <c r="K16" s="86">
-        <f t="shared" si="3"/>
-        <v>6.2985879629629631</v>
-      </c>
-      <c r="L16" s="86">
-        <f t="shared" si="3"/>
-        <v>6.2985879629629631</v>
-      </c>
-      <c r="M16" s="22">
-        <f>M15-M14</f>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f>M16/M2</f>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f>O13+N16</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>11</v>
-      </c>
-      <c r="B17" s="20">
-        <v>74358</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="5"/>
-        <v>74358</v>
-      </c>
-      <c r="D17" s="134">
-        <f t="shared" si="6"/>
-        <v>148716</v>
-      </c>
-      <c r="F17" s="6">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>1.5</v>
-      </c>
-      <c r="H17" s="105">
-        <v>816298</v>
-      </c>
-      <c r="I17" s="22">
-        <f t="shared" si="1"/>
-        <v>816298</v>
-      </c>
-      <c r="J17" s="22">
-        <f t="shared" si="2"/>
-        <v>9.4478935185185193</v>
-      </c>
-      <c r="K17" s="86">
-        <f t="shared" si="3"/>
-        <v>9.4478935185185193</v>
-      </c>
-      <c r="L17" s="86">
-        <f t="shared" si="3"/>
-        <v>9.4478935185185193</v>
-      </c>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>12</v>
-      </c>
-      <c r="B18" s="20">
-        <v>89230</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="5"/>
-        <v>89230</v>
-      </c>
-      <c r="D18" s="134">
-        <f t="shared" si="6"/>
-        <v>178460</v>
-      </c>
-      <c r="F18" s="6">
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <v>2.5</v>
-      </c>
-      <c r="H18" s="105">
-        <v>2040736</v>
-      </c>
-      <c r="I18" s="22">
-        <f t="shared" si="1"/>
-        <v>2040736</v>
-      </c>
-      <c r="J18" s="22">
-        <f t="shared" si="2"/>
-        <v>23.619629629629628</v>
-      </c>
-      <c r="K18" s="86">
-        <f t="shared" si="3"/>
-        <v>23.619629629629628</v>
-      </c>
-      <c r="L18" s="86">
-        <f t="shared" si="3"/>
-        <v>23.619629629629628</v>
-      </c>
-      <c r="M18" s="22"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>13</v>
-      </c>
-      <c r="B19" s="20">
-        <v>107076</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="5"/>
-        <v>107076</v>
-      </c>
-      <c r="D19" s="134">
-        <f t="shared" si="6"/>
-        <v>214152</v>
-      </c>
-      <c r="F19" s="6">
-        <v>17</v>
-      </c>
-      <c r="G19">
-        <v>1.5</v>
-      </c>
-      <c r="H19" s="105">
-        <v>3061102</v>
-      </c>
-      <c r="I19" s="22">
-        <f t="shared" si="1"/>
-        <v>3061102</v>
-      </c>
-      <c r="J19" s="22">
-        <f t="shared" si="2"/>
-        <v>35.42942129629629</v>
-      </c>
-      <c r="K19" s="86">
-        <f t="shared" si="3"/>
-        <v>35.42942129629629</v>
-      </c>
-      <c r="L19" s="86" t="s">
-        <v>283</v>
-      </c>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>14</v>
-      </c>
-      <c r="B20" s="20">
-        <v>128491</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="5"/>
-        <v>128491</v>
-      </c>
-      <c r="D20" s="134">
-        <f t="shared" si="6"/>
-        <v>256982</v>
-      </c>
-      <c r="F20" s="6">
-        <v>18</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" s="105">
-        <v>6122202</v>
-      </c>
-      <c r="I20" s="22">
-        <f t="shared" si="1"/>
-        <v>6122202</v>
-      </c>
-      <c r="J20" s="22">
-        <f t="shared" si="2"/>
-        <v>70.858819444444435</v>
-      </c>
-      <c r="K20" s="86">
-        <f t="shared" si="3"/>
-        <v>70.858819444444435</v>
-      </c>
-      <c r="L20" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>15</v>
-      </c>
-      <c r="B21" s="20">
-        <v>192737</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="5"/>
-        <v>192737</v>
-      </c>
-      <c r="D21" s="134">
-        <f t="shared" si="6"/>
-        <v>385474</v>
-      </c>
-      <c r="F21" s="6">
-        <v>19</v>
-      </c>
-      <c r="G21">
-        <v>1.5</v>
-      </c>
-      <c r="H21" s="105">
-        <v>9183300</v>
-      </c>
-      <c r="I21" s="22">
-        <f>ROUNDUP(H21,0)</f>
-        <v>9183300</v>
-      </c>
-      <c r="J21" s="22">
-        <f t="shared" si="2"/>
-        <v>106.28819444444444</v>
-      </c>
-      <c r="K21" s="86">
-        <f t="shared" si="3"/>
-        <v>106.28819444444444</v>
-      </c>
-      <c r="L21" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="M21" s="22"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
-        <v>16</v>
-      </c>
-      <c r="B22" s="20">
-        <v>481840</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="5"/>
-        <v>481840</v>
-      </c>
-      <c r="D22" s="134">
-        <f t="shared" si="6"/>
-        <v>963680</v>
-      </c>
-      <c r="F22" s="6">
-        <v>20</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="49">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22">
-        <f>ROUNDUP(H22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="86">
-        <v>0</v>
-      </c>
-      <c r="L22" s="37">
-        <v>0</v>
-      </c>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
-        <v>17</v>
-      </c>
-      <c r="B23" s="20">
-        <v>722760</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="5"/>
-        <v>722760</v>
-      </c>
-      <c r="D23" s="134">
-        <f t="shared" si="6"/>
-        <v>1445520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
-        <v>18</v>
-      </c>
-      <c r="B24" s="20">
-        <v>1445520</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="5"/>
-        <v>1445520</v>
-      </c>
-      <c r="D24" s="134">
-        <f t="shared" si="6"/>
-        <v>2891040</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
-        <v>19</v>
-      </c>
-      <c r="B25" s="20">
-        <v>2168279</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="5"/>
-        <v>2168279</v>
-      </c>
-      <c r="D25" s="134">
-        <f t="shared" si="6"/>
-        <v>4336558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="124" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="129" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="70">
-        <v>1296</v>
-      </c>
-      <c r="B30">
-        <f>MROUND(A30*$B$4,1)</f>
-        <v>612</v>
-      </c>
-      <c r="C30" s="126">
-        <v>3456</v>
-      </c>
-      <c r="D30" s="126">
-        <v>3312</v>
-      </c>
-      <c r="E30" s="126">
-        <v>2700</v>
-      </c>
-      <c r="F30" s="126">
-        <v>5832</v>
-      </c>
-      <c r="G30" s="52">
-        <f>SUM(C30:F30)</f>
-        <v>15300</v>
-      </c>
-      <c r="I30" s="70">
-        <f>C30*2</f>
-        <v>6912</v>
-      </c>
-      <c r="J30" s="70">
-        <f t="shared" ref="J30:L30" si="7">D30*2</f>
-        <v>6624</v>
-      </c>
-      <c r="K30" s="70">
-        <f t="shared" si="7"/>
-        <v>5400</v>
-      </c>
-      <c r="L30" s="70">
-        <f t="shared" si="7"/>
-        <v>11664</v>
-      </c>
-      <c r="M30" s="52">
-        <f>SUM(I30:L30)</f>
-        <v>30600</v>
-      </c>
-      <c r="N30" s="130">
-        <f>M30/50</f>
-        <v>612</v>
-      </c>
-      <c r="O30">
-        <f>MROUND(N30,1)</f>
-        <v>612</v>
-      </c>
-      <c r="P30" t="str">
-        <f>IF(O30=B30,"v","x")</f>
-        <v>v</v>
-      </c>
-      <c r="Q30" s="132">
-        <v>3456</v>
-      </c>
-      <c r="R30" s="132">
-        <v>3312</v>
-      </c>
-      <c r="S30" s="132">
-        <v>5832</v>
-      </c>
-      <c r="T30" s="132">
-        <v>2700</v>
-      </c>
-      <c r="U30" s="22"/>
-      <c r="V30" s="133">
-        <v>3456</v>
-      </c>
-      <c r="W30" s="132">
-        <v>2700</v>
-      </c>
-      <c r="X30" s="132">
-        <v>3312</v>
-      </c>
-      <c r="Y30" s="132">
-        <v>5832</v>
-      </c>
-      <c r="AA30" s="12">
-        <f>MROUND(V30,1)</f>
-        <v>3456</v>
-      </c>
-      <c r="AB30" s="12">
-        <f t="shared" ref="AB30:AD45" si="8">MROUND(W30,1)</f>
-        <v>2700</v>
-      </c>
-      <c r="AC30" s="12">
-        <f t="shared" si="8"/>
-        <v>3312</v>
-      </c>
-      <c r="AD30" s="12">
-        <f t="shared" si="8"/>
-        <v>5832</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="94">
-        <v>3240</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ref="B31:B48" si="9">MROUND(A31*$B$4,1)</f>
-        <v>1530</v>
-      </c>
-      <c r="C31" s="126">
-        <v>8792</v>
-      </c>
-      <c r="D31" s="126">
-        <v>8547</v>
-      </c>
-      <c r="E31" s="126">
-        <v>8634</v>
-      </c>
-      <c r="F31" s="126">
-        <v>12219</v>
-      </c>
-      <c r="G31" s="52">
-        <f t="shared" ref="G31:G48" si="10">SUM(C31:F31)</f>
-        <v>38192</v>
-      </c>
-      <c r="I31" s="70">
-        <f t="shared" ref="I31:I48" si="11">C31*2</f>
-        <v>17584</v>
-      </c>
-      <c r="J31" s="70">
-        <f t="shared" ref="J31:J48" si="12">D31*2</f>
-        <v>17094</v>
-      </c>
-      <c r="K31" s="70">
-        <f t="shared" ref="K31:K48" si="13">E31*2</f>
-        <v>17268</v>
-      </c>
-      <c r="L31" s="70">
-        <f t="shared" ref="L31:L48" si="14">F31*2</f>
-        <v>24438</v>
-      </c>
-      <c r="M31" s="52">
-        <f t="shared" ref="M31:M48" si="15">SUM(I31:L31)</f>
-        <v>76384</v>
-      </c>
-      <c r="N31" s="130">
-        <f t="shared" ref="N31:N48" si="16">M31/50</f>
-        <v>1527.68</v>
-      </c>
-      <c r="O31">
-        <f t="shared" ref="O31:O48" si="17">MROUND(N31,1)</f>
-        <v>1528</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" ref="P31:P48" si="18">IF(O31=B31,"v","x")</f>
-        <v>x</v>
-      </c>
-      <c r="Q31" s="132">
-        <v>8791.5</v>
-      </c>
-      <c r="R31" s="132">
-        <v>8547</v>
-      </c>
-      <c r="S31" s="132">
-        <v>12219</v>
-      </c>
-      <c r="T31" s="132">
-        <v>8634</v>
-      </c>
-      <c r="U31" s="22"/>
-      <c r="V31" s="133">
-        <v>8791.5</v>
-      </c>
-      <c r="W31" s="132">
-        <v>8634</v>
-      </c>
-      <c r="X31" s="132">
-        <v>8547</v>
-      </c>
-      <c r="Y31" s="132">
-        <v>12219</v>
-      </c>
-      <c r="AA31" s="12">
-        <f t="shared" ref="AA31:AA48" si="19">MROUND(V31,1)</f>
-        <v>8792</v>
-      </c>
-      <c r="AB31" s="12">
-        <f t="shared" si="8"/>
-        <v>8634</v>
-      </c>
-      <c r="AC31" s="12">
-        <f t="shared" si="8"/>
-        <v>8547</v>
-      </c>
-      <c r="AD31" s="12">
-        <f t="shared" si="8"/>
-        <v>12219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="70">
-        <v>5184</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="9"/>
-        <v>2448</v>
-      </c>
-      <c r="C32" s="126">
-        <v>14012</v>
-      </c>
-      <c r="D32" s="126">
-        <v>13673</v>
-      </c>
-      <c r="E32" s="126">
-        <v>13959</v>
-      </c>
-      <c r="F32" s="126">
-        <v>19548</v>
-      </c>
-      <c r="G32" s="52">
-        <f t="shared" si="10"/>
-        <v>61192</v>
-      </c>
-      <c r="I32" s="70">
-        <f t="shared" si="11"/>
-        <v>28024</v>
-      </c>
-      <c r="J32" s="70">
-        <f t="shared" si="12"/>
-        <v>27346</v>
-      </c>
-      <c r="K32" s="70">
-        <f t="shared" si="13"/>
-        <v>27918</v>
-      </c>
-      <c r="L32" s="70">
-        <f t="shared" si="14"/>
-        <v>39096</v>
-      </c>
-      <c r="M32" s="52">
-        <f t="shared" si="15"/>
-        <v>122384</v>
-      </c>
-      <c r="N32" s="130">
-        <f t="shared" si="16"/>
-        <v>2447.6799999999998</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="17"/>
-        <v>2448</v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="18"/>
-        <v>v</v>
-      </c>
-      <c r="Q32" s="132">
-        <v>14011.5</v>
-      </c>
-      <c r="R32" s="132">
-        <v>13672.5</v>
-      </c>
-      <c r="S32" s="132">
-        <v>19548</v>
-      </c>
-      <c r="T32" s="132">
-        <v>13959</v>
-      </c>
-      <c r="U32" s="22"/>
-      <c r="V32" s="133">
-        <v>14011.5</v>
-      </c>
-      <c r="W32" s="132">
-        <v>13959</v>
-      </c>
-      <c r="X32" s="132">
-        <v>13672.5</v>
-      </c>
-      <c r="Y32" s="132">
-        <v>19548</v>
-      </c>
-      <c r="AA32" s="12">
-        <f t="shared" si="19"/>
-        <v>14012</v>
-      </c>
-      <c r="AB32" s="12">
-        <f t="shared" si="8"/>
-        <v>13959</v>
-      </c>
-      <c r="AC32" s="12">
-        <f t="shared" si="8"/>
-        <v>13673</v>
-      </c>
-      <c r="AD32" s="12">
-        <f t="shared" si="8"/>
-        <v>19548</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="94">
-        <v>12960</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="9"/>
-        <v>6120</v>
-      </c>
-      <c r="C33" s="126">
-        <v>34805</v>
-      </c>
-      <c r="D33" s="126">
-        <v>34185</v>
-      </c>
-      <c r="E33" s="126">
-        <v>33279</v>
-      </c>
-      <c r="F33" s="126">
-        <v>50673</v>
-      </c>
-      <c r="G33" s="52">
-        <f t="shared" si="10"/>
-        <v>152942</v>
-      </c>
-      <c r="I33" s="70">
-        <f t="shared" si="11"/>
-        <v>69610</v>
-      </c>
-      <c r="J33" s="70">
-        <f t="shared" si="12"/>
-        <v>68370</v>
-      </c>
-      <c r="K33" s="70">
-        <f t="shared" si="13"/>
-        <v>66558</v>
-      </c>
-      <c r="L33" s="70">
-        <f t="shared" si="14"/>
-        <v>101346</v>
-      </c>
-      <c r="M33" s="52">
-        <f t="shared" si="15"/>
-        <v>305884</v>
-      </c>
-      <c r="N33" s="130">
-        <f t="shared" si="16"/>
-        <v>6117.68</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="17"/>
-        <v>6118</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="Q33" s="132">
-        <v>34804.5</v>
-      </c>
-      <c r="R33" s="132">
-        <v>34185</v>
-      </c>
-      <c r="S33" s="132">
-        <v>50673</v>
-      </c>
-      <c r="T33" s="132">
-        <v>33279</v>
-      </c>
-      <c r="U33" s="22"/>
-      <c r="V33" s="133">
-        <v>34804.5</v>
-      </c>
-      <c r="W33" s="132">
-        <v>33279</v>
-      </c>
-      <c r="X33" s="132">
-        <v>34185</v>
-      </c>
-      <c r="Y33" s="132">
-        <v>50673</v>
-      </c>
-      <c r="AA33" s="12">
-        <f t="shared" si="19"/>
-        <v>34805</v>
-      </c>
-      <c r="AB33" s="12">
-        <f t="shared" si="8"/>
-        <v>33279</v>
-      </c>
-      <c r="AC33" s="12">
-        <f t="shared" si="8"/>
-        <v>34185</v>
-      </c>
-      <c r="AD33" s="12">
-        <f t="shared" si="8"/>
-        <v>50673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="70">
-        <v>19440</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="9"/>
-        <v>9180</v>
-      </c>
-      <c r="C34" s="126">
-        <v>52208</v>
-      </c>
-      <c r="D34" s="126">
-        <v>51189</v>
-      </c>
-      <c r="E34" s="126">
-        <v>50907</v>
-      </c>
-      <c r="F34" s="126">
-        <v>75111</v>
-      </c>
-      <c r="G34" s="52">
-        <f t="shared" si="10"/>
-        <v>229415</v>
-      </c>
-      <c r="I34" s="70">
-        <f t="shared" si="11"/>
-        <v>104416</v>
-      </c>
-      <c r="J34" s="70">
-        <f t="shared" si="12"/>
-        <v>102378</v>
-      </c>
-      <c r="K34" s="70">
-        <f t="shared" si="13"/>
-        <v>101814</v>
-      </c>
-      <c r="L34" s="70">
-        <f t="shared" si="14"/>
-        <v>150222</v>
-      </c>
-      <c r="M34" s="52">
-        <f t="shared" si="15"/>
-        <v>458830</v>
-      </c>
-      <c r="N34" s="130">
-        <f t="shared" si="16"/>
-        <v>9176.6</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="17"/>
-        <v>9177</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="Q34" s="132">
-        <v>52207.5</v>
-      </c>
-      <c r="R34" s="132">
-        <v>51189</v>
-      </c>
-      <c r="S34" s="132">
-        <v>75111</v>
-      </c>
-      <c r="T34" s="132">
-        <v>50907</v>
-      </c>
-      <c r="U34" s="22"/>
-      <c r="V34" s="133">
-        <v>52207.5</v>
-      </c>
-      <c r="W34" s="132">
-        <v>50907</v>
-      </c>
-      <c r="X34" s="132">
-        <v>51189</v>
-      </c>
-      <c r="Y34" s="132">
-        <v>75111</v>
-      </c>
-      <c r="AA34" s="12">
-        <f t="shared" si="19"/>
-        <v>52208</v>
-      </c>
-      <c r="AB34" s="12">
-        <f t="shared" si="8"/>
-        <v>50907</v>
-      </c>
-      <c r="AC34" s="12">
-        <f t="shared" si="8"/>
-        <v>51189</v>
-      </c>
-      <c r="AD34" s="12">
-        <f t="shared" si="8"/>
-        <v>75111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="94">
-        <v>38880</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="9"/>
-        <v>18360</v>
-      </c>
-      <c r="C35" s="126">
-        <v>104505</v>
-      </c>
-      <c r="D35" s="126">
-        <v>106157</v>
-      </c>
-      <c r="E35" s="126">
-        <v>101096</v>
-      </c>
-      <c r="F35" s="126">
-        <v>147161</v>
-      </c>
-      <c r="G35" s="52">
-        <f t="shared" si="10"/>
-        <v>458919</v>
-      </c>
-      <c r="I35" s="70">
-        <f t="shared" si="11"/>
-        <v>209010</v>
-      </c>
-      <c r="J35" s="70">
-        <f t="shared" si="12"/>
-        <v>212314</v>
-      </c>
-      <c r="K35" s="70">
-        <f t="shared" si="13"/>
-        <v>202192</v>
-      </c>
-      <c r="L35" s="70">
-        <f t="shared" si="14"/>
-        <v>294322</v>
-      </c>
-      <c r="M35" s="52">
-        <f t="shared" si="15"/>
-        <v>917838</v>
-      </c>
-      <c r="N35" s="130">
-        <f t="shared" si="16"/>
-        <v>18356.759999999998</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="17"/>
-        <v>18357</v>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="Q35" s="132">
-        <v>104505</v>
-      </c>
-      <c r="R35" s="132">
-        <v>106156.5</v>
-      </c>
-      <c r="S35" s="132">
-        <v>147160.5</v>
-      </c>
-      <c r="T35" s="132">
-        <v>101095.5</v>
-      </c>
-      <c r="U35" s="22"/>
-      <c r="V35" s="133">
-        <v>104505</v>
-      </c>
-      <c r="W35" s="132">
-        <v>101095.5</v>
-      </c>
-      <c r="X35" s="132">
-        <v>106156.5</v>
-      </c>
-      <c r="Y35" s="132">
-        <v>147160.5</v>
-      </c>
-      <c r="AA35" s="12">
-        <f t="shared" si="19"/>
-        <v>104505</v>
-      </c>
-      <c r="AB35" s="12">
-        <f t="shared" si="8"/>
-        <v>101096</v>
-      </c>
-      <c r="AC35" s="12">
-        <f t="shared" si="8"/>
-        <v>106157</v>
-      </c>
-      <c r="AD35" s="12">
-        <f t="shared" si="8"/>
-        <v>147161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="70">
-        <v>58320</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="9"/>
-        <v>27540</v>
-      </c>
-      <c r="C36" s="126">
-        <v>161121</v>
-      </c>
-      <c r="D36" s="126">
-        <v>153836</v>
-      </c>
-      <c r="E36" s="126">
-        <v>149933</v>
-      </c>
-      <c r="F36" s="126">
-        <v>223532</v>
-      </c>
-      <c r="G36" s="52">
-        <f t="shared" si="10"/>
-        <v>688422</v>
-      </c>
-      <c r="I36" s="70">
-        <f t="shared" si="11"/>
-        <v>322242</v>
-      </c>
-      <c r="J36" s="70">
-        <f t="shared" si="12"/>
-        <v>307672</v>
-      </c>
-      <c r="K36" s="70">
-        <f t="shared" si="13"/>
-        <v>299866</v>
-      </c>
-      <c r="L36" s="70">
-        <f t="shared" si="14"/>
-        <v>447064</v>
-      </c>
-      <c r="M36" s="52">
-        <f t="shared" si="15"/>
-        <v>1376844</v>
-      </c>
-      <c r="N36" s="130">
-        <f t="shared" si="16"/>
-        <v>27536.880000000001</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="17"/>
-        <v>27537</v>
-      </c>
-      <c r="P36" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="Q36" s="132">
-        <v>161121</v>
-      </c>
-      <c r="R36" s="132">
-        <v>153835.5</v>
-      </c>
-      <c r="S36" s="132">
-        <v>223531.5</v>
-      </c>
-      <c r="T36" s="132">
-        <v>149932.5</v>
-      </c>
-      <c r="U36" s="22"/>
-      <c r="V36" s="133">
-        <v>161121</v>
-      </c>
-      <c r="W36" s="132">
-        <v>149932.5</v>
-      </c>
-      <c r="X36" s="132">
-        <v>153835.5</v>
-      </c>
-      <c r="Y36" s="132">
-        <v>223531.5</v>
-      </c>
-      <c r="AA36" s="12">
-        <f t="shared" si="19"/>
-        <v>161121</v>
-      </c>
-      <c r="AB36" s="12">
-        <f t="shared" si="8"/>
-        <v>149933</v>
-      </c>
-      <c r="AC36" s="12">
-        <f t="shared" si="8"/>
-        <v>153836</v>
-      </c>
-      <c r="AD36" s="12">
-        <f t="shared" si="8"/>
-        <v>223532</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="94">
-        <v>145800</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="9"/>
-        <v>68850</v>
-      </c>
-      <c r="C37" s="126">
-        <v>409554</v>
-      </c>
-      <c r="D37" s="126">
-        <v>385668</v>
-      </c>
-      <c r="E37" s="126">
-        <v>372537</v>
-      </c>
-      <c r="F37" s="126">
-        <v>553428</v>
-      </c>
-      <c r="G37" s="52">
-        <f t="shared" si="10"/>
-        <v>1721187</v>
-      </c>
-      <c r="I37" s="70">
-        <f t="shared" si="11"/>
-        <v>819108</v>
-      </c>
-      <c r="J37" s="70">
-        <f t="shared" si="12"/>
-        <v>771336</v>
-      </c>
-      <c r="K37" s="70">
-        <f t="shared" si="13"/>
-        <v>745074</v>
-      </c>
-      <c r="L37" s="70">
-        <f t="shared" si="14"/>
-        <v>1106856</v>
-      </c>
-      <c r="M37" s="52">
-        <f t="shared" si="15"/>
-        <v>3442374</v>
-      </c>
-      <c r="N37" s="130">
-        <f t="shared" si="16"/>
-        <v>68847.48</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="17"/>
-        <v>68847</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="Q37" s="132">
-        <v>409554</v>
-      </c>
-      <c r="R37" s="132">
-        <v>385668</v>
-      </c>
-      <c r="S37" s="132">
-        <v>553428</v>
-      </c>
-      <c r="T37" s="132">
-        <v>372537</v>
-      </c>
-      <c r="U37" s="22"/>
-      <c r="V37" s="133">
-        <v>409554</v>
-      </c>
-      <c r="W37" s="132">
-        <v>372537</v>
-      </c>
-      <c r="X37" s="132">
-        <v>385668</v>
-      </c>
-      <c r="Y37" s="132">
-        <v>553428</v>
-      </c>
-      <c r="AA37" s="12">
-        <f t="shared" si="19"/>
-        <v>409554</v>
-      </c>
-      <c r="AB37" s="12">
-        <f t="shared" si="8"/>
-        <v>372537</v>
-      </c>
-      <c r="AC37" s="12">
-        <f t="shared" si="8"/>
-        <v>385668</v>
-      </c>
-      <c r="AD37" s="12">
-        <f t="shared" si="8"/>
-        <v>553428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="70">
-        <v>218700</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="9"/>
-        <v>103275</v>
-      </c>
-      <c r="C38" s="126">
-        <v>623331</v>
-      </c>
-      <c r="D38" s="126">
-        <v>576882</v>
-      </c>
-      <c r="E38" s="126">
-        <v>558717</v>
-      </c>
-      <c r="F38" s="126">
-        <v>822942</v>
-      </c>
-      <c r="G38" s="52">
-        <f t="shared" si="10"/>
-        <v>2581872</v>
-      </c>
-      <c r="I38" s="70">
-        <f t="shared" si="11"/>
-        <v>1246662</v>
-      </c>
-      <c r="J38" s="70">
-        <f t="shared" si="12"/>
-        <v>1153764</v>
-      </c>
-      <c r="K38" s="70">
-        <f t="shared" si="13"/>
-        <v>1117434</v>
-      </c>
-      <c r="L38" s="70">
-        <f t="shared" si="14"/>
-        <v>1645884</v>
-      </c>
-      <c r="M38" s="52">
-        <f t="shared" si="15"/>
-        <v>5163744</v>
-      </c>
-      <c r="N38" s="130">
-        <f t="shared" si="16"/>
-        <v>103274.88</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="17"/>
-        <v>103275</v>
-      </c>
-      <c r="P38" t="str">
-        <f t="shared" si="18"/>
-        <v>v</v>
-      </c>
-      <c r="Q38" s="132">
-        <v>623331</v>
-      </c>
-      <c r="R38" s="132">
-        <v>576882</v>
-      </c>
-      <c r="S38" s="132">
-        <v>822942</v>
-      </c>
-      <c r="T38" s="132">
-        <v>558717</v>
-      </c>
-      <c r="U38" s="22"/>
-      <c r="V38" s="133">
-        <v>623331</v>
-      </c>
-      <c r="W38" s="132">
-        <v>558717</v>
-      </c>
-      <c r="X38" s="132">
-        <v>576882</v>
-      </c>
-      <c r="Y38" s="132">
-        <v>822942</v>
-      </c>
-      <c r="AA38" s="12">
-        <f t="shared" si="19"/>
-        <v>623331</v>
-      </c>
-      <c r="AB38" s="12">
-        <f t="shared" si="8"/>
-        <v>558717</v>
-      </c>
-      <c r="AC38" s="12">
-        <f t="shared" si="8"/>
-        <v>576882</v>
-      </c>
-      <c r="AD38" s="12">
-        <f t="shared" si="8"/>
-        <v>822942</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="94">
-        <v>262440</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="9"/>
-        <v>123930</v>
-      </c>
-      <c r="C39" s="126">
-        <v>705338</v>
-      </c>
-      <c r="D39" s="126">
-        <v>710259</v>
-      </c>
-      <c r="E39" s="126">
-        <v>692922</v>
-      </c>
-      <c r="F39" s="126">
-        <v>989691</v>
-      </c>
-      <c r="G39" s="52">
-        <f t="shared" si="10"/>
-        <v>3098210</v>
-      </c>
-      <c r="I39" s="70">
-        <f t="shared" si="11"/>
-        <v>1410676</v>
-      </c>
-      <c r="J39" s="70">
-        <f t="shared" si="12"/>
-        <v>1420518</v>
-      </c>
-      <c r="K39" s="70">
-        <f t="shared" si="13"/>
-        <v>1385844</v>
-      </c>
-      <c r="L39" s="70">
-        <f t="shared" si="14"/>
-        <v>1979382</v>
-      </c>
-      <c r="M39" s="52">
-        <f t="shared" si="15"/>
-        <v>6196420</v>
-      </c>
-      <c r="N39" s="130">
-        <f t="shared" si="16"/>
-        <v>123928.4</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="17"/>
-        <v>123928</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="Q39" s="132">
-        <v>705337.5</v>
-      </c>
-      <c r="R39" s="132">
-        <v>710259</v>
-      </c>
-      <c r="S39" s="132">
-        <v>989691</v>
-      </c>
-      <c r="T39" s="132">
-        <v>692922</v>
-      </c>
-      <c r="U39" s="22"/>
-      <c r="V39" s="133">
-        <v>705337.5</v>
-      </c>
-      <c r="W39" s="132">
-        <v>692922</v>
-      </c>
-      <c r="X39" s="132">
-        <v>710259</v>
-      </c>
-      <c r="Y39" s="132">
-        <v>989691</v>
-      </c>
-      <c r="AA39" s="12">
-        <f t="shared" si="19"/>
-        <v>705338</v>
-      </c>
-      <c r="AB39" s="12">
-        <f t="shared" si="8"/>
-        <v>692922</v>
-      </c>
-      <c r="AC39" s="12">
-        <f t="shared" si="8"/>
-        <v>710259</v>
-      </c>
-      <c r="AD39" s="12">
-        <f t="shared" si="8"/>
-        <v>989691</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="70">
-        <v>314928</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="9"/>
-        <v>148716</v>
-      </c>
-      <c r="C40" s="126">
-        <v>883557</v>
-      </c>
-      <c r="D40" s="126">
-        <v>830711</v>
-      </c>
-      <c r="E40" s="126">
-        <v>798893</v>
-      </c>
-      <c r="F40" s="126">
-        <v>1204730</v>
-      </c>
-      <c r="G40" s="52">
-        <f t="shared" si="10"/>
-        <v>3717891</v>
-      </c>
-      <c r="I40" s="70">
-        <f t="shared" si="11"/>
-        <v>1767114</v>
-      </c>
-      <c r="J40" s="70">
-        <f t="shared" si="12"/>
-        <v>1661422</v>
-      </c>
-      <c r="K40" s="70">
-        <f t="shared" si="13"/>
-        <v>1597786</v>
-      </c>
-      <c r="L40" s="70">
-        <f t="shared" si="14"/>
-        <v>2409460</v>
-      </c>
-      <c r="M40" s="52">
-        <f t="shared" si="15"/>
-        <v>7435782</v>
-      </c>
-      <c r="N40" s="130">
-        <f t="shared" si="16"/>
-        <v>148715.64000000001</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="17"/>
-        <v>148716</v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="18"/>
-        <v>v</v>
-      </c>
-      <c r="Q40" s="132">
-        <v>883557</v>
-      </c>
-      <c r="R40" s="132">
-        <v>830710.5</v>
-      </c>
-      <c r="S40" s="132">
-        <v>1204729.5</v>
-      </c>
-      <c r="T40" s="132">
-        <v>798892.5</v>
-      </c>
-      <c r="U40" s="22"/>
-      <c r="V40" s="133">
-        <v>883557</v>
-      </c>
-      <c r="W40" s="132">
-        <v>798892.5</v>
-      </c>
-      <c r="X40" s="132">
-        <v>830710.5</v>
-      </c>
-      <c r="Y40" s="132">
-        <v>1204729.5</v>
-      </c>
-      <c r="AA40" s="12">
-        <f t="shared" si="19"/>
-        <v>883557</v>
-      </c>
-      <c r="AB40" s="12">
-        <f t="shared" si="8"/>
-        <v>798893</v>
-      </c>
-      <c r="AC40" s="12">
-        <f t="shared" si="8"/>
-        <v>830711</v>
-      </c>
-      <c r="AD40" s="12">
-        <f t="shared" si="8"/>
-        <v>1204730</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="94">
-        <v>377914</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="9"/>
-        <v>178459</v>
-      </c>
-      <c r="C41" s="126">
-        <v>1015089</v>
-      </c>
-      <c r="D41" s="126">
-        <v>1050312</v>
-      </c>
-      <c r="E41" s="126">
-        <v>968931</v>
-      </c>
-      <c r="F41" s="126">
-        <v>1427136</v>
-      </c>
-      <c r="G41" s="52">
-        <f t="shared" si="10"/>
-        <v>4461468</v>
-      </c>
-      <c r="I41" s="70">
-        <f t="shared" si="11"/>
-        <v>2030178</v>
-      </c>
-      <c r="J41" s="70">
-        <f t="shared" si="12"/>
-        <v>2100624</v>
-      </c>
-      <c r="K41" s="70">
-        <f t="shared" si="13"/>
-        <v>1937862</v>
-      </c>
-      <c r="L41" s="70">
-        <f t="shared" si="14"/>
-        <v>2854272</v>
-      </c>
-      <c r="M41" s="52">
-        <f t="shared" si="15"/>
-        <v>8922936</v>
-      </c>
-      <c r="N41" s="130">
-        <f t="shared" si="16"/>
-        <v>178458.72</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="17"/>
-        <v>178459</v>
-      </c>
-      <c r="P41" t="str">
-        <f t="shared" si="18"/>
-        <v>v</v>
-      </c>
-      <c r="Q41" s="132">
-        <v>1015089</v>
-      </c>
-      <c r="R41" s="132">
-        <v>1050312</v>
-      </c>
-      <c r="S41" s="132">
-        <v>1427136</v>
-      </c>
-      <c r="T41" s="132">
-        <v>968931</v>
-      </c>
-      <c r="U41" s="22"/>
-      <c r="V41" s="133">
-        <v>1015089</v>
-      </c>
-      <c r="W41" s="132">
-        <v>968931</v>
-      </c>
-      <c r="X41" s="132">
-        <v>1050312</v>
-      </c>
-      <c r="Y41" s="132">
-        <v>1427136</v>
-      </c>
-      <c r="AA41" s="12">
-        <f t="shared" si="19"/>
-        <v>1015089</v>
-      </c>
-      <c r="AB41" s="12">
-        <f t="shared" si="8"/>
-        <v>968931</v>
-      </c>
-      <c r="AC41" s="12">
-        <f t="shared" si="8"/>
-        <v>1050312</v>
-      </c>
-      <c r="AD41" s="12">
-        <f t="shared" si="8"/>
-        <v>1427136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="70">
-        <v>453498</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="9"/>
-        <v>214152</v>
-      </c>
-      <c r="C42" s="126">
-        <v>1228698</v>
-      </c>
-      <c r="D42" s="126">
-        <v>1201632</v>
-      </c>
-      <c r="E42" s="126">
-        <v>1212186</v>
-      </c>
-      <c r="F42" s="126">
-        <v>1711277</v>
-      </c>
-      <c r="G42" s="52">
-        <f t="shared" si="10"/>
-        <v>5353793</v>
-      </c>
-      <c r="I42" s="70">
-        <f t="shared" si="11"/>
-        <v>2457396</v>
-      </c>
-      <c r="J42" s="70">
-        <f t="shared" si="12"/>
-        <v>2403264</v>
-      </c>
-      <c r="K42" s="70">
-        <f t="shared" si="13"/>
-        <v>2424372</v>
-      </c>
-      <c r="L42" s="70">
-        <f t="shared" si="14"/>
-        <v>3422554</v>
-      </c>
-      <c r="M42" s="52">
-        <f t="shared" si="15"/>
-        <v>10707586</v>
-      </c>
-      <c r="N42" s="130">
-        <f t="shared" si="16"/>
-        <v>214151.72</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="17"/>
-        <v>214152</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" si="18"/>
-        <v>v</v>
-      </c>
-      <c r="Q42" s="132">
-        <v>1228698</v>
-      </c>
-      <c r="R42" s="132">
-        <v>1201632</v>
-      </c>
-      <c r="S42" s="132">
-        <v>1711276.5</v>
-      </c>
-      <c r="T42" s="132">
-        <v>1212186</v>
-      </c>
-      <c r="U42" s="22"/>
-      <c r="V42" s="133">
-        <v>1228698</v>
-      </c>
-      <c r="W42" s="132">
-        <v>1212186</v>
-      </c>
-      <c r="X42" s="132">
-        <v>1201632</v>
-      </c>
-      <c r="Y42" s="132">
-        <v>1711276.5</v>
-      </c>
-      <c r="AA42" s="12">
-        <f t="shared" si="19"/>
-        <v>1228698</v>
-      </c>
-      <c r="AB42" s="12">
-        <f t="shared" si="8"/>
-        <v>1212186</v>
-      </c>
-      <c r="AC42" s="12">
-        <f t="shared" si="8"/>
-        <v>1201632</v>
-      </c>
-      <c r="AD42" s="12">
-        <f t="shared" si="8"/>
-        <v>1711277</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="94">
-        <v>544198</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="9"/>
-        <v>256982</v>
-      </c>
-      <c r="C43" s="126">
-        <v>1461474</v>
-      </c>
-      <c r="D43" s="126">
-        <v>1435473</v>
-      </c>
-      <c r="E43" s="126">
-        <v>1426722</v>
-      </c>
-      <c r="F43" s="126">
-        <v>2100831</v>
-      </c>
-      <c r="G43" s="52">
-        <f t="shared" si="10"/>
-        <v>6424500</v>
-      </c>
-      <c r="I43" s="70">
-        <f t="shared" si="11"/>
-        <v>2922948</v>
-      </c>
-      <c r="J43" s="70">
-        <f t="shared" si="12"/>
-        <v>2870946</v>
-      </c>
-      <c r="K43" s="70">
-        <f t="shared" si="13"/>
-        <v>2853444</v>
-      </c>
-      <c r="L43" s="70">
-        <f t="shared" si="14"/>
-        <v>4201662</v>
-      </c>
-      <c r="M43" s="52">
-        <f t="shared" si="15"/>
-        <v>12849000</v>
-      </c>
-      <c r="N43" s="130">
-        <f t="shared" si="16"/>
-        <v>256980</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="17"/>
-        <v>256980</v>
-      </c>
-      <c r="P43" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="Q43" s="132">
-        <v>1461474</v>
-      </c>
-      <c r="R43" s="132">
-        <v>1435473</v>
-      </c>
-      <c r="S43" s="132">
-        <v>2100831</v>
-      </c>
-      <c r="T43" s="132">
-        <v>1426722</v>
-      </c>
-      <c r="U43" s="22"/>
-      <c r="V43" s="133">
-        <v>1461474</v>
-      </c>
-      <c r="W43" s="132">
-        <v>1426722</v>
-      </c>
-      <c r="X43" s="132">
-        <v>1435473</v>
-      </c>
-      <c r="Y43" s="132">
-        <v>2100831</v>
-      </c>
-      <c r="AA43" s="12">
-        <f t="shared" si="19"/>
-        <v>1461474</v>
-      </c>
-      <c r="AB43" s="12">
-        <f t="shared" si="8"/>
-        <v>1426722</v>
-      </c>
-      <c r="AC43" s="12">
-        <f t="shared" si="8"/>
-        <v>1435473</v>
-      </c>
-      <c r="AD43" s="12">
-        <f t="shared" si="8"/>
-        <v>2100831</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="70">
-        <v>816298</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="9"/>
-        <v>385474</v>
-      </c>
-      <c r="C44" s="126">
-        <v>2300211</v>
-      </c>
-      <c r="D44" s="126">
-        <v>2153748</v>
-      </c>
-      <c r="E44" s="126">
-        <v>2084732</v>
-      </c>
-      <c r="F44" s="126">
-        <v>3098145</v>
-      </c>
-      <c r="G44" s="52">
-        <f t="shared" si="10"/>
-        <v>9636836</v>
-      </c>
-      <c r="I44" s="70">
-        <f t="shared" si="11"/>
-        <v>4600422</v>
-      </c>
-      <c r="J44" s="70">
-        <f t="shared" si="12"/>
-        <v>4307496</v>
-      </c>
-      <c r="K44" s="70">
-        <f t="shared" si="13"/>
-        <v>4169464</v>
-      </c>
-      <c r="L44" s="70">
-        <f t="shared" si="14"/>
-        <v>6196290</v>
-      </c>
-      <c r="M44" s="52">
-        <f t="shared" si="15"/>
-        <v>19273672</v>
-      </c>
-      <c r="N44" s="130">
-        <f t="shared" si="16"/>
-        <v>385473.44</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="17"/>
-        <v>385473</v>
-      </c>
-      <c r="P44" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="Q44" s="132">
-        <v>2300211</v>
-      </c>
-      <c r="R44" s="132">
-        <v>2153748</v>
-      </c>
-      <c r="S44" s="132">
-        <v>3098145</v>
-      </c>
-      <c r="T44" s="132">
-        <v>2084731.5</v>
-      </c>
-      <c r="U44" s="22"/>
-      <c r="V44" s="133">
-        <v>2300211</v>
-      </c>
-      <c r="W44" s="132">
-        <v>2084731.5</v>
-      </c>
-      <c r="X44" s="132">
-        <v>2153748</v>
-      </c>
-      <c r="Y44" s="132">
-        <v>3098145</v>
-      </c>
-      <c r="AA44" s="12">
-        <f t="shared" si="19"/>
-        <v>2300211</v>
-      </c>
-      <c r="AB44" s="12">
-        <f t="shared" si="8"/>
-        <v>2084732</v>
-      </c>
-      <c r="AC44" s="12">
-        <f t="shared" si="8"/>
-        <v>2153748</v>
-      </c>
-      <c r="AD44" s="12">
-        <f t="shared" si="8"/>
-        <v>3098145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="94">
-        <v>2040736</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="9"/>
-        <v>963681</v>
-      </c>
-      <c r="C45" s="126">
-        <v>5570871</v>
-      </c>
-      <c r="D45" s="126">
-        <v>5397408</v>
-      </c>
-      <c r="E45" s="126">
-        <v>5211813</v>
-      </c>
-      <c r="F45" s="126">
-        <v>7911843</v>
-      </c>
-      <c r="G45" s="52">
-        <f t="shared" si="10"/>
-        <v>24091935</v>
-      </c>
-      <c r="I45" s="70">
-        <f t="shared" si="11"/>
-        <v>11141742</v>
-      </c>
-      <c r="J45" s="70">
-        <f t="shared" si="12"/>
-        <v>10794816</v>
-      </c>
-      <c r="K45" s="70">
-        <f t="shared" si="13"/>
-        <v>10423626</v>
-      </c>
-      <c r="L45" s="70">
-        <f t="shared" si="14"/>
-        <v>15823686</v>
-      </c>
-      <c r="M45" s="52">
-        <f t="shared" si="15"/>
-        <v>48183870</v>
-      </c>
-      <c r="N45" s="130">
-        <f t="shared" si="16"/>
-        <v>963677.4</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="17"/>
-        <v>963677</v>
-      </c>
-      <c r="P45" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="Q45" s="132">
-        <v>5570871</v>
-      </c>
-      <c r="R45" s="132">
-        <v>5397408</v>
-      </c>
-      <c r="S45" s="132">
-        <v>7911843</v>
-      </c>
-      <c r="T45" s="132">
-        <v>5211813</v>
-      </c>
-      <c r="U45" s="22"/>
-      <c r="V45" s="133">
-        <v>5570871</v>
-      </c>
-      <c r="W45" s="132">
-        <v>5211813</v>
-      </c>
-      <c r="X45" s="132">
-        <v>5397408</v>
-      </c>
-      <c r="Y45" s="132">
-        <v>7911843</v>
-      </c>
-      <c r="AA45" s="12">
-        <f t="shared" si="19"/>
-        <v>5570871</v>
-      </c>
-      <c r="AB45" s="12">
-        <f t="shared" si="8"/>
-        <v>5211813</v>
-      </c>
-      <c r="AC45" s="12">
-        <f t="shared" si="8"/>
-        <v>5397408</v>
-      </c>
-      <c r="AD45" s="12">
-        <f t="shared" si="8"/>
-        <v>7911843</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="70">
-        <v>3061102</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="9"/>
-        <v>1445520</v>
-      </c>
-      <c r="C46" s="126">
-        <v>8401301</v>
-      </c>
-      <c r="D46" s="126">
-        <v>8078196</v>
-      </c>
-      <c r="E46" s="126">
-        <v>7826715</v>
-      </c>
-      <c r="F46" s="126">
-        <v>11831754</v>
-      </c>
-      <c r="G46" s="52">
-        <f t="shared" si="10"/>
-        <v>36137966</v>
-      </c>
-      <c r="I46" s="70">
-        <f t="shared" si="11"/>
-        <v>16802602</v>
-      </c>
-      <c r="J46" s="70">
-        <f t="shared" si="12"/>
-        <v>16156392</v>
-      </c>
-      <c r="K46" s="70">
-        <f t="shared" si="13"/>
-        <v>15653430</v>
-      </c>
-      <c r="L46" s="70">
-        <f t="shared" si="14"/>
-        <v>23663508</v>
-      </c>
-      <c r="M46" s="52">
-        <f t="shared" si="15"/>
-        <v>72275932</v>
-      </c>
-      <c r="N46" s="130">
-        <f t="shared" si="16"/>
-        <v>1445518.64</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="17"/>
-        <v>1445519</v>
-      </c>
-      <c r="P46" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="Q46" s="132">
-        <v>8401300.5</v>
-      </c>
-      <c r="R46" s="132">
-        <v>8078196</v>
-      </c>
-      <c r="S46" s="132">
-        <v>11831754</v>
-      </c>
-      <c r="T46" s="132">
-        <v>7826715</v>
-      </c>
-      <c r="U46" s="22"/>
-      <c r="V46" s="133">
-        <v>8401300.5</v>
-      </c>
-      <c r="W46" s="132">
-        <v>7826715</v>
-      </c>
-      <c r="X46" s="132">
-        <v>8078196</v>
-      </c>
-      <c r="Y46" s="132">
-        <v>11831754</v>
-      </c>
-      <c r="AA46" s="12">
-        <f t="shared" si="19"/>
-        <v>8401301</v>
-      </c>
-      <c r="AB46" s="12">
-        <f t="shared" ref="AB46:AB48" si="20">MROUND(W46,1)</f>
-        <v>7826715</v>
-      </c>
-      <c r="AC46" s="12">
-        <f t="shared" ref="AC46:AC48" si="21">MROUND(X46,1)</f>
-        <v>8078196</v>
-      </c>
-      <c r="AD46" s="12">
-        <f t="shared" ref="AD46:AD48" si="22">MROUND(Y46,1)</f>
-        <v>11831754</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" s="94">
-        <v>6122202</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="9"/>
-        <v>2891040</v>
-      </c>
-      <c r="C47" s="126">
-        <v>17341716</v>
-      </c>
-      <c r="D47" s="126">
-        <v>16156214</v>
-      </c>
-      <c r="E47" s="126">
-        <v>15653429</v>
-      </c>
-      <c r="F47" s="126">
-        <v>23124590</v>
-      </c>
-      <c r="G47" s="52">
-        <f t="shared" si="10"/>
-        <v>72275949</v>
-      </c>
-      <c r="I47" s="70">
-        <f t="shared" si="11"/>
-        <v>34683432</v>
-      </c>
-      <c r="J47" s="70">
-        <f t="shared" si="12"/>
-        <v>32312428</v>
-      </c>
-      <c r="K47" s="70">
-        <f t="shared" si="13"/>
-        <v>31306858</v>
-      </c>
-      <c r="L47" s="70">
-        <f t="shared" si="14"/>
-        <v>46249180</v>
-      </c>
-      <c r="M47" s="52">
-        <f t="shared" si="15"/>
-        <v>144551898</v>
-      </c>
-      <c r="N47" s="130">
-        <f t="shared" si="16"/>
-        <v>2891037.96</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="17"/>
-        <v>2891038</v>
-      </c>
-      <c r="P47" t="str">
-        <f t="shared" si="18"/>
-        <v>x</v>
-      </c>
-      <c r="Q47" s="132">
-        <v>17341716</v>
-      </c>
-      <c r="R47" s="132">
-        <v>16156213.5</v>
-      </c>
-      <c r="S47" s="132">
-        <v>23124589.5</v>
-      </c>
-      <c r="T47" s="132">
-        <v>15653428.5</v>
-      </c>
-      <c r="U47" s="22"/>
-      <c r="V47" s="133">
-        <v>17341716</v>
-      </c>
-      <c r="W47" s="132">
-        <v>15653428.5</v>
-      </c>
-      <c r="X47" s="132">
-        <v>16156213.5</v>
-      </c>
-      <c r="Y47" s="132">
-        <v>23124589.5</v>
-      </c>
-      <c r="AA47" s="12">
-        <f t="shared" si="19"/>
-        <v>17341716</v>
-      </c>
-      <c r="AB47" s="12">
-        <f t="shared" si="20"/>
-        <v>15653429</v>
-      </c>
-      <c r="AC47" s="12">
-        <f t="shared" si="21"/>
-        <v>16156214</v>
-      </c>
-      <c r="AD47" s="12">
-        <f t="shared" si="22"/>
-        <v>23124590</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="70">
-        <v>9183300</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="9"/>
-        <v>4336558</v>
-      </c>
-      <c r="C48" s="126">
-        <v>25022267</v>
-      </c>
-      <c r="D48" s="126">
-        <v>24227109</v>
-      </c>
-      <c r="E48" s="126">
-        <v>23813313</v>
-      </c>
-      <c r="F48" s="126">
-        <v>35351250</v>
-      </c>
-      <c r="G48" s="52">
-        <f t="shared" si="10"/>
-        <v>108413939</v>
-      </c>
-      <c r="I48" s="70">
-        <f t="shared" si="11"/>
-        <v>50044534</v>
-      </c>
-      <c r="J48" s="70">
-        <f t="shared" si="12"/>
-        <v>48454218</v>
-      </c>
-      <c r="K48" s="70">
-        <f t="shared" si="13"/>
-        <v>47626626</v>
-      </c>
-      <c r="L48" s="70">
-        <f t="shared" si="14"/>
-        <v>70702500</v>
-      </c>
-      <c r="M48" s="52">
-        <f t="shared" si="15"/>
-        <v>216827878</v>
-      </c>
-      <c r="N48" s="130">
-        <f t="shared" si="16"/>
-        <v>4336557.5599999996</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="17"/>
-        <v>4336558</v>
-      </c>
-      <c r="P48" t="str">
-        <f t="shared" si="18"/>
-        <v>v</v>
-      </c>
-      <c r="Q48" s="132">
-        <v>25022266.5</v>
-      </c>
-      <c r="R48" s="132">
-        <v>24227109</v>
-      </c>
-      <c r="S48" s="132">
-        <v>35351250</v>
-      </c>
-      <c r="T48" s="132">
-        <v>23813313</v>
-      </c>
-      <c r="U48" s="22"/>
-      <c r="V48" s="133">
-        <v>25022266.5</v>
-      </c>
-      <c r="W48" s="132">
-        <v>23813313</v>
-      </c>
-      <c r="X48" s="132">
-        <v>24227109</v>
-      </c>
-      <c r="Y48" s="132">
-        <v>35351250</v>
-      </c>
-      <c r="AA48" s="12">
-        <f t="shared" si="19"/>
-        <v>25022267</v>
-      </c>
-      <c r="AB48" s="12">
-        <f t="shared" si="20"/>
-        <v>23813313</v>
-      </c>
-      <c r="AC48" s="12">
-        <f t="shared" si="21"/>
-        <v>24227109</v>
-      </c>
-      <c r="AD48" s="12">
-        <f t="shared" si="22"/>
-        <v>35351250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>265</v>
-      </c>
-      <c r="B50" t="s">
-        <v>266</v>
-      </c>
-      <c r="C50" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="104">
-        <v>8</v>
-      </c>
-      <c r="B51" s="104">
-        <v>4</v>
-      </c>
-      <c r="C51" s="104">
-        <v>20</v>
-      </c>
-      <c r="E51" s="22">
-        <f>ROUND(A51,2)</f>
-        <v>8</v>
-      </c>
-      <c r="F51" s="22">
-        <f t="shared" ref="F51:G66" si="23">ROUND(B51,2)</f>
-        <v>4</v>
-      </c>
-      <c r="G51" s="22">
-        <f t="shared" si="23"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="104">
-        <f>A51+0.15</f>
-        <v>8.15</v>
-      </c>
-      <c r="B52" s="104">
-        <f>B51+0.05</f>
-        <v>4.05</v>
-      </c>
-      <c r="C52" s="104">
-        <f>C51+0.25</f>
-        <v>20.25</v>
-      </c>
-      <c r="E52" s="22">
-        <f t="shared" ref="E52:E70" si="24">ROUND(A52,2)</f>
-        <v>8.15</v>
-      </c>
-      <c r="F52" s="22">
-        <f t="shared" si="23"/>
-        <v>4.05</v>
-      </c>
-      <c r="G52" s="22">
-        <f t="shared" si="23"/>
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="104">
-        <f t="shared" ref="A53:A70" si="25">A52+0.15</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B53" s="104">
-        <f t="shared" ref="B53:B70" si="26">B52+0.05</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C53" s="104">
-        <f t="shared" ref="C53:C70" si="27">C52+0.2</f>
-        <v>20.45</v>
-      </c>
-      <c r="E53" s="22">
-        <f t="shared" si="24"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F53" s="22">
-        <f t="shared" si="23"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G53" s="22">
-        <f t="shared" si="23"/>
-        <v>20.45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="104">
-        <f t="shared" si="25"/>
-        <v>8.4500000000000011</v>
-      </c>
-      <c r="B54" s="104">
-        <f t="shared" si="26"/>
-        <v>4.1499999999999995</v>
-      </c>
-      <c r="C54" s="104">
-        <f t="shared" si="27"/>
-        <v>20.65</v>
-      </c>
-      <c r="E54" s="22">
-        <f t="shared" si="24"/>
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="F54" s="22">
-        <f t="shared" si="23"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="G54" s="22">
-        <f t="shared" si="23"/>
-        <v>20.65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="104">
-        <f t="shared" si="25"/>
-        <v>8.6000000000000014</v>
-      </c>
-      <c r="B55" s="104">
-        <f t="shared" si="26"/>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="C55" s="104">
-        <f t="shared" si="27"/>
-        <v>20.849999999999998</v>
-      </c>
-      <c r="E55" s="22">
-        <f t="shared" si="24"/>
-        <v>8.6</v>
-      </c>
-      <c r="F55" s="22">
-        <f t="shared" si="23"/>
-        <v>4.2</v>
-      </c>
-      <c r="G55" s="22">
-        <f t="shared" si="23"/>
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="104">
-        <f t="shared" si="25"/>
-        <v>8.7500000000000018</v>
-      </c>
-      <c r="B56" s="104">
-        <f t="shared" si="26"/>
-        <v>4.2499999999999991</v>
-      </c>
-      <c r="C56" s="104">
-        <f t="shared" si="27"/>
-        <v>21.049999999999997</v>
-      </c>
-      <c r="E56" s="22">
-        <f t="shared" si="24"/>
-        <v>8.75</v>
-      </c>
-      <c r="F56" s="22">
-        <f t="shared" si="23"/>
-        <v>4.25</v>
-      </c>
-      <c r="G56" s="22">
-        <f t="shared" si="23"/>
-        <v>21.05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="104">
-        <f t="shared" si="25"/>
-        <v>8.9000000000000021</v>
-      </c>
-      <c r="B57" s="104">
-        <f t="shared" si="26"/>
-        <v>4.2999999999999989</v>
-      </c>
-      <c r="C57" s="104">
-        <f t="shared" si="27"/>
-        <v>21.249999999999996</v>
-      </c>
-      <c r="E57" s="22">
-        <f t="shared" si="24"/>
-        <v>8.9</v>
-      </c>
-      <c r="F57" s="22">
-        <f t="shared" si="23"/>
-        <v>4.3</v>
-      </c>
-      <c r="G57" s="22">
-        <f t="shared" si="23"/>
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="104">
-        <f t="shared" si="25"/>
-        <v>9.0500000000000025</v>
-      </c>
-      <c r="B58" s="104">
-        <f t="shared" si="26"/>
-        <v>4.3499999999999988</v>
-      </c>
-      <c r="C58" s="104">
-        <f t="shared" si="27"/>
-        <v>21.449999999999996</v>
-      </c>
-      <c r="E58" s="22">
-        <f t="shared" si="24"/>
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="F58" s="22">
-        <f t="shared" si="23"/>
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="G58" s="22">
-        <f t="shared" si="23"/>
-        <v>21.45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="104">
-        <f t="shared" si="25"/>
-        <v>9.2000000000000028</v>
-      </c>
-      <c r="B59" s="104">
-        <f t="shared" si="26"/>
-        <v>4.3999999999999986</v>
-      </c>
-      <c r="C59" s="104">
-        <f t="shared" si="27"/>
-        <v>21.649999999999995</v>
-      </c>
-      <c r="E59" s="22">
-        <f t="shared" si="24"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F59" s="22">
-        <f t="shared" si="23"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G59" s="22">
-        <f t="shared" si="23"/>
-        <v>21.65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="104">
-        <f t="shared" si="25"/>
-        <v>9.3500000000000032</v>
-      </c>
-      <c r="B60" s="104">
-        <f t="shared" si="26"/>
-        <v>4.4499999999999984</v>
-      </c>
-      <c r="C60" s="104">
-        <f t="shared" si="27"/>
-        <v>21.849999999999994</v>
-      </c>
-      <c r="E60" s="22">
-        <f t="shared" si="24"/>
-        <v>9.35</v>
-      </c>
-      <c r="F60" s="22">
-        <f t="shared" si="23"/>
-        <v>4.45</v>
-      </c>
-      <c r="G60" s="22">
-        <f t="shared" si="23"/>
-        <v>21.85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="104">
-        <f t="shared" si="25"/>
-        <v>9.5000000000000036</v>
-      </c>
-      <c r="B61" s="104">
-        <f t="shared" si="26"/>
-        <v>4.4999999999999982</v>
-      </c>
-      <c r="C61" s="104">
-        <f t="shared" si="27"/>
-        <v>22.049999999999994</v>
-      </c>
-      <c r="E61" s="22">
-        <f t="shared" si="24"/>
-        <v>9.5</v>
-      </c>
-      <c r="F61" s="22">
-        <f t="shared" si="23"/>
-        <v>4.5</v>
-      </c>
-      <c r="G61" s="22">
-        <f t="shared" si="23"/>
-        <v>22.05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="104">
-        <f t="shared" si="25"/>
-        <v>9.6500000000000039</v>
-      </c>
-      <c r="B62" s="104">
-        <f t="shared" si="26"/>
-        <v>4.549999999999998</v>
-      </c>
-      <c r="C62" s="104">
-        <f t="shared" si="27"/>
-        <v>22.249999999999993</v>
-      </c>
-      <c r="E62" s="22">
-        <f t="shared" si="24"/>
-        <v>9.65</v>
-      </c>
-      <c r="F62" s="22">
-        <f t="shared" si="23"/>
-        <v>4.55</v>
-      </c>
-      <c r="G62" s="22">
-        <f t="shared" si="23"/>
-        <v>22.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="104">
-        <f t="shared" si="25"/>
-        <v>9.8000000000000043</v>
-      </c>
-      <c r="B63" s="104">
-        <f t="shared" si="26"/>
-        <v>4.5999999999999979</v>
-      </c>
-      <c r="C63" s="104">
-        <f t="shared" si="27"/>
-        <v>22.449999999999992</v>
-      </c>
-      <c r="E63" s="22">
-        <f t="shared" si="24"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F63" s="22">
-        <f t="shared" si="23"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G63" s="22">
-        <f t="shared" si="23"/>
-        <v>22.45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="104">
-        <f t="shared" si="25"/>
-        <v>9.9500000000000046</v>
-      </c>
-      <c r="B64" s="104">
-        <f t="shared" si="26"/>
-        <v>4.6499999999999977</v>
-      </c>
-      <c r="C64" s="104">
-        <f t="shared" si="27"/>
-        <v>22.649999999999991</v>
-      </c>
-      <c r="E64" s="22">
-        <f t="shared" si="24"/>
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="F64" s="22">
-        <f t="shared" si="23"/>
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="G64" s="22">
-        <f t="shared" si="23"/>
-        <v>22.65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="104">
-        <f t="shared" si="25"/>
-        <v>10.100000000000005</v>
-      </c>
-      <c r="B65" s="104">
-        <f t="shared" si="26"/>
-        <v>4.6999999999999975</v>
-      </c>
-      <c r="C65" s="104">
-        <f t="shared" si="27"/>
-        <v>22.849999999999991</v>
-      </c>
-      <c r="E65" s="22">
-        <f t="shared" si="24"/>
-        <v>10.1</v>
-      </c>
-      <c r="F65" s="22">
-        <f t="shared" si="23"/>
-        <v>4.7</v>
-      </c>
-      <c r="G65" s="22">
-        <f t="shared" si="23"/>
-        <v>22.85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="104">
-        <f t="shared" si="25"/>
-        <v>10.250000000000005</v>
-      </c>
-      <c r="B66" s="104">
-        <f t="shared" si="26"/>
-        <v>4.7499999999999973</v>
-      </c>
-      <c r="C66" s="104">
-        <f t="shared" si="27"/>
-        <v>23.04999999999999</v>
-      </c>
-      <c r="E66" s="22">
-        <f t="shared" si="24"/>
-        <v>10.25</v>
-      </c>
-      <c r="F66" s="22">
-        <f t="shared" si="23"/>
-        <v>4.75</v>
-      </c>
-      <c r="G66" s="22">
-        <f t="shared" si="23"/>
-        <v>23.05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="104">
-        <f t="shared" si="25"/>
-        <v>10.400000000000006</v>
-      </c>
-      <c r="B67" s="104">
-        <f t="shared" si="26"/>
-        <v>4.7999999999999972</v>
-      </c>
-      <c r="C67" s="104">
-        <f t="shared" si="27"/>
-        <v>23.249999999999989</v>
-      </c>
-      <c r="E67" s="22">
-        <f t="shared" si="24"/>
-        <v>10.4</v>
-      </c>
-      <c r="F67" s="22">
-        <f t="shared" ref="F67:F70" si="28">ROUND(B67,2)</f>
-        <v>4.8</v>
-      </c>
-      <c r="G67" s="22">
-        <f t="shared" ref="G67:G70" si="29">ROUND(C67,2)</f>
-        <v>23.25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="104">
-        <f t="shared" si="25"/>
-        <v>10.550000000000006</v>
-      </c>
-      <c r="B68" s="104">
-        <f t="shared" si="26"/>
-        <v>4.849999999999997</v>
-      </c>
-      <c r="C68" s="104">
-        <f t="shared" si="27"/>
-        <v>23.449999999999989</v>
-      </c>
-      <c r="E68" s="22">
-        <f t="shared" si="24"/>
-        <v>10.55</v>
-      </c>
-      <c r="F68" s="22">
-        <f t="shared" si="28"/>
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="G68" s="22">
-        <f t="shared" si="29"/>
-        <v>23.45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="104">
-        <f t="shared" si="25"/>
-        <v>10.700000000000006</v>
-      </c>
-      <c r="B69" s="104">
-        <f t="shared" si="26"/>
-        <v>4.8999999999999968</v>
-      </c>
-      <c r="C69" s="104">
-        <f t="shared" si="27"/>
-        <v>23.649999999999988</v>
-      </c>
-      <c r="E69" s="22">
-        <f t="shared" si="24"/>
-        <v>10.7</v>
-      </c>
-      <c r="F69" s="22">
-        <f t="shared" si="28"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G69" s="22">
-        <f t="shared" si="29"/>
-        <v>23.65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="104">
-        <f t="shared" si="25"/>
-        <v>10.850000000000007</v>
-      </c>
-      <c r="B70" s="104">
-        <f t="shared" si="26"/>
-        <v>4.9499999999999966</v>
-      </c>
-      <c r="C70" s="104">
-        <f t="shared" si="27"/>
-        <v>23.849999999999987</v>
-      </c>
-      <c r="E70" s="22">
-        <f t="shared" si="24"/>
-        <v>10.85</v>
-      </c>
-      <c r="F70" s="22">
-        <f t="shared" si="28"/>
-        <v>4.95</v>
-      </c>
-      <c r="G70" s="22">
-        <f t="shared" si="29"/>
-        <v>23.85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="18">
-        <v>1</v>
-      </c>
-      <c r="B73">
-        <v>580</v>
-      </c>
-      <c r="C73">
-        <f>B73-B92</f>
-        <v>418</v>
-      </c>
-      <c r="D73">
-        <f>C73/19</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="18">
-        <v>2</v>
-      </c>
-      <c r="B74">
-        <f>B73-22</f>
-        <v>558</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="18">
-        <v>3</v>
-      </c>
-      <c r="B75">
-        <f t="shared" ref="B75:B92" si="30">B74-22</f>
-        <v>536</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="18">
-        <v>4</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="30"/>
-        <v>514</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="18">
-        <v>5</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="30"/>
-        <v>492</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="18">
-        <v>6</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="30"/>
-        <v>470</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="18">
-        <v>7</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="30"/>
-        <v>448</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="18">
-        <v>8</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="30"/>
-        <v>426</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="18">
-        <v>9</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="30"/>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="18">
-        <v>10</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="30"/>
-        <v>382</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="18">
-        <v>11</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="30"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="18">
-        <v>12</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="30"/>
-        <v>338</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="18">
-        <v>13</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="30"/>
-        <v>316</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="18">
-        <v>14</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="30"/>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="18">
-        <v>15</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="30"/>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="18">
-        <v>16</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="30"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="18">
-        <v>17</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="30"/>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="18">
-        <v>18</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="30"/>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="18">
-        <v>19</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="30"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="18">
-        <v>20</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="30"/>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="70">
-        <v>648</v>
-      </c>
-      <c r="C95">
-        <f>B95*$C$94</f>
-        <v>1296</v>
-      </c>
-      <c r="D95">
-        <f>MROUND(C95,1)</f>
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="94">
-        <v>1620</v>
-      </c>
-      <c r="C96">
-        <f t="shared" ref="C96:C113" si="31">B96*$C$94</f>
-        <v>3240</v>
-      </c>
-      <c r="D96">
-        <f t="shared" ref="D96:D113" si="32">MROUND(C96,1)</f>
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="70">
-        <v>2592</v>
-      </c>
-      <c r="C97">
-        <f t="shared" si="31"/>
-        <v>5184</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="32"/>
-        <v>5184</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="94">
-        <v>6480</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="31"/>
-        <v>12960</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="32"/>
-        <v>12960</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="70">
-        <v>9720</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="31"/>
-        <v>19440</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="32"/>
-        <v>19440</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="94">
-        <v>19440</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="31"/>
-        <v>38880</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="32"/>
-        <v>38880</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="70">
-        <v>29160</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="31"/>
-        <v>58320</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="32"/>
-        <v>58320</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="94">
-        <v>72900</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="31"/>
-        <v>145800</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="32"/>
-        <v>145800</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="70">
-        <v>109350</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="31"/>
-        <v>218700</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="32"/>
-        <v>218700</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="94">
-        <v>131220</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="31"/>
-        <v>262440</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="32"/>
-        <v>262440</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="70">
-        <v>157464</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="31"/>
-        <v>314928</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="32"/>
-        <v>314928</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="94">
-        <v>188957</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="31"/>
-        <v>377914</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="32"/>
-        <v>377914</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="70">
-        <v>226749</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="31"/>
-        <v>453498</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="32"/>
-        <v>453498</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="94">
-        <v>272099</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="31"/>
-        <v>544198</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="32"/>
-        <v>544198</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="70">
-        <v>408149</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="31"/>
-        <v>816298</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="32"/>
-        <v>816298</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="94">
-        <v>1020368</v>
-      </c>
-      <c r="C110">
-        <f t="shared" si="31"/>
-        <v>2040736</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="32"/>
-        <v>2040736</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="70">
-        <v>1530551</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="31"/>
-        <v>3061102</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="32"/>
-        <v>3061102</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="94">
-        <v>3061101</v>
-      </c>
-      <c r="C112">
-        <f t="shared" si="31"/>
-        <v>6122202</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="32"/>
-        <v>6122202</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="70">
-        <v>4591650</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="31"/>
-        <v>9183300</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="32"/>
-        <v>9183300</v>
+        <v>stringKey[11] = (posX+2)+","+(posY)+",0";</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B30:B47">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U127"/>
+  <dimension ref="A1:W127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19000,15 +16071,15 @@
       </c>
       <c r="M14" s="22">
         <f>SUM(L15:L24)</f>
-        <v>21739</v>
+        <v>43892</v>
       </c>
       <c r="N14">
         <f>M14/60</f>
-        <v>362.31666666666666</v>
+        <v>731.5333333333333</v>
       </c>
       <c r="O14">
         <f>N14/24</f>
-        <v>15.096527777777778</v>
+        <v>30.480555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -19024,15 +16095,15 @@
         <v>3</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15">
         <f>K15*I15</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N15" s="51"/>
       <c r="T15" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="U15" t="str">
         <f>LOWER(T15)</f>
@@ -19055,14 +16126,14 @@
         <v>5</v>
       </c>
       <c r="K16">
-        <v>827</v>
+        <v>899</v>
       </c>
       <c r="L16">
         <f>K16*I16</f>
-        <v>4135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -19075,14 +16146,14 @@
         <v>10</v>
       </c>
       <c r="K17">
-        <v>1155</v>
+        <v>1609</v>
       </c>
       <c r="L17">
         <f>K17*I17</f>
-        <v>11550</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16090</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="70">
         <v>545351</v>
       </c>
@@ -19098,14 +16169,14 @@
         <v>15</v>
       </c>
       <c r="K18">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="L18">
         <f t="shared" ref="L18:L24" si="3">K18*I18</f>
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="70"/>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -19119,14 +16190,14 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>930</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="79"/>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -19149,14 +16220,14 @@
         <v>60</v>
       </c>
       <c r="K20">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="70">
         <v>1908728</v>
       </c>
@@ -19176,14 +16247,14 @@
         <v>180</v>
       </c>
       <c r="K21">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>118020</v>
       </c>
@@ -19202,12 +16273,33 @@
         <f>H22*60</f>
         <v>480</v>
       </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2880</v>
+      </c>
+      <c r="R22">
+        <f>24*60</f>
+        <v>1440</v>
+      </c>
+      <c r="T22">
+        <v>1000</v>
+      </c>
+      <c r="U22">
+        <f>T22*1.5</f>
+        <v>1500</v>
+      </c>
+      <c r="V22">
+        <v>0.7</v>
+      </c>
+      <c r="W22">
+        <f>V22*U22</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>353940</v>
       </c>
@@ -19226,12 +16318,29 @@
         <f>H23*60</f>
         <v>900</v>
       </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+      <c r="T23">
+        <v>4000</v>
+      </c>
+      <c r="U23">
+        <f>T23*1.5</f>
+        <v>6000</v>
+      </c>
+      <c r="V23">
+        <v>0.7</v>
+      </c>
+      <c r="W23">
+        <f>V23*U23</f>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1061700</v>
       </c>
@@ -19244,15 +16353,17 @@
         <v>12.288194444444445</v>
       </c>
       <c r="I24">
-        <f>30*42</f>
-        <v>1260</v>
+        <v>1440</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3185100</v>
       </c>
@@ -19265,7 +16376,7 @@
         <v>36.864583333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7962720</v>
       </c>
@@ -19284,7 +16395,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12757440</v>
       </c>
@@ -19309,7 +16420,7 @@
         <v>17.711805555555554</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>3</v>
       </c>
@@ -19319,7 +16430,7 @@
       </c>
       <c r="N28" s="51"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>5</v>
       </c>
@@ -19328,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I30">
         <v>10</v>
       </c>
@@ -19340,7 +16451,7 @@
         <v>6140</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I31">
         <v>15</v>
       </c>
@@ -19352,7 +16463,7 @@
         <v>7035</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I32">
         <v>30</v>
       </c>

--- a/Xmind/Upgrade_Research/Infantry.xlsx
+++ b/Xmind/Upgrade_Research/Infantry.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MainBase_Upgrade" sheetId="5" r:id="rId1"/>
     <sheet name="Infantry_BộBinh_fix" sheetId="8" r:id="rId2"/>
     <sheet name="Guild" sheetId="12" r:id="rId3"/>
     <sheet name="nháp" sheetId="11" r:id="rId4"/>
-    <sheet name="Convert Time" sheetId="4" r:id="rId5"/>
-    <sheet name="Upgrade_ID" sheetId="6" r:id="rId6"/>
-    <sheet name="RSS_Research" sheetId="3" r:id="rId7"/>
+    <sheet name="MoveTime" sheetId="13" r:id="rId5"/>
+    <sheet name="thongkeUnit" sheetId="14" r:id="rId6"/>
+    <sheet name="Convert Time" sheetId="4" r:id="rId7"/>
+    <sheet name="Upgrade_ID" sheetId="6" r:id="rId8"/>
+    <sheet name="RSS_Research" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="354">
   <si>
     <t>Level</t>
   </si>
@@ -1071,6 +1073,27 @@
   </si>
   <si>
     <t>] = (posX+2)+","+(posY+1)+",0";</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>chéo</t>
+  </si>
+  <si>
+    <t>ngang</t>
+  </si>
+  <si>
+    <t>x thay doi</t>
+  </si>
+  <si>
+    <t>Quality</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1147,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1176,6 +1199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1295,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1526,6 +1555,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1538,7 +1568,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3168,25 +3198,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
       <c r="J1" s="127"/>
       <c r="K1" s="127"/>
-      <c r="M1" s="132" t="s">
+      <c r="M1" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
     </row>
     <row r="2" spans="1:23" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -14813,7 +14843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -14925,7 +14955,7 @@
       <c r="H9" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="I9" s="133" t="s">
+      <c r="I9" s="129" t="s">
         <v>321</v>
       </c>
       <c r="K9" t="str">
@@ -14968,7 +14998,7 @@
       <c r="H10" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="I10" s="133" t="s">
+      <c r="I10" s="129" t="s">
         <v>339</v>
       </c>
       <c r="K10" t="str">
@@ -15008,7 +15038,7 @@
       <c r="F11" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="129" t="s">
         <v>340</v>
       </c>
       <c r="I11" s="68" t="s">
@@ -15051,10 +15081,10 @@
       <c r="F12" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="H12" s="133" t="s">
+      <c r="H12" s="129" t="s">
         <v>340</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="129" t="s">
         <v>340</v>
       </c>
       <c r="K12" t="str">
@@ -15094,7 +15124,7 @@
       <c r="F13" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="H13" s="133" t="s">
+      <c r="H13" s="129" t="s">
         <v>339</v>
       </c>
       <c r="I13" s="68" t="s">
@@ -15137,10 +15167,10 @@
       <c r="F14" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="H14" s="133" t="s">
+      <c r="H14" s="129" t="s">
         <v>339</v>
       </c>
-      <c r="I14" s="133" t="s">
+      <c r="I14" s="129" t="s">
         <v>342</v>
       </c>
       <c r="K14" t="str">
@@ -15180,8 +15210,8 @@
       <c r="F15" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133" t="s">
+      <c r="H15" s="129"/>
+      <c r="I15" s="129" t="s">
         <v>341</v>
       </c>
       <c r="K15" t="str">
@@ -15221,8 +15251,8 @@
       <c r="F16" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133" t="s">
+      <c r="H16" s="129"/>
+      <c r="I16" s="129" t="s">
         <v>342</v>
       </c>
       <c r="K16" t="str">
@@ -15262,7 +15292,7 @@
       <c r="F17" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="H17" s="133" t="s">
+      <c r="H17" s="129" t="s">
         <v>321</v>
       </c>
       <c r="I17" s="68" t="s">
@@ -15305,10 +15335,10 @@
       <c r="F18" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="H18" s="133" t="s">
+      <c r="H18" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="I18" s="133" t="s">
+      <c r="I18" s="129" t="s">
         <v>342</v>
       </c>
       <c r="K18" t="str">
@@ -15348,7 +15378,7 @@
       <c r="F19" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="H19" s="133" t="s">
+      <c r="H19" s="129" t="s">
         <v>324</v>
       </c>
       <c r="I19" s="68" t="s">
@@ -15731,6 +15761,239 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3">
+        <v>1262</v>
+      </c>
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3">
+        <f>B3*B2</f>
+        <v>2524</v>
+      </c>
+      <c r="F3">
+        <f>E3/$F$2</f>
+        <v>12620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4">
+        <v>1400</v>
+      </c>
+      <c r="C4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E4">
+        <f>B2*B4</f>
+        <v>2800</v>
+      </c>
+      <c r="F4">
+        <f>E4/$F$2</f>
+        <v>14000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2380</v>
+      </c>
+      <c r="I2">
+        <v>259763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="134">
+        <v>2</v>
+      </c>
+      <c r="B3" s="134">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>E3*D2</f>
+        <v>320</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>240</v>
+      </c>
+      <c r="G3">
+        <v>189</v>
+      </c>
+      <c r="I3">
+        <f>I2/D3</f>
+        <v>811.75937499999998</v>
+      </c>
+      <c r="J3">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <f>I3/J3</f>
+        <v>13.529322916666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="134">
+        <v>3</v>
+      </c>
+      <c r="B4" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="134">
+        <v>4</v>
+      </c>
+      <c r="B5" s="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W127"/>
   <sheetViews>
@@ -18502,7 +18765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
@@ -19048,7 +19311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X99"/>
   <sheetViews>
